--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -2650,11 +2650,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2790,7 +2790,7 @@
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A5" activeCellId="0" pane="bottomLeft" sqref="5:5"/>
+      <selection activeCell="A6" activeCellId="0" pane="bottomLeft" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3142,79 +3142,64 @@
         <v>41071.564030787</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6" s="19">
-      <c r="A6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="19" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6" s="17">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="n">
         <v>14983</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="17" t="n">
         <v>20120027</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="20" t="n">
+      <c r="M6" s="16" t="n">
         <v>41072.2846229977</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" s="20" t="n">
+      <c r="O6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" s="16" t="n">
         <v>41079.5668861921</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="18" t="s">
@@ -3253,7 +3238,7 @@
       <c r="L7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="20" t="n">
+      <c r="M7" s="19" t="n">
         <v>41072.5602743866</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -3271,7 +3256,7 @@
       <c r="R7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S7" s="20" t="n">
+      <c r="S7" s="19" t="n">
         <v>41304.5132543981</v>
       </c>
     </row>
@@ -3309,7 +3294,7 @@
       <c r="L8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="20" t="n">
+      <c r="M8" s="19" t="n">
         <v>41073.5349794792</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -3327,7 +3312,7 @@
       <c r="R8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S8" s="20" t="n">
+      <c r="S8" s="19" t="n">
         <v>41074.5641554398</v>
       </c>
     </row>
@@ -3368,7 +3353,7 @@
       <c r="L9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="20" t="n">
+      <c r="M9" s="19" t="n">
         <v>41073.9590199074</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -3386,66 +3371,66 @@
       <c r="R9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S9" s="20" t="n">
+      <c r="S9" s="19" t="n">
         <v>41075.4937074074</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10" s="20">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="20" t="n">
         <v>15024</v>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="20" t="n">
         <v>20120054</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="19" t="n">
+      <c r="K10" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="20" t="n">
+      <c r="M10" s="19" t="n">
         <v>41088.406037419</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="20" t="n">
+      <c r="O10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="19" t="n">
         <v>41088.4140931366</v>
       </c>
       <c r="U10" s="21"/>
@@ -3501,7 +3486,7 @@
       <c r="L11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M11" s="20" t="n">
+      <c r="M11" s="19" t="n">
         <v>41089.5931419329</v>
       </c>
       <c r="N11" s="22" t="s">
@@ -3519,7 +3504,7 @@
       <c r="R11" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S11" s="20" t="n">
+      <c r="S11" s="19" t="n">
         <v>41099.6019939815</v>
       </c>
       <c r="U11" s="21"/>
@@ -3538,59 +3523,59 @@
       <c r="AH11" s="21"/>
       <c r="AI11" s="21"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12" s="20">
       <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19" t="n">
+      <c r="B12" s="20" t="n">
         <v>15070</v>
       </c>
-      <c r="C12" s="19" t="n">
+      <c r="C12" s="20" t="n">
         <v>20120097</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="I12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="20" t="n">
+      <c r="M12" s="19" t="n">
         <v>41096.5668918171</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="20" t="n">
+      <c r="O12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" s="19" t="n">
         <v>41096.5819193634</v>
       </c>
       <c r="U12" s="21"/>
@@ -3646,7 +3631,7 @@
       <c r="L13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="20" t="n">
+      <c r="M13" s="19" t="n">
         <v>41099.6110231829</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -3664,7 +3649,7 @@
       <c r="R13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S13" s="20" t="n">
+      <c r="S13" s="19" t="n">
         <v>41170.4841383102</v>
       </c>
     </row>
@@ -3705,7 +3690,7 @@
       <c r="L14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="20" t="n">
+      <c r="M14" s="19" t="n">
         <v>41099.648674537</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -3723,7 +3708,7 @@
       <c r="R14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S14" s="20" t="n">
+      <c r="S14" s="19" t="n">
         <v>41170.4644665856</v>
       </c>
     </row>
@@ -3764,7 +3749,7 @@
       <c r="L15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="20" t="n">
+      <c r="M15" s="19" t="n">
         <v>41100.5766488426</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -3782,7 +3767,7 @@
       <c r="R15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S15" s="20" t="n">
+      <c r="S15" s="19" t="n">
         <v>41121.5516165509</v>
       </c>
     </row>
@@ -3823,7 +3808,7 @@
       <c r="L16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="20" t="n">
+      <c r="M16" s="19" t="n">
         <v>41101.6231024306</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3841,7 +3826,7 @@
       <c r="R16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S16" s="20" t="n">
+      <c r="S16" s="19" t="n">
         <v>41101.6724161227</v>
       </c>
     </row>
@@ -3882,7 +3867,7 @@
       <c r="L17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M17" s="20" t="n">
+      <c r="M17" s="19" t="n">
         <v>41106.4917931366</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3900,7 +3885,7 @@
       <c r="R17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S17" s="20" t="n">
+      <c r="S17" s="19" t="n">
         <v>41106.6839658218</v>
       </c>
     </row>
@@ -3938,7 +3923,7 @@
       <c r="L18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M18" s="20" t="n">
+      <c r="M18" s="19" t="n">
         <v>41106.5599732986</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -3956,7 +3941,7 @@
       <c r="R18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S18" s="20" t="n">
+      <c r="S18" s="19" t="n">
         <v>41106.5819927083</v>
       </c>
     </row>
@@ -3997,7 +3982,7 @@
       <c r="L19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="20" t="n">
+      <c r="M19" s="19" t="n">
         <v>41107.3547877315</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -4015,7 +4000,7 @@
       <c r="R19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="20" t="n">
+      <c r="S19" s="19" t="n">
         <v>41107.6458471065</v>
       </c>
     </row>
@@ -4056,7 +4041,7 @@
       <c r="L20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M20" s="20" t="n">
+      <c r="M20" s="19" t="n">
         <v>41107.6286944097</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -4074,7 +4059,7 @@
       <c r="R20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S20" s="20" t="n">
+      <c r="S20" s="19" t="n">
         <v>41107.6932998843</v>
       </c>
     </row>
@@ -4112,7 +4097,7 @@
       <c r="L21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="20" t="n">
+      <c r="M21" s="19" t="n">
         <v>41107.7066167824</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -4130,7 +4115,7 @@
       <c r="R21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S21" s="20" t="n">
+      <c r="S21" s="19" t="n">
         <v>41254.6417638542</v>
       </c>
     </row>
@@ -4171,7 +4156,7 @@
       <c r="L22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="20" t="n">
+      <c r="M22" s="19" t="n">
         <v>41108.5728826736</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4189,7 +4174,7 @@
       <c r="R22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S22" s="20" t="n">
+      <c r="S22" s="19" t="n">
         <v>41109.4006856134</v>
       </c>
     </row>
@@ -4230,7 +4215,7 @@
       <c r="L23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="20" t="n">
+      <c r="M23" s="19" t="n">
         <v>41109.4622641204</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4248,66 +4233,66 @@
       <c r="R23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S23" s="20" t="n">
+      <c r="S23" s="19" t="n">
         <v>41109.4942756597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24" s="20">
       <c r="A24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19" t="n">
+      <c r="B24" s="20" t="n">
         <v>15085</v>
       </c>
-      <c r="C24" s="19" t="n">
+      <c r="C24" s="20" t="n">
         <v>20120112</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="F24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="19" t="n">
+      <c r="K24" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="M24" s="20" t="n">
+      <c r="M24" s="19" t="n">
         <v>41109.5210351042</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="O24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" s="20" t="n">
+      <c r="O24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" s="19" t="n">
         <v>41109.5298134607</v>
       </c>
       <c r="U24" s="21"/>
@@ -4360,7 +4345,7 @@
       <c r="L25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="20" t="n">
+      <c r="M25" s="19" t="n">
         <v>41114.3637359607</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4378,7 +4363,7 @@
       <c r="R25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S25" s="20" t="n">
+      <c r="S25" s="19" t="n">
         <v>41114.3744462153</v>
       </c>
     </row>
@@ -4419,7 +4404,7 @@
       <c r="L26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M26" s="20" t="n">
+      <c r="M26" s="19" t="n">
         <v>41116.6158131597</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4437,11 +4422,11 @@
       <c r="R26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S26" s="20" t="n">
+      <c r="S26" s="19" t="n">
         <v>41122.5103413194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27" s="20">
       <c r="A27" s="18" t="s">
         <v>20</v>
       </c>
@@ -4476,7 +4461,7 @@
       <c r="L27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M27" s="20" t="n">
+      <c r="M27" s="19" t="n">
         <v>41120.4331309375</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4494,7 +4479,7 @@
       <c r="R27" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S27" s="20" t="n">
+      <c r="S27" s="19" t="n">
         <v>41120.4508475695</v>
       </c>
       <c r="T27" s="2"/>
@@ -4551,7 +4536,7 @@
       <c r="L28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M28" s="20" t="n">
+      <c r="M28" s="19" t="n">
         <v>41121.4457947107</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -4569,7 +4554,7 @@
       <c r="R28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S28" s="20" t="n">
+      <c r="S28" s="19" t="n">
         <v>41121.6035416667</v>
       </c>
     </row>
@@ -4610,7 +4595,7 @@
       <c r="L29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M29" s="20" t="n">
+      <c r="M29" s="19" t="n">
         <v>41121.6098218403</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4628,11 +4613,11 @@
       <c r="R29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S29" s="20" t="n">
+      <c r="S29" s="19" t="n">
         <v>41121.6159375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30" s="20">
       <c r="A30" s="18" t="s">
         <v>20</v>
       </c>
@@ -4667,7 +4652,7 @@
       <c r="L30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M30" s="20" t="n">
+      <c r="M30" s="19" t="n">
         <v>41123.6190674421</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4685,7 +4670,7 @@
       <c r="R30" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S30" s="20" t="n">
+      <c r="S30" s="19" t="n">
         <v>41123.6307237269</v>
       </c>
       <c r="T30" s="2"/>
@@ -4742,7 +4727,7 @@
       <c r="L31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M31" s="20" t="n">
+      <c r="M31" s="19" t="n">
         <v>41124.4481868056</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -4760,7 +4745,7 @@
       <c r="R31" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S31" s="20" t="n">
+      <c r="S31" s="19" t="n">
         <v>41124.4612270023</v>
       </c>
     </row>
@@ -4798,7 +4783,7 @@
       <c r="L32" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M32" s="20" t="n">
+      <c r="M32" s="19" t="n">
         <v>41136.3613769676</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -4816,7 +4801,7 @@
       <c r="R32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S32" s="20" t="n">
+      <c r="S32" s="19" t="n">
         <v>41138.4554401273</v>
       </c>
     </row>
@@ -4854,7 +4839,7 @@
       <c r="L33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M33" s="20" t="n">
+      <c r="M33" s="19" t="n">
         <v>41136.4763602199</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4872,7 +4857,7 @@
       <c r="R33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S33" s="20" t="n">
+      <c r="S33" s="19" t="n">
         <v>41138.4610686343</v>
       </c>
     </row>
@@ -4910,7 +4895,7 @@
       <c r="L34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M34" s="20" t="n">
+      <c r="M34" s="19" t="n">
         <v>41137.4621015394</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4928,7 +4913,7 @@
       <c r="R34" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S34" s="20" t="n">
+      <c r="S34" s="19" t="n">
         <v>41138.4635913542</v>
       </c>
     </row>
@@ -4966,7 +4951,7 @@
       <c r="L35" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M35" s="20" t="n">
+      <c r="M35" s="19" t="n">
         <v>41138.3815253472</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -4984,7 +4969,7 @@
       <c r="R35" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S35" s="20" t="n">
+      <c r="S35" s="19" t="n">
         <v>41138.4762314005</v>
       </c>
     </row>
@@ -5022,7 +5007,7 @@
       <c r="L36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M36" s="20" t="n">
+      <c r="M36" s="19" t="n">
         <v>41138.3921516204</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5040,11 +5025,11 @@
       <c r="R36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S36" s="20" t="n">
+      <c r="S36" s="19" t="n">
         <v>41138.4769562153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37" s="20">
       <c r="A37" s="18" t="s">
         <v>20</v>
       </c>
@@ -5079,7 +5064,7 @@
       <c r="L37" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M37" s="20" t="n">
+      <c r="M37" s="19" t="n">
         <v>41138.4023823264</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -5097,7 +5082,7 @@
       <c r="R37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S37" s="20" t="n">
+      <c r="S37" s="19" t="n">
         <v>41138.4779686343</v>
       </c>
       <c r="T37" s="2"/>
@@ -5117,7 +5102,7 @@
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38" s="20">
       <c r="A38" s="18" t="s">
         <v>20</v>
       </c>
@@ -5152,7 +5137,7 @@
       <c r="L38" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M38" s="20" t="n">
+      <c r="M38" s="19" t="n">
         <v>41138.4781451736</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -5170,7 +5155,7 @@
       <c r="R38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S38" s="20" t="n">
+      <c r="S38" s="19" t="n">
         <v>41138.4808949421</v>
       </c>
       <c r="T38" s="2"/>
@@ -5227,7 +5212,7 @@
       <c r="L39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M39" s="20" t="n">
+      <c r="M39" s="19" t="n">
         <v>41138.5868519676</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5245,7 +5230,7 @@
       <c r="R39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S39" s="20" t="n">
+      <c r="S39" s="19" t="n">
         <v>41142.6655486111</v>
       </c>
     </row>
@@ -5283,7 +5268,7 @@
       <c r="L40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M40" s="20" t="n">
+      <c r="M40" s="19" t="n">
         <v>41142.4832069792</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -5301,7 +5286,7 @@
       <c r="R40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S40" s="20" t="n">
+      <c r="S40" s="19" t="n">
         <v>41143.3783254977</v>
       </c>
     </row>
@@ -5342,7 +5327,7 @@
       <c r="L41" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M41" s="20" t="n">
+      <c r="M41" s="19" t="n">
         <v>41149.5504400116</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5360,7 +5345,7 @@
       <c r="R41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S41" s="20" t="n">
+      <c r="S41" s="19" t="n">
         <v>41149.6198586806</v>
       </c>
     </row>
@@ -5401,7 +5386,7 @@
       <c r="L42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M42" s="20" t="n">
+      <c r="M42" s="19" t="n">
         <v>41149.7238157755</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -5419,7 +5404,7 @@
       <c r="R42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S42" s="20" t="n">
+      <c r="S42" s="19" t="n">
         <v>41150.494416088</v>
       </c>
     </row>
@@ -5457,7 +5442,7 @@
       <c r="L43" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M43" s="20" t="n">
+      <c r="M43" s="19" t="n">
         <v>41150.4228819792</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5475,11 +5460,11 @@
       <c r="R43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S43" s="20" t="n">
+      <c r="S43" s="19" t="n">
         <v>41214.6117733796</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44" s="20">
       <c r="A44" s="18" t="s">
         <v>20</v>
       </c>
@@ -5514,7 +5499,7 @@
       <c r="L44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M44" s="20" t="n">
+      <c r="M44" s="19" t="n">
         <v>41150.6310667477</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -5532,7 +5517,7 @@
       <c r="R44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S44" s="20" t="n">
+      <c r="S44" s="19" t="n">
         <v>41150.6788440162</v>
       </c>
       <c r="T44" s="2"/>
@@ -5586,7 +5571,7 @@
       <c r="L45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M45" s="20" t="n">
+      <c r="M45" s="19" t="n">
         <v>41165.6515762384</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5604,7 +5589,7 @@
       <c r="R45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S45" s="20" t="n">
+      <c r="S45" s="19" t="n">
         <v>41165.6845707986</v>
       </c>
     </row>
@@ -5645,7 +5630,7 @@
       <c r="L46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M46" s="20" t="n">
+      <c r="M46" s="19" t="n">
         <v>41169.4047743403</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5663,7 +5648,7 @@
       <c r="R46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S46" s="20" t="n">
+      <c r="S46" s="19" t="n">
         <v>41169.4440929745</v>
       </c>
     </row>
@@ -5704,7 +5689,7 @@
       <c r="L47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M47" s="20" t="n">
+      <c r="M47" s="19" t="n">
         <v>41178.7300547107</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5722,7 +5707,7 @@
       <c r="R47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S47" s="20" t="n">
+      <c r="S47" s="19" t="n">
         <v>41207.614002662</v>
       </c>
     </row>
@@ -5763,7 +5748,7 @@
       <c r="L48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M48" s="20" t="n">
+      <c r="M48" s="19" t="n">
         <v>41191.5697803241</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -5781,7 +5766,7 @@
       <c r="R48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S48" s="20" t="n">
+      <c r="S48" s="19" t="n">
         <v>41253.4528903588</v>
       </c>
     </row>
@@ -5822,7 +5807,7 @@
       <c r="L49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M49" s="20" t="n">
+      <c r="M49" s="19" t="n">
         <v>41196.941634294</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5840,7 +5825,7 @@
       <c r="R49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S49" s="20" t="n">
+      <c r="S49" s="19" t="n">
         <v>41198.0559452894</v>
       </c>
     </row>
@@ -5881,7 +5866,7 @@
       <c r="L50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M50" s="20" t="n">
+      <c r="M50" s="19" t="n">
         <v>41196.9703730324</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5899,7 +5884,7 @@
       <c r="R50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S50" s="20" t="n">
+      <c r="S50" s="19" t="n">
         <v>41198.0557996875</v>
       </c>
     </row>
@@ -5940,7 +5925,7 @@
       <c r="L51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M51" s="20" t="n">
+      <c r="M51" s="19" t="n">
         <v>41198.4895848727</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5958,7 +5943,7 @@
       <c r="R51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S51" s="20" t="n">
+      <c r="S51" s="19" t="n">
         <v>41424.5695158565</v>
       </c>
     </row>
@@ -5996,7 +5981,7 @@
       <c r="L52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M52" s="20" t="n">
+      <c r="M52" s="19" t="n">
         <v>41199.6275835648</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -6014,11 +5999,11 @@
       <c r="R52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S52" s="20" t="n">
+      <c r="S52" s="19" t="n">
         <v>41200.6401648495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53" s="20">
       <c r="A53" s="18" t="s">
         <v>20</v>
       </c>
@@ -6053,7 +6038,7 @@
       <c r="L53" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="M53" s="20" t="n">
+      <c r="M53" s="19" t="n">
         <v>41200.6409002315</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6071,7 +6056,7 @@
       <c r="R53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S53" s="20" t="n">
+      <c r="S53" s="19" t="n">
         <v>41222.4348692477</v>
       </c>
       <c r="T53" s="2"/>
@@ -6091,7 +6076,7 @@
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54" s="20">
       <c r="A54" s="18" t="s">
         <v>20</v>
       </c>
@@ -6126,7 +6111,7 @@
       <c r="L54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M54" s="20" t="n">
+      <c r="M54" s="19" t="n">
         <v>41200.6409908565</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6144,7 +6129,7 @@
       <c r="R54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S54" s="20" t="n">
+      <c r="S54" s="19" t="n">
         <v>41222.4354873843</v>
       </c>
       <c r="T54" s="2"/>
@@ -6198,7 +6183,7 @@
       <c r="L55" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="M55" s="20" t="n">
+      <c r="M55" s="19" t="n">
         <v>41204.46623125</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -6216,7 +6201,7 @@
       <c r="R55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S55" s="20" t="n">
+      <c r="S55" s="19" t="n">
         <v>41281.5369976505</v>
       </c>
     </row>
@@ -6254,7 +6239,7 @@
       <c r="L56" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M56" s="20" t="n">
+      <c r="M56" s="19" t="n">
         <v>41204.587358912</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6272,11 +6257,11 @@
       <c r="R56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S56" s="20" t="n">
+      <c r="S56" s="19" t="n">
         <v>41211.65310625</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="20">
       <c r="A57" s="18" t="s">
         <v>20</v>
       </c>
@@ -6313,7 +6298,7 @@
       <c r="L57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M57" s="20" t="n">
+      <c r="M57" s="19" t="n">
         <v>41205.4651765046</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -6331,7 +6316,7 @@
       <c r="R57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S57" s="20" t="n">
+      <c r="S57" s="19" t="n">
         <v>41208.6185199421</v>
       </c>
       <c r="T57" s="2"/>
@@ -6385,7 +6370,7 @@
       <c r="L58" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M58" s="20" t="n">
+      <c r="M58" s="19" t="n">
         <v>41205.5341565972</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6403,7 +6388,7 @@
       <c r="R58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S58" s="20" t="n">
+      <c r="S58" s="19" t="n">
         <v>41207.6450975347</v>
       </c>
     </row>
@@ -6444,7 +6429,7 @@
       <c r="L59" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M59" s="20" t="n">
+      <c r="M59" s="19" t="n">
         <v>41207.4083723727</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -6462,7 +6447,7 @@
       <c r="R59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S59" s="20" t="n">
+      <c r="S59" s="19" t="n">
         <v>41207.427530787</v>
       </c>
     </row>
@@ -6500,7 +6485,7 @@
       <c r="L60" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="M60" s="20" t="n">
+      <c r="M60" s="19" t="n">
         <v>41210.5831710648</v>
       </c>
       <c r="N60" s="22" t="s">
@@ -6518,7 +6503,7 @@
       <c r="R60" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S60" s="20" t="n">
+      <c r="S60" s="19" t="n">
         <v>41212.431104132</v>
       </c>
       <c r="U60" s="21"/>
@@ -6571,7 +6556,7 @@
       <c r="L61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M61" s="20" t="n">
+      <c r="M61" s="19" t="n">
         <v>41233.4709574074</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6589,7 +6574,7 @@
       <c r="R61" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S61" s="20" t="n">
+      <c r="S61" s="19" t="n">
         <v>41233.4953285069</v>
       </c>
     </row>
@@ -6630,7 +6615,7 @@
       <c r="L62" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="20" t="n">
+      <c r="M62" s="19" t="n">
         <v>41240.3506242708</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6648,7 +6633,7 @@
       <c r="R62" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S62" s="20" t="n">
+      <c r="S62" s="19" t="n">
         <v>41284.527165625</v>
       </c>
     </row>
@@ -6686,7 +6671,7 @@
       <c r="L63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="20" t="n">
+      <c r="M63" s="19" t="n">
         <v>41243.5707371181</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -6704,7 +6689,7 @@
       <c r="R63" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S63" s="20" t="n">
+      <c r="S63" s="19" t="n">
         <v>41243.5804918982</v>
       </c>
     </row>
@@ -6745,7 +6730,7 @@
       <c r="L64" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="M64" s="20" t="n">
+      <c r="M64" s="19" t="n">
         <v>41247.9034753472</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6763,7 +6748,7 @@
       <c r="R64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S64" s="20" t="n">
+      <c r="S64" s="19" t="n">
         <v>41331.6749808681</v>
       </c>
     </row>
@@ -6804,7 +6789,7 @@
       <c r="L65" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="M65" s="20" t="n">
+      <c r="M65" s="19" t="n">
         <v>41278.4907118056</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6822,7 +6807,7 @@
       <c r="R65" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S65" s="20" t="n">
+      <c r="S65" s="19" t="n">
         <v>41278.5676700579</v>
       </c>
     </row>
@@ -6863,7 +6848,7 @@
       <c r="L66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M66" s="20" t="n">
+      <c r="M66" s="19" t="n">
         <v>41278.6358895486</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6881,11 +6866,11 @@
       <c r="R66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S66" s="20" t="n">
+      <c r="S66" s="19" t="n">
         <v>41281.4489203704</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67" s="20">
       <c r="A67" s="18" t="s">
         <v>20</v>
       </c>
@@ -6922,7 +6907,7 @@
       <c r="L67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M67" s="20" t="n">
+      <c r="M67" s="19" t="n">
         <v>41281.5898056366</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6940,7 +6925,7 @@
       <c r="R67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S67" s="20" t="n">
+      <c r="S67" s="19" t="n">
         <v>41288.605065544</v>
       </c>
       <c r="T67" s="2"/>
@@ -6994,7 +6979,7 @@
       <c r="L68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M68" s="20" t="n">
+      <c r="M68" s="19" t="n">
         <v>41288.4558511574</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7012,7 +6997,7 @@
       <c r="R68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S68" s="20" t="n">
+      <c r="S68" s="19" t="n">
         <v>41288.568308912</v>
       </c>
     </row>
@@ -7053,7 +7038,7 @@
       <c r="L69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="20" t="n">
+      <c r="M69" s="19" t="n">
         <v>41291.6404073264</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -7071,7 +7056,7 @@
       <c r="R69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S69" s="20" t="n">
+      <c r="S69" s="19" t="n">
         <v>41292.7439197107</v>
       </c>
     </row>
@@ -7109,7 +7094,7 @@
       <c r="L70" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="M70" s="20" t="n">
+      <c r="M70" s="19" t="n">
         <v>41294.5077270486</v>
       </c>
       <c r="N70" s="22" t="s">
@@ -7127,7 +7112,7 @@
       <c r="R70" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S70" s="20" t="n">
+      <c r="S70" s="19" t="n">
         <v>41309.4628889236</v>
       </c>
       <c r="U70" s="21"/>
@@ -7146,7 +7131,7 @@
       <c r="AH70" s="21"/>
       <c r="AI70" s="21"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="20">
       <c r="A71" s="18" t="s">
         <v>20</v>
       </c>
@@ -7183,7 +7168,7 @@
       <c r="L71" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="M71" s="20" t="n">
+      <c r="M71" s="19" t="n">
         <v>41302.5911455208</v>
       </c>
       <c r="N71" s="22" t="s">
@@ -7201,7 +7186,7 @@
       <c r="R71" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S71" s="20" t="n">
+      <c r="S71" s="19" t="n">
         <v>41304.627268287</v>
       </c>
       <c r="T71" s="22"/>
@@ -7255,7 +7240,7 @@
       <c r="L72" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="M72" s="20" t="n">
+      <c r="M72" s="19" t="n">
         <v>41303.6479885069</v>
       </c>
       <c r="N72" s="22" t="s">
@@ -7273,7 +7258,7 @@
       <c r="R72" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S72" s="20" t="n">
+      <c r="S72" s="19" t="n">
         <v>41303.6661596065</v>
       </c>
       <c r="U72" s="21"/>
@@ -7329,7 +7314,7 @@
       <c r="L73" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M73" s="20" t="n">
+      <c r="M73" s="19" t="n">
         <v>41306.532899537</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -7347,7 +7332,7 @@
       <c r="R73" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S73" s="20" t="n">
+      <c r="S73" s="19" t="n">
         <v>41306.5414503819</v>
       </c>
     </row>
@@ -7388,7 +7373,7 @@
       <c r="L74" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="20" t="n">
+      <c r="M74" s="19" t="n">
         <v>41306.5329934028</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7406,7 +7391,7 @@
       <c r="R74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S74" s="20" t="n">
+      <c r="S74" s="19" t="n">
         <v>41327.4879565972</v>
       </c>
     </row>
@@ -7447,7 +7432,7 @@
       <c r="L75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M75" s="20" t="n">
+      <c r="M75" s="19" t="n">
         <v>41311.4689634259</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -7465,7 +7450,7 @@
       <c r="R75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S75" s="20" t="n">
+      <c r="S75" s="19" t="n">
         <v>41325.4710791667</v>
       </c>
     </row>
@@ -7503,7 +7488,7 @@
       <c r="L76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M76" s="20" t="n">
+      <c r="M76" s="19" t="n">
         <v>41316.7117378472</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -7521,7 +7506,7 @@
       <c r="R76" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S76" s="20" t="n">
+      <c r="S76" s="19" t="n">
         <v>41317.7332084144</v>
       </c>
     </row>
@@ -7562,7 +7547,7 @@
       <c r="L77" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="M77" s="20" t="n">
+      <c r="M77" s="19" t="n">
         <v>41320.4583300579</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -7580,7 +7565,7 @@
       <c r="R77" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S77" s="20" t="n">
+      <c r="S77" s="19" t="n">
         <v>41341.3959231829</v>
       </c>
     </row>
@@ -7621,7 +7606,7 @@
       <c r="L78" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="M78" s="20" t="n">
+      <c r="M78" s="19" t="n">
         <v>41327.4573636921</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7639,7 +7624,7 @@
       <c r="R78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S78" s="20" t="n">
+      <c r="S78" s="19" t="n">
         <v>41330.5550878472</v>
       </c>
     </row>
@@ -7680,7 +7665,7 @@
       <c r="L79" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M79" s="20" t="n">
+      <c r="M79" s="19" t="n">
         <v>41330.4895333333</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -7698,7 +7683,7 @@
       <c r="R79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S79" s="20" t="n">
+      <c r="S79" s="19" t="n">
         <v>41354.3981266204</v>
       </c>
     </row>
@@ -7739,7 +7724,7 @@
       <c r="L80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M80" s="20" t="n">
+      <c r="M80" s="19" t="n">
         <v>41333.6565875</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7757,7 +7742,7 @@
       <c r="R80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S80" s="20" t="n">
+      <c r="S80" s="19" t="n">
         <v>41333.6820353356</v>
       </c>
     </row>
@@ -7798,7 +7783,7 @@
       <c r="L81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="M81" s="20" t="n">
+      <c r="M81" s="19" t="n">
         <v>41337.5453774306</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -7816,7 +7801,7 @@
       <c r="R81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S81" s="20" t="n">
+      <c r="S81" s="19" t="n">
         <v>41446.4359273958</v>
       </c>
     </row>
@@ -7857,7 +7842,7 @@
       <c r="L82" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="M82" s="20" t="n">
+      <c r="M82" s="19" t="n">
         <v>41340.4754460995</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7875,7 +7860,7 @@
       <c r="R82" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S82" s="20" t="n">
+      <c r="S82" s="19" t="n">
         <v>41341.4559791667</v>
       </c>
     </row>
@@ -7916,7 +7901,7 @@
       <c r="L83" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M83" s="20" t="n">
+      <c r="M83" s="19" t="n">
         <v>41340.5483920949</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -7934,7 +7919,7 @@
       <c r="R83" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S83" s="20" t="n">
+      <c r="S83" s="19" t="n">
         <v>41340.7857539005</v>
       </c>
     </row>
@@ -7975,7 +7960,7 @@
       <c r="L84" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M84" s="20" t="n">
+      <c r="M84" s="19" t="n">
         <v>41340.5534409722</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -7993,7 +7978,7 @@
       <c r="R84" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S84" s="20" t="n">
+      <c r="S84" s="19" t="n">
         <v>41340.5797805208</v>
       </c>
     </row>
@@ -8034,7 +8019,7 @@
       <c r="L85" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="M85" s="20" t="n">
+      <c r="M85" s="19" t="n">
         <v>41341.5987565972</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -8052,7 +8037,7 @@
       <c r="R85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S85" s="20" t="n">
+      <c r="S85" s="19" t="n">
         <v>41347.5174840278</v>
       </c>
     </row>
@@ -8093,7 +8078,7 @@
       <c r="L86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M86" s="20" t="n">
+      <c r="M86" s="19" t="n">
         <v>41345.6156529745</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8111,7 +8096,7 @@
       <c r="R86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S86" s="20" t="n">
+      <c r="S86" s="19" t="n">
         <v>41351.5827573264</v>
       </c>
     </row>
@@ -8152,7 +8137,7 @@
       <c r="L87" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M87" s="20" t="n">
+      <c r="M87" s="19" t="n">
         <v>41348.5506607292</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -8170,7 +8155,7 @@
       <c r="R87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S87" s="20" t="n">
+      <c r="S87" s="19" t="n">
         <v>41348.7088268519</v>
       </c>
     </row>
@@ -8211,7 +8196,7 @@
       <c r="L88" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M88" s="20" t="n">
+      <c r="M88" s="19" t="n">
         <v>41352.375515544</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8229,7 +8214,7 @@
       <c r="R88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S88" s="20" t="n">
+      <c r="S88" s="19" t="n">
         <v>41352.7037724884</v>
       </c>
     </row>
@@ -8452,62 +8437,62 @@
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="20">
       <c r="A92" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="19" t="n">
+      <c r="B92" s="20" t="n">
         <v>15592</v>
       </c>
-      <c r="C92" s="19" t="n">
+      <c r="C92" s="20" t="n">
         <v>20120712</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="F92" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" s="19" t="s">
+      <c r="F92" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="I92" s="19" t="s">
+      <c r="I92" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="J92" s="19" t="s">
+      <c r="J92" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="19" t="s">
+      <c r="K92" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="L92" s="19" t="s">
+      <c r="L92" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="M92" s="20" t="n">
+      <c r="M92" s="19" t="n">
         <v>41361.683209294</v>
       </c>
-      <c r="N92" s="19" t="s">
+      <c r="N92" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="O92" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P92" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q92" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R92" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S92" s="20" t="n">
+      <c r="O92" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P92" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q92" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R92" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" s="19" t="n">
         <v>41386.7166903935</v>
       </c>
       <c r="U92" s="21"/>
@@ -8563,7 +8548,7 @@
       <c r="L93" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="M93" s="20" t="n">
+      <c r="M93" s="19" t="n">
         <v>41366.4341045486</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8581,7 +8566,7 @@
       <c r="R93" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S93" s="20" t="n">
+      <c r="S93" s="19" t="n">
         <v>41366.5167278935</v>
       </c>
     </row>
@@ -8622,7 +8607,7 @@
       <c r="L94" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M94" s="20" t="n">
+      <c r="M94" s="19" t="n">
         <v>41366.5665204861</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -8640,7 +8625,7 @@
       <c r="R94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S94" s="20" t="n">
+      <c r="S94" s="19" t="n">
         <v>41366.5860202199</v>
       </c>
     </row>
@@ -9101,7 +9086,7 @@
       <c r="L102" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M102" s="20" t="n">
+      <c r="M102" s="19" t="n">
         <v>41376.577928125</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9119,7 +9104,7 @@
       <c r="R102" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S102" s="20" t="n">
+      <c r="S102" s="19" t="n">
         <v>41376.5910170139</v>
       </c>
       <c r="T102" s="2"/>
@@ -13324,13 +13309,13 @@
       <c r="J173" s="30"/>
       <c r="K173" s="30"/>
       <c r="L173" s="30"/>
-      <c r="M173" s="20"/>
+      <c r="M173" s="19"/>
       <c r="N173" s="30"/>
       <c r="O173" s="30"/>
       <c r="P173" s="30"/>
       <c r="Q173" s="30"/>
       <c r="R173" s="30"/>
-      <c r="S173" s="20"/>
+      <c r="S173" s="19"/>
       <c r="T173" s="30"/>
     </row>
   </sheetData>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="799">
   <si>
     <t>Assigned</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>210-4052</t>
+  </si>
+  <si>
+    <t>Very grainy map; Not sure which road the fence parallels; Respondent needs to provide better info.</t>
   </si>
   <si>
     <t>Lower Willow Creek Riparian Management</t>
@@ -2650,11 +2653,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2662,7 +2665,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2790,7 +2793,7 @@
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A6" activeCellId="0" pane="bottomLeft" sqref="6:6"/>
+      <selection activeCell="A10" activeCellId="0" pane="bottomLeft" sqref="10:10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3201,310 +3204,298 @@
         <v>41079.5668861921</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7" s="15">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="n">
         <v>14986</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="15" t="n">
         <v>20120377</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="19" t="n">
+      <c r="M7" s="16" t="n">
         <v>41072.5602743866</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" s="19" t="n">
+      <c r="O7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="16" t="n">
         <v>41304.5132543981</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8" s="10">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>14987</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="10" t="n">
         <v>20120019</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="19" t="n">
+      <c r="M8" s="11" t="n">
         <v>41073.5349794792</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" s="19" t="n">
+      <c r="O8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" s="11" t="n">
         <v>41074.5641554398</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="T8" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="9" s="15">
+      <c r="A9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="15" t="n">
         <v>14988</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="15" t="n">
         <v>20120021</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="J9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="19" t="n">
+      <c r="L9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="16" t="n">
         <v>41073.9590199074</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" s="19" t="n">
+      <c r="N9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="16" t="n">
         <v>41075.4937074074</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10" s="20">
-      <c r="A10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="20" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10" s="17">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17" t="n">
         <v>15024</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="17" t="n">
         <v>20120054</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="20" t="n">
+      <c r="J10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="19" t="n">
+      <c r="M10" s="16" t="n">
         <v>41088.406037419</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="19" t="n">
+      <c r="N10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="16" t="n">
         <v>41088.4140931366</v>
       </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11" s="22">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11" s="19">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="19" t="n">
         <v>15054</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="19" t="n">
         <v>20120099</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="22" t="n">
+      <c r="K11" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="19" t="n">
+      <c r="L11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="20" t="n">
         <v>41089.5931419329</v>
       </c>
-      <c r="N11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="19" t="n">
+      <c r="N11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="20" t="n">
         <v>41099.6019939815</v>
       </c>
       <c r="U11" s="21"/>
@@ -3523,59 +3514,59 @@
       <c r="AH11" s="21"/>
       <c r="AI11" s="21"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12" s="22">
       <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20" t="n">
+      <c r="B12" s="22" t="n">
         <v>15070</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="22" t="n">
         <v>20120097</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="D12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="F12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="20" t="s">
+      <c r="H12" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="19" t="n">
+      <c r="I12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="20" t="n">
         <v>41096.5668918171</v>
       </c>
-      <c r="N12" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="19" t="n">
+      <c r="N12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" s="20" t="n">
         <v>41096.5819193634</v>
       </c>
       <c r="U12" s="21"/>
@@ -3605,10 +3596,10 @@
         <v>20120207</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>30</v>
@@ -3620,22 +3611,22 @@
         <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>31</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="19" t="n">
+        <v>107</v>
+      </c>
+      <c r="M13" s="20" t="n">
         <v>41099.6110231829</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>28</v>
@@ -3649,7 +3640,7 @@
       <c r="R13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S13" s="19" t="n">
+      <c r="S13" s="20" t="n">
         <v>41170.4841383102</v>
       </c>
     </row>
@@ -3664,13 +3655,13 @@
         <v>20120206</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>35</v>
@@ -3679,22 +3670,22 @@
         <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>35</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="19" t="n">
+        <v>113</v>
+      </c>
+      <c r="M14" s="20" t="n">
         <v>41099.648674537</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>28</v>
@@ -3708,7 +3699,7 @@
       <c r="R14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S14" s="19" t="n">
+      <c r="S14" s="20" t="n">
         <v>41170.4644665856</v>
       </c>
     </row>
@@ -3723,37 +3714,37 @@
         <v>20120121</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M15" s="20" t="n">
         <v>41100.5766488426</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>28</v>
@@ -3767,7 +3758,7 @@
       <c r="R15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S15" s="19" t="n">
+      <c r="S15" s="20" t="n">
         <v>41121.5516165509</v>
       </c>
     </row>
@@ -3782,10 +3773,10 @@
         <v>20120102</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>30</v>
@@ -3794,25 +3785,25 @@
         <v>54</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="19" t="n">
+        <v>113</v>
+      </c>
+      <c r="M16" s="20" t="n">
         <v>41101.6231024306</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>28</v>
@@ -3826,7 +3817,7 @@
       <c r="R16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S16" s="19" t="n">
+      <c r="S16" s="20" t="n">
         <v>41101.6724161227</v>
       </c>
     </row>
@@ -3841,37 +3832,37 @@
         <v>20120106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="19" t="n">
+        <v>138</v>
+      </c>
+      <c r="M17" s="20" t="n">
         <v>41106.4917931366</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>28</v>
@@ -3885,7 +3876,7 @@
       <c r="R17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S17" s="19" t="n">
+      <c r="S17" s="20" t="n">
         <v>41106.6839658218</v>
       </c>
     </row>
@@ -3900,16 +3891,16 @@
         <v>20120105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -3921,13 +3912,13 @@
         <v>30</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M18" s="20" t="n">
         <v>41106.5599732986</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>28</v>
@@ -3941,7 +3932,7 @@
       <c r="R18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S18" s="19" t="n">
+      <c r="S18" s="20" t="n">
         <v>41106.5819927083</v>
       </c>
     </row>
@@ -3956,19 +3947,19 @@
         <v>20120107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
@@ -3980,13 +3971,13 @@
         <v>30</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="19" t="n">
+        <v>146</v>
+      </c>
+      <c r="M19" s="20" t="n">
         <v>41107.3547877315</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>28</v>
@@ -4000,7 +3991,7 @@
       <c r="R19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="19" t="n">
+      <c r="S19" s="20" t="n">
         <v>41107.6458471065</v>
       </c>
     </row>
@@ -4015,37 +4006,37 @@
         <v>20120108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="19" t="n">
+        <v>153</v>
+      </c>
+      <c r="M20" s="20" t="n">
         <v>41107.6286944097</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>28</v>
@@ -4059,7 +4050,7 @@
       <c r="R20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S20" s="19" t="n">
+      <c r="S20" s="20" t="n">
         <v>41107.6932998843</v>
       </c>
     </row>
@@ -4074,16 +4065,16 @@
         <v>20120313</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>30</v>
@@ -4095,13 +4086,13 @@
         <v>30</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="19" t="n">
+        <v>158</v>
+      </c>
+      <c r="M21" s="20" t="n">
         <v>41107.7066167824</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>28</v>
@@ -4115,7 +4106,7 @@
       <c r="R21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S21" s="19" t="n">
+      <c r="S21" s="20" t="n">
         <v>41254.6417638542</v>
       </c>
     </row>
@@ -4130,37 +4121,37 @@
         <v>20120109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="19" t="n">
+      <c r="M22" s="20" t="n">
         <v>41108.5728826736</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>28</v>
@@ -4174,7 +4165,7 @@
       <c r="R22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S22" s="19" t="n">
+      <c r="S22" s="20" t="n">
         <v>41109.4006856134</v>
       </c>
     </row>
@@ -4189,37 +4180,37 @@
         <v>20120110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M23" s="19" t="n">
+        <v>174</v>
+      </c>
+      <c r="M23" s="20" t="n">
         <v>41109.4622641204</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>28</v>
@@ -4233,66 +4224,66 @@
       <c r="R23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S23" s="19" t="n">
+      <c r="S23" s="20" t="n">
         <v>41109.4942756597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24" s="22">
       <c r="A24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="20" t="n">
+      <c r="B24" s="22" t="n">
         <v>15085</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="22" t="n">
         <v>20120112</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="D24" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="20" t="n">
+      <c r="H24" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="L24" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="M24" s="19" t="n">
+      <c r="L24" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="20" t="n">
         <v>41109.5210351042</v>
       </c>
-      <c r="N24" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" s="19" t="n">
+      <c r="N24" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" s="20" t="n">
         <v>41109.5298134607</v>
       </c>
       <c r="U24" s="21"/>
@@ -4322,16 +4313,16 @@
         <v>20120115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>30</v>
@@ -4343,13 +4334,13 @@
         <v>30</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M25" s="20" t="n">
         <v>41114.3637359607</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>28</v>
@@ -4363,7 +4354,7 @@
       <c r="R25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S25" s="19" t="n">
+      <c r="S25" s="20" t="n">
         <v>41114.3744462153</v>
       </c>
     </row>
@@ -4378,37 +4369,37 @@
         <v>20120126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M26" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M26" s="20" t="n">
         <v>41116.6158131597</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>28</v>
@@ -4422,11 +4413,11 @@
       <c r="R26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S26" s="19" t="n">
+      <c r="S26" s="20" t="n">
         <v>41122.5103413194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27" s="22">
       <c r="A27" s="18" t="s">
         <v>20</v>
       </c>
@@ -4437,17 +4428,17 @@
         <v>20120117</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>30</v>
@@ -4459,13 +4450,13 @@
         <v>30</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M27" s="20" t="n">
         <v>41120.4331309375</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>28</v>
@@ -4479,7 +4470,7 @@
       <c r="R27" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S27" s="19" t="n">
+      <c r="S27" s="20" t="n">
         <v>41120.4508475695</v>
       </c>
       <c r="T27" s="2"/>
@@ -4510,19 +4501,19 @@
         <v>20120122</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>30</v>
@@ -4534,13 +4525,13 @@
         <v>30</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M28" s="19" t="n">
+        <v>192</v>
+      </c>
+      <c r="M28" s="20" t="n">
         <v>41121.4457947107</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>28</v>
@@ -4554,7 +4545,7 @@
       <c r="R28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S28" s="19" t="n">
+      <c r="S28" s="20" t="n">
         <v>41121.6035416667</v>
       </c>
     </row>
@@ -4569,19 +4560,19 @@
         <v>20120123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>30</v>
@@ -4593,13 +4584,13 @@
         <v>30</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" s="19" t="n">
+        <v>192</v>
+      </c>
+      <c r="M29" s="20" t="n">
         <v>41121.6098218403</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>28</v>
@@ -4613,11 +4604,11 @@
       <c r="R29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S29" s="19" t="n">
+      <c r="S29" s="20" t="n">
         <v>41121.6159375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30" s="22">
       <c r="A30" s="18" t="s">
         <v>20</v>
       </c>
@@ -4628,17 +4619,17 @@
         <v>20120127</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>30</v>
@@ -4650,13 +4641,13 @@
         <v>30</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M30" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M30" s="20" t="n">
         <v>41123.6190674421</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>28</v>
@@ -4670,7 +4661,7 @@
       <c r="R30" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S30" s="19" t="n">
+      <c r="S30" s="20" t="n">
         <v>41123.6307237269</v>
       </c>
       <c r="T30" s="2"/>
@@ -4701,37 +4692,37 @@
         <v>20120128</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>14</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M31" s="19" t="n">
+        <v>206</v>
+      </c>
+      <c r="M31" s="20" t="n">
         <v>41124.4481868056</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>28</v>
@@ -4745,7 +4736,7 @@
       <c r="R31" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S31" s="19" t="n">
+      <c r="S31" s="20" t="n">
         <v>41124.4612270023</v>
       </c>
     </row>
@@ -4760,34 +4751,34 @@
         <v>20120140</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M32" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M32" s="20" t="n">
         <v>41136.3613769676</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>28</v>
@@ -4801,7 +4792,7 @@
       <c r="R32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S32" s="19" t="n">
+      <c r="S32" s="20" t="n">
         <v>41138.4554401273</v>
       </c>
     </row>
@@ -4816,35 +4807,35 @@
         <v>20120141</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="20" t="n">
+        <v>41136.4763602199</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M33" s="19" t="n">
-        <v>41136.4763602199</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="O33" s="2" t="s">
         <v>28</v>
       </c>
@@ -4857,7 +4848,7 @@
       <c r="R33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S33" s="19" t="n">
+      <c r="S33" s="20" t="n">
         <v>41138.4610686343</v>
       </c>
     </row>
@@ -4872,34 +4863,34 @@
         <v>20120142</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M34" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M34" s="20" t="n">
         <v>41137.4621015394</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>28</v>
@@ -4913,7 +4904,7 @@
       <c r="R34" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S34" s="19" t="n">
+      <c r="S34" s="20" t="n">
         <v>41138.4635913542</v>
       </c>
     </row>
@@ -4928,34 +4919,34 @@
         <v>20120150</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>3</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M35" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M35" s="20" t="n">
         <v>41138.3815253472</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>28</v>
@@ -4969,7 +4960,7 @@
       <c r="R35" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S35" s="19" t="n">
+      <c r="S35" s="20" t="n">
         <v>41138.4762314005</v>
       </c>
     </row>
@@ -4984,34 +4975,34 @@
         <v>20120151</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M36" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M36" s="20" t="n">
         <v>41138.3921516204</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>28</v>
@@ -5025,11 +5016,11 @@
       <c r="R36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S36" s="19" t="n">
+      <c r="S36" s="20" t="n">
         <v>41138.4769562153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37" s="22">
       <c r="A37" s="18" t="s">
         <v>20</v>
       </c>
@@ -5040,35 +5031,35 @@
         <v>20120152</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>31</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M37" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M37" s="20" t="n">
         <v>41138.4023823264</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>28</v>
@@ -5082,7 +5073,7 @@
       <c r="R37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S37" s="19" t="n">
+      <c r="S37" s="20" t="n">
         <v>41138.4779686343</v>
       </c>
       <c r="T37" s="2"/>
@@ -5102,7 +5093,7 @@
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38" s="22">
       <c r="A38" s="18" t="s">
         <v>20</v>
       </c>
@@ -5113,35 +5104,35 @@
         <v>20120153</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>24</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M38" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M38" s="20" t="n">
         <v>41138.4781451736</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>28</v>
@@ -5155,7 +5146,7 @@
       <c r="R38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S38" s="19" t="n">
+      <c r="S38" s="20" t="n">
         <v>41138.4808949421</v>
       </c>
       <c r="T38" s="2"/>
@@ -5186,37 +5177,37 @@
         <v>20120155</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>31</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M39" s="19" t="n">
+        <v>153</v>
+      </c>
+      <c r="M39" s="20" t="n">
         <v>41138.5868519676</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>28</v>
@@ -5230,7 +5221,7 @@
       <c r="R39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S39" s="19" t="n">
+      <c r="S39" s="20" t="n">
         <v>41142.6655486111</v>
       </c>
     </row>
@@ -5245,34 +5236,34 @@
         <v>20120157</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M40" s="19" t="n">
+        <v>206</v>
+      </c>
+      <c r="M40" s="20" t="n">
         <v>41142.4832069792</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>28</v>
@@ -5286,7 +5277,7 @@
       <c r="R40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S40" s="19" t="n">
+      <c r="S40" s="20" t="n">
         <v>41143.3783254977</v>
       </c>
     </row>
@@ -5301,37 +5292,37 @@
         <v>20120160</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M41" s="19" t="n">
+        <v>192</v>
+      </c>
+      <c r="M41" s="20" t="n">
         <v>41149.5504400116</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>28</v>
@@ -5345,7 +5336,7 @@
       <c r="R41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S41" s="19" t="n">
+      <c r="S41" s="20" t="n">
         <v>41149.6198586806</v>
       </c>
     </row>
@@ -5360,19 +5351,19 @@
         <v>20120163</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>30</v>
@@ -5384,13 +5375,13 @@
         <v>30</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M42" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M42" s="20" t="n">
         <v>41149.7238157755</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>28</v>
@@ -5404,7 +5395,7 @@
       <c r="R42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S42" s="19" t="n">
+      <c r="S42" s="20" t="n">
         <v>41150.494416088</v>
       </c>
     </row>
@@ -5419,34 +5410,34 @@
         <v>20120265</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M43" s="19" t="n">
+      <c r="M43" s="20" t="n">
         <v>41150.4228819792</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>28</v>
@@ -5460,11 +5451,11 @@
       <c r="R43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S43" s="19" t="n">
+      <c r="S43" s="20" t="n">
         <v>41214.6117733796</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44" s="22">
       <c r="A44" s="18" t="s">
         <v>20</v>
       </c>
@@ -5475,7 +5466,7 @@
         <v>20120165</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -5488,22 +5479,22 @@
         <v>36</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M44" s="19" t="n">
+        <v>107</v>
+      </c>
+      <c r="M44" s="20" t="n">
         <v>41150.6310667477</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>28</v>
@@ -5517,7 +5508,7 @@
       <c r="R44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S44" s="19" t="n">
+      <c r="S44" s="20" t="n">
         <v>41150.6788440162</v>
       </c>
       <c r="T44" s="2"/>
@@ -5548,34 +5539,34 @@
         <v>20120203</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M45" s="19" t="n">
+        <v>174</v>
+      </c>
+      <c r="M45" s="20" t="n">
         <v>41165.6515762384</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>28</v>
@@ -5589,7 +5580,7 @@
       <c r="R45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S45" s="19" t="n">
+      <c r="S45" s="20" t="n">
         <v>41165.6845707986</v>
       </c>
     </row>
@@ -5604,10 +5595,10 @@
         <v>20120204</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>30</v>
@@ -5616,13 +5607,13 @@
         <v>69</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -5630,11 +5621,11 @@
       <c r="L46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M46" s="19" t="n">
+      <c r="M46" s="20" t="n">
         <v>41169.4047743403</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>28</v>
@@ -5648,7 +5639,7 @@
       <c r="R46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S46" s="19" t="n">
+      <c r="S46" s="20" t="n">
         <v>41169.4440929745</v>
       </c>
     </row>
@@ -5663,37 +5654,37 @@
         <v>20120246</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M47" s="19" t="n">
+        <v>107</v>
+      </c>
+      <c r="M47" s="20" t="n">
         <v>41178.7300547107</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>28</v>
@@ -5707,7 +5698,7 @@
       <c r="R47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S47" s="19" t="n">
+      <c r="S47" s="20" t="n">
         <v>41207.614002662</v>
       </c>
     </row>
@@ -5722,37 +5713,37 @@
         <v>20120311</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M48" s="19" t="n">
+        <v>87</v>
+      </c>
+      <c r="M48" s="20" t="n">
         <v>41191.5697803241</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>28</v>
@@ -5766,7 +5757,7 @@
       <c r="R48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S48" s="19" t="n">
+      <c r="S48" s="20" t="n">
         <v>41253.4528903588</v>
       </c>
     </row>
@@ -5781,37 +5772,37 @@
         <v>20120226</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M49" s="19" t="n">
+        <v>206</v>
+      </c>
+      <c r="M49" s="20" t="n">
         <v>41196.941634294</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>28</v>
@@ -5825,7 +5816,7 @@
       <c r="R49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S49" s="19" t="n">
+      <c r="S49" s="20" t="n">
         <v>41198.0559452894</v>
       </c>
     </row>
@@ -5840,37 +5831,37 @@
         <v>20120225</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M50" s="19" t="n">
+        <v>206</v>
+      </c>
+      <c r="M50" s="20" t="n">
         <v>41196.9703730324</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>28</v>
@@ -5884,7 +5875,7 @@
       <c r="R50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S50" s="19" t="n">
+      <c r="S50" s="20" t="n">
         <v>41198.0557996875</v>
       </c>
     </row>
@@ -5899,19 +5890,19 @@
         <v>20120744</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>64</v>
@@ -5923,13 +5914,13 @@
         <v>20</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M51" s="19" t="n">
+        <v>113</v>
+      </c>
+      <c r="M51" s="20" t="n">
         <v>41198.4895848727</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>28</v>
@@ -5943,7 +5934,7 @@
       <c r="R51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S51" s="19" t="n">
+      <c r="S51" s="20" t="n">
         <v>41424.5695158565</v>
       </c>
     </row>
@@ -5958,16 +5949,16 @@
         <v>20120231</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>30</v>
@@ -5979,13 +5970,13 @@
         <v>30</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M52" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M52" s="20" t="n">
         <v>41199.6275835648</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>28</v>
@@ -5999,11 +5990,11 @@
       <c r="R52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S52" s="19" t="n">
+      <c r="S52" s="20" t="n">
         <v>41200.6401648495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53" s="22">
       <c r="A53" s="18" t="s">
         <v>20</v>
       </c>
@@ -6014,17 +6005,17 @@
         <v>20120272</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>30</v>
@@ -6036,13 +6027,13 @@
         <v>30</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="M53" s="19" t="n">
+        <v>291</v>
+      </c>
+      <c r="M53" s="20" t="n">
         <v>41200.6409002315</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>28</v>
@@ -6056,7 +6047,7 @@
       <c r="R53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S53" s="19" t="n">
+      <c r="S53" s="20" t="n">
         <v>41222.4348692477</v>
       </c>
       <c r="T53" s="2"/>
@@ -6076,7 +6067,7 @@
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54" s="22">
       <c r="A54" s="18" t="s">
         <v>20</v>
       </c>
@@ -6087,17 +6078,17 @@
         <v>20120273</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>30</v>
@@ -6109,13 +6100,13 @@
         <v>30</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M54" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M54" s="20" t="n">
         <v>41200.6409908565</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>28</v>
@@ -6129,7 +6120,7 @@
       <c r="R54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S54" s="19" t="n">
+      <c r="S54" s="20" t="n">
         <v>41222.4354873843</v>
       </c>
       <c r="T54" s="2"/>
@@ -6160,16 +6151,16 @@
         <v>20120342</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>30</v>
@@ -6181,13 +6172,13 @@
         <v>30</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M55" s="19" t="n">
+        <v>298</v>
+      </c>
+      <c r="M55" s="20" t="n">
         <v>41204.46623125</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>28</v>
@@ -6201,7 +6192,7 @@
       <c r="R55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S55" s="19" t="n">
+      <c r="S55" s="20" t="n">
         <v>41281.5369976505</v>
       </c>
     </row>
@@ -6216,34 +6207,34 @@
         <v>20120253</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M56" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M56" s="20" t="n">
         <v>41204.587358912</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>28</v>
@@ -6257,11 +6248,11 @@
       <c r="R56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S56" s="19" t="n">
+      <c r="S56" s="20" t="n">
         <v>41211.65310625</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="22">
       <c r="A57" s="18" t="s">
         <v>20</v>
       </c>
@@ -6272,37 +6263,37 @@
         <v>20120249</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M57" s="19" t="n">
+        <v>107</v>
+      </c>
+      <c r="M57" s="20" t="n">
         <v>41205.4651765046</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>28</v>
@@ -6316,7 +6307,7 @@
       <c r="R57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S57" s="19" t="n">
+      <c r="S57" s="20" t="n">
         <v>41208.6185199421</v>
       </c>
       <c r="T57" s="2"/>
@@ -6347,16 +6338,16 @@
         <v>20120247</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>30</v>
@@ -6368,13 +6359,13 @@
         <v>30</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M58" s="19" t="n">
+        <v>313</v>
+      </c>
+      <c r="M58" s="20" t="n">
         <v>41205.5341565972</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>28</v>
@@ -6388,7 +6379,7 @@
       <c r="R58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S58" s="19" t="n">
+      <c r="S58" s="20" t="n">
         <v>41207.6450975347</v>
       </c>
     </row>
@@ -6403,37 +6394,37 @@
         <v>20120244</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>31</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M59" s="19" t="n">
+        <v>146</v>
+      </c>
+      <c r="M59" s="20" t="n">
         <v>41207.4083723727</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>28</v>
@@ -6447,63 +6438,63 @@
       <c r="R59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S59" s="19" t="n">
+      <c r="S59" s="20" t="n">
         <v>41207.427530787</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60" s="22">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60" s="19">
       <c r="A60" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="22" t="n">
+      <c r="B60" s="19" t="n">
         <v>15297</v>
       </c>
-      <c r="C60" s="22" t="n">
+      <c r="C60" s="19" t="n">
         <v>20120257</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="22" t="s">
+      <c r="D60" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="I60" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K60" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M60" s="19" t="n">
+      <c r="F60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M60" s="20" t="n">
         <v>41210.5831710648</v>
       </c>
-      <c r="N60" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="O60" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P60" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q60" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R60" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S60" s="19" t="n">
+      <c r="N60" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="O60" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" s="20" t="n">
         <v>41212.431104132</v>
       </c>
       <c r="U60" s="21"/>
@@ -6533,16 +6524,16 @@
         <v>20120284</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>30</v>
@@ -6554,13 +6545,13 @@
         <v>30</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M61" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M61" s="20" t="n">
         <v>41233.4709574074</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>28</v>
@@ -6574,7 +6565,7 @@
       <c r="R61" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S61" s="19" t="n">
+      <c r="S61" s="20" t="n">
         <v>41233.4953285069</v>
       </c>
     </row>
@@ -6589,19 +6580,19 @@
         <v>20120346</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>30</v>
@@ -6613,13 +6604,13 @@
         <v>30</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M62" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M62" s="20" t="n">
         <v>41240.3506242708</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>28</v>
@@ -6633,7 +6624,7 @@
       <c r="R62" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S62" s="19" t="n">
+      <c r="S62" s="20" t="n">
         <v>41284.527165625</v>
       </c>
     </row>
@@ -6648,16 +6639,16 @@
         <v>20120298</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>30</v>
@@ -6669,13 +6660,13 @@
         <v>30</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M63" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M63" s="20" t="n">
         <v>41243.5707371181</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>28</v>
@@ -6689,7 +6680,7 @@
       <c r="R63" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S63" s="19" t="n">
+      <c r="S63" s="20" t="n">
         <v>41243.5804918982</v>
       </c>
     </row>
@@ -6704,13 +6695,13 @@
         <v>20120424</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>54</v>
@@ -6719,22 +6710,22 @@
         <v>63</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="M64" s="19" t="n">
+        <v>339</v>
+      </c>
+      <c r="M64" s="20" t="n">
         <v>41247.9034753472</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>28</v>
@@ -6748,7 +6739,7 @@
       <c r="R64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S64" s="19" t="n">
+      <c r="S64" s="20" t="n">
         <v>41331.6749808681</v>
       </c>
     </row>
@@ -6763,37 +6754,37 @@
         <v>20120340</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>16</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="M65" s="19" t="n">
+        <v>346</v>
+      </c>
+      <c r="M65" s="20" t="n">
         <v>41278.4907118056</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>28</v>
@@ -6807,7 +6798,7 @@
       <c r="R65" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S65" s="19" t="n">
+      <c r="S65" s="20" t="n">
         <v>41278.5676700579</v>
       </c>
     </row>
@@ -6822,19 +6813,19 @@
         <v>20120341</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>30</v>
@@ -6846,13 +6837,13 @@
         <v>30</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M66" s="19" t="n">
+        <v>206</v>
+      </c>
+      <c r="M66" s="20" t="n">
         <v>41278.6358895486</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>28</v>
@@ -6866,11 +6857,11 @@
       <c r="R66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S66" s="19" t="n">
+      <c r="S66" s="20" t="n">
         <v>41281.4489203704</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67" s="22">
       <c r="A67" s="18" t="s">
         <v>20</v>
       </c>
@@ -6881,37 +6872,37 @@
         <v>20120352</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M67" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M67" s="20" t="n">
         <v>41281.5898056366</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>28</v>
@@ -6925,7 +6916,7 @@
       <c r="R67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S67" s="19" t="n">
+      <c r="S67" s="20" t="n">
         <v>41288.605065544</v>
       </c>
       <c r="T67" s="2"/>
@@ -6956,7 +6947,7 @@
         <v>20120351</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>30</v>
@@ -6979,11 +6970,11 @@
       <c r="L68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M68" s="19" t="n">
+      <c r="M68" s="20" t="n">
         <v>41288.4558511574</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>28</v>
@@ -6997,7 +6988,7 @@
       <c r="R68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S68" s="19" t="n">
+      <c r="S68" s="20" t="n">
         <v>41288.568308912</v>
       </c>
     </row>
@@ -7012,37 +7003,37 @@
         <v>20120366</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K69" s="2" t="n">
         <v>16</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M69" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M69" s="20" t="n">
         <v>41291.6404073264</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>28</v>
@@ -7056,63 +7047,63 @@
       <c r="R69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S69" s="19" t="n">
+      <c r="S69" s="20" t="n">
         <v>41292.7439197107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70" s="22">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70" s="19">
       <c r="A70" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="22" t="n">
+      <c r="B70" s="19" t="n">
         <v>15418</v>
       </c>
-      <c r="C70" s="22" t="n">
+      <c r="C70" s="19" t="n">
         <v>20120385</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="22" t="s">
+      <c r="D70" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="M70" s="19" t="n">
+      <c r="H70" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M70" s="20" t="n">
         <v>41294.5077270486</v>
       </c>
-      <c r="N70" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="O70" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P70" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q70" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S70" s="19" t="n">
+      <c r="N70" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R70" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" s="20" t="n">
         <v>41309.4628889236</v>
       </c>
       <c r="U70" s="21"/>
@@ -7131,65 +7122,65 @@
       <c r="AH70" s="21"/>
       <c r="AI70" s="21"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="22">
       <c r="A71" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="22" t="n">
+      <c r="B71" s="19" t="n">
         <v>15428</v>
       </c>
-      <c r="C71" s="22" t="n">
+      <c r="C71" s="19" t="n">
         <v>20120378</v>
       </c>
-      <c r="D71" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="E71" s="22" t="s">
+      <c r="D71" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="22" t="s">
+      <c r="F71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J71" s="22" t="s">
+      <c r="H71" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="K71" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="M71" s="19" t="n">
+      <c r="I71" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="M71" s="20" t="n">
         <v>41302.5911455208</v>
       </c>
-      <c r="N71" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="O71" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P71" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q71" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R71" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S71" s="19" t="n">
+      <c r="N71" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="O71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R71" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" s="20" t="n">
         <v>41304.627268287</v>
       </c>
-      <c r="T71" s="22"/>
+      <c r="T71" s="19"/>
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
       <c r="W71" s="21"/>
@@ -7206,59 +7197,59 @@
       <c r="AH71" s="21"/>
       <c r="AI71" s="21"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72" s="22">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72" s="19">
       <c r="A72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="22" t="n">
+      <c r="B72" s="19" t="n">
         <v>15430</v>
       </c>
-      <c r="C72" s="22" t="n">
+      <c r="C72" s="19" t="n">
         <v>20120375</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="M72" s="19" t="n">
+      <c r="D72" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="M72" s="20" t="n">
         <v>41303.6479885069</v>
       </c>
-      <c r="N72" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="O72" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P72" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q72" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R72" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S72" s="19" t="n">
+      <c r="N72" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="O72" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" s="20" t="n">
         <v>41303.6661596065</v>
       </c>
       <c r="U72" s="21"/>
@@ -7288,19 +7279,19 @@
         <v>20120383</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>30</v>
@@ -7312,13 +7303,13 @@
         <v>30</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M73" s="19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M73" s="20" t="n">
         <v>41306.532899537</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>28</v>
@@ -7332,7 +7323,7 @@
       <c r="R73" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S73" s="19" t="n">
+      <c r="S73" s="20" t="n">
         <v>41306.5414503819</v>
       </c>
     </row>
@@ -7347,37 +7338,37 @@
         <v>20120415</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M74" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M74" s="20" t="n">
         <v>41306.5329934028</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>28</v>
@@ -7391,7 +7382,7 @@
       <c r="R74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S74" s="19" t="n">
+      <c r="S74" s="20" t="n">
         <v>41327.4879565972</v>
       </c>
     </row>
@@ -7406,37 +7397,37 @@
         <v>20120411</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K75" s="2" t="n">
         <v>17</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M75" s="19" t="n">
+        <v>107</v>
+      </c>
+      <c r="M75" s="20" t="n">
         <v>41311.4689634259</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>28</v>
@@ -7450,7 +7441,7 @@
       <c r="R75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S75" s="19" t="n">
+      <c r="S75" s="20" t="n">
         <v>41325.4710791667</v>
       </c>
     </row>
@@ -7465,34 +7456,34 @@
         <v>20120404</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K76" s="2" t="n">
         <v>13</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M76" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M76" s="20" t="n">
         <v>41316.7117378472</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>28</v>
@@ -7506,7 +7497,7 @@
       <c r="R76" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S76" s="19" t="n">
+      <c r="S76" s="20" t="n">
         <v>41317.7332084144</v>
       </c>
     </row>
@@ -7521,37 +7512,37 @@
         <v>20120444</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K77" s="2" t="n">
         <v>4</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M77" s="19" t="n">
+        <v>396</v>
+      </c>
+      <c r="M77" s="20" t="n">
         <v>41320.4583300579</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>28</v>
@@ -7565,7 +7556,7 @@
       <c r="R77" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S77" s="19" t="n">
+      <c r="S77" s="20" t="n">
         <v>41341.3959231829</v>
       </c>
     </row>
@@ -7580,37 +7571,37 @@
         <v>20120419</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M78" s="19" t="n">
+        <v>396</v>
+      </c>
+      <c r="M78" s="20" t="n">
         <v>41327.4573636921</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>28</v>
@@ -7624,7 +7615,7 @@
       <c r="R78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S78" s="19" t="n">
+      <c r="S78" s="20" t="n">
         <v>41330.5550878472</v>
       </c>
     </row>
@@ -7639,37 +7630,37 @@
         <v>20120471</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M79" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M79" s="20" t="n">
         <v>41330.4895333333</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>28</v>
@@ -7683,7 +7674,7 @@
       <c r="R79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S79" s="19" t="n">
+      <c r="S79" s="20" t="n">
         <v>41354.3981266204</v>
       </c>
     </row>
@@ -7698,37 +7689,37 @@
         <v>20120433</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M80" s="19" t="n">
+        <v>174</v>
+      </c>
+      <c r="M80" s="20" t="n">
         <v>41333.6565875</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>28</v>
@@ -7742,7 +7733,7 @@
       <c r="R80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S80" s="19" t="n">
+      <c r="S80" s="20" t="n">
         <v>41333.6820353356</v>
       </c>
     </row>
@@ -7757,37 +7748,37 @@
         <v>20130019</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K81" s="2" t="n">
         <v>13</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="M81" s="19" t="n">
+        <v>418</v>
+      </c>
+      <c r="M81" s="20" t="n">
         <v>41337.5453774306</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>30</v>
@@ -7801,7 +7792,7 @@
       <c r="R81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S81" s="19" t="n">
+      <c r="S81" s="20" t="n">
         <v>41446.4359273958</v>
       </c>
     </row>
@@ -7816,37 +7807,37 @@
         <v>20120445</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M82" s="19" t="n">
+        <v>424</v>
+      </c>
+      <c r="M82" s="20" t="n">
         <v>41340.4754460995</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>28</v>
@@ -7860,7 +7851,7 @@
       <c r="R82" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S82" s="19" t="n">
+      <c r="S82" s="20" t="n">
         <v>41341.4559791667</v>
       </c>
     </row>
@@ -7875,37 +7866,37 @@
         <v>20120443</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K83" s="2" t="n">
         <v>33</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M83" s="19" t="n">
+        <v>122</v>
+      </c>
+      <c r="M83" s="20" t="n">
         <v>41340.5483920949</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>28</v>
@@ -7919,7 +7910,7 @@
       <c r="R83" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S83" s="19" t="n">
+      <c r="S83" s="20" t="n">
         <v>41340.7857539005</v>
       </c>
     </row>
@@ -7934,37 +7925,37 @@
         <v>20120442</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K84" s="23" t="n">
         <v>41592</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M84" s="19" t="n">
+        <v>107</v>
+      </c>
+      <c r="M84" s="20" t="n">
         <v>41340.5534409722</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>28</v>
@@ -7978,7 +7969,7 @@
       <c r="R84" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S84" s="19" t="n">
+      <c r="S84" s="20" t="n">
         <v>41340.5797805208</v>
       </c>
     </row>
@@ -7993,37 +7984,37 @@
         <v>20120454</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M85" s="19" t="n">
+        <v>396</v>
+      </c>
+      <c r="M85" s="20" t="n">
         <v>41341.5987565972</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>28</v>
@@ -8037,7 +8028,7 @@
       <c r="R85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S85" s="19" t="n">
+      <c r="S85" s="20" t="n">
         <v>41347.5174840278</v>
       </c>
     </row>
@@ -8052,37 +8043,37 @@
         <v>20120458</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K86" s="2" t="n">
         <v>4</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M86" s="19" t="n">
+        <v>245</v>
+      </c>
+      <c r="M86" s="20" t="n">
         <v>41345.6156529745</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>28</v>
@@ -8096,7 +8087,7 @@
       <c r="R86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S86" s="19" t="n">
+      <c r="S86" s="20" t="n">
         <v>41351.5827573264</v>
       </c>
     </row>
@@ -8111,10 +8102,10 @@
         <v>20120456</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>30</v>
@@ -8123,25 +8114,25 @@
         <v>54</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M87" s="19" t="n">
+        <v>113</v>
+      </c>
+      <c r="M87" s="20" t="n">
         <v>41348.5506607292</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>28</v>
@@ -8155,7 +8146,7 @@
       <c r="R87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S87" s="19" t="n">
+      <c r="S87" s="20" t="n">
         <v>41348.7088268519</v>
       </c>
     </row>
@@ -8170,37 +8161,37 @@
         <v>20120464</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K88" s="2" t="n">
         <v>27</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M88" s="19" t="n">
+        <v>101</v>
+      </c>
+      <c r="M88" s="20" t="n">
         <v>41352.375515544</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>28</v>
@@ -8214,7 +8205,7 @@
       <c r="R88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S88" s="19" t="n">
+      <c r="S88" s="20" t="n">
         <v>41352.7037724884</v>
       </c>
     </row>
@@ -8229,37 +8220,37 @@
         <v>20120496</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G89" s="21" t="s">
         <v>45</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J89" s="21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K89" s="21" t="n">
         <v>31</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M89" s="24" t="n">
         <v>41358.509103588</v>
       </c>
       <c r="N89" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O89" s="21" t="s">
         <v>28</v>
@@ -8303,7 +8294,7 @@
         <v>20120497</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F90" s="21" t="s">
         <v>30</v>
@@ -8312,7 +8303,7 @@
         <v>35</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I90" s="21" t="s">
         <v>30</v>
@@ -8324,13 +8315,13 @@
         <v>30</v>
       </c>
       <c r="L90" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M90" s="24" t="n">
         <v>41359.6074497338</v>
       </c>
       <c r="N90" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O90" s="21" t="s">
         <v>28</v>
@@ -8374,37 +8365,37 @@
         <v>20120618</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>45</v>
       </c>
       <c r="H91" s="21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I91" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J91" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L91" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M91" s="24" t="n">
         <v>41360.3535715278</v>
       </c>
       <c r="N91" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O91" s="21" t="s">
         <v>28</v>
@@ -8437,62 +8428,62 @@
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="22">
       <c r="A92" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="20" t="n">
+      <c r="B92" s="22" t="n">
         <v>15592</v>
       </c>
-      <c r="C92" s="20" t="n">
+      <c r="C92" s="22" t="n">
         <v>20120712</v>
       </c>
-      <c r="D92" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="E92" s="20" t="s">
+      <c r="D92" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="F92" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="H92" s="20" t="s">
+      <c r="E92" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="I92" s="20" t="s">
+      <c r="F92" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H92" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="J92" s="20" t="s">
+      <c r="I92" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="J92" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="L92" s="20" t="s">
+      <c r="K92" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="M92" s="19" t="n">
+      <c r="L92" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="M92" s="20" t="n">
         <v>41361.683209294</v>
       </c>
-      <c r="N92" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="O92" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P92" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q92" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R92" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S92" s="19" t="n">
+      <c r="N92" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="O92" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P92" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q92" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R92" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" s="20" t="n">
         <v>41386.7166903935</v>
       </c>
       <c r="U92" s="21"/>
@@ -8522,37 +8513,37 @@
         <v>20120530</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K93" s="2" t="n">
         <v>26</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="M93" s="19" t="n">
+        <v>418</v>
+      </c>
+      <c r="M93" s="20" t="n">
         <v>41366.4341045486</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>28</v>
@@ -8566,7 +8557,7 @@
       <c r="R93" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S93" s="19" t="n">
+      <c r="S93" s="20" t="n">
         <v>41366.5167278935</v>
       </c>
     </row>
@@ -8581,10 +8572,10 @@
         <v>20120531</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>30</v>
@@ -8593,25 +8584,25 @@
         <v>45</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K94" s="2" t="n">
         <v>15</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M94" s="19" t="n">
+        <v>178</v>
+      </c>
+      <c r="M94" s="20" t="n">
         <v>41366.5665204861</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>28</v>
@@ -8625,7 +8616,7 @@
       <c r="R94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S94" s="19" t="n">
+      <c r="S94" s="20" t="n">
         <v>41366.5860202199</v>
       </c>
     </row>
@@ -8640,10 +8631,10 @@
         <v>20120640</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F95" s="21" t="s">
         <v>30</v>
@@ -8652,25 +8643,25 @@
         <v>35</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K95" s="21" t="n">
         <v>6</v>
       </c>
       <c r="L95" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M95" s="24" t="n">
         <v>41369.63865625</v>
       </c>
       <c r="N95" s="21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O95" s="21" t="s">
         <v>28</v>
@@ -8700,37 +8691,37 @@
         <v>20120647</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H96" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J96" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K96" s="21" t="n">
         <v>15</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M96" s="24" t="n">
         <v>41372.6617819444</v>
       </c>
       <c r="N96" s="21" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O96" s="21" t="s">
         <v>28</v>
@@ -8760,37 +8751,37 @@
         <v>20120658</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H97" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J97" s="21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K97" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M97" s="24" t="n">
         <v>41373.4125752315</v>
       </c>
       <c r="N97" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O97" s="21" t="s">
         <v>28</v>
@@ -8820,37 +8811,37 @@
         <v>20120682</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J98" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K98" s="21" t="n">
         <v>28</v>
       </c>
       <c r="L98" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M98" s="24" t="n">
         <v>41375.2876225694</v>
       </c>
       <c r="N98" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O98" s="21" t="s">
         <v>28</v>
@@ -8880,37 +8871,37 @@
         <v>20130030</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J99" s="21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K99" s="21" t="n">
         <v>6</v>
       </c>
       <c r="L99" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M99" s="24" t="n">
         <v>41375.3779989583</v>
       </c>
       <c r="N99" s="21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O99" s="21" t="s">
         <v>30</v>
@@ -8940,13 +8931,13 @@
         <v>20120683</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>35</v>
@@ -8955,22 +8946,22 @@
         <v>36</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J100" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K100" s="21" t="n">
         <v>19</v>
       </c>
       <c r="L100" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M100" s="24" t="n">
         <v>41375.3958023495</v>
       </c>
       <c r="N100" s="21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O100" s="21" t="s">
         <v>28</v>
@@ -9000,37 +8991,37 @@
         <v>20120684</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J101" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K101" s="21" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L101" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M101" s="24" t="n">
         <v>41375.5867187847</v>
       </c>
       <c r="N101" s="21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O101" s="21" t="s">
         <v>28</v>
@@ -9060,37 +9051,37 @@
         <v>20120687</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K102" s="2" t="n">
         <v>11</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M102" s="19" t="n">
+        <v>192</v>
+      </c>
+      <c r="M102" s="20" t="n">
         <v>41376.577928125</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>28</v>
@@ -9104,7 +9095,7 @@
       <c r="R102" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S102" s="19" t="n">
+      <c r="S102" s="20" t="n">
         <v>41376.5910170139</v>
       </c>
       <c r="T102" s="2"/>
@@ -9135,37 +9126,37 @@
         <v>20120692</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J103" s="21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K103" s="21" t="n">
         <v>36</v>
       </c>
       <c r="L103" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M103" s="24" t="n">
         <v>41379.0115039699</v>
       </c>
       <c r="N103" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O103" s="21" t="s">
         <v>28</v>
@@ -9195,19 +9186,19 @@
         <v>20120747</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I104" s="21" t="s">
         <v>30</v>
@@ -9219,13 +9210,13 @@
         <v>30</v>
       </c>
       <c r="L104" s="21" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M104" s="24" t="n">
         <v>41379.3963328704</v>
       </c>
       <c r="N104" s="21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O104" s="21" t="s">
         <v>28</v>
@@ -9255,28 +9246,28 @@
         <v>20120693</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J105" s="21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K105" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L105" s="21" t="s">
         <v>25</v>
@@ -9285,7 +9276,7 @@
         <v>41379.4204547107</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O105" s="21" t="s">
         <v>28</v>
@@ -9315,10 +9306,10 @@
         <v>20120728</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F106" s="21" t="s">
         <v>30</v>
@@ -9327,7 +9318,7 @@
         <v>35</v>
       </c>
       <c r="H106" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I106" s="21" t="s">
         <v>30</v>
@@ -9339,13 +9330,13 @@
         <v>30</v>
       </c>
       <c r="L106" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M106" s="24" t="n">
         <v>41380.4859515394</v>
       </c>
       <c r="N106" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O106" s="21" t="s">
         <v>28</v>
@@ -9375,37 +9366,37 @@
         <v>20120698</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F107" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H107" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J107" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K107" s="21" t="n">
         <v>32</v>
       </c>
       <c r="L107" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M107" s="24" t="n">
         <v>41380.6362467593</v>
       </c>
       <c r="N107" s="21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O107" s="21" t="s">
         <v>28</v>
@@ -9435,31 +9426,31 @@
         <v>20120731</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G108" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H108" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I108" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J108" s="21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K108" s="21" t="n">
         <v>19</v>
       </c>
       <c r="L108" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M108" s="24" t="n">
         <v>41380.6544068634</v>
@@ -9495,13 +9486,13 @@
         <v>20120701</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G109" s="21" t="s">
         <v>35</v>
@@ -9510,7 +9501,7 @@
         <v>36</v>
       </c>
       <c r="I109" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J109" s="21" t="s">
         <v>38</v>
@@ -9519,13 +9510,13 @@
         <v>14</v>
       </c>
       <c r="L109" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M109" s="24" t="n">
         <v>41380.7369794792</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O109" s="21" t="s">
         <v>28</v>
@@ -9555,13 +9546,13 @@
         <v>20120702</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>35</v>
@@ -9570,7 +9561,7 @@
         <v>36</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J110" s="21" t="s">
         <v>38</v>
@@ -9579,13 +9570,13 @@
         <v>24</v>
       </c>
       <c r="L110" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M110" s="24" t="n">
         <v>41380.7715090625</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O110" s="21" t="s">
         <v>28</v>
@@ -9615,37 +9606,37 @@
         <v>20120704</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H111" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K111" s="21" t="n">
         <v>32</v>
       </c>
       <c r="L111" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M111" s="24" t="n">
         <v>41381.5380797454</v>
       </c>
       <c r="N111" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O111" s="21" t="s">
         <v>28</v>
@@ -9675,7 +9666,7 @@
         <v>20120711</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E112" s="21"/>
       <c r="F112" s="21" t="s">
@@ -9688,22 +9679,22 @@
         <v>25</v>
       </c>
       <c r="I112" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J112" s="21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K112" s="21" t="n">
         <v>10</v>
       </c>
       <c r="L112" s="21" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M112" s="24" t="n">
         <v>41382.3362046296</v>
       </c>
       <c r="N112" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O112" s="21" t="s">
         <v>28</v>
@@ -9733,7 +9724,7 @@
         <v>20120721</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="21" t="s">
@@ -9743,25 +9734,25 @@
         <v>45</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I113" s="21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J113" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K113" s="21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L113" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M113" s="24" t="n">
         <v>41386.533459375</v>
       </c>
       <c r="N113" s="21" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O113" s="21" t="s">
         <v>28</v>
@@ -9791,37 +9782,37 @@
         <v>20120713</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I114" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J114" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K114" s="21" t="n">
         <v>18</v>
       </c>
       <c r="L114" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M114" s="24" t="n">
         <v>41387.3496603356</v>
       </c>
       <c r="N114" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O114" s="21" t="s">
         <v>28</v>
@@ -9851,17 +9842,17 @@
         <v>20120719</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I115" s="21" t="s">
         <v>30</v>
@@ -9873,13 +9864,13 @@
         <v>30</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M115" s="24" t="n">
         <v>41389.4028955671</v>
       </c>
       <c r="N115" s="21" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O115" s="21" t="s">
         <v>28</v>
@@ -9909,37 +9900,37 @@
         <v>20120714</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I116" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J116" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K116" s="21" t="n">
         <v>30</v>
       </c>
       <c r="L116" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M116" s="24" t="n">
         <v>41389.598034375</v>
       </c>
       <c r="N116" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O116" s="21" t="s">
         <v>28</v>
@@ -9969,37 +9960,37 @@
         <v>20120715</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J117" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K117" s="21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M117" s="24" t="n">
         <v>41390.4169229977</v>
       </c>
       <c r="N117" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O117" s="21" t="s">
         <v>28</v>
@@ -10029,37 +10020,37 @@
         <v>20120716</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J118" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K118" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M118" s="24" t="n">
         <v>41390.4574103819</v>
       </c>
       <c r="N118" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O118" s="21" t="s">
         <v>28</v>
@@ -10089,10 +10080,10 @@
         <v>20120717</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F119" s="21" t="s">
         <v>30</v>
@@ -10101,25 +10092,25 @@
         <v>45</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J119" s="21" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K119" s="21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M119" s="24" t="n">
         <v>41390.5339625</v>
       </c>
       <c r="N119" s="21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O119" s="21" t="s">
         <v>28</v>
@@ -10149,10 +10140,10 @@
         <v>20120720</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F120" s="21" t="s">
         <v>30</v>
@@ -10161,25 +10152,25 @@
         <v>54</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J120" s="21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K120" s="21" t="n">
         <v>35</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M120" s="24" t="n">
         <v>41395.6476705671</v>
       </c>
       <c r="N120" s="21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O120" s="21" t="s">
         <v>28</v>
@@ -10209,37 +10200,37 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J121" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M121" s="24" t="n">
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O121" s="21" t="s">
         <v>30</v>
@@ -10269,37 +10260,37 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G122" s="21" t="s">
         <v>45</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J122" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K122" s="21" t="n">
         <v>28</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M122" s="24" t="n">
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O122" s="21" t="s">
         <v>28</v>
@@ -10329,22 +10320,22 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H123" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I123" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J123" s="21" t="s">
         <v>38</v>
@@ -10353,13 +10344,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M123" s="24" t="n">
         <v>41400.580093287</v>
       </c>
       <c r="N123" s="21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O123" s="21" t="s">
         <v>28</v>
@@ -10389,37 +10380,37 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F124" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I124" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J124" s="21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K124" s="21" t="n">
         <v>21</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M124" s="24" t="n">
         <v>41400.6168131597</v>
       </c>
       <c r="N124" s="21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O124" s="21" t="s">
         <v>28</v>
@@ -10449,37 +10440,37 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I125" s="21" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K125" s="21" t="n">
         <v>15</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M125" s="24" t="n">
         <v>41401.6187177083</v>
       </c>
       <c r="N125" s="21" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O125" s="21" t="s">
         <v>28</v>
@@ -10509,10 +10500,10 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F126" s="21" t="s">
         <v>30</v>
@@ -10521,13 +10512,13 @@
         <v>24</v>
       </c>
       <c r="H126" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I126" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J126" s="21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K126" s="21" t="n">
         <v>23</v>
@@ -10539,7 +10530,7 @@
         <v>41402.4505539005</v>
       </c>
       <c r="N126" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O126" s="21" t="s">
         <v>28</v>
@@ -10569,10 +10560,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F127" s="21" t="s">
         <v>30</v>
@@ -10587,7 +10578,7 @@
         <v>242</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K127" s="21" t="n">
         <v>266</v>
@@ -10599,7 +10590,7 @@
         <v>41403.6118389236</v>
       </c>
       <c r="N127" s="21" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O127" s="21" t="s">
         <v>28</v>
@@ -10629,37 +10620,37 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G128" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H128" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I128" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J128" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K128" s="21" t="n">
         <v>3</v>
       </c>
       <c r="L128" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M128" s="24" t="n">
         <v>41403.8700552894</v>
       </c>
       <c r="N128" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O128" s="21" t="s">
         <v>28</v>
@@ -10689,37 +10680,37 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G129" s="21" t="s">
         <v>54</v>
       </c>
       <c r="H129" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J129" s="21" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K129" s="21" t="n">
         <v>6</v>
       </c>
       <c r="L129" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M129" s="24" t="n">
         <v>41407.5351728356</v>
       </c>
       <c r="N129" s="21" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O129" s="21" t="s">
         <v>28</v>
@@ -10749,31 +10740,31 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H130" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J130" s="21" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K130" s="21" t="n">
         <v>35</v>
       </c>
       <c r="L130" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M130" s="24" t="n">
         <v>41407.6975019676</v>
@@ -10809,37 +10800,37 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F131" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J131" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K131" s="21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L131" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M131" s="24" t="n">
         <v>41409.4303223032</v>
       </c>
       <c r="N131" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O131" s="21" t="s">
         <v>28</v>
@@ -10869,37 +10860,37 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G132" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I132" s="21" t="s">
         <v>56</v>
       </c>
       <c r="J132" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K132" s="21" t="n">
         <v>23</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M132" s="24" t="n">
         <v>41409.5465580208</v>
       </c>
       <c r="N132" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O132" s="21" t="s">
         <v>28</v>
@@ -10929,10 +10920,10 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F133" s="21" t="s">
         <v>30</v>
@@ -10941,25 +10932,25 @@
         <v>30</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I133" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J133" s="21" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M133" s="24" t="n">
         <v>41409.6335074421</v>
       </c>
       <c r="N133" s="21" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O133" s="21" t="s">
         <v>30</v>
@@ -10989,37 +10980,37 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I134" s="21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J134" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K134" s="21" t="n">
         <v>18</v>
       </c>
       <c r="L134" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M134" s="24" t="n">
         <v>41409.8738054745</v>
       </c>
       <c r="N134" s="21" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O134" s="21" t="s">
         <v>28</v>
@@ -11049,37 +11040,37 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G135" s="21" t="s">
         <v>54</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I135" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J135" s="21" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K135" s="21" t="n">
         <v>19</v>
       </c>
       <c r="L135" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M135" s="24" t="n">
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="21" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O135" s="21" t="s">
         <v>28</v>
@@ -11109,17 +11100,17 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E136" s="21"/>
       <c r="F136" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I136" s="21" t="s">
         <v>30</v>
@@ -11131,13 +11122,13 @@
         <v>30</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M136" s="24" t="n">
         <v>41413.6731329861</v>
       </c>
       <c r="N136" s="21" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O136" s="21" t="s">
         <v>28</v>
@@ -11167,35 +11158,35 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J137" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K137" s="21" t="n">
         <v>4</v>
       </c>
       <c r="L137" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M137" s="24" t="n">
         <v>41415.646772419</v>
       </c>
       <c r="N137" s="21" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O137" s="21" t="s">
         <v>28</v>
@@ -11225,13 +11216,13 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G138" s="21" t="s">
         <v>30</v>
@@ -11240,10 +11231,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J138" s="21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K138" s="21" t="n">
         <v>7</v>
@@ -11285,17 +11276,17 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E139" s="21"/>
       <c r="F139" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I139" s="21" t="s">
         <v>30</v>
@@ -11307,13 +11298,13 @@
         <v>30</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M139" s="24" t="n">
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O139" s="21" t="s">
         <v>28</v>
@@ -11343,13 +11334,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G140" s="21" t="s">
         <v>69</v>
@@ -11361,7 +11352,7 @@
         <v>37</v>
       </c>
       <c r="J140" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K140" s="21" t="n">
         <v>24</v>
@@ -11373,7 +11364,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="21" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O140" s="21" t="s">
         <v>30</v>
@@ -11403,37 +11394,37 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G141" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I141" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J141" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L141" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M141" s="24" t="n">
         <v>41422.4202321412</v>
       </c>
       <c r="N141" s="21" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O141" s="21" t="s">
         <v>30</v>
@@ -11463,37 +11454,37 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G142" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H142" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I142" s="21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J142" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K142" s="21" t="n">
         <v>6</v>
       </c>
       <c r="L142" s="21" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M142" s="24" t="n">
         <v>41422.5893254977</v>
       </c>
       <c r="N142" s="21" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O142" s="21" t="s">
         <v>28</v>
@@ -11523,19 +11514,19 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G143" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I143" s="21" t="s">
         <v>30</v>
@@ -11547,13 +11538,13 @@
         <v>30</v>
       </c>
       <c r="L143" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M143" s="24" t="n">
         <v>41423.4291382755</v>
       </c>
       <c r="N143" s="21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O143" s="21" t="s">
         <v>28</v>
@@ -11583,13 +11574,13 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G144" s="21" t="s">
         <v>35</v>
@@ -11607,13 +11598,13 @@
         <v>30</v>
       </c>
       <c r="L144" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M144" s="24" t="n">
         <v>41423.7250649653</v>
       </c>
       <c r="N144" s="21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O144" s="21" t="s">
         <v>28</v>
@@ -11643,17 +11634,17 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E145" s="21"/>
       <c r="F145" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I145" s="21" t="s">
         <v>30</v>
@@ -11665,13 +11656,13 @@
         <v>30</v>
       </c>
       <c r="L145" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M145" s="24" t="n">
         <v>41423.7734304398</v>
       </c>
       <c r="N145" s="21" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O145" s="21" t="s">
         <v>28</v>
@@ -11701,17 +11692,17 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E146" s="21"/>
       <c r="F146" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I146" s="21" t="s">
         <v>30</v>
@@ -11723,13 +11714,13 @@
         <v>30</v>
       </c>
       <c r="L146" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M146" s="24" t="n">
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="21" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O146" s="21" t="s">
         <v>28</v>
@@ -11759,17 +11750,17 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E147" s="21"/>
       <c r="F147" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I147" s="21" t="s">
         <v>30</v>
@@ -11781,13 +11772,13 @@
         <v>30</v>
       </c>
       <c r="L147" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M147" s="24" t="n">
         <v>41423.8413989931</v>
       </c>
       <c r="N147" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O147" s="21" t="s">
         <v>28</v>
@@ -11817,37 +11808,37 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G148" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I148" s="21" t="s">
         <v>56</v>
       </c>
       <c r="J148" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K148" s="21" t="n">
         <v>24</v>
       </c>
       <c r="L148" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M148" s="24" t="n">
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="21" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O148" s="21" t="s">
         <v>30</v>
@@ -11877,19 +11868,19 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G149" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I149" s="21" t="s">
         <v>30</v>
@@ -11901,13 +11892,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="21" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M149" s="24" t="n">
         <v>41425.3611156597</v>
       </c>
       <c r="N149" s="21" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O149" s="21" t="s">
         <v>30</v>
@@ -11937,37 +11928,37 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F150" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H150" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I150" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J150" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K150" s="21" t="n">
         <v>23</v>
       </c>
       <c r="L150" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M150" s="24" t="n">
         <v>41425.5221732986</v>
       </c>
       <c r="N150" s="21" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O150" s="21" t="s">
         <v>28</v>
@@ -11997,7 +11988,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E151" s="21"/>
       <c r="F151" s="21" t="s">
@@ -12007,16 +11998,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="21" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J151" s="21" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K151" s="21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L151" s="21" t="s">
         <v>69</v>
@@ -12025,7 +12016,7 @@
         <v>41425.5727136574</v>
       </c>
       <c r="N151" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O151" s="21" t="s">
         <v>28</v>
@@ -12055,10 +12046,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F152" s="21" t="s">
         <v>30</v>
@@ -12067,25 +12058,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K152" s="21" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M152" s="24" t="n">
         <v>41428.4703114583</v>
       </c>
       <c r="N152" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O152" s="21" t="s">
         <v>30</v>
@@ -12115,13 +12106,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G153" s="21" t="s">
         <v>30</v>
@@ -12130,22 +12121,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K153" s="21" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M153" s="24" t="n">
         <v>41428.5987583681</v>
       </c>
       <c r="N153" s="21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O153" s="21" t="s">
         <v>30</v>
@@ -12175,37 +12166,37 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G154" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K154" s="21" t="n">
         <v>34</v>
       </c>
       <c r="L154" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M154" s="24" t="n">
         <v>41429.4211212616</v>
       </c>
       <c r="N154" s="21" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O154" s="21" t="s">
         <v>30</v>
@@ -12235,37 +12226,37 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G155" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J155" s="21" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K155" s="21" t="n">
         <v>20</v>
       </c>
       <c r="L155" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M155" s="24" t="n">
         <v>41429.529555787</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O155" s="21" t="s">
         <v>30</v>
@@ -12295,10 +12286,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F156" s="21" t="s">
         <v>30</v>
@@ -12307,25 +12298,25 @@
         <v>30</v>
       </c>
       <c r="H156" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J156" s="21" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K156" s="21" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L156" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M156" s="24" t="n">
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="21" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O156" s="21" t="s">
         <v>30</v>
@@ -12355,10 +12346,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F157" s="21" t="s">
         <v>30</v>
@@ -12367,25 +12358,25 @@
         <v>30</v>
       </c>
       <c r="H157" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J157" s="21" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K157" s="21" t="n">
         <v>27</v>
       </c>
       <c r="L157" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M157" s="24" t="n">
         <v>41431.5794003125</v>
       </c>
       <c r="N157" s="21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O157" s="21" t="s">
         <v>30</v>
@@ -12415,10 +12406,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F158" s="21" t="s">
         <v>53</v>
@@ -12430,10 +12421,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J158" s="21" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K158" s="21" t="n">
         <v>2</v>
@@ -12445,7 +12436,7 @@
         <v>41437.4946140046</v>
       </c>
       <c r="N158" s="21" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O158" s="21" t="s">
         <v>30</v>
@@ -12475,13 +12466,13 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G159" s="21" t="s">
         <v>35</v>
@@ -12490,22 +12481,22 @@
         <v>36</v>
       </c>
       <c r="I159" s="21" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K159" s="21" t="n">
         <v>14</v>
       </c>
       <c r="L159" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M159" s="24" t="n">
         <v>41439.4236439468</v>
       </c>
       <c r="N159" s="21" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O159" s="21" t="s">
         <v>30</v>
@@ -12535,35 +12526,35 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E160" s="21"/>
       <c r="F160" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G160" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H160" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I160" s="21" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K160" s="21" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="21" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M160" s="24" t="n">
         <v>41442.581944294</v>
       </c>
       <c r="N160" s="21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O160" s="21" t="s">
         <v>30</v>
@@ -12593,10 +12584,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F161" s="21" t="s">
         <v>30</v>
@@ -12605,25 +12596,25 @@
         <v>30</v>
       </c>
       <c r="H161" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I161" s="21" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K161" s="21" t="n">
         <v>3</v>
       </c>
       <c r="L161" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M161" s="24" t="n">
         <v>41442.6344805903</v>
       </c>
       <c r="N161" s="21" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O161" s="21" t="s">
         <v>30</v>
@@ -12653,7 +12644,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E162" s="21"/>
       <c r="F162" s="21" t="s">
@@ -12663,25 +12654,25 @@
         <v>30</v>
       </c>
       <c r="H162" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I162" s="21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K162" s="21" t="n">
         <v>30</v>
       </c>
       <c r="L162" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M162" s="24" t="n">
         <v>41443.4305087153</v>
       </c>
       <c r="N162" s="21" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O162" s="21" t="s">
         <v>30</v>
@@ -12711,10 +12702,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F163" s="21" t="s">
         <v>30</v>
@@ -12723,25 +12714,25 @@
         <v>30</v>
       </c>
       <c r="H163" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I163" s="21" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K163" s="21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L163" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M163" s="24" t="n">
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="21" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="O163" s="21" t="s">
         <v>30</v>
@@ -12771,7 +12762,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E164" s="21"/>
       <c r="F164" s="21" t="s">
@@ -12781,7 +12772,7 @@
         <v>30</v>
       </c>
       <c r="H164" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I164" s="21" t="s">
         <v>30</v>
@@ -12793,13 +12784,13 @@
         <v>30</v>
       </c>
       <c r="L164" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M164" s="24" t="n">
         <v>41444.665028669</v>
       </c>
       <c r="N164" s="21" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O164" s="21" t="s">
         <v>30</v>
@@ -12829,10 +12820,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F165" s="21" t="s">
         <v>30</v>
@@ -12841,25 +12832,25 @@
         <v>30</v>
       </c>
       <c r="H165" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K165" s="21" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="L165" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M165" s="24" t="n">
         <v>41445.4579989583</v>
       </c>
       <c r="N165" s="21" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="O165" s="21" t="s">
         <v>30</v>
@@ -12889,7 +12880,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E166" s="21"/>
       <c r="F166" s="21" t="s">
@@ -12899,25 +12890,25 @@
         <v>30</v>
       </c>
       <c r="H166" s="21" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I166" s="21" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J166" s="21" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K166" s="21" t="n">
         <v>6</v>
       </c>
       <c r="L166" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M166" s="24" t="n">
         <v>41446.4608850694</v>
       </c>
       <c r="N166" s="21" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="O166" s="21" t="s">
         <v>30</v>
@@ -12947,10 +12938,10 @@
         <v>20130021</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F167" s="21" t="s">
         <v>30</v>
@@ -12959,25 +12950,25 @@
         <v>30</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="J167" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K167" s="21" t="n">
         <v>6</v>
       </c>
       <c r="L167" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M167" s="28" t="n">
         <v>41449.3498559028</v>
       </c>
       <c r="N167" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O167" s="27" t="s">
         <v>30</v>
@@ -13007,10 +12998,10 @@
         <v>20130022</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F168" s="21" t="s">
         <v>30</v>
@@ -13019,25 +13010,25 @@
         <v>30</v>
       </c>
       <c r="H168" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I168" s="27" t="n">
         <v>29</v>
       </c>
       <c r="J168" s="27" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K168" s="21" t="n">
         <v>12</v>
       </c>
       <c r="L168" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M168" s="28" t="n">
         <v>41449.494916169</v>
       </c>
       <c r="N168" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O168" s="27" t="s">
         <v>30</v>
@@ -13067,37 +13058,37 @@
         <v>20130023</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F169" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G169" s="27" t="s">
         <v>30</v>
       </c>
       <c r="H169" s="27" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I169" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J169" s="27" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K169" s="21" t="n">
         <v>26</v>
       </c>
       <c r="L169" s="27" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M169" s="28" t="n">
         <v>41449.6461498843</v>
       </c>
       <c r="N169" s="27" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O169" s="27" t="s">
         <v>30</v>
@@ -13127,37 +13118,37 @@
         <v>20130024</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F170" s="27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G170" s="27" t="s">
         <v>30</v>
       </c>
       <c r="H170" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I170" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J170" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="K170" s="21" t="n">
         <v>25</v>
       </c>
       <c r="L170" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M170" s="28" t="n">
         <v>41450.6984287037</v>
       </c>
       <c r="N170" s="27" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O170" s="27" t="s">
         <v>30</v>
@@ -13187,7 +13178,7 @@
         <v>20130025</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E171" s="27"/>
       <c r="F171" s="27" t="s">
@@ -13197,25 +13188,25 @@
         <v>30</v>
       </c>
       <c r="H171" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I171" s="27" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J171" s="27" t="n">
         <v>40</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L171" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M171" s="28" t="n">
         <v>41451.4667568287</v>
       </c>
       <c r="N171" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="O171" s="27" t="s">
         <v>30</v>
@@ -13245,10 +13236,10 @@
         <v>20130029</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F172" s="21" t="s">
         <v>30</v>
@@ -13257,25 +13248,25 @@
         <v>30</v>
       </c>
       <c r="H172" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I172" s="21" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J172" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K172" s="21" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L172" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M172" s="24" t="n">
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O172" s="21" t="s">
         <v>30</v>
@@ -13297,7 +13288,7 @@
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="26">
       <c r="A173" s="29"/>
       <c r="B173" s="30" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C173" s="30"/>
       <c r="D173" s="30"/>
@@ -13309,13 +13300,13 @@
       <c r="J173" s="30"/>
       <c r="K173" s="30"/>
       <c r="L173" s="30"/>
-      <c r="M173" s="19"/>
+      <c r="M173" s="20"/>
       <c r="N173" s="30"/>
       <c r="O173" s="30"/>
       <c r="P173" s="30"/>
       <c r="Q173" s="30"/>
       <c r="R173" s="30"/>
-      <c r="S173" s="19"/>
+      <c r="S173" s="20"/>
       <c r="T173" s="30"/>
     </row>
   </sheetData>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -2576,7 +2576,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2649,15 +2649,19 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2665,7 +2669,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2793,7 +2797,7 @@
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A10" activeCellId="0" pane="bottomLeft" sqref="10:10"/>
+      <selection activeCell="A15" activeCellId="0" pane="bottomLeft" sqref="15:15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3440,153 +3444,138 @@
         <v>41088.4140931366</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11" s="19">
-      <c r="A11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="19" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11" s="18">
+      <c r="A11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="18" t="n">
         <v>15054</v>
       </c>
-      <c r="C11" s="19" t="n">
+      <c r="C11" s="18" t="n">
         <v>20120099</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="19" t="n">
+      <c r="K11" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="20" t="n">
+      <c r="M11" s="16" t="n">
         <v>41089.5931419329</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="O11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="20" t="n">
+      <c r="O11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="16" t="n">
         <v>41099.6019939815</v>
       </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12" s="22">
-      <c r="A12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="22" t="n">
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="12" s="17">
+      <c r="A12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17" t="n">
         <v>15070</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="17" t="n">
         <v>20120097</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="22" t="s">
+      <c r="I12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="20" t="n">
+      <c r="M12" s="16" t="n">
         <v>41096.5668918171</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="20" t="n">
+      <c r="O12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" s="16" t="n">
         <v>41096.5819193634</v>
       </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -3645,7 +3634,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -3703,67 +3692,67 @@
         <v>41170.4644665856</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="15" s="15">
+      <c r="A15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="15" t="n">
         <v>15074</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="15" t="n">
         <v>20120121</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="20" t="n">
+      <c r="M15" s="16" t="n">
         <v>41100.5766488426</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" s="20" t="n">
+      <c r="O15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" s="16" t="n">
         <v>41121.5516165509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -3822,7 +3811,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -3881,7 +3870,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -3937,7 +3926,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -3996,7 +3985,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -4055,7 +4044,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -4111,7 +4100,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -4170,7 +4159,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -4228,82 +4217,82 @@
         <v>41109.4942756597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24" s="22">
-      <c r="A24" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="22" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24" s="21">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21" t="n">
         <v>15085</v>
       </c>
-      <c r="C24" s="22" t="n">
+      <c r="C24" s="21" t="n">
         <v>20120112</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="K24" s="22" t="n">
+      <c r="K24" s="21" t="n">
         <v>31</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>178</v>
       </c>
       <c r="M24" s="20" t="n">
         <v>41109.5210351042</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="O24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="22" t="n">
+      <c r="O24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="21" t="n">
         <v>3</v>
       </c>
       <c r="S24" s="20" t="n">
         <v>41109.5298134607</v>
       </c>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -4359,7 +4348,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -4417,8 +4406,8 @@
         <v>41122.5103413194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27" s="22">
-      <c r="A27" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27" s="21">
+      <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -4491,7 +4480,7 @@
       <c r="AI27" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -4550,7 +4539,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -4608,8 +4597,8 @@
         <v>41121.6159375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30" s="22">
-      <c r="A30" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30" s="21">
+      <c r="A30" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -4682,7 +4671,7 @@
       <c r="AI30" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -4741,7 +4730,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -4797,7 +4786,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -4853,7 +4842,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -4909,7 +4898,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -4965,7 +4954,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -5020,8 +5009,8 @@
         <v>41138.4769562153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37" s="22">
-      <c r="A37" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37" s="21">
+      <c r="A37" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -5093,8 +5082,8 @@
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38" s="22">
-      <c r="A38" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38" s="21">
+      <c r="A38" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -5167,7 +5156,7 @@
       <c r="AI38" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -5226,7 +5215,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -5282,7 +5271,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -5341,7 +5330,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -5400,7 +5389,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -5455,8 +5444,8 @@
         <v>41214.6117733796</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44" s="22">
-      <c r="A44" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44" s="21">
+      <c r="A44" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -5529,7 +5518,7 @@
       <c r="AI44" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -5585,7 +5574,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -5644,7 +5633,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -5703,7 +5692,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -5762,7 +5751,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -5821,7 +5810,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -5880,7 +5869,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -5939,7 +5928,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -5994,8 +5983,8 @@
         <v>41200.6401648495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53" s="22">
-      <c r="A53" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53" s="21">
+      <c r="A53" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="2" t="n">
@@ -6067,8 +6056,8 @@
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54" s="22">
-      <c r="A54" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54" s="21">
+      <c r="A54" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="2" t="n">
@@ -6141,7 +6130,7 @@
       <c r="AI54" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -6197,7 +6186,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="2" t="n">
@@ -6252,8 +6241,8 @@
         <v>41211.65310625</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="22">
-      <c r="A57" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="21">
+      <c r="A57" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="2" t="n">
@@ -6328,7 +6317,7 @@
       <c r="AI57" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="2" t="n">
@@ -6384,7 +6373,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="2" t="n">
@@ -6442,79 +6431,79 @@
         <v>41207.427530787</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60" s="19">
-      <c r="A60" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="19" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60" s="23">
+      <c r="A60" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="23" t="n">
         <v>15297</v>
       </c>
-      <c r="C60" s="19" t="n">
+      <c r="C60" s="23" t="n">
         <v>20120257</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="19" t="s">
+      <c r="F60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="I60" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" s="19" t="s">
+      <c r="I60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="23" t="s">
         <v>87</v>
       </c>
       <c r="M60" s="20" t="n">
         <v>41210.5831710648</v>
       </c>
-      <c r="N60" s="19" t="s">
+      <c r="N60" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="O60" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P60" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q60" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R60" s="19" t="n">
+      <c r="O60" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" s="23" t="n">
         <v>3</v>
       </c>
       <c r="S60" s="20" t="n">
         <v>41212.431104132</v>
       </c>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="2" t="n">
@@ -6570,7 +6559,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="2" t="n">
@@ -6629,7 +6618,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="2" t="n">
@@ -6685,7 +6674,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="2" t="n">
@@ -6744,7 +6733,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="2" t="n">
@@ -6803,7 +6792,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="2" t="n">
@@ -6861,8 +6850,8 @@
         <v>41281.4489203704</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67" s="22">
-      <c r="A67" s="18" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67" s="21">
+      <c r="A67" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="2" t="n">
@@ -6937,7 +6926,7 @@
       <c r="AI67" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="2" t="n">
@@ -6993,7 +6982,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="69">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="2" t="n">
@@ -7051,225 +7040,225 @@
         <v>41292.7439197107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70" s="19">
-      <c r="A70" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="19" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70" s="23">
+      <c r="A70" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="23" t="n">
         <v>15418</v>
       </c>
-      <c r="C70" s="19" t="n">
+      <c r="C70" s="23" t="n">
         <v>20120385</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="19" t="s">
+      <c r="F70" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="I70" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="19" t="s">
+      <c r="I70" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="23" t="s">
         <v>107</v>
       </c>
       <c r="M70" s="20" t="n">
         <v>41294.5077270486</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="O70" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P70" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q70" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" s="19" t="n">
+      <c r="O70" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R70" s="23" t="n">
         <v>3</v>
       </c>
       <c r="S70" s="20" t="n">
         <v>41309.4628889236</v>
       </c>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="21"/>
-      <c r="AB70" s="21"/>
-      <c r="AC70" s="21"/>
-      <c r="AD70" s="21"/>
-      <c r="AE70" s="21"/>
-      <c r="AF70" s="21"/>
-      <c r="AG70" s="21"/>
-      <c r="AH70" s="21"/>
-      <c r="AI70" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="22">
-      <c r="A71" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="19" t="n">
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="22"/>
+      <c r="AE70" s="22"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="22"/>
+      <c r="AH70" s="22"/>
+      <c r="AI70" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="21">
+      <c r="A71" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="23" t="n">
         <v>15428</v>
       </c>
-      <c r="C71" s="19" t="n">
+      <c r="C71" s="23" t="n">
         <v>20120378</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="19" t="s">
+      <c r="F71" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="I71" s="19" t="s">
+      <c r="I71" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="K71" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="19" t="s">
+      <c r="K71" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="23" t="s">
         <v>298</v>
       </c>
       <c r="M71" s="20" t="n">
         <v>41302.5911455208</v>
       </c>
-      <c r="N71" s="19" t="s">
+      <c r="N71" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="O71" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P71" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q71" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R71" s="19" t="n">
+      <c r="O71" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R71" s="23" t="n">
         <v>3</v>
       </c>
       <c r="S71" s="20" t="n">
         <v>41304.627268287</v>
       </c>
-      <c r="T71" s="19"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
-      <c r="AA71" s="21"/>
-      <c r="AB71" s="21"/>
-      <c r="AC71" s="21"/>
-      <c r="AD71" s="21"/>
-      <c r="AE71" s="21"/>
-      <c r="AF71" s="21"/>
-      <c r="AG71" s="21"/>
-      <c r="AH71" s="21"/>
-      <c r="AI71" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72" s="19">
-      <c r="A72" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="19" t="n">
+      <c r="T71" s="23"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="22"/>
+      <c r="AD71" s="22"/>
+      <c r="AE71" s="22"/>
+      <c r="AF71" s="22"/>
+      <c r="AG71" s="22"/>
+      <c r="AH71" s="22"/>
+      <c r="AI71" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72" s="23">
+      <c r="A72" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="23" t="n">
         <v>15430</v>
       </c>
-      <c r="C72" s="19" t="n">
+      <c r="C72" s="23" t="n">
         <v>20120375</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="19" t="s">
+      <c r="F72" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="I72" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="19" t="s">
+      <c r="I72" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="23" t="s">
         <v>213</v>
       </c>
       <c r="M72" s="20" t="n">
         <v>41303.6479885069</v>
       </c>
-      <c r="N72" s="19" t="s">
+      <c r="N72" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="O72" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P72" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q72" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R72" s="19" t="n">
+      <c r="O72" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" s="23" t="n">
         <v>3</v>
       </c>
       <c r="S72" s="20" t="n">
         <v>41303.6661596065</v>
       </c>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="21"/>
-      <c r="AB72" s="21"/>
-      <c r="AC72" s="21"/>
-      <c r="AD72" s="21"/>
-      <c r="AE72" s="21"/>
-      <c r="AF72" s="21"/>
-      <c r="AG72" s="21"/>
-      <c r="AH72" s="21"/>
-      <c r="AI72" s="21"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="22"/>
+      <c r="AE72" s="22"/>
+      <c r="AF72" s="22"/>
+      <c r="AG72" s="22"/>
+      <c r="AH72" s="22"/>
+      <c r="AI72" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="73">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -7328,7 +7317,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="74">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="2" t="n">
@@ -7387,7 +7376,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="75">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="2" t="n">
@@ -7446,7 +7435,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="76">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -7502,7 +7491,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="77">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -7561,7 +7550,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="78">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -7620,7 +7609,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="79">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -7679,7 +7668,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="80">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B80" s="2" t="n">
@@ -7738,7 +7727,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="81">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="2" t="n">
@@ -7797,7 +7786,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="82">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="2" t="n">
@@ -7856,7 +7845,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="83">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -7915,7 +7904,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="84">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="2" t="n">
@@ -7945,7 +7934,7 @@
       <c r="J84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K84" s="23" t="n">
+      <c r="K84" s="24" t="n">
         <v>41592</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -7974,7 +7963,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="85">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -8033,7 +8022,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="86">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="2" t="n">
@@ -8092,7 +8081,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="87">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B87" s="2" t="n">
@@ -8151,7 +8140,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="88">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="2" t="n">
@@ -8209,62 +8198,62 @@
         <v>41352.7037724884</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="89" s="21">
-      <c r="A89" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="21" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="89" s="22">
+      <c r="A89" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="22" t="n">
         <v>15562</v>
       </c>
-      <c r="C89" s="21" t="n">
+      <c r="C89" s="22" t="n">
         <v>20120496</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E89" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="G89" s="21" t="s">
+      <c r="G89" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J89" s="21" t="s">
+      <c r="J89" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="K89" s="21" t="n">
+      <c r="K89" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="L89" s="21" t="s">
+      <c r="L89" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="M89" s="24" t="n">
+      <c r="M89" s="25" t="n">
         <v>41358.509103588</v>
       </c>
-      <c r="N89" s="21" t="s">
+      <c r="N89" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="O89" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P89" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q89" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R89" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S89" s="24" t="n">
+      <c r="O89" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P89" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q89" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R89" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" s="25" t="n">
         <v>41358.5180358796</v>
       </c>
       <c r="U89" s="4"/>
@@ -8283,59 +8272,59 @@
       <c r="AH89" s="4"/>
       <c r="AI89" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="90" s="21">
-      <c r="A90" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="21" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="90" s="22">
+      <c r="A90" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="22" t="n">
         <v>15564</v>
       </c>
-      <c r="C90" s="21" t="n">
+      <c r="C90" s="22" t="n">
         <v>20120497</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="F90" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" s="21" t="s">
+      <c r="F90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="21" t="s">
+      <c r="H90" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="I90" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J90" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L90" s="21" t="s">
+      <c r="I90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M90" s="24" t="n">
+      <c r="M90" s="25" t="n">
         <v>41359.6074497338</v>
       </c>
-      <c r="N90" s="21" t="s">
+      <c r="N90" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="O90" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P90" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q90" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R90" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S90" s="24" t="n">
+      <c r="O90" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P90" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R90" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" s="25" t="n">
         <v>41359.6303167014</v>
       </c>
       <c r="U90" s="4"/>
@@ -8354,62 +8343,62 @@
       <c r="AH90" s="4"/>
       <c r="AI90" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="91" s="21">
-      <c r="A91" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="21" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="91" s="22">
+      <c r="A91" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="22" t="n">
         <v>15570</v>
       </c>
-      <c r="C91" s="21" t="n">
+      <c r="C91" s="22" t="n">
         <v>20120618</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G91" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="21" t="s">
+      <c r="H91" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="J91" s="21" t="s">
+      <c r="J91" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="K91" s="21" t="s">
+      <c r="K91" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="L91" s="21" t="s">
+      <c r="L91" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="M91" s="24" t="n">
+      <c r="M91" s="25" t="n">
         <v>41360.3535715278</v>
       </c>
-      <c r="N91" s="21" t="s">
+      <c r="N91" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="O91" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P91" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q91" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R91" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S91" s="24" t="n">
+      <c r="O91" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P91" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q91" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R91" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" s="25" t="n">
         <v>41368.7920587616</v>
       </c>
       <c r="U91" s="4"/>
@@ -8428,82 +8417,82 @@
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="22">
-      <c r="A92" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="22" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="21">
+      <c r="A92" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="21" t="n">
         <v>15592</v>
       </c>
-      <c r="C92" s="22" t="n">
+      <c r="C92" s="21" t="n">
         <v>20120712</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="F92" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" s="22" t="s">
+      <c r="F92" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="H92" s="22" t="s">
+      <c r="H92" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="I92" s="22" t="s">
+      <c r="I92" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="J92" s="22" t="s">
+      <c r="J92" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="22" t="s">
+      <c r="K92" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="L92" s="22" t="s">
+      <c r="L92" s="21" t="s">
         <v>468</v>
       </c>
       <c r="M92" s="20" t="n">
         <v>41361.683209294</v>
       </c>
-      <c r="N92" s="22" t="s">
+      <c r="N92" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="O92" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P92" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q92" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R92" s="22" t="n">
+      <c r="O92" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P92" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q92" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R92" s="21" t="n">
         <v>3</v>
       </c>
       <c r="S92" s="20" t="n">
         <v>41386.7166903935</v>
       </c>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="21"/>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="21"/>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="21"/>
-      <c r="AI92" s="21"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="22"/>
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="22"/>
+      <c r="AD92" s="22"/>
+      <c r="AE92" s="22"/>
+      <c r="AF92" s="22"/>
+      <c r="AG92" s="22"/>
+      <c r="AH92" s="22"/>
+      <c r="AI92" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="93">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B93" s="2" t="n">
@@ -8562,7 +8551,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="94">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B94" s="2" t="n">
@@ -8620,428 +8609,428 @@
         <v>41366.5860202199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="25">
-      <c r="A95" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="21" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="26">
+      <c r="A95" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="22" t="n">
         <v>15683</v>
       </c>
-      <c r="C95" s="21" t="n">
+      <c r="C95" s="22" t="n">
         <v>20120640</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="F95" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" s="21" t="s">
+      <c r="F95" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H95" s="21" t="s">
+      <c r="H95" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="I95" s="21" t="s">
+      <c r="I95" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="J95" s="21" t="s">
+      <c r="J95" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="K95" s="21" t="n">
+      <c r="K95" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="L95" s="21" t="s">
+      <c r="L95" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="M95" s="24" t="n">
+      <c r="M95" s="25" t="n">
         <v>41369.63865625</v>
       </c>
-      <c r="N95" s="21" t="s">
+      <c r="N95" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="O95" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P95" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q95" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R95" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S95" s="24" t="n">
+      <c r="O95" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P95" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q95" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R95" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" s="25" t="n">
         <v>41369.6558372685</v>
       </c>
-      <c r="T95" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="25">
-      <c r="A96" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" s="21" t="n">
+      <c r="T95" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="26">
+      <c r="A96" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="22" t="n">
         <v>15702</v>
       </c>
-      <c r="C96" s="21" t="n">
+      <c r="C96" s="22" t="n">
         <v>20120647</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E96" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G96" s="21" t="s">
+      <c r="G96" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H96" s="21" t="s">
+      <c r="H96" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I96" s="21" t="s">
+      <c r="I96" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="21" t="s">
+      <c r="J96" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="K96" s="21" t="n">
+      <c r="K96" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="L96" s="21" t="s">
+      <c r="L96" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="M96" s="24" t="n">
+      <c r="M96" s="25" t="n">
         <v>41372.6617819444</v>
       </c>
-      <c r="N96" s="21" t="s">
+      <c r="N96" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="O96" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P96" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q96" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R96" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S96" s="24" t="n">
+      <c r="O96" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P96" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q96" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R96" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" s="25" t="n">
         <v>41372.8411001157</v>
       </c>
-      <c r="T96" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="25">
-      <c r="A97" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="21" t="n">
+      <c r="T96" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="26">
+      <c r="A97" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="22" t="n">
         <v>15708</v>
       </c>
-      <c r="C97" s="21" t="n">
+      <c r="C97" s="22" t="n">
         <v>20120658</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="G97" s="21" t="s">
+      <c r="G97" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H97" s="21" t="s">
+      <c r="H97" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="I97" s="21" t="s">
+      <c r="I97" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="J97" s="21" t="s">
+      <c r="J97" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="K97" s="21" t="s">
+      <c r="K97" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="L97" s="21" t="s">
+      <c r="L97" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="M97" s="24" t="n">
+      <c r="M97" s="25" t="n">
         <v>41373.4125752315</v>
       </c>
-      <c r="N97" s="21" t="s">
+      <c r="N97" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="O97" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P97" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q97" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R97" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S97" s="24" t="n">
+      <c r="O97" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q97" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R97" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" s="25" t="n">
         <v>41373.4328002315</v>
       </c>
-      <c r="T97" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="25">
-      <c r="A98" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="21" t="n">
+      <c r="T97" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="26">
+      <c r="A98" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="22" t="n">
         <v>15712</v>
       </c>
-      <c r="C98" s="21" t="n">
+      <c r="C98" s="22" t="n">
         <v>20120682</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="G98" s="21" t="s">
+      <c r="G98" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H98" s="21" t="s">
+      <c r="H98" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="I98" s="21" t="s">
+      <c r="I98" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J98" s="21" t="s">
+      <c r="J98" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="K98" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L98" s="21" t="s">
+      <c r="K98" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="L98" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="M98" s="24" t="n">
+      <c r="M98" s="25" t="n">
         <v>41375.2876225694</v>
       </c>
-      <c r="N98" s="21" t="s">
+      <c r="N98" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="O98" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P98" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q98" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R98" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S98" s="24" t="n">
+      <c r="O98" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P98" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q98" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R98" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" s="25" t="n">
         <v>41375.3593183681</v>
       </c>
-      <c r="T98" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="25">
-      <c r="A99" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="21" t="n">
+      <c r="T98" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="26">
+      <c r="A99" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="22" t="n">
         <v>15713</v>
       </c>
-      <c r="C99" s="21" t="n">
+      <c r="C99" s="22" t="n">
         <v>20130030</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="E99" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="G99" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" s="21" t="s">
+      <c r="G99" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="I99" s="21" t="s">
+      <c r="I99" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="J99" s="21" t="s">
+      <c r="J99" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="K99" s="21" t="n">
+      <c r="K99" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="L99" s="21" t="s">
+      <c r="L99" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="M99" s="24" t="n">
+      <c r="M99" s="25" t="n">
         <v>41375.3779989583</v>
       </c>
-      <c r="N99" s="21" t="s">
+      <c r="N99" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="O99" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P99" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q99" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R99" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S99" s="24" t="n">
+      <c r="O99" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P99" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q99" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R99" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" s="25" t="n">
         <v>41453.3494300926</v>
       </c>
-      <c r="T99" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="25">
-      <c r="A100" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="21" t="n">
+      <c r="T99" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="26">
+      <c r="A100" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="22" t="n">
         <v>15714</v>
       </c>
-      <c r="C100" s="21" t="n">
+      <c r="C100" s="22" t="n">
         <v>20120683</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="E100" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="G100" s="21" t="s">
+      <c r="G100" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="21" t="s">
+      <c r="H100" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I100" s="21" t="s">
+      <c r="I100" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J100" s="21" t="s">
+      <c r="J100" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="K100" s="21" t="n">
+      <c r="K100" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="L100" s="21" t="s">
+      <c r="L100" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M100" s="24" t="n">
+      <c r="M100" s="25" t="n">
         <v>41375.3958023495</v>
       </c>
-      <c r="N100" s="21" t="s">
+      <c r="N100" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="O100" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P100" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q100" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R100" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S100" s="24" t="n">
+      <c r="O100" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P100" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q100" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R100" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" s="25" t="n">
         <v>41375.4240034722</v>
       </c>
-      <c r="T100" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="25">
-      <c r="A101" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="21" t="n">
+      <c r="T100" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="26">
+      <c r="A101" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="22" t="n">
         <v>15717</v>
       </c>
-      <c r="C101" s="21" t="n">
+      <c r="C101" s="22" t="n">
         <v>20120684</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F101" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="G101" s="21" t="s">
+      <c r="G101" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H101" s="21" t="s">
+      <c r="H101" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="J101" s="21" t="s">
+      <c r="J101" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="K101" s="21" t="s">
+      <c r="K101" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="L101" s="21" t="s">
+      <c r="L101" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="M101" s="24" t="n">
+      <c r="M101" s="25" t="n">
         <v>41375.5867187847</v>
       </c>
-      <c r="N101" s="21" t="s">
+      <c r="N101" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="O101" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P101" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q101" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R101" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S101" s="24" t="n">
+      <c r="O101" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P101" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q101" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R101" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" s="25" t="n">
         <v>41375.6140001505</v>
       </c>
-      <c r="T101" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="102" s="26">
-      <c r="A102" s="18" t="s">
+      <c r="T101" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="102" s="27">
+      <c r="A102" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B102" s="2" t="n">
@@ -9099,4215 +9088,4215 @@
         <v>41376.5910170139</v>
       </c>
       <c r="T102" s="2"/>
-      <c r="U102" s="25"/>
-      <c r="V102" s="25"/>
-      <c r="W102" s="25"/>
-      <c r="X102" s="25"/>
-      <c r="Y102" s="25"/>
-      <c r="Z102" s="25"/>
-      <c r="AA102" s="25"/>
-      <c r="AB102" s="25"/>
-      <c r="AC102" s="25"/>
-      <c r="AD102" s="25"/>
-      <c r="AE102" s="25"/>
-      <c r="AF102" s="25"/>
-      <c r="AG102" s="25"/>
-      <c r="AH102" s="25"/>
-      <c r="AI102" s="25"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="25">
-      <c r="A103" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="21" t="n">
+      <c r="U102" s="26"/>
+      <c r="V102" s="26"/>
+      <c r="W102" s="26"/>
+      <c r="X102" s="26"/>
+      <c r="Y102" s="26"/>
+      <c r="Z102" s="26"/>
+      <c r="AA102" s="26"/>
+      <c r="AB102" s="26"/>
+      <c r="AC102" s="26"/>
+      <c r="AD102" s="26"/>
+      <c r="AE102" s="26"/>
+      <c r="AF102" s="26"/>
+      <c r="AG102" s="26"/>
+      <c r="AH102" s="26"/>
+      <c r="AI102" s="26"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="26">
+      <c r="A103" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="22" t="n">
         <v>15726</v>
       </c>
-      <c r="C103" s="21" t="n">
+      <c r="C103" s="22" t="n">
         <v>20120692</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="E103" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="F103" s="21" t="s">
+      <c r="F103" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="G103" s="21" t="s">
+      <c r="G103" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H103" s="21" t="s">
+      <c r="H103" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="I103" s="21" t="s">
+      <c r="I103" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="J103" s="21" t="s">
+      <c r="J103" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="K103" s="21" t="n">
+      <c r="K103" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="L103" s="21" t="s">
+      <c r="L103" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="M103" s="24" t="n">
+      <c r="M103" s="25" t="n">
         <v>41379.0115039699</v>
       </c>
-      <c r="N103" s="21" t="s">
+      <c r="N103" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="O103" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P103" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q103" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R103" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S103" s="24" t="n">
+      <c r="O103" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P103" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q103" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R103" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" s="25" t="n">
         <v>41379.0781995023</v>
       </c>
-      <c r="T103" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="25">
-      <c r="A104" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="21" t="n">
+      <c r="T103" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="26">
+      <c r="A104" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="22" t="n">
         <v>15727</v>
       </c>
-      <c r="C104" s="21" t="n">
+      <c r="C104" s="22" t="n">
         <v>20120747</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="E104" s="21" t="s">
+      <c r="E104" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="F104" s="21" t="s">
+      <c r="F104" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="G104" s="21" t="s">
+      <c r="G104" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H104" s="21" t="s">
+      <c r="H104" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="I104" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J104" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K104" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L104" s="21" t="s">
+      <c r="I104" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="M104" s="24" t="n">
+      <c r="M104" s="25" t="n">
         <v>41379.3963328704</v>
       </c>
-      <c r="N104" s="21" t="s">
+      <c r="N104" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="O104" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P104" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q104" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R104" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S104" s="24" t="n">
+      <c r="O104" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P104" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q104" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R104" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" s="25" t="n">
         <v>41424.7528541667</v>
       </c>
-      <c r="T104" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="25">
-      <c r="A105" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" s="21" t="n">
+      <c r="T104" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="26">
+      <c r="A105" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="22" t="n">
         <v>15728</v>
       </c>
-      <c r="C105" s="21" t="n">
+      <c r="C105" s="22" t="n">
         <v>20120693</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="E105" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F105" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="G105" s="21" t="s">
+      <c r="G105" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H105" s="21" t="s">
+      <c r="H105" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="J105" s="21" t="s">
+      <c r="J105" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="K105" s="21" t="s">
+      <c r="K105" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="L105" s="21" t="s">
+      <c r="L105" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M105" s="24" t="n">
+      <c r="M105" s="25" t="n">
         <v>41379.4204547107</v>
       </c>
-      <c r="N105" s="21" t="s">
+      <c r="N105" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="O105" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P105" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q105" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R105" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S105" s="24" t="n">
+      <c r="O105" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P105" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q105" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R105" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" s="25" t="n">
         <v>41379.5291512731</v>
       </c>
-      <c r="T105" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="25">
-      <c r="A106" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="21" t="n">
+      <c r="T105" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="26">
+      <c r="A106" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="22" t="n">
         <v>15730</v>
       </c>
-      <c r="C106" s="21" t="n">
+      <c r="C106" s="22" t="n">
         <v>20120728</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E106" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="F106" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" s="21" t="s">
+      <c r="F106" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H106" s="21" t="s">
+      <c r="H106" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="I106" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J106" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K106" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L106" s="21" t="s">
+      <c r="I106" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="M106" s="24" t="n">
+      <c r="M106" s="25" t="n">
         <v>41380.4859515394</v>
       </c>
-      <c r="N106" s="21" t="s">
+      <c r="N106" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="O106" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P106" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q106" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R106" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S106" s="24" t="n">
+      <c r="O106" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q106" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R106" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" s="25" t="n">
         <v>41403.6339299769</v>
       </c>
-      <c r="T106" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="25">
-      <c r="A107" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B107" s="21" t="n">
+      <c r="T106" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="26">
+      <c r="A107" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="22" t="n">
         <v>15734</v>
       </c>
-      <c r="C107" s="21" t="n">
+      <c r="C107" s="22" t="n">
         <v>20120698</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="E107" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="F107" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" s="21" t="s">
+      <c r="F107" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H107" s="21" t="s">
+      <c r="H107" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="I107" s="21" t="s">
+      <c r="I107" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="J107" s="21" t="s">
+      <c r="J107" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="K107" s="21" t="n">
+      <c r="K107" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="L107" s="21" t="s">
+      <c r="L107" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="M107" s="24" t="n">
+      <c r="M107" s="25" t="n">
         <v>41380.6362467593</v>
       </c>
-      <c r="N107" s="21" t="s">
+      <c r="N107" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="O107" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P107" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q107" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R107" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S107" s="24" t="n">
+      <c r="O107" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P107" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q107" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R107" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" s="25" t="n">
         <v>41380.6559268171</v>
       </c>
-      <c r="T107" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="25">
-      <c r="A108" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B108" s="21" t="n">
+      <c r="T107" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="26">
+      <c r="A108" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="22" t="n">
         <v>15736</v>
       </c>
-      <c r="C108" s="21" t="n">
+      <c r="C108" s="22" t="n">
         <v>20120731</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E108" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="F108" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="G108" s="21" t="s">
+      <c r="G108" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H108" s="21" t="s">
+      <c r="H108" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="I108" s="21" t="s">
+      <c r="I108" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J108" s="21" t="s">
+      <c r="J108" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="K108" s="21" t="n">
+      <c r="K108" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="L108" s="21" t="s">
+      <c r="L108" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="M108" s="24" t="n">
+      <c r="M108" s="25" t="n">
         <v>41380.6544068634</v>
       </c>
-      <c r="N108" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O108" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P108" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q108" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R108" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S108" s="24" t="n">
+      <c r="N108" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O108" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P108" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q108" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R108" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" s="25" t="n">
         <v>41408.5971545949</v>
       </c>
-      <c r="T108" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="25">
-      <c r="A109" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="21" t="n">
+      <c r="T108" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="26">
+      <c r="A109" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="22" t="n">
         <v>15738</v>
       </c>
-      <c r="C109" s="21" t="n">
+      <c r="C109" s="22" t="n">
         <v>20120701</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="E109" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="F109" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G109" s="21" t="s">
+      <c r="G109" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H109" s="21" t="s">
+      <c r="H109" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I109" s="21" t="s">
+      <c r="I109" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="J109" s="21" t="s">
+      <c r="J109" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K109" s="21" t="n">
+      <c r="K109" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="L109" s="21" t="s">
+      <c r="L109" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M109" s="24" t="n">
+      <c r="M109" s="25" t="n">
         <v>41380.7369794792</v>
       </c>
-      <c r="N109" s="21" t="s">
+      <c r="N109" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="O109" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P109" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q109" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R109" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S109" s="24" t="n">
+      <c r="O109" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P109" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q109" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R109" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" s="25" t="n">
         <v>41380.7701677894</v>
       </c>
-      <c r="T109" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="25">
-      <c r="A110" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="21" t="n">
+      <c r="T109" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="26">
+      <c r="A110" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="22" t="n">
         <v>15739</v>
       </c>
-      <c r="C110" s="21" t="n">
+      <c r="C110" s="22" t="n">
         <v>20120702</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="D110" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E110" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F110" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="G110" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H110" s="21" t="s">
+      <c r="H110" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I110" s="21" t="s">
+      <c r="I110" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="J110" s="21" t="s">
+      <c r="J110" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K110" s="21" t="n">
+      <c r="K110" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="L110" s="21" t="s">
+      <c r="L110" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M110" s="24" t="n">
+      <c r="M110" s="25" t="n">
         <v>41380.7715090625</v>
       </c>
-      <c r="N110" s="21" t="s">
+      <c r="N110" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="O110" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P110" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q110" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R110" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S110" s="24" t="n">
+      <c r="O110" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P110" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q110" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R110" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" s="25" t="n">
         <v>41380.7922883449</v>
       </c>
-      <c r="T110" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="25">
-      <c r="A111" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B111" s="21" t="n">
+      <c r="T110" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="26">
+      <c r="A111" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="22" t="n">
         <v>15741</v>
       </c>
-      <c r="C111" s="21" t="n">
+      <c r="C111" s="22" t="n">
         <v>20120704</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D111" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E111" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F111" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="G111" s="21" t="s">
+      <c r="G111" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H111" s="21" t="s">
+      <c r="H111" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="I111" s="21" t="s">
+      <c r="I111" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="J111" s="21" t="s">
+      <c r="J111" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="K111" s="21" t="n">
+      <c r="K111" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="L111" s="21" t="s">
+      <c r="L111" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M111" s="24" t="n">
+      <c r="M111" s="25" t="n">
         <v>41381.5380797454</v>
       </c>
-      <c r="N111" s="21" t="s">
+      <c r="N111" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="O111" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P111" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q111" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R111" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S111" s="24" t="n">
+      <c r="O111" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P111" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q111" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R111" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" s="25" t="n">
         <v>41381.573203669</v>
       </c>
-      <c r="T111" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="25">
-      <c r="A112" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" s="21" t="n">
+      <c r="T111" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="26">
+      <c r="A112" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="22" t="n">
         <v>15742</v>
       </c>
-      <c r="C112" s="21" t="n">
+      <c r="C112" s="22" t="n">
         <v>20120711</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="D112" s="22" t="s">
         <v>555</v>
       </c>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" s="21" t="s">
+      <c r="E112" s="22"/>
+      <c r="F112" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H112" s="21" t="s">
+      <c r="H112" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I112" s="21" t="s">
+      <c r="I112" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J112" s="21" t="s">
+      <c r="J112" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="K112" s="21" t="n">
+      <c r="K112" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="L112" s="21" t="s">
+      <c r="L112" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="M112" s="24" t="n">
+      <c r="M112" s="25" t="n">
         <v>41382.3362046296</v>
       </c>
-      <c r="N112" s="21" t="s">
+      <c r="N112" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="O112" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P112" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q112" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R112" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S112" s="24" t="n">
+      <c r="O112" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P112" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q112" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R112" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" s="25" t="n">
         <v>41386.5445853009</v>
       </c>
-      <c r="T112" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="25">
-      <c r="A113" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" s="21" t="n">
+      <c r="T112" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="26">
+      <c r="A113" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="22" t="n">
         <v>15748</v>
       </c>
-      <c r="C113" s="21" t="n">
+      <c r="C113" s="22" t="n">
         <v>20120721</v>
       </c>
-      <c r="D113" s="21" t="s">
+      <c r="D113" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" s="21" t="s">
+      <c r="E113" s="22"/>
+      <c r="F113" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H113" s="21" t="s">
+      <c r="H113" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I113" s="21" t="s">
+      <c r="I113" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="J113" s="21" t="s">
+      <c r="J113" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="K113" s="21" t="s">
+      <c r="K113" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="L113" s="21" t="s">
+      <c r="L113" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="M113" s="24" t="n">
+      <c r="M113" s="25" t="n">
         <v>41386.533459375</v>
       </c>
-      <c r="N113" s="21" t="s">
+      <c r="N113" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="O113" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P113" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q113" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R113" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S113" s="24" t="n">
+      <c r="O113" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P113" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q113" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R113" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" s="25" t="n">
         <v>41400.3458495718</v>
       </c>
-      <c r="T113" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="25">
-      <c r="A114" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="21" t="n">
+      <c r="T113" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="26">
+      <c r="A114" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="22" t="n">
         <v>15749</v>
       </c>
-      <c r="C114" s="21" t="n">
+      <c r="C114" s="22" t="n">
         <v>20120713</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="D114" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="E114" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F114" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G114" s="21" t="s">
+      <c r="G114" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H114" s="21" t="s">
+      <c r="H114" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I114" s="21" t="s">
+      <c r="I114" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="J114" s="21" t="s">
+      <c r="J114" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="K114" s="21" t="n">
+      <c r="K114" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="L114" s="21" t="s">
+      <c r="L114" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="M114" s="24" t="n">
+      <c r="M114" s="25" t="n">
         <v>41387.3496603356</v>
       </c>
-      <c r="N114" s="21" t="s">
+      <c r="N114" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="O114" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P114" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q114" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R114" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S114" s="24" t="n">
+      <c r="O114" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P114" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q114" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R114" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" s="25" t="n">
         <v>41387.3718373843</v>
       </c>
-      <c r="T114" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="25">
-      <c r="A115" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="21" t="n">
+      <c r="T114" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="26">
+      <c r="A115" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="22" t="n">
         <v>15750</v>
       </c>
-      <c r="C115" s="21" t="n">
+      <c r="C115" s="22" t="n">
         <v>20120719</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D115" s="22" t="s">
         <v>566</v>
       </c>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" s="21" t="s">
+      <c r="E115" s="22"/>
+      <c r="F115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="21" t="s">
+      <c r="H115" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I115" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J115" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K115" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L115" s="21" t="s">
+      <c r="I115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M115" s="24" t="n">
+      <c r="M115" s="25" t="n">
         <v>41389.4028955671</v>
       </c>
-      <c r="N115" s="21" t="s">
+      <c r="N115" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="O115" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P115" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q115" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R115" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S115" s="24" t="n">
+      <c r="O115" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P115" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R115" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" s="25" t="n">
         <v>41394.4009287384</v>
       </c>
-      <c r="T115" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="25">
-      <c r="A116" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="21" t="n">
+      <c r="T115" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="26">
+      <c r="A116" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="22" t="n">
         <v>15751</v>
       </c>
-      <c r="C116" s="21" t="n">
+      <c r="C116" s="22" t="n">
         <v>20120714</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E116" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="G116" s="21" t="s">
+      <c r="G116" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H116" s="21" t="s">
+      <c r="H116" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="I116" s="21" t="s">
+      <c r="I116" s="22" t="s">
         <v>571</v>
       </c>
-      <c r="J116" s="21" t="s">
+      <c r="J116" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K116" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="L116" s="21" t="s">
+      <c r="K116" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="L116" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="M116" s="24" t="n">
+      <c r="M116" s="25" t="n">
         <v>41389.598034375</v>
       </c>
-      <c r="N116" s="21" t="s">
+      <c r="N116" s="22" t="s">
         <v>572</v>
       </c>
-      <c r="O116" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P116" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q116" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R116" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S116" s="24" t="n">
+      <c r="O116" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P116" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q116" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R116" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" s="25" t="n">
         <v>41390.4154044792</v>
       </c>
-      <c r="T116" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="25">
-      <c r="A117" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" s="21" t="n">
+      <c r="T116" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="26">
+      <c r="A117" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="22" t="n">
         <v>15752</v>
       </c>
-      <c r="C117" s="21" t="n">
+      <c r="C117" s="22" t="n">
         <v>20120715</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E117" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="G117" s="21" t="s">
+      <c r="G117" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H117" s="21" t="s">
+      <c r="H117" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="I117" s="21" t="s">
+      <c r="I117" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="J117" s="21" t="s">
+      <c r="J117" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="K117" s="21" t="s">
+      <c r="K117" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="L117" s="21" t="s">
+      <c r="L117" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="M117" s="24" t="n">
+      <c r="M117" s="25" t="n">
         <v>41390.4169229977</v>
       </c>
-      <c r="N117" s="21" t="s">
+      <c r="N117" s="22" t="s">
         <v>572</v>
       </c>
-      <c r="O117" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P117" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q117" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R117" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S117" s="24" t="n">
+      <c r="O117" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P117" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q117" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R117" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" s="25" t="n">
         <v>41390.4572809028</v>
       </c>
-      <c r="T117" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="25">
-      <c r="A118" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="21" t="n">
+      <c r="T117" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="26">
+      <c r="A118" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="22" t="n">
         <v>15753</v>
       </c>
-      <c r="C118" s="21" t="n">
+      <c r="C118" s="22" t="n">
         <v>20120716</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="E118" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="G118" s="21" t="s">
+      <c r="G118" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H118" s="21" t="s">
+      <c r="H118" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="I118" s="21" t="s">
+      <c r="I118" s="22" t="s">
         <v>571</v>
       </c>
-      <c r="J118" s="21" t="s">
+      <c r="J118" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K118" s="21" t="s">
+      <c r="K118" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="L118" s="21" t="s">
+      <c r="L118" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="M118" s="24" t="n">
+      <c r="M118" s="25" t="n">
         <v>41390.4574103819</v>
       </c>
-      <c r="N118" s="21" t="s">
+      <c r="N118" s="22" t="s">
         <v>572</v>
       </c>
-      <c r="O118" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P118" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q118" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R118" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S118" s="24" t="n">
+      <c r="O118" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P118" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q118" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R118" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" s="25" t="n">
         <v>41390.4985154745</v>
       </c>
-      <c r="T118" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="25">
-      <c r="A119" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" s="21" t="n">
+      <c r="T118" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="26">
+      <c r="A119" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="22" t="n">
         <v>15754</v>
       </c>
-      <c r="C119" s="21" t="n">
+      <c r="C119" s="22" t="n">
         <v>20120717</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D119" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E119" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="F119" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" s="21" t="s">
+      <c r="F119" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H119" s="21" t="s">
+      <c r="H119" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="I119" s="21" t="s">
+      <c r="I119" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="J119" s="21" t="s">
+      <c r="J119" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="K119" s="21" t="s">
+      <c r="K119" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="L119" s="21" t="s">
+      <c r="L119" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="M119" s="24" t="n">
+      <c r="M119" s="25" t="n">
         <v>41390.5339625</v>
       </c>
-      <c r="N119" s="21" t="s">
+      <c r="N119" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="O119" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P119" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q119" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R119" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S119" s="24" t="n">
+      <c r="O119" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P119" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q119" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R119" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S119" s="25" t="n">
         <v>41390.6308382755</v>
       </c>
-      <c r="T119" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="25">
-      <c r="A120" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" s="21" t="n">
+      <c r="T119" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="26">
+      <c r="A120" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="22" t="n">
         <v>15756</v>
       </c>
-      <c r="C120" s="21" t="n">
+      <c r="C120" s="22" t="n">
         <v>20120720</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="F120" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" s="21" t="s">
+      <c r="F120" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H120" s="21" t="s">
+      <c r="H120" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="I120" s="21" t="s">
+      <c r="I120" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="J120" s="21" t="s">
+      <c r="J120" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="K120" s="21" t="n">
+      <c r="K120" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="L120" s="21" t="s">
+      <c r="L120" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="M120" s="24" t="n">
+      <c r="M120" s="25" t="n">
         <v>41395.6476705671</v>
       </c>
-      <c r="N120" s="21" t="s">
+      <c r="N120" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="O120" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P120" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q120" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R120" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S120" s="24" t="n">
+      <c r="O120" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P120" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q120" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R120" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S120" s="25" t="n">
         <v>41396.4067241898</v>
       </c>
-      <c r="T120" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="25">
-      <c r="A121" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" s="21" t="n">
+      <c r="T120" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="26">
+      <c r="A121" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" s="22" t="n">
         <v>15757</v>
       </c>
-      <c r="C121" s="21" t="n">
+      <c r="C121" s="22" t="n">
         <v>20130012</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E121" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F121" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G121" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H121" s="21" t="s">
+      <c r="G121" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I121" s="21" t="s">
+      <c r="I121" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="J121" s="21" t="s">
+      <c r="J121" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="K121" s="21" t="s">
+      <c r="K121" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="L121" s="21" t="s">
+      <c r="L121" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="M121" s="24" t="n">
+      <c r="M121" s="25" t="n">
         <v>41396.5116137732</v>
       </c>
-      <c r="N121" s="21" t="s">
+      <c r="N121" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="O121" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P121" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q121" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R121" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S121" s="24" t="n">
+      <c r="O121" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q121" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R121" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S121" s="25" t="n">
         <v>41444.4912668171</v>
       </c>
-      <c r="T121" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="25">
-      <c r="A122" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" s="21" t="n">
+      <c r="T121" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="26">
+      <c r="A122" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="22" t="n">
         <v>15758</v>
       </c>
-      <c r="C122" s="21" t="n">
+      <c r="C122" s="22" t="n">
         <v>20120722</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D122" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E122" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="G122" s="21" t="s">
+      <c r="G122" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H122" s="21" t="s">
+      <c r="H122" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="I122" s="21" t="s">
+      <c r="I122" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="J122" s="21" t="s">
+      <c r="J122" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="K122" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L122" s="21" t="s">
+      <c r="K122" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="L122" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="M122" s="24" t="n">
+      <c r="M122" s="25" t="n">
         <v>41400.5486766204</v>
       </c>
-      <c r="N122" s="21" t="s">
+      <c r="N122" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="O122" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P122" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q122" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R122" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S122" s="24" t="n">
+      <c r="O122" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P122" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q122" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R122" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S122" s="25" t="n">
         <v>41400.5870654282</v>
       </c>
-      <c r="T122" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="25">
-      <c r="A123" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" s="21" t="n">
+      <c r="T122" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="26">
+      <c r="A123" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="22" t="n">
         <v>15759</v>
       </c>
-      <c r="C123" s="21" t="n">
+      <c r="C123" s="22" t="n">
         <v>20120723</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D123" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E123" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F123" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="G123" s="21" t="s">
+      <c r="G123" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H123" s="21" t="s">
+      <c r="H123" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="I123" s="21" t="s">
+      <c r="I123" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="J123" s="21" t="s">
+      <c r="J123" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K123" s="21" t="n">
+      <c r="K123" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="L123" s="21" t="s">
+      <c r="L123" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="M123" s="24" t="n">
+      <c r="M123" s="25" t="n">
         <v>41400.580093287</v>
       </c>
-      <c r="N123" s="21" t="s">
+      <c r="N123" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="O123" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P123" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q123" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R123" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S123" s="24" t="n">
+      <c r="O123" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P123" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q123" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R123" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" s="25" t="n">
         <v>41400.6922886574</v>
       </c>
-      <c r="T123" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="25">
-      <c r="A124" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="21" t="n">
+      <c r="T123" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="26">
+      <c r="A124" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="22" t="n">
         <v>15760</v>
       </c>
-      <c r="C124" s="21" t="n">
+      <c r="C124" s="22" t="n">
         <v>20120725</v>
       </c>
-      <c r="D124" s="21" t="s">
+      <c r="D124" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="E124" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="F124" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" s="21" t="s">
+      <c r="F124" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H124" s="21" t="s">
+      <c r="H124" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="I124" s="21" t="s">
+      <c r="I124" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="J124" s="21" t="s">
+      <c r="J124" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="K124" s="21" t="n">
+      <c r="K124" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="L124" s="21" t="s">
+      <c r="L124" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="M124" s="24" t="n">
+      <c r="M124" s="25" t="n">
         <v>41400.6168131597</v>
       </c>
-      <c r="N124" s="21" t="s">
+      <c r="N124" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="O124" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P124" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q124" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R124" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S124" s="24" t="n">
+      <c r="O124" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P124" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q124" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R124" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" s="25" t="n">
         <v>41402.4662491898</v>
       </c>
-      <c r="T124" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="25">
-      <c r="A125" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" s="21" t="n">
+      <c r="T124" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="26">
+      <c r="A125" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="22" t="n">
         <v>15762</v>
       </c>
-      <c r="C125" s="21" t="n">
+      <c r="C125" s="22" t="n">
         <v>20120724</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D125" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E125" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="F125" s="21" t="s">
+      <c r="F125" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G125" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H125" s="21" t="s">
+      <c r="H125" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="I125" s="21" t="s">
+      <c r="I125" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J125" s="21" t="s">
+      <c r="J125" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="K125" s="21" t="n">
+      <c r="K125" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="L125" s="21" t="s">
+      <c r="L125" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="M125" s="24" t="n">
+      <c r="M125" s="25" t="n">
         <v>41401.6187177083</v>
       </c>
-      <c r="N125" s="21" t="s">
+      <c r="N125" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="O125" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P125" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q125" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R125" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S125" s="24" t="n">
+      <c r="O125" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P125" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q125" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R125" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" s="25" t="n">
         <v>41401.644543206</v>
       </c>
-      <c r="T125" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="25">
-      <c r="A126" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126" s="21" t="n">
+      <c r="T125" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="26">
+      <c r="A126" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="22" t="n">
         <v>15763</v>
       </c>
-      <c r="C126" s="21" t="n">
+      <c r="C126" s="22" t="n">
         <v>20120726</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D126" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E126" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="F126" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" s="21" t="s">
+      <c r="F126" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H126" s="21" t="s">
+      <c r="H126" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I126" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="J126" s="21" t="s">
+      <c r="J126" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="K126" s="21" t="n">
+      <c r="K126" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="L126" s="21" t="s">
+      <c r="L126" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M126" s="24" t="n">
+      <c r="M126" s="25" t="n">
         <v>41402.4505539005</v>
       </c>
-      <c r="N126" s="21" t="s">
+      <c r="N126" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="O126" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P126" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q126" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R126" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S126" s="24" t="n">
+      <c r="O126" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P126" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q126" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R126" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S126" s="25" t="n">
         <v>41402.6119722222</v>
       </c>
-      <c r="T126" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="25">
-      <c r="A127" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" s="21" t="n">
+      <c r="T126" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="26">
+      <c r="A127" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="22" t="n">
         <v>15764</v>
       </c>
-      <c r="C127" s="21" t="n">
+      <c r="C127" s="22" t="n">
         <v>20120727</v>
       </c>
-      <c r="D127" s="21" t="s">
+      <c r="D127" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E127" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="F127" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" s="21" t="s">
+      <c r="F127" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H127" s="21" t="s">
+      <c r="H127" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I127" s="21" t="n">
+      <c r="I127" s="22" t="n">
         <v>242</v>
       </c>
-      <c r="J127" s="21" t="s">
+      <c r="J127" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="K127" s="21" t="n">
+      <c r="K127" s="22" t="n">
         <v>266</v>
       </c>
-      <c r="L127" s="21" t="s">
+      <c r="L127" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M127" s="24" t="n">
+      <c r="M127" s="25" t="n">
         <v>41403.6118389236</v>
       </c>
-      <c r="N127" s="21" t="s">
+      <c r="N127" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="O127" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P127" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q127" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R127" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S127" s="24" t="n">
+      <c r="O127" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P127" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q127" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R127" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S127" s="25" t="n">
         <v>41403.6263330208</v>
       </c>
-      <c r="T127" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="25">
-      <c r="A128" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" s="21" t="n">
+      <c r="T127" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="26">
+      <c r="A128" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="22" t="n">
         <v>15765</v>
       </c>
-      <c r="C128" s="21" t="n">
+      <c r="C128" s="22" t="n">
         <v>20120730</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E128" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F128" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G128" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H128" s="21" t="s">
+      <c r="H128" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I128" s="21" t="s">
+      <c r="I128" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="J128" s="21" t="s">
+      <c r="J128" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K128" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="L128" s="21" t="s">
+      <c r="K128" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="M128" s="24" t="n">
+      <c r="M128" s="25" t="n">
         <v>41403.8700552894</v>
       </c>
-      <c r="N128" s="21" t="s">
+      <c r="N128" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="O128" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P128" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q128" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R128" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S128" s="24" t="n">
+      <c r="O128" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P128" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q128" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R128" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S128" s="25" t="n">
         <v>41408.5709522338</v>
       </c>
-      <c r="T128" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="25">
-      <c r="A129" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B129" s="21" t="n">
+      <c r="T128" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="26">
+      <c r="A129" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="22" t="n">
         <v>15766</v>
       </c>
-      <c r="C129" s="21" t="n">
+      <c r="C129" s="22" t="n">
         <v>20120729</v>
       </c>
-      <c r="D129" s="21" t="s">
+      <c r="D129" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E129" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="F129" s="21" t="s">
+      <c r="F129" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="G129" s="21" t="s">
+      <c r="G129" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H129" s="21" t="s">
+      <c r="H129" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="I129" s="21" t="s">
+      <c r="I129" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="J129" s="21" t="s">
+      <c r="J129" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="K129" s="21" t="n">
+      <c r="K129" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="L129" s="21" t="s">
+      <c r="L129" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M129" s="24" t="n">
+      <c r="M129" s="25" t="n">
         <v>41407.5351728356</v>
       </c>
-      <c r="N129" s="21" t="s">
+      <c r="N129" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="O129" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P129" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q129" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R129" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S129" s="24" t="n">
+      <c r="O129" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P129" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q129" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R129" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S129" s="25" t="n">
         <v>41407.5630426273</v>
       </c>
-      <c r="T129" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="25">
-      <c r="A130" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" s="21" t="n">
+      <c r="T129" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="26">
+      <c r="A130" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="22" t="n">
         <v>15767</v>
       </c>
-      <c r="C130" s="21" t="n">
+      <c r="C130" s="22" t="n">
         <v>20120732</v>
       </c>
-      <c r="D130" s="21" t="s">
+      <c r="D130" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="E130" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="F130" s="21" t="s">
+      <c r="F130" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="G130" s="21" t="s">
+      <c r="G130" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="H130" s="21" t="s">
+      <c r="H130" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="I130" s="21" t="s">
+      <c r="I130" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J130" s="21" t="s">
+      <c r="J130" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="K130" s="21" t="n">
+      <c r="K130" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="L130" s="21" t="s">
+      <c r="L130" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="M130" s="24" t="n">
+      <c r="M130" s="25" t="n">
         <v>41407.6975019676</v>
       </c>
-      <c r="N130" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O130" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P130" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q130" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R130" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S130" s="24" t="n">
+      <c r="N130" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O130" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q130" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R130" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S130" s="25" t="n">
         <v>41409.3901060995</v>
       </c>
-      <c r="T130" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="25">
-      <c r="A131" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B131" s="21" t="n">
+      <c r="T130" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="26">
+      <c r="A131" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="22" t="n">
         <v>15768</v>
       </c>
-      <c r="C131" s="21" t="n">
+      <c r="C131" s="22" t="n">
         <v>20120735</v>
       </c>
-      <c r="D131" s="21" t="s">
+      <c r="D131" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E131" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F131" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G131" s="21" t="s">
+      <c r="F131" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H131" s="21" t="s">
+      <c r="H131" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I131" s="21" t="s">
+      <c r="I131" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="J131" s="21" t="s">
+      <c r="J131" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="K131" s="21" t="s">
+      <c r="K131" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="L131" s="21" t="s">
+      <c r="L131" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="M131" s="24" t="n">
+      <c r="M131" s="25" t="n">
         <v>41409.4303223032</v>
       </c>
-      <c r="N131" s="21" t="s">
+      <c r="N131" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="O131" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P131" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q131" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R131" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S131" s="24" t="n">
+      <c r="O131" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P131" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q131" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R131" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S131" s="25" t="n">
         <v>41410.3636197917</v>
       </c>
-      <c r="T131" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="25">
-      <c r="A132" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" s="21" t="n">
+      <c r="T131" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="26">
+      <c r="A132" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="22" t="n">
         <v>15770</v>
       </c>
-      <c r="C132" s="21" t="n">
+      <c r="C132" s="22" t="n">
         <v>20120733</v>
       </c>
-      <c r="D132" s="21" t="s">
+      <c r="D132" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E132" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="F132" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="G132" s="21" t="s">
+      <c r="G132" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H132" s="21" t="s">
+      <c r="H132" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I132" s="21" t="s">
+      <c r="I132" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J132" s="21" t="s">
+      <c r="J132" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K132" s="21" t="n">
+      <c r="K132" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="L132" s="21" t="s">
+      <c r="L132" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="M132" s="24" t="n">
+      <c r="M132" s="25" t="n">
         <v>41409.5465580208</v>
       </c>
-      <c r="N132" s="21" t="s">
+      <c r="N132" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="O132" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P132" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q132" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R132" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S132" s="24" t="n">
+      <c r="O132" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P132" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q132" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R132" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S132" s="25" t="n">
         <v>41409.6597541319</v>
       </c>
-      <c r="T132" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="25">
-      <c r="A133" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" s="21" t="n">
+      <c r="T132" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="26">
+      <c r="A133" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="22" t="n">
         <v>15771</v>
       </c>
-      <c r="C133" s="21" t="n">
+      <c r="C133" s="22" t="n">
         <v>20130018</v>
       </c>
-      <c r="D133" s="21" t="s">
+      <c r="D133" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E133" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="F133" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" s="21" t="s">
+      <c r="F133" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="I133" s="21" t="s">
+      <c r="I133" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="J133" s="21" t="s">
+      <c r="J133" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="K133" s="21" t="s">
+      <c r="K133" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="L133" s="21" t="s">
+      <c r="L133" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="M133" s="24" t="n">
+      <c r="M133" s="25" t="n">
         <v>41409.6335074421</v>
       </c>
-      <c r="N133" s="21" t="s">
+      <c r="N133" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="O133" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P133" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q133" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R133" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S133" s="24" t="n">
+      <c r="O133" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P133" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q133" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R133" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S133" s="25" t="n">
         <v>41446.4310947917</v>
       </c>
-      <c r="T133" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="25">
-      <c r="A134" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B134" s="21" t="n">
+      <c r="T133" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="26">
+      <c r="A134" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="22" t="n">
         <v>15773</v>
       </c>
-      <c r="C134" s="21" t="n">
+      <c r="C134" s="22" t="n">
         <v>20120734</v>
       </c>
-      <c r="D134" s="21" t="s">
+      <c r="D134" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E134" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="F134" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="G134" s="21" t="s">
+      <c r="G134" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H134" s="21" t="s">
+      <c r="H134" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="I134" s="21" t="s">
+      <c r="I134" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="J134" s="21" t="s">
+      <c r="J134" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K134" s="21" t="n">
+      <c r="K134" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="L134" s="21" t="s">
+      <c r="L134" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="M134" s="24" t="n">
+      <c r="M134" s="25" t="n">
         <v>41409.8738054745</v>
       </c>
-      <c r="N134" s="21" t="s">
+      <c r="N134" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="O134" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P134" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q134" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R134" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S134" s="24" t="n">
+      <c r="O134" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P134" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q134" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R134" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S134" s="25" t="n">
         <v>41409.9114324074</v>
       </c>
-      <c r="T134" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="25">
-      <c r="A135" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" s="21" t="n">
+      <c r="T134" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="26">
+      <c r="A135" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="22" t="n">
         <v>15774</v>
       </c>
-      <c r="C135" s="21" t="n">
+      <c r="C135" s="22" t="n">
         <v>20120736</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E135" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F135" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="G135" s="21" t="s">
+      <c r="G135" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H135" s="21" t="s">
+      <c r="H135" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="I135" s="21" t="s">
+      <c r="I135" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="J135" s="21" t="s">
+      <c r="J135" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="K135" s="21" t="n">
+      <c r="K135" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="L135" s="21" t="s">
+      <c r="L135" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M135" s="24" t="n">
+      <c r="M135" s="25" t="n">
         <v>41410.5524326389</v>
       </c>
-      <c r="N135" s="21" t="s">
+      <c r="N135" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="O135" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P135" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q135" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R135" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S135" s="24" t="n">
+      <c r="O135" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P135" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q135" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R135" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S135" s="25" t="n">
         <v>41410.5680613773</v>
       </c>
-      <c r="T135" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="25">
-      <c r="A136" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="21" t="n">
+      <c r="T135" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="26">
+      <c r="A136" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="22" t="n">
         <v>15775</v>
       </c>
-      <c r="C136" s="21" t="n">
+      <c r="C136" s="22" t="n">
         <v>20120737</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="D136" s="22" t="s">
         <v>650</v>
       </c>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136" s="21" t="s">
+      <c r="E136" s="22"/>
+      <c r="F136" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H136" s="21" t="s">
+      <c r="H136" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I136" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J136" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K136" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L136" s="21" t="s">
+      <c r="I136" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M136" s="24" t="n">
+      <c r="M136" s="25" t="n">
         <v>41413.6731329861</v>
       </c>
-      <c r="N136" s="21" t="s">
+      <c r="N136" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="O136" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P136" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q136" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R136" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S136" s="24" t="n">
+      <c r="O136" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P136" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q136" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R136" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S136" s="25" t="n">
         <v>41416.4081171644</v>
       </c>
-      <c r="T136" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="25">
-      <c r="A137" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" s="21" t="n">
+      <c r="T136" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="26">
+      <c r="A137" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="22" t="n">
         <v>15779</v>
       </c>
-      <c r="C137" s="21" t="n">
+      <c r="C137" s="22" t="n">
         <v>20120739</v>
       </c>
-      <c r="D137" s="21" t="s">
+      <c r="D137" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" s="21" t="s">
+      <c r="E137" s="22"/>
+      <c r="F137" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H137" s="21" t="s">
+      <c r="H137" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I137" s="21" t="s">
+      <c r="I137" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="J137" s="21" t="s">
+      <c r="J137" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="K137" s="21" t="n">
+      <c r="K137" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="L137" s="21" t="s">
+      <c r="L137" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="M137" s="24" t="n">
+      <c r="M137" s="25" t="n">
         <v>41415.646772419</v>
       </c>
-      <c r="N137" s="21" t="s">
+      <c r="N137" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="O137" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P137" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q137" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R137" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S137" s="24" t="n">
+      <c r="O137" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P137" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q137" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R137" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" s="25" t="n">
         <v>41416.6472109607</v>
       </c>
-      <c r="T137" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="25">
-      <c r="A138" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B138" s="21" t="n">
+      <c r="T137" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="26">
+      <c r="A138" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="22" t="n">
         <v>15780</v>
       </c>
-      <c r="C138" s="21" t="n">
+      <c r="C138" s="22" t="n">
         <v>20130008</v>
       </c>
-      <c r="D138" s="21" t="s">
+      <c r="D138" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E138" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F138" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G138" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" s="21" t="s">
+      <c r="G138" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I138" s="21" t="s">
+      <c r="I138" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="J138" s="21" t="s">
+      <c r="J138" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="K138" s="21" t="n">
+      <c r="K138" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="L138" s="21" t="s">
+      <c r="L138" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M138" s="24" t="n">
+      <c r="M138" s="25" t="n">
         <v>41416.3749281597</v>
       </c>
-      <c r="N138" s="21" t="s">
+      <c r="N138" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O138" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P138" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q138" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R138" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S138" s="24" t="n">
+      <c r="O138" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P138" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q138" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R138" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S138" s="25" t="n">
         <v>41431.6803141204</v>
       </c>
-      <c r="T138" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="25">
-      <c r="A139" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" s="21" t="n">
+      <c r="T138" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="26">
+      <c r="A139" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="22" t="n">
         <v>15781</v>
       </c>
-      <c r="C139" s="21" t="n">
+      <c r="C139" s="22" t="n">
         <v>20120738</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G139" s="21" t="s">
+      <c r="E139" s="22"/>
+      <c r="F139" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H139" s="21" t="s">
+      <c r="H139" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="I139" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J139" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K139" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L139" s="21" t="s">
+      <c r="I139" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J139" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K139" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M139" s="24" t="n">
+      <c r="M139" s="25" t="n">
         <v>41416.4096365741</v>
       </c>
-      <c r="N139" s="21" t="s">
+      <c r="N139" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="O139" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P139" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q139" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R139" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S139" s="24" t="n">
+      <c r="O139" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P139" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q139" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R139" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S139" s="25" t="n">
         <v>41416.4223429398</v>
       </c>
-      <c r="T139" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="25">
-      <c r="A140" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" s="21" t="n">
+      <c r="T139" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="26">
+      <c r="A140" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="22" t="n">
         <v>15784</v>
       </c>
-      <c r="C140" s="21" t="n">
+      <c r="C140" s="22" t="n">
         <v>20130010</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D140" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E140" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="F140" s="21" t="s">
+      <c r="F140" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="G140" s="21" t="s">
+      <c r="G140" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H140" s="21" t="s">
+      <c r="H140" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I140" s="21" t="s">
+      <c r="I140" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J140" s="21" t="s">
+      <c r="J140" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="K140" s="21" t="n">
+      <c r="K140" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="L140" s="21" t="s">
+      <c r="L140" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M140" s="24" t="n">
+      <c r="M140" s="25" t="n">
         <v>41418.6117706019</v>
       </c>
-      <c r="N140" s="21" t="s">
+      <c r="N140" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="O140" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P140" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q140" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R140" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S140" s="24" t="n">
+      <c r="O140" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P140" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q140" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R140" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" s="25" t="n">
         <v>41438.4522059838</v>
       </c>
-      <c r="T140" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="25">
-      <c r="A141" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B141" s="21" t="n">
+      <c r="T140" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="26">
+      <c r="A141" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="22" t="n">
         <v>15785</v>
       </c>
-      <c r="C141" s="21" t="n">
+      <c r="C141" s="22" t="n">
         <v>20130009</v>
       </c>
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F141" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="G141" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H141" s="21" t="s">
+      <c r="G141" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I141" s="21" t="s">
+      <c r="I141" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="J141" s="21" t="s">
+      <c r="J141" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="K141" s="21" t="s">
+      <c r="K141" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="L141" s="21" t="s">
+      <c r="L141" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="M141" s="24" t="n">
+      <c r="M141" s="25" t="n">
         <v>41422.4202321412</v>
       </c>
-      <c r="N141" s="21" t="s">
+      <c r="N141" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="O141" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P141" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q141" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R141" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S141" s="24" t="n">
+      <c r="O141" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P141" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q141" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R141" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S141" s="25" t="n">
         <v>41435.6075096875</v>
       </c>
-      <c r="T141" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="25">
-      <c r="A142" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" s="21" t="n">
+      <c r="T141" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="26">
+      <c r="A142" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="22" t="n">
         <v>15788</v>
       </c>
-      <c r="C142" s="21" t="n">
+      <c r="C142" s="22" t="n">
         <v>20120740</v>
       </c>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E142" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="F142" s="21" t="s">
+      <c r="F142" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="G142" s="21" t="s">
+      <c r="G142" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H142" s="21" t="s">
+      <c r="H142" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="I142" s="21" t="s">
+      <c r="I142" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="J142" s="21" t="s">
+      <c r="J142" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="K142" s="21" t="n">
+      <c r="K142" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="L142" s="21" t="s">
+      <c r="L142" s="22" t="s">
         <v>675</v>
       </c>
-      <c r="M142" s="24" t="n">
+      <c r="M142" s="25" t="n">
         <v>41422.5893254977</v>
       </c>
-      <c r="N142" s="21" t="s">
+      <c r="N142" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="O142" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P142" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q142" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R142" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S142" s="24" t="n">
+      <c r="O142" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P142" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q142" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R142" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" s="25" t="n">
         <v>41422.6442920139</v>
       </c>
-      <c r="T142" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="25">
-      <c r="A143" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" s="21" t="n">
+      <c r="T142" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="26">
+      <c r="A143" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="22" t="n">
         <v>16055</v>
       </c>
-      <c r="C143" s="21" t="n">
+      <c r="C143" s="22" t="n">
         <v>20120746</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E143" s="22" t="s">
         <v>678</v>
       </c>
-      <c r="F143" s="21" t="s">
+      <c r="F143" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="G143" s="21" t="s">
+      <c r="G143" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H143" s="21" t="s">
+      <c r="H143" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="I143" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J143" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K143" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L143" s="21" t="s">
+      <c r="I143" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J143" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K143" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L143" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="M143" s="24" t="n">
+      <c r="M143" s="25" t="n">
         <v>41423.4291382755</v>
       </c>
-      <c r="N143" s="21" t="s">
+      <c r="N143" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="O143" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P143" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q143" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R143" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S143" s="24" t="n">
+      <c r="O143" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P143" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q143" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R143" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" s="25" t="n">
         <v>41424.7292217245</v>
       </c>
-      <c r="T143" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="25">
-      <c r="A144" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="21" t="n">
+      <c r="T143" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="26">
+      <c r="A144" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" s="22" t="n">
         <v>16056</v>
       </c>
-      <c r="C144" s="21" t="n">
+      <c r="C144" s="22" t="n">
         <v>20120745</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="D144" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E144" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="F144" s="21" t="s">
+      <c r="F144" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G144" s="21" t="s">
+      <c r="G144" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H144" s="21" t="s">
+      <c r="H144" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I144" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J144" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K144" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L144" s="21" t="s">
+      <c r="I144" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J144" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K144" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L144" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="M144" s="24" t="n">
+      <c r="M144" s="25" t="n">
         <v>41423.7250649653</v>
       </c>
-      <c r="N144" s="21" t="s">
+      <c r="N144" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="O144" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P144" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q144" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R144" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S144" s="24" t="n">
+      <c r="O144" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P144" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q144" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R144" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" s="25" t="n">
         <v>41424.6425417824</v>
       </c>
-      <c r="T144" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="25">
-      <c r="A145" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" s="21" t="n">
+      <c r="T144" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="26">
+      <c r="A145" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="22" t="n">
         <v>16057</v>
       </c>
-      <c r="C145" s="21" t="n">
+      <c r="C145" s="22" t="n">
         <v>20120741</v>
       </c>
-      <c r="D145" s="21" t="s">
+      <c r="D145" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G145" s="21" t="s">
+      <c r="E145" s="22"/>
+      <c r="F145" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H145" s="21" t="s">
+      <c r="H145" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="I145" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J145" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K145" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L145" s="21" t="s">
+      <c r="I145" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J145" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K145" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L145" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M145" s="24" t="n">
+      <c r="M145" s="25" t="n">
         <v>41423.7734304398</v>
       </c>
-      <c r="N145" s="21" t="s">
+      <c r="N145" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="O145" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P145" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q145" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R145" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S145" s="24" t="n">
+      <c r="O145" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P145" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q145" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R145" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" s="25" t="n">
         <v>41423.7810798264</v>
       </c>
-      <c r="T145" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="25">
-      <c r="A146" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" s="21" t="n">
+      <c r="T145" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="26">
+      <c r="A146" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="22" t="n">
         <v>16058</v>
       </c>
-      <c r="C146" s="21" t="n">
+      <c r="C146" s="22" t="n">
         <v>20120742</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="D146" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G146" s="21" t="s">
+      <c r="E146" s="22"/>
+      <c r="F146" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H146" s="21" t="s">
+      <c r="H146" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="I146" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K146" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L146" s="21" t="s">
+      <c r="I146" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J146" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K146" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L146" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M146" s="24" t="n">
+      <c r="M146" s="25" t="n">
         <v>41423.7893275463</v>
       </c>
-      <c r="N146" s="21" t="s">
+      <c r="N146" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="O146" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P146" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q146" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R146" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S146" s="24" t="n">
+      <c r="O146" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q146" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R146" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" s="25" t="n">
         <v>41423.7946974537</v>
       </c>
-      <c r="T146" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="25">
-      <c r="A147" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" s="21" t="n">
+      <c r="T146" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="26">
+      <c r="A147" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="22" t="n">
         <v>16059</v>
       </c>
-      <c r="C147" s="21" t="n">
+      <c r="C147" s="22" t="n">
         <v>20120743</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" s="21" t="s">
+      <c r="E147" s="22"/>
+      <c r="F147" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H147" s="21" t="s">
+      <c r="H147" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I147" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K147" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L147" s="21" t="s">
+      <c r="I147" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J147" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K147" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L147" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M147" s="24" t="n">
+      <c r="M147" s="25" t="n">
         <v>41423.8413989931</v>
       </c>
-      <c r="N147" s="21" t="s">
+      <c r="N147" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="O147" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P147" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q147" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R147" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S147" s="24" t="n">
+      <c r="O147" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P147" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q147" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R147" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S147" s="25" t="n">
         <v>41423.8482772338</v>
       </c>
-      <c r="T147" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="25">
-      <c r="A148" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="21" t="n">
+      <c r="T147" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="26">
+      <c r="A148" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="22" t="n">
         <v>16060</v>
       </c>
-      <c r="C148" s="21" t="n">
+      <c r="C148" s="22" t="n">
         <v>20130005</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E148" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="F148" s="21" t="s">
+      <c r="F148" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="G148" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H148" s="21" t="s">
+      <c r="G148" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I148" s="21" t="s">
+      <c r="I148" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J148" s="21" t="s">
+      <c r="J148" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K148" s="21" t="n">
+      <c r="K148" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="L148" s="21" t="s">
+      <c r="L148" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="M148" s="24" t="n">
+      <c r="M148" s="25" t="n">
         <v>41424.6386755787</v>
       </c>
-      <c r="N148" s="21" t="s">
+      <c r="N148" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="O148" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P148" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q148" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R148" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S148" s="24" t="n">
+      <c r="O148" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P148" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q148" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R148" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" s="25" t="n">
         <v>41429.6013191319</v>
       </c>
-      <c r="T148" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="25">
-      <c r="A149" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" s="21" t="n">
+      <c r="T148" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="26">
+      <c r="A149" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="22" t="n">
         <v>16062</v>
       </c>
-      <c r="C149" s="21" t="n">
+      <c r="C149" s="22" t="n">
         <v>20130020</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E149" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F149" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="G149" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H149" s="21" t="s">
+      <c r="G149" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="I149" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K149" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L149" s="21" t="s">
+      <c r="I149" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J149" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K149" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L149" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="M149" s="24" t="n">
+      <c r="M149" s="25" t="n">
         <v>41425.3611156597</v>
       </c>
-      <c r="N149" s="21" t="s">
+      <c r="N149" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="O149" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P149" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q149" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R149" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S149" s="24" t="n">
+      <c r="O149" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P149" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q149" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R149" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S149" s="25" t="n">
         <v>41446.7091498495</v>
       </c>
-      <c r="T149" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="25">
-      <c r="A150" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="21" t="n">
+      <c r="T149" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="26">
+      <c r="A150" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="22" t="n">
         <v>16064</v>
       </c>
-      <c r="C150" s="21" t="n">
+      <c r="C150" s="22" t="n">
         <v>20120749</v>
       </c>
-      <c r="D150" s="21" t="s">
+      <c r="D150" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E150" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F150" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G150" s="21" t="s">
+      <c r="F150" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H150" s="21" t="s">
+      <c r="H150" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="I150" s="21" t="s">
+      <c r="I150" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="21" t="s">
+      <c r="J150" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="K150" s="21" t="n">
+      <c r="K150" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="L150" s="21" t="s">
+      <c r="L150" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M150" s="24" t="n">
+      <c r="M150" s="25" t="n">
         <v>41425.5221732986</v>
       </c>
-      <c r="N150" s="21" t="s">
+      <c r="N150" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="O150" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P150" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q150" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R150" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S150" s="24" t="n">
+      <c r="O150" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q150" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R150" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" s="25" t="n">
         <v>41425.5683483449</v>
       </c>
-      <c r="T150" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="25">
-      <c r="A151" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B151" s="21" t="n">
+      <c r="T150" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="26">
+      <c r="A151" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="22" t="n">
         <v>16065</v>
       </c>
-      <c r="C151" s="21" t="n">
+      <c r="C151" s="22" t="n">
         <v>20120750</v>
       </c>
-      <c r="D151" s="21" t="s">
+      <c r="D151" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G151" s="21" t="s">
+      <c r="E151" s="22"/>
+      <c r="F151" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H151" s="21" t="s">
+      <c r="H151" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="I151" s="21" t="s">
+      <c r="I151" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="J151" s="21" t="s">
+      <c r="J151" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="K151" s="21" t="s">
+      <c r="K151" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="L151" s="21" t="s">
+      <c r="L151" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M151" s="24" t="n">
+      <c r="M151" s="25" t="n">
         <v>41425.5727136574</v>
       </c>
-      <c r="N151" s="21" t="s">
+      <c r="N151" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="O151" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P151" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q151" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R151" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S151" s="24" t="n">
+      <c r="O151" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P151" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q151" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R151" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" s="25" t="n">
         <v>41425.6055085648</v>
       </c>
-      <c r="T151" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="25">
-      <c r="A152" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="21" t="n">
+      <c r="T151" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="26">
+      <c r="A152" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="22" t="n">
         <v>16067</v>
       </c>
-      <c r="C152" s="21" t="n">
+      <c r="C152" s="22" t="n">
         <v>20130001</v>
       </c>
-      <c r="D152" s="21" t="s">
+      <c r="D152" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="E152" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="F152" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H152" s="21" t="s">
+      <c r="F152" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="I152" s="21" t="s">
+      <c r="I152" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="J152" s="21" t="s">
+      <c r="J152" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="K152" s="21" t="n">
+      <c r="K152" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="L152" s="21" t="s">
+      <c r="L152" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="M152" s="24" t="n">
+      <c r="M152" s="25" t="n">
         <v>41428.4703114583</v>
       </c>
-      <c r="N152" s="21" t="s">
+      <c r="N152" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="O152" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P152" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q152" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R152" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S152" s="24" t="n">
+      <c r="O152" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P152" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q152" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R152" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S152" s="25" t="n">
         <v>41428.5247158912</v>
       </c>
-      <c r="T152" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="25">
-      <c r="A153" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="21" t="n">
+      <c r="T152" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="26">
+      <c r="A153" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="22" t="n">
         <v>16068</v>
       </c>
-      <c r="C153" s="21" t="n">
+      <c r="C153" s="22" t="n">
         <v>20130027</v>
       </c>
-      <c r="D153" s="21" t="s">
+      <c r="D153" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="E153" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="F153" s="21" t="s">
+      <c r="F153" s="22" t="s">
         <v>713</v>
       </c>
-      <c r="G153" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" s="21" t="s">
+      <c r="G153" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I153" s="21" t="s">
+      <c r="I153" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="J153" s="21" t="s">
+      <c r="J153" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="K153" s="21" t="s">
+      <c r="K153" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="L153" s="21" t="s">
+      <c r="L153" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="M153" s="24" t="n">
+      <c r="M153" s="25" t="n">
         <v>41428.5987583681</v>
       </c>
-      <c r="N153" s="21" t="s">
+      <c r="N153" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="O153" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P153" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q153" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R153" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S153" s="24" t="n">
+      <c r="O153" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P153" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q153" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R153" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S153" s="25" t="n">
         <v>41451.5624622338</v>
       </c>
-      <c r="T153" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="25">
-      <c r="A154" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B154" s="21" t="n">
+      <c r="T153" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="26">
+      <c r="A154" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="22" t="n">
         <v>16069</v>
       </c>
-      <c r="C154" s="21" t="n">
+      <c r="C154" s="22" t="n">
         <v>20130002</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="F154" s="21" t="s">
+      <c r="F154" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G154" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H154" s="21" t="s">
+      <c r="G154" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I154" s="21" t="s">
+      <c r="I154" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="J154" s="21" t="s">
+      <c r="J154" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="K154" s="21" t="n">
+      <c r="K154" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="L154" s="21" t="s">
+      <c r="L154" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M154" s="24" t="n">
+      <c r="M154" s="25" t="n">
         <v>41429.4211212616</v>
       </c>
-      <c r="N154" s="21" t="s">
+      <c r="N154" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="O154" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P154" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q154" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R154" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S154" s="24" t="n">
+      <c r="O154" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P154" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q154" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R154" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S154" s="25" t="n">
         <v>41429.5048460648</v>
       </c>
-      <c r="T154" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="25">
-      <c r="A155" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B155" s="21" t="n">
+      <c r="T154" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="26">
+      <c r="A155" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="22" t="n">
         <v>16070</v>
       </c>
-      <c r="C155" s="21" t="n">
+      <c r="C155" s="22" t="n">
         <v>20130006</v>
       </c>
-      <c r="D155" s="21" t="s">
+      <c r="D155" s="22" t="s">
         <v>724</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="F155" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="G155" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H155" s="21" t="s">
+      <c r="G155" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="I155" s="21" t="s">
+      <c r="I155" s="22" t="s">
         <v>726</v>
       </c>
-      <c r="J155" s="21" t="s">
+      <c r="J155" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="K155" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="L155" s="21" t="s">
+      <c r="K155" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L155" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M155" s="24" t="n">
+      <c r="M155" s="25" t="n">
         <v>41429.529555787</v>
       </c>
-      <c r="N155" s="21" t="s">
+      <c r="N155" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="O155" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P155" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q155" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R155" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S155" s="24" t="n">
+      <c r="O155" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P155" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q155" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R155" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" s="25" t="n">
         <v>41429.6654361111</v>
       </c>
-      <c r="T155" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="25">
-      <c r="A156" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" s="21" t="n">
+      <c r="T155" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="26">
+      <c r="A156" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="22" t="n">
         <v>16071</v>
       </c>
-      <c r="C156" s="21" t="n">
+      <c r="C156" s="22" t="n">
         <v>20130003</v>
       </c>
-      <c r="D156" s="21" t="s">
+      <c r="D156" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E156" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="F156" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H156" s="21" t="s">
+      <c r="F156" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H156" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="I156" s="21" t="s">
+      <c r="I156" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="J156" s="21" t="s">
+      <c r="J156" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="K156" s="21" t="s">
+      <c r="K156" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="L156" s="21" t="s">
+      <c r="L156" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="M156" s="24" t="n">
+      <c r="M156" s="25" t="n">
         <v>41429.5460413195</v>
       </c>
-      <c r="N156" s="21" t="s">
+      <c r="N156" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="O156" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P156" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q156" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R156" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S156" s="24" t="n">
+      <c r="O156" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P156" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q156" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R156" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" s="25" t="n">
         <v>41429.5703815625</v>
       </c>
-      <c r="T156" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="25">
-      <c r="A157" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" s="21" t="n">
+      <c r="T156" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="26">
+      <c r="A157" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="22" t="n">
         <v>16073</v>
       </c>
-      <c r="C157" s="21" t="n">
+      <c r="C157" s="22" t="n">
         <v>20130007</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="D157" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E157" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="F157" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G157" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H157" s="21" t="s">
+      <c r="F157" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="I157" s="21" t="s">
+      <c r="I157" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="J157" s="21" t="s">
+      <c r="J157" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="K157" s="21" t="n">
+      <c r="K157" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="L157" s="21" t="s">
+      <c r="L157" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="M157" s="24" t="n">
+      <c r="M157" s="25" t="n">
         <v>41431.5794003125</v>
       </c>
-      <c r="N157" s="21" t="s">
+      <c r="N157" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="O157" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P157" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q157" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R157" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S157" s="24" t="n">
+      <c r="O157" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P157" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q157" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R157" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" s="25" t="n">
         <v>41431.5996615741</v>
       </c>
-      <c r="T157" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="25">
-      <c r="A158" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" s="21" t="n">
+      <c r="T157" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="26">
+      <c r="A158" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="22" t="n">
         <v>16074</v>
       </c>
-      <c r="C158" s="21" t="n">
+      <c r="C158" s="22" t="n">
         <v>20130026</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="D158" s="22" t="s">
         <v>738</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E158" s="22" t="s">
         <v>739</v>
       </c>
-      <c r="F158" s="21" t="s">
+      <c r="F158" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G158" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H158" s="21" t="s">
+      <c r="G158" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I158" s="21" t="s">
+      <c r="I158" s="22" t="s">
         <v>740</v>
       </c>
-      <c r="J158" s="21" t="s">
+      <c r="J158" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="K158" s="21" t="n">
+      <c r="K158" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="L158" s="21" t="s">
+      <c r="L158" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M158" s="24" t="n">
+      <c r="M158" s="25" t="n">
         <v>41437.4946140046</v>
       </c>
-      <c r="N158" s="21" t="s">
+      <c r="N158" s="22" t="s">
         <v>741</v>
       </c>
-      <c r="O158" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P158" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q158" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R158" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S158" s="24" t="n">
+      <c r="O158" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P158" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q158" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R158" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S158" s="25" t="n">
         <v>41451.5483249653</v>
       </c>
-      <c r="T158" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="25">
-      <c r="A159" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B159" s="21" t="n">
+      <c r="T158" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="26">
+      <c r="A159" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="22" t="n">
         <v>16075</v>
       </c>
-      <c r="C159" s="21" t="n">
+      <c r="C159" s="22" t="n">
         <v>20130011</v>
       </c>
-      <c r="D159" s="21" t="s">
+      <c r="D159" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E159" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="F159" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="G159" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H159" s="21" t="s">
+      <c r="H159" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I159" s="21" t="s">
+      <c r="I159" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="J159" s="21" t="s">
+      <c r="J159" s="22" t="s">
         <v>745</v>
       </c>
-      <c r="K159" s="21" t="n">
+      <c r="K159" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="L159" s="21" t="s">
+      <c r="L159" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M159" s="24" t="n">
+      <c r="M159" s="25" t="n">
         <v>41439.4236439468</v>
       </c>
-      <c r="N159" s="21" t="s">
+      <c r="N159" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="O159" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P159" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q159" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R159" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S159" s="24" t="n">
+      <c r="O159" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P159" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q159" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R159" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" s="25" t="n">
         <v>41439.4544053588</v>
       </c>
-      <c r="T159" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="25">
-      <c r="A160" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" s="21" t="n">
+      <c r="T159" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="26">
+      <c r="A160" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="22" t="n">
         <v>16076</v>
       </c>
-      <c r="C160" s="21" t="n">
+      <c r="C160" s="22" t="n">
         <v>20130013</v>
       </c>
-      <c r="D160" s="21" t="s">
+      <c r="D160" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21" t="s">
+      <c r="E160" s="22"/>
+      <c r="F160" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="G160" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H160" s="21" t="s">
+      <c r="G160" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="I160" s="21" t="s">
+      <c r="I160" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="J160" s="21" t="s">
+      <c r="J160" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="K160" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="L160" s="21" t="s">
+      <c r="K160" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="L160" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="M160" s="24" t="n">
+      <c r="M160" s="25" t="n">
         <v>41442.581944294</v>
       </c>
-      <c r="N160" s="21" t="s">
+      <c r="N160" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="O160" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P160" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q160" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R160" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S160" s="24" t="n">
+      <c r="O160" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P160" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q160" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R160" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S160" s="25" t="n">
         <v>41445.3940660532</v>
       </c>
-      <c r="T160" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="25">
-      <c r="A161" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" s="21" t="n">
+      <c r="T160" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="26">
+      <c r="A161" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="22" t="n">
         <v>16077</v>
       </c>
-      <c r="C161" s="21" t="n">
+      <c r="C161" s="22" t="n">
         <v>20130014</v>
       </c>
-      <c r="D161" s="21" t="s">
+      <c r="D161" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="F161" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G161" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H161" s="21" t="s">
+      <c r="F161" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G161" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I161" s="21" t="s">
+      <c r="I161" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="J161" s="21" t="s">
+      <c r="J161" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="K161" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="L161" s="21" t="s">
+      <c r="K161" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L161" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="M161" s="24" t="n">
+      <c r="M161" s="25" t="n">
         <v>41442.6344805903</v>
       </c>
-      <c r="N161" s="21" t="s">
+      <c r="N161" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="O161" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P161" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q161" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R161" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S161" s="24" t="n">
+      <c r="O161" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P161" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q161" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R161" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" s="25" t="n">
         <v>41445.3949270833</v>
       </c>
-      <c r="T161" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="25">
-      <c r="A162" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="21" t="n">
+      <c r="T161" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="26">
+      <c r="A162" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="22" t="n">
         <v>16078</v>
       </c>
-      <c r="C162" s="21" t="n">
+      <c r="C162" s="22" t="n">
         <v>20130016</v>
       </c>
-      <c r="D162" s="21" t="s">
+      <c r="D162" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G162" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H162" s="21" t="s">
+      <c r="E162" s="22"/>
+      <c r="F162" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="I162" s="21" t="s">
+      <c r="I162" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="J162" s="21" t="s">
+      <c r="J162" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="K162" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="L162" s="21" t="s">
+      <c r="K162" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="L162" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="M162" s="24" t="n">
+      <c r="M162" s="25" t="n">
         <v>41443.4305087153</v>
       </c>
-      <c r="N162" s="21" t="s">
+      <c r="N162" s="22" t="s">
         <v>756</v>
       </c>
-      <c r="O162" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P162" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q162" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R162" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S162" s="24" t="n">
+      <c r="O162" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P162" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q162" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R162" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" s="25" t="n">
         <v>41445.4506866088</v>
       </c>
-      <c r="T162" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="25">
-      <c r="A163" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="21" t="n">
+      <c r="T162" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="26">
+      <c r="A163" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="22" t="n">
         <v>16079</v>
       </c>
-      <c r="C163" s="21" t="n">
+      <c r="C163" s="22" t="n">
         <v>20130017</v>
       </c>
-      <c r="D163" s="21" t="s">
+      <c r="D163" s="22" t="s">
         <v>757</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E163" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="F163" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H163" s="21" t="s">
+      <c r="F163" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I163" s="21" t="s">
+      <c r="I163" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="J163" s="21" t="s">
+      <c r="J163" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="K163" s="21" t="s">
+      <c r="K163" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="L163" s="21" t="s">
+      <c r="L163" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="M163" s="24" t="n">
+      <c r="M163" s="25" t="n">
         <v>41444.4777402778</v>
       </c>
-      <c r="N163" s="21" t="s">
+      <c r="N163" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="O163" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P163" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q163" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R163" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S163" s="24" t="n">
+      <c r="O163" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P163" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q163" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R163" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" s="25" t="n">
         <v>41445.4766430556</v>
       </c>
-      <c r="T163" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="25">
-      <c r="A164" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" s="21" t="n">
+      <c r="T163" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="26">
+      <c r="A164" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="22" t="n">
         <v>16080</v>
       </c>
-      <c r="C164" s="21" t="n">
+      <c r="C164" s="22" t="n">
         <v>20130015</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="D164" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H164" s="21" t="s">
+      <c r="E164" s="22"/>
+      <c r="F164" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I164" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J164" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K164" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L164" s="21" t="s">
+      <c r="I164" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J164" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K164" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L164" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M164" s="24" t="n">
+      <c r="M164" s="25" t="n">
         <v>41444.665028669</v>
       </c>
-      <c r="N164" s="21" t="s">
+      <c r="N164" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="O164" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P164" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q164" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R164" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S164" s="24" t="n">
+      <c r="O164" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P164" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q164" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R164" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" s="25" t="n">
         <v>41445.4034752662</v>
       </c>
-      <c r="T164" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="25">
-      <c r="A165" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B165" s="21" t="n">
+      <c r="T164" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="26">
+      <c r="A165" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="22" t="n">
         <v>16081</v>
       </c>
-      <c r="C165" s="21" t="n">
+      <c r="C165" s="22" t="n">
         <v>20130031</v>
       </c>
-      <c r="D165" s="21" t="s">
+      <c r="D165" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E165" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="F165" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G165" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H165" s="21" t="s">
+      <c r="F165" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G165" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I165" s="21" t="s">
+      <c r="I165" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="J165" s="21" t="s">
+      <c r="J165" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="K165" s="21" t="s">
+      <c r="K165" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="L165" s="21" t="s">
+      <c r="L165" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="M165" s="24" t="n">
+      <c r="M165" s="25" t="n">
         <v>41445.4579989583</v>
       </c>
-      <c r="N165" s="21" t="s">
+      <c r="N165" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="O165" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P165" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q165" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R165" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S165" s="24" t="n">
+      <c r="O165" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P165" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q165" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R165" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S165" s="25" t="n">
         <v>41454.8893689005</v>
       </c>
-      <c r="T165" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="25">
-      <c r="A166" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B166" s="21" t="n">
+      <c r="T165" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="26">
+      <c r="A166" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" s="22" t="n">
         <v>16083</v>
       </c>
-      <c r="C166" s="21" t="n">
+      <c r="C166" s="22" t="n">
         <v>20130028</v>
       </c>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G166" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H166" s="21" t="s">
+      <c r="E166" s="22"/>
+      <c r="F166" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="I166" s="21" t="s">
+      <c r="I166" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="J166" s="21" t="s">
+      <c r="J166" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="K166" s="21" t="n">
+      <c r="K166" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="L166" s="21" t="s">
+      <c r="L166" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="M166" s="24" t="n">
+      <c r="M166" s="25" t="n">
         <v>41446.4608850694</v>
       </c>
-      <c r="N166" s="21" t="s">
+      <c r="N166" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="O166" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P166" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q166" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R166" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S166" s="24" t="n">
+      <c r="O166" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P166" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q166" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R166" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" s="25" t="n">
         <v>41452.3569886574</v>
       </c>
-      <c r="T166" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="25">
-      <c r="A167" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" s="27" t="n">
+      <c r="T166" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="26">
+      <c r="A167" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="28" t="n">
         <v>16085</v>
       </c>
-      <c r="C167" s="27" t="n">
+      <c r="C167" s="28" t="n">
         <v>20130021</v>
       </c>
-      <c r="D167" s="27" t="s">
+      <c r="D167" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="E167" s="27" t="s">
+      <c r="E167" s="28" t="s">
         <v>775</v>
       </c>
-      <c r="F167" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G167" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="27" t="s">
+      <c r="F167" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="28" t="s">
         <v>776</v>
       </c>
-      <c r="I167" s="27" t="s">
+      <c r="I167" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="J167" s="27" t="s">
+      <c r="J167" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="K167" s="21" t="n">
+      <c r="K167" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="L167" s="27" t="s">
+      <c r="L167" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="M167" s="28" t="n">
+      <c r="M167" s="29" t="n">
         <v>41449.3498559028</v>
       </c>
-      <c r="N167" s="27" t="s">
+      <c r="N167" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="O167" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P167" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q167" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R167" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S167" s="28" t="n">
+      <c r="O167" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P167" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q167" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R167" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" s="29" t="n">
         <v>41449.3675326389</v>
       </c>
-      <c r="T167" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="25">
-      <c r="A168" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="27" t="n">
+      <c r="T167" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="26">
+      <c r="A168" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="28" t="n">
         <v>16086</v>
       </c>
-      <c r="C168" s="27" t="n">
+      <c r="C168" s="28" t="n">
         <v>20130022</v>
       </c>
-      <c r="D168" s="27" t="s">
+      <c r="D168" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="E168" s="27" t="s">
+      <c r="E168" s="28" t="s">
         <v>752</v>
       </c>
-      <c r="F168" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G168" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H168" s="27" t="s">
+      <c r="F168" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I168" s="27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J168" s="27" t="s">
+      <c r="I168" s="28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J168" s="28" t="s">
         <v>722</v>
       </c>
-      <c r="K168" s="21" t="n">
+      <c r="K168" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="L168" s="27" t="s">
+      <c r="L168" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="M168" s="28" t="n">
+      <c r="M168" s="29" t="n">
         <v>41449.494916169</v>
       </c>
-      <c r="N168" s="27" t="s">
+      <c r="N168" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="O168" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P168" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q168" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R168" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S168" s="28" t="n">
+      <c r="O168" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P168" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q168" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R168" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" s="29" t="n">
         <v>41449.5007751968</v>
       </c>
-      <c r="T168" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="25">
-      <c r="A169" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" s="27" t="n">
+      <c r="T168" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="26">
+      <c r="A169" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="28" t="n">
         <v>16087</v>
       </c>
-      <c r="C169" s="27" t="n">
+      <c r="C169" s="28" t="n">
         <v>20130023</v>
       </c>
-      <c r="D169" s="27" t="s">
+      <c r="D169" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="E169" s="27" t="s">
+      <c r="E169" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="F169" s="27" t="s">
+      <c r="F169" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="G169" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H169" s="27" t="s">
+      <c r="G169" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" s="28" t="s">
         <v>784</v>
       </c>
-      <c r="I169" s="27" t="s">
+      <c r="I169" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="J169" s="27" t="s">
+      <c r="J169" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="K169" s="21" t="n">
+      <c r="K169" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="L169" s="27" t="s">
+      <c r="L169" s="28" t="s">
         <v>784</v>
       </c>
-      <c r="M169" s="28" t="n">
+      <c r="M169" s="29" t="n">
         <v>41449.6461498843</v>
       </c>
-      <c r="N169" s="27" t="s">
+      <c r="N169" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="O169" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P169" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q169" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R169" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S169" s="28" t="n">
+      <c r="O169" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P169" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q169" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R169" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" s="29" t="n">
         <v>41449.685081331</v>
       </c>
-      <c r="T169" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="25">
-      <c r="A170" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B170" s="27" t="n">
+      <c r="T169" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="26">
+      <c r="A170" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="28" t="n">
         <v>16089</v>
       </c>
-      <c r="C170" s="27" t="n">
+      <c r="C170" s="28" t="n">
         <v>20130024</v>
       </c>
-      <c r="D170" s="27" t="s">
+      <c r="D170" s="28" t="s">
         <v>786</v>
       </c>
-      <c r="E170" s="27" t="s">
+      <c r="E170" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="F170" s="27" t="s">
+      <c r="F170" s="28" t="s">
         <v>788</v>
       </c>
-      <c r="G170" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" s="27" t="s">
+      <c r="G170" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="I170" s="27" t="s">
+      <c r="I170" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="J170" s="27" t="s">
+      <c r="J170" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="K170" s="21" t="n">
+      <c r="K170" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="L170" s="27" t="s">
+      <c r="L170" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="M170" s="28" t="n">
+      <c r="M170" s="29" t="n">
         <v>41450.6984287037</v>
       </c>
-      <c r="N170" s="27" t="s">
+      <c r="N170" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="O170" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P170" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q170" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R170" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S170" s="28" t="n">
+      <c r="O170" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P170" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q170" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R170" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" s="29" t="n">
         <v>41450.715544294</v>
       </c>
-      <c r="T170" s="27"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="25">
-      <c r="A171" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B171" s="27" t="n">
+      <c r="T170" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="26">
+      <c r="A171" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="28" t="n">
         <v>16091</v>
       </c>
-      <c r="C171" s="27" t="n">
+      <c r="C171" s="28" t="n">
         <v>20130025</v>
       </c>
-      <c r="D171" s="27" t="s">
+      <c r="D171" s="28" t="s">
         <v>791</v>
       </c>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" s="27" t="s">
+      <c r="E171" s="28"/>
+      <c r="F171" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="I171" s="27" t="s">
+      <c r="I171" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="J171" s="27" t="n">
+      <c r="J171" s="28" t="n">
         <v>40</v>
       </c>
-      <c r="K171" s="27" t="s">
+      <c r="K171" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="L171" s="27" t="s">
+      <c r="L171" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="M171" s="28" t="n">
+      <c r="M171" s="29" t="n">
         <v>41451.4667568287</v>
       </c>
-      <c r="N171" s="27" t="s">
+      <c r="N171" s="28" t="s">
         <v>793</v>
       </c>
-      <c r="O171" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P171" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q171" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R171" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S171" s="28" t="n">
+      <c r="O171" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P171" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q171" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R171" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" s="29" t="n">
         <v>41451.4801988426</v>
       </c>
-      <c r="T171" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="25">
-      <c r="A172" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B172" s="27" t="n">
+      <c r="T171" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="26">
+      <c r="A172" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="28" t="n">
         <v>16093</v>
       </c>
-      <c r="C172" s="27" t="n">
+      <c r="C172" s="28" t="n">
         <v>20130029</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="F172" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G172" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H172" s="21" t="s">
+      <c r="F172" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I172" s="21" t="s">
+      <c r="I172" s="22" t="s">
         <v>740</v>
       </c>
-      <c r="J172" s="21" t="s">
+      <c r="J172" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="K172" s="21" t="s">
+      <c r="K172" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="L172" s="21" t="s">
+      <c r="L172" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M172" s="24" t="n">
+      <c r="M172" s="25" t="n">
         <v>41452.4603681713</v>
       </c>
-      <c r="N172" s="21" t="s">
+      <c r="N172" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="O172" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P172" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q172" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R172" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S172" s="24" t="n">
+      <c r="O172" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P172" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q172" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R172" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S172" s="25" t="n">
         <v>41452.5328050926</v>
       </c>
-      <c r="T172" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="26">
-      <c r="A173" s="29"/>
-      <c r="B173" s="30" t="s">
+      <c r="T172" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="27">
+      <c r="A173" s="30"/>
+      <c r="B173" s="31" t="s">
         <v>798</v>
       </c>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="30"/>
-      <c r="I173" s="30"/>
-      <c r="J173" s="30"/>
-      <c r="K173" s="30"/>
-      <c r="L173" s="30"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="31"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="31"/>
+      <c r="L173" s="31"/>
       <c r="M173" s="20"/>
-      <c r="N173" s="30"/>
-      <c r="O173" s="30"/>
-      <c r="P173" s="30"/>
-      <c r="Q173" s="30"/>
-      <c r="R173" s="30"/>
+      <c r="N173" s="31"/>
+      <c r="O173" s="31"/>
+      <c r="P173" s="31"/>
+      <c r="Q173" s="31"/>
+      <c r="R173" s="31"/>
       <c r="S173" s="20"/>
-      <c r="T173" s="30"/>
+      <c r="T173" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="810">
   <si>
     <t>Assigned</t>
   </si>
@@ -2839,10 +2839,10 @@
   </sheetPr>
   <dimension ref="1:173"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A41" xSplit="0" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A54" activeCellId="0" pane="bottomLeft" sqref="54:54"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="M1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" xSplit="0" ySplit="1"/>
+      <selection activeCell="M1" activeCellId="0" pane="topLeft" sqref="M1"/>
+      <selection activeCell="U56" activeCellId="0" pane="bottomLeft" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6222,116 +6222,119 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="55" s="13">
+      <c r="A55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="13" t="n">
         <v>15278</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="13" t="n">
         <v>20120342</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="I55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="M55" s="18" t="n">
+      <c r="M55" s="14" t="n">
         <v>41204.46623125</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="N55" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="O55" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" s="18" t="n">
+      <c r="P55" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" s="14" t="n">
         <v>41281.5369976505</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="56" s="27">
+      <c r="A56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="27" t="n">
         <v>15279</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="27" t="n">
         <v>20120253</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F56" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="M56" s="18" t="n">
+      <c r="M56" s="28" t="n">
         <v>41204.587358912</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="N56" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="O56" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" s="18" t="n">
+      <c r="P56" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" s="28" t="n">
         <v>41211.65310625</v>
+      </c>
+      <c r="T56" s="27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="33">

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="812">
   <si>
     <t>Assigned</t>
   </si>
@@ -989,6 +989,9 @@
     <t>03-12-007</t>
   </si>
   <si>
+    <t>Already mapped. Was questionable and yellow in last batch, but you answered that it is fine. In prev db.</t>
+  </si>
+  <si>
     <t>Union County Whitetop Control Program</t>
   </si>
   <si>
@@ -999,6 +1002,9 @@
   </si>
   <si>
     <t>2012-252-08</t>
+  </si>
+  <si>
+    <t>Shapefile has points that arent categorized for treatment type; More detailed question in email.</t>
   </si>
   <si>
     <t>Elder Creek Irrigation Efficiency Project</t>
@@ -2589,7 +2595,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2722,11 +2728,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2738,7 +2748,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="21">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="21">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2755,6 +2765,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="21">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2839,10 +2853,10 @@
   </sheetPr>
   <dimension ref="1:173"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="M1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A38" xSplit="0" ySplit="1"/>
-      <selection activeCell="M1" activeCellId="0" pane="topLeft" sqref="M1"/>
-      <selection activeCell="U56" activeCellId="0" pane="bottomLeft" sqref="U56"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A158" xSplit="0" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A171" activeCellId="0" pane="bottomLeft" sqref="171:171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6337,379 +6351,384 @@
         <v>190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57" s="33">
-      <c r="A57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="57" s="30">
+      <c r="A57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="27" t="n">
         <v>15283</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="27" t="n">
         <v>20120249</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="M57" s="18" t="n">
+      <c r="M57" s="28" t="n">
         <v>41205.4651765046</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="N57" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O57" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" s="18" t="n">
+      <c r="P57" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" s="28" t="n">
         <v>41208.6185199421</v>
       </c>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
-      <c r="AG57" s="2"/>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="2" t="n">
+      <c r="T57" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="27"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="27"/>
+      <c r="AI57" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="58" s="8">
+      <c r="A58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="8" t="n">
         <v>15287</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="8" t="n">
         <v>20120247</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="D58" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L58" s="2" t="s">
+      <c r="H58" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="M58" s="18" t="n">
+      <c r="I58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M58" s="9" t="n">
         <v>41205.5341565972</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="O58" s="2" t="s">
+      <c r="N58" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" s="18" t="n">
+      <c r="P58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" s="9" t="n">
         <v>41207.6450975347</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
-      <c r="A59" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="2" t="n">
+      <c r="T58" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="59" s="27">
+      <c r="A59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="27" t="n">
         <v>15294</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="27" t="n">
         <v>20120244</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D59" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="E59" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G59" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="H59" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="I59" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K59" s="2" t="n">
+      <c r="J59" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K59" s="27" t="n">
         <v>31</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="M59" s="18" t="n">
+      <c r="M59" s="28" t="n">
         <v>41207.4083723727</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="O59" s="2" t="s">
+      <c r="N59" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="O59" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R59" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S59" s="18" t="n">
+      <c r="P59" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" s="28" t="n">
         <v>41207.427530787</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60" s="34">
-      <c r="A60" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="34" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="60" s="33">
+      <c r="A60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="33" t="n">
         <v>15297</v>
       </c>
-      <c r="C60" s="34" t="n">
+      <c r="C60" s="33" t="n">
         <v>20120257</v>
       </c>
-      <c r="D60" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="34" t="s">
+      <c r="D60" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="H60" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K60" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" s="34" t="s">
+      <c r="H60" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="M60" s="18" t="n">
+      <c r="M60" s="28" t="n">
         <v>41210.5831710648</v>
       </c>
-      <c r="N60" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="O60" s="34" t="s">
+      <c r="N60" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="O60" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P60" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q60" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="R60" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S60" s="18" t="n">
+      <c r="P60" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" s="28" t="n">
         <v>41212.431104132</v>
       </c>
-      <c r="U60" s="0"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0"/>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
-      <c r="AB60" s="0"/>
-      <c r="AC60" s="0"/>
-      <c r="AD60" s="0"/>
-      <c r="AE60" s="0"/>
-      <c r="AF60" s="0"/>
-      <c r="AG60" s="0"/>
-      <c r="AH60" s="0"/>
-      <c r="AI60" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
-      <c r="A61" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="2" t="n">
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="30"/>
+      <c r="AG60" s="30"/>
+      <c r="AH60" s="30"/>
+      <c r="AI60" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="61" s="27">
+      <c r="A61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="27" t="n">
         <v>15326</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="27" t="n">
         <v>20120284</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="D61" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L61" s="2" t="s">
+      <c r="H61" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M61" s="18" t="n">
+      <c r="M61" s="28" t="n">
         <v>41233.4709574074</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="O61" s="2" t="s">
+      <c r="N61" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="O61" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S61" s="18" t="n">
+      <c r="P61" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" s="28" t="n">
         <v>41233.4953285069</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
-      <c r="A62" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="62" s="27">
+      <c r="A62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="27" t="n">
         <v>15340</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="27" t="n">
         <v>20120346</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="D62" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="E62" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G62" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="2" t="s">
+      <c r="I62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="M62" s="18" t="n">
+      <c r="M62" s="28" t="n">
         <v>41240.3506242708</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="O62" s="2" t="s">
+      <c r="N62" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="O62" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R62" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" s="18" t="n">
+      <c r="P62" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" s="28" t="n">
         <v>41284.527165625</v>
       </c>
     </row>
@@ -6724,7 +6743,7 @@
         <v>20120298</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>30</v>
@@ -6733,7 +6752,7 @@
         <v>99</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>30</v>
@@ -6751,7 +6770,7 @@
         <v>41243.5707371181</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>28</v>
@@ -6769,121 +6788,121 @@
         <v>41243.5804918982</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="64" s="27">
+      <c r="A64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="27" t="n">
         <v>15355</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="27" t="n">
         <v>20120424</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="D64" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="E64" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G64" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J64" s="2" t="s">
+      <c r="I64" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="J64" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M64" s="18" t="n">
+      <c r="K64" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="M64" s="28" t="n">
         <v>41247.9034753472</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="O64" s="2" t="s">
+      <c r="N64" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="O64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R64" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S64" s="18" t="n">
+      <c r="P64" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R64" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" s="28" t="n">
         <v>41331.6749808681</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="65" s="27">
+      <c r="A65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="27" t="n">
         <v>15392</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="27" t="n">
         <v>20120340</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="D65" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="E65" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="F65" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I65" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K65" s="2" t="n">
+      <c r="J65" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="K65" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="M65" s="18" t="n">
+      <c r="L65" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="M65" s="28" t="n">
         <v>41278.4907118056</v>
       </c>
-      <c r="N65" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O65" s="2" t="s">
+      <c r="N65" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="O65" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R65" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S65" s="18" t="n">
+      <c r="P65" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" s="28" t="n">
         <v>41278.5676700579</v>
       </c>
     </row>
@@ -6898,13 +6917,13 @@
         <v>20120341</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>208</v>
@@ -6928,7 +6947,7 @@
         <v>41278.6358895486</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>28</v>
@@ -6946,80 +6965,80 @@
         <v>41281.4489203704</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67" s="33">
-      <c r="A67" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="67" s="30">
+      <c r="A67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="27" t="n">
         <v>15394</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="27" t="n">
         <v>20120352</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="D67" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="F67" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="H67" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="I67" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="L67" s="2" t="s">
+      <c r="K67" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="L67" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="M67" s="18" t="n">
+      <c r="M67" s="28" t="n">
         <v>41281.5898056366</v>
       </c>
-      <c r="N67" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="O67" s="2" t="s">
+      <c r="N67" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R67" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S67" s="18" t="n">
+      <c r="P67" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" s="28" t="n">
         <v>41288.605065544</v>
       </c>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="2"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="27"/>
+      <c r="AF67" s="27"/>
+      <c r="AG67" s="27"/>
+      <c r="AH67" s="27"/>
+      <c r="AI67" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
       <c r="A68" s="17" t="s">
@@ -7032,7 +7051,7 @@
         <v>20120351</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>30</v>
@@ -7059,7 +7078,7 @@
         <v>41288.4558511574</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>28</v>
@@ -7077,137 +7096,137 @@
         <v>41288.568308912</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="69">
-      <c r="A69" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="69" s="27">
+      <c r="A69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="27" t="n">
         <v>15417</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="27" t="n">
         <v>20120366</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="D69" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K69" s="2" t="n">
+      <c r="I69" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="K69" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="M69" s="18" t="n">
+      <c r="M69" s="28" t="n">
         <v>41291.6404073264</v>
       </c>
-      <c r="N69" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="O69" s="2" t="s">
+      <c r="N69" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="O69" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R69" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S69" s="18" t="n">
+      <c r="P69" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R69" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" s="28" t="n">
         <v>41292.7439197107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70" s="34">
-      <c r="A70" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="34" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="70" s="33">
+      <c r="A70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="33" t="n">
         <v>15418</v>
       </c>
-      <c r="C70" s="34" t="n">
+      <c r="C70" s="33" t="n">
         <v>20120385</v>
       </c>
-      <c r="D70" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="34" t="s">
+      <c r="D70" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J70" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="34" t="s">
+      <c r="H70" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="M70" s="18" t="n">
+      <c r="M70" s="28" t="n">
         <v>41294.5077270486</v>
       </c>
-      <c r="N70" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="O70" s="34" t="s">
+      <c r="N70" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="O70" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P70" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q70" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S70" s="18" t="n">
+      <c r="P70" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R70" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" s="28" t="n">
         <v>41309.4628889236</v>
       </c>
-      <c r="U70" s="0"/>
-      <c r="V70" s="0"/>
-      <c r="W70" s="0"/>
-      <c r="X70" s="0"/>
-      <c r="Y70" s="0"/>
-      <c r="Z70" s="0"/>
-      <c r="AA70" s="0"/>
-      <c r="AB70" s="0"/>
-      <c r="AC70" s="0"/>
-      <c r="AD70" s="0"/>
-      <c r="AE70" s="0"/>
-      <c r="AF70" s="0"/>
-      <c r="AG70" s="0"/>
-      <c r="AH70" s="0"/>
-      <c r="AI70" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="33">
+      <c r="U70" s="30"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
+      <c r="AE70" s="30"/>
+      <c r="AF70" s="30"/>
+      <c r="AG70" s="30"/>
+      <c r="AH70" s="30"/>
+      <c r="AI70" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="35">
       <c r="A71" s="17" t="s">
         <v>20</v>
       </c>
@@ -7218,7 +7237,7 @@
         <v>20120378</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>35</v>
@@ -7230,13 +7249,13 @@
         <v>35</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I71" s="34" t="s">
         <v>135</v>
       </c>
       <c r="J71" s="34" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K71" s="34" t="s">
         <v>30</v>
@@ -7248,7 +7267,7 @@
         <v>41302.5911455208</v>
       </c>
       <c r="N71" s="34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O71" s="34" t="s">
         <v>28</v>
@@ -7282,133 +7301,133 @@
       <c r="AH71" s="0"/>
       <c r="AI71" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72" s="34">
-      <c r="A72" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="34" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="72" s="33">
+      <c r="A72" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="33" t="n">
         <v>15430</v>
       </c>
-      <c r="C72" s="34" t="n">
+      <c r="C72" s="33" t="n">
         <v>20120375</v>
       </c>
-      <c r="D72" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="34" t="s">
+      <c r="D72" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="H72" s="34" t="s">
+      <c r="H72" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="I72" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="34" t="s">
+      <c r="I72" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="M72" s="18" t="n">
+      <c r="M72" s="28" t="n">
         <v>41303.6479885069</v>
       </c>
-      <c r="N72" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="O72" s="34" t="s">
+      <c r="N72" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="O72" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q72" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="R72" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S72" s="18" t="n">
+      <c r="P72" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" s="28" t="n">
         <v>41303.6661596065</v>
       </c>
-      <c r="U72" s="0"/>
-      <c r="V72" s="0"/>
-      <c r="W72" s="0"/>
-      <c r="X72" s="0"/>
-      <c r="Y72" s="0"/>
-      <c r="Z72" s="0"/>
-      <c r="AA72" s="0"/>
-      <c r="AB72" s="0"/>
-      <c r="AC72" s="0"/>
-      <c r="AD72" s="0"/>
-      <c r="AE72" s="0"/>
-      <c r="AF72" s="0"/>
-      <c r="AG72" s="0"/>
-      <c r="AH72" s="0"/>
-      <c r="AI72" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="73">
-      <c r="A73" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="2" t="n">
+      <c r="U72" s="30"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
+      <c r="AE72" s="30"/>
+      <c r="AF72" s="30"/>
+      <c r="AG72" s="30"/>
+      <c r="AH72" s="30"/>
+      <c r="AI72" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="73" s="27">
+      <c r="A73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="27" t="n">
         <v>15436</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="27" t="n">
         <v>20120383</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="D73" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" s="2" t="s">
+      <c r="I73" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="M73" s="18" t="n">
+      <c r="M73" s="28" t="n">
         <v>41306.532899537</v>
       </c>
-      <c r="N73" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="O73" s="2" t="s">
+      <c r="N73" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="O73" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R73" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S73" s="18" t="n">
+      <c r="P73" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R73" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" s="28" t="n">
         <v>41306.5414503819</v>
       </c>
     </row>
@@ -7423,13 +7442,13 @@
         <v>20120415</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>83</v>
@@ -7444,7 +7463,7 @@
         <v>64</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>122</v>
@@ -7453,7 +7472,7 @@
         <v>41306.5329934028</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>28</v>
@@ -7471,236 +7490,236 @@
         <v>41327.4879565972</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="75">
-      <c r="A75" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="75" s="27">
+      <c r="A75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="27" t="n">
         <v>15457</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="27" t="n">
         <v>20120411</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="D75" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="E75" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G75" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I75" s="2" t="s">
+      <c r="H75" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="I75" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="K75" s="27" t="n">
         <v>17</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="M75" s="18" t="n">
+      <c r="M75" s="28" t="n">
         <v>41311.4689634259</v>
       </c>
-      <c r="N75" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="O75" s="2" t="s">
+      <c r="N75" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="O75" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R75" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S75" s="18" t="n">
+      <c r="P75" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R75" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" s="28" t="n">
         <v>41325.4710791667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="76">
-      <c r="A76" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="76" s="27">
+      <c r="A76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="27" t="n">
         <v>15460</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="27" t="n">
         <v>20120404</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="D76" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J76" s="2" t="s">
+      <c r="H76" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="K76" s="2" t="n">
+      <c r="I76" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="K76" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M76" s="18" t="n">
+      <c r="M76" s="28" t="n">
         <v>41316.7117378472</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="O76" s="2" t="s">
+      <c r="N76" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="O76" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R76" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S76" s="18" t="n">
+      <c r="P76" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R76" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" s="28" t="n">
         <v>41317.7332084144</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="77">
-      <c r="A77" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="77" s="27">
+      <c r="A77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="27" t="n">
         <v>15467</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="27" t="n">
         <v>20120444</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="D77" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="E77" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="G77" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I77" s="2" t="s">
+      <c r="H77" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="K77" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="M77" s="28" t="n">
+        <v>41320.4583300579</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="O77" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q77" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R77" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" s="28" t="n">
+        <v>41341.3959231829</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="78" s="27">
+      <c r="A78" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="27" t="n">
+        <v>15473</v>
+      </c>
+      <c r="C78" s="27" t="n">
+        <v>20120419</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F78" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="M77" s="18" t="n">
-        <v>41320.4583300579</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="O77" s="2" t="s">
+      <c r="G78" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="M78" s="28" t="n">
+        <v>41327.4573636921</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="O78" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R77" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S77" s="18" t="n">
-        <v>41341.3959231829</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="78">
-      <c r="A78" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>15473</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>20120419</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="M78" s="18" t="n">
-        <v>41327.4573636921</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R78" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S78" s="18" t="n">
+      <c r="P78" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q78" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R78" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" s="28" t="n">
         <v>41330.5550878472</v>
       </c>
     </row>
@@ -7715,7 +7734,7 @@
         <v>20120471</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>200</v>
@@ -7730,7 +7749,7 @@
         <v>300</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>120</v>
@@ -7745,7 +7764,7 @@
         <v>41330.4895333333</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>28</v>
@@ -7774,10 +7793,10 @@
         <v>20120433</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>30</v>
@@ -7792,10 +7811,10 @@
         <v>264</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>177</v>
@@ -7804,7 +7823,7 @@
         <v>41333.6565875</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>28</v>
@@ -7833,37 +7852,37 @@
         <v>20130019</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K81" s="2" t="n">
         <v>13</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M81" s="18" t="n">
         <v>41337.5453774306</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>30</v>
@@ -7881,62 +7900,62 @@
         <v>41446.4359273958</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="82">
-      <c r="A82" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="82" s="27">
+      <c r="A82" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="27" t="n">
         <v>15492</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="27" t="n">
         <v>20120445</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="D82" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="E82" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="G82" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="M82" s="18" t="n">
+      <c r="I82" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="M82" s="28" t="n">
         <v>41340.4754460995</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="O82" s="2" t="s">
+      <c r="N82" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="O82" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R82" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S82" s="18" t="n">
+      <c r="P82" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q82" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R82" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" s="28" t="n">
         <v>41341.4559791667</v>
       </c>
     </row>
@@ -7951,13 +7970,13 @@
         <v>20120443</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>83</v>
@@ -7966,7 +7985,7 @@
         <v>248</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>187</v>
@@ -7981,7 +8000,7 @@
         <v>41340.5483920949</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>28</v>
@@ -8010,10 +8029,10 @@
         <v>20120442</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>104</v>
@@ -8022,7 +8041,7 @@
         <v>35</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>47</v>
@@ -8030,7 +8049,7 @@
       <c r="J84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K84" s="35" t="n">
+      <c r="K84" s="36" t="n">
         <v>41592</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -8040,7 +8059,7 @@
         <v>41340.5534409722</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>28</v>
@@ -8069,37 +8088,37 @@
         <v>20120454</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>216</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M85" s="18" t="n">
         <v>41341.5987565972</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>28</v>
@@ -8128,13 +8147,13 @@
         <v>20120458</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>83</v>
@@ -8158,7 +8177,7 @@
         <v>41345.6156529745</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>28</v>
@@ -8187,10 +8206,10 @@
         <v>20120456</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>30</v>
@@ -8208,7 +8227,7 @@
         <v>112</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>113</v>
@@ -8217,7 +8236,7 @@
         <v>41348.5506607292</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>28</v>
@@ -8235,62 +8254,62 @@
         <v>41348.7088268519</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="88">
-      <c r="A88" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="88" s="27">
+      <c r="A88" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="27" t="n">
         <v>15510</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="27" t="n">
         <v>20120464</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="D88" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="E88" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="F88" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="G88" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I88" s="2" t="s">
+      <c r="H88" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="I88" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K88" s="2" t="n">
+      <c r="J88" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="K88" s="27" t="n">
         <v>27</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L88" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M88" s="18" t="n">
+      <c r="M88" s="28" t="n">
         <v>41352.375515544</v>
       </c>
-      <c r="N88" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="O88" s="2" t="s">
+      <c r="N88" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="O88" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R88" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S88" s="18" t="n">
+      <c r="P88" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q88" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R88" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" s="28" t="n">
         <v>41352.7037724884</v>
       </c>
     </row>
@@ -8305,25 +8324,25 @@
         <v>20120496</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>111</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>31</v>
@@ -8335,7 +8354,7 @@
         <v>41358.509103588</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>28</v>
@@ -9354,7 +9373,7 @@
         <v>20120497</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E90" s="0"/>
       <c r="F90" s="0" t="s">
@@ -9364,7 +9383,7 @@
         <v>35</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>30</v>
@@ -9382,7 +9401,7 @@
         <v>41359.6074497338</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O90" s="0" t="s">
         <v>28</v>
@@ -10401,37 +10420,37 @@
         <v>20120618</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>216</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M91" s="18" t="n">
         <v>41360.3535715278</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O91" s="0" t="s">
         <v>28</v>
@@ -11439,59 +11458,59 @@
       <c r="AMI91" s="0"/>
       <c r="AMJ91" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="33">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="35">
       <c r="A92" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="33" t="n">
+      <c r="B92" s="35" t="n">
         <v>15592</v>
       </c>
-      <c r="C92" s="33" t="n">
+      <c r="C92" s="35" t="n">
         <v>20120712</v>
       </c>
-      <c r="D92" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" s="33" t="s">
+      <c r="D92" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="H92" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="I92" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="J92" s="33" t="s">
+      <c r="H92" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="I92" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="J92" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="L92" s="33" t="s">
-        <v>480</v>
+      <c r="K92" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="L92" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="M92" s="18" t="n">
         <v>41361.683209294</v>
       </c>
-      <c r="N92" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="O92" s="33" t="s">
+      <c r="N92" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="O92" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P92" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q92" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="R92" s="33" t="n">
+      <c r="P92" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q92" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R92" s="35" t="n">
         <v>3</v>
       </c>
       <c r="S92" s="18" t="n">
@@ -11524,10 +11543,10 @@
         <v>20120530</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>104</v>
@@ -11536,25 +11555,25 @@
         <v>35</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K93" s="2" t="n">
         <v>26</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M93" s="18" t="n">
         <v>41366.4341045486</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>28</v>
@@ -11583,7 +11602,7 @@
         <v>20120531</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>81</v>
@@ -11601,7 +11620,7 @@
         <v>95</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K94" s="2" t="n">
         <v>15</v>
@@ -11613,7 +11632,7 @@
         <v>41366.5665204861</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>28</v>
@@ -11631,7 +11650,7 @@
         <v>41366.5860202199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="37">
       <c r="A95" s="17" t="s">
         <v>20</v>
       </c>
@@ -11642,10 +11661,10 @@
         <v>20120640</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>30</v>
@@ -11654,25 +11673,25 @@
         <v>35</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M95" s="18" t="n">
         <v>41369.63865625</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O95" s="0" t="s">
         <v>28</v>
@@ -11691,7 +11710,7 @@
       </c>
       <c r="T95" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="37">
       <c r="A96" s="17" t="s">
         <v>20</v>
       </c>
@@ -11702,10 +11721,10 @@
         <v>20120647</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>81</v>
@@ -11732,7 +11751,7 @@
         <v>41372.6617819444</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O96" s="0" t="s">
         <v>28</v>
@@ -11751,7 +11770,7 @@
       </c>
       <c r="T96" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="37">
       <c r="A97" s="17" t="s">
         <v>20</v>
       </c>
@@ -11762,13 +11781,13 @@
         <v>20120658</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>83</v>
@@ -11777,13 +11796,13 @@
         <v>248</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L97" s="0" t="s">
         <v>122</v>
@@ -11792,7 +11811,7 @@
         <v>41373.4125752315</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O97" s="0" t="s">
         <v>28</v>
@@ -11811,7 +11830,7 @@
       </c>
       <c r="T97" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="37">
       <c r="A98" s="17" t="s">
         <v>20</v>
       </c>
@@ -11822,37 +11841,37 @@
         <v>20120682</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>95</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>28</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M98" s="18" t="n">
         <v>41375.2876225694</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O98" s="0" t="s">
         <v>28</v>
@@ -11871,7 +11890,7 @@
       </c>
       <c r="T98" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="37">
       <c r="A99" s="17" t="s">
         <v>20</v>
       </c>
@@ -11882,37 +11901,37 @@
         <v>20130030</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M99" s="18" t="n">
         <v>41375.3779989583</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="O99" s="0" t="s">
         <v>30</v>
@@ -11931,7 +11950,7 @@
       </c>
       <c r="T99" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="37">
       <c r="A100" s="17" t="s">
         <v>20</v>
       </c>
@@ -11942,13 +11961,13 @@
         <v>20120683</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>35</v>
@@ -11972,7 +11991,7 @@
         <v>41375.3958023495</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O100" s="0" t="s">
         <v>28</v>
@@ -11991,7 +12010,7 @@
       </c>
       <c r="T100" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="37">
       <c r="A101" s="17" t="s">
         <v>20</v>
       </c>
@@ -12002,19 +12021,19 @@
         <v>20120684</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>174</v>
@@ -12023,16 +12042,16 @@
         <v>260</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M101" s="18" t="n">
         <v>41375.5867187847</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O101" s="0" t="s">
         <v>28</v>
@@ -12051,82 +12070,67 @@
       </c>
       <c r="T101" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="102" s="37">
-      <c r="A102" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B102" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="38">
+      <c r="A102" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="27" t="n">
         <v>15720</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="27" t="n">
         <v>20120687</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="D102" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="F102" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="K102" s="2" t="n">
+      <c r="I102" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="J102" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="K102" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="L102" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="M102" s="18" t="n">
+      <c r="M102" s="28" t="n">
         <v>41376.577928125</v>
       </c>
-      <c r="N102" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="O102" s="2" t="s">
+      <c r="N102" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="O102" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R102" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S102" s="18" t="n">
+      <c r="P102" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q102" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R102" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" s="28" t="n">
         <v>41376.5910170139</v>
       </c>
-      <c r="T102" s="2"/>
-      <c r="U102" s="36"/>
-      <c r="V102" s="36"/>
-      <c r="W102" s="36"/>
-      <c r="X102" s="36"/>
-      <c r="Y102" s="36"/>
-      <c r="Z102" s="36"/>
-      <c r="AA102" s="36"/>
-      <c r="AB102" s="36"/>
-      <c r="AC102" s="36"/>
-      <c r="AD102" s="36"/>
-      <c r="AE102" s="36"/>
-      <c r="AF102" s="36"/>
-      <c r="AG102" s="36"/>
-      <c r="AH102" s="36"/>
-      <c r="AI102" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="36">
+      <c r="T102" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="37">
       <c r="A103" s="17" t="s">
         <v>20</v>
       </c>
@@ -12137,25 +12141,25 @@
         <v>20120692</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>36</v>
@@ -12167,7 +12171,7 @@
         <v>41379.0115039699</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="O103" s="0" t="s">
         <v>28</v>
@@ -12186,7 +12190,7 @@
       </c>
       <c r="T103" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="37">
       <c r="A104" s="17" t="s">
         <v>20</v>
       </c>
@@ -12197,19 +12201,19 @@
         <v>20120747</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>30</v>
@@ -12221,13 +12225,13 @@
         <v>30</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M104" s="18" t="n">
         <v>41379.3963328704</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O104" s="0" t="s">
         <v>28</v>
@@ -12246,7 +12250,7 @@
       </c>
       <c r="T104" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="37">
       <c r="A105" s="17" t="s">
         <v>20</v>
       </c>
@@ -12257,28 +12261,28 @@
         <v>20120693</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L105" s="0" t="s">
         <v>25</v>
@@ -12287,7 +12291,7 @@
         <v>41379.4204547107</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O105" s="0" t="s">
         <v>28</v>
@@ -12306,7 +12310,7 @@
       </c>
       <c r="T105" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="37">
       <c r="A106" s="17" t="s">
         <v>20</v>
       </c>
@@ -12317,10 +12321,10 @@
         <v>20120728</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>30</v>
@@ -12329,7 +12333,7 @@
         <v>35</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>30</v>
@@ -12341,13 +12345,13 @@
         <v>30</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M106" s="18" t="n">
         <v>41380.4859515394</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="O106" s="0" t="s">
         <v>28</v>
@@ -12366,7 +12370,7 @@
       </c>
       <c r="T106" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="37">
       <c r="A107" s="17" t="s">
         <v>20</v>
       </c>
@@ -12377,10 +12381,10 @@
         <v>20120698</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>30</v>
@@ -12392,7 +12396,7 @@
         <v>229</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J107" s="0" t="s">
         <v>226</v>
@@ -12407,7 +12411,7 @@
         <v>41380.6362467593</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="O107" s="0" t="s">
         <v>28</v>
@@ -12426,7 +12430,7 @@
       </c>
       <c r="T107" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="37">
       <c r="A108" s="17" t="s">
         <v>20</v>
       </c>
@@ -12437,25 +12441,25 @@
         <v>20120731</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I108" s="0" t="s">
         <v>135</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>19</v>
@@ -12486,7 +12490,7 @@
       </c>
       <c r="T108" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="37">
       <c r="A109" s="17" t="s">
         <v>20</v>
       </c>
@@ -12497,13 +12501,13 @@
         <v>20120701</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>35</v>
@@ -12527,7 +12531,7 @@
         <v>41380.7369794792</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="O109" s="0" t="s">
         <v>28</v>
@@ -12546,7 +12550,7 @@
       </c>
       <c r="T109" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="37">
       <c r="A110" s="17" t="s">
         <v>20</v>
       </c>
@@ -12557,13 +12561,13 @@
         <v>20120702</v>
       </c>
       <c r="D110" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="F110" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>35</v>
@@ -12587,7 +12591,7 @@
         <v>41380.7715090625</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="O110" s="0" t="s">
         <v>28</v>
@@ -12606,7 +12610,7 @@
       </c>
       <c r="T110" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="37">
       <c r="A111" s="17" t="s">
         <v>20</v>
       </c>
@@ -12617,25 +12621,25 @@
         <v>20120704</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>32</v>
@@ -12647,7 +12651,7 @@
         <v>41381.5380797454</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="O111" s="0" t="s">
         <v>28</v>
@@ -12666,7 +12670,7 @@
       </c>
       <c r="T111" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="37">
       <c r="A112" s="17" t="s">
         <v>20</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>20120711</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E112" s="0"/>
       <c r="F112" s="0" t="s">
@@ -12693,19 +12697,19 @@
         <v>135</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M112" s="18" t="n">
         <v>41382.3362046296</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O112" s="0" t="s">
         <v>28</v>
@@ -12724,7 +12728,7 @@
       </c>
       <c r="T112" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="37">
       <c r="A113" s="17" t="s">
         <v>20</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>20120721</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E113" s="0"/>
       <c r="F113" s="0" t="s">
@@ -12748,22 +12752,22 @@
         <v>180</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M113" s="18" t="n">
         <v>41386.533459375</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O113" s="0" t="s">
         <v>28</v>
@@ -12782,7 +12786,7 @@
       </c>
       <c r="T113" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="37">
       <c r="A114" s="17" t="s">
         <v>20</v>
       </c>
@@ -12793,10 +12797,10 @@
         <v>20120713</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>195</v>
@@ -12811,7 +12815,7 @@
         <v>166</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>18</v>
@@ -12823,7 +12827,7 @@
         <v>41387.3496603356</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O114" s="0" t="s">
         <v>28</v>
@@ -12842,7 +12846,7 @@
       </c>
       <c r="T114" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="37">
       <c r="A115" s="17" t="s">
         <v>20</v>
       </c>
@@ -12853,7 +12857,7 @@
         <v>20120719</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E115" s="0"/>
       <c r="F115" s="0" t="s">
@@ -12881,7 +12885,7 @@
         <v>41389.4028955671</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="O115" s="0" t="s">
         <v>28</v>
@@ -12900,7 +12904,7 @@
       </c>
       <c r="T115" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="37">
       <c r="A116" s="17" t="s">
         <v>20</v>
       </c>
@@ -12911,13 +12915,13 @@
         <v>20120714</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>83</v>
@@ -12926,7 +12930,7 @@
         <v>252</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>112</v>
@@ -12941,7 +12945,7 @@
         <v>41389.598034375</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O116" s="0" t="s">
         <v>28</v>
@@ -12960,7 +12964,7 @@
       </c>
       <c r="T116" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="37">
       <c r="A117" s="17" t="s">
         <v>20</v>
       </c>
@@ -12971,13 +12975,13 @@
         <v>20120715</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>83</v>
@@ -12986,22 +12990,22 @@
         <v>252</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M117" s="18" t="n">
         <v>41390.4169229977</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O117" s="0" t="s">
         <v>28</v>
@@ -13020,7 +13024,7 @@
       </c>
       <c r="T117" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="37">
       <c r="A118" s="17" t="s">
         <v>20</v>
       </c>
@@ -13031,13 +13035,13 @@
         <v>20120716</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>83</v>
@@ -13046,7 +13050,7 @@
         <v>252</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>112</v>
@@ -13061,7 +13065,7 @@
         <v>41390.4574103819</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O118" s="0" t="s">
         <v>28</v>
@@ -13080,7 +13084,7 @@
       </c>
       <c r="T118" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="37">
       <c r="A119" s="17" t="s">
         <v>20</v>
       </c>
@@ -13091,10 +13095,10 @@
         <v>20120717</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>30</v>
@@ -13103,25 +13107,25 @@
         <v>45</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M119" s="18" t="n">
         <v>41390.5339625</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O119" s="0" t="s">
         <v>28</v>
@@ -13140,7 +13144,7 @@
       </c>
       <c r="T119" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="37">
       <c r="A120" s="17" t="s">
         <v>20</v>
       </c>
@@ -13151,10 +13155,10 @@
         <v>20120720</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>30</v>
@@ -13166,10 +13170,10 @@
         <v>296</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>35</v>
@@ -13181,7 +13185,7 @@
         <v>41395.6476705671</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="O120" s="0" t="s">
         <v>28</v>
@@ -13200,7 +13204,7 @@
       </c>
       <c r="T120" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="37">
       <c r="A121" s="17" t="s">
         <v>20</v>
       </c>
@@ -13211,10 +13215,10 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>145</v>
@@ -13226,13 +13230,13 @@
         <v>145</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L121" s="0" t="s">
         <v>146</v>
@@ -13241,7 +13245,7 @@
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O121" s="0" t="s">
         <v>30</v>
@@ -13260,7 +13264,7 @@
       </c>
       <c r="T121" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="37">
       <c r="A122" s="17" t="s">
         <v>20</v>
       </c>
@@ -13271,37 +13275,37 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>216</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>28</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M122" s="18" t="n">
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="O122" s="0" t="s">
         <v>28</v>
@@ -13320,7 +13324,7 @@
       </c>
       <c r="T122" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="37">
       <c r="A123" s="17" t="s">
         <v>20</v>
       </c>
@@ -13331,19 +13335,19 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>271</v>
@@ -13355,13 +13359,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M123" s="18" t="n">
         <v>41400.580093287</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O123" s="0" t="s">
         <v>28</v>
@@ -13380,7 +13384,7 @@
       </c>
       <c r="T123" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="37">
       <c r="A124" s="17" t="s">
         <v>20</v>
       </c>
@@ -13391,10 +13395,10 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>30</v>
@@ -13409,7 +13413,7 @@
         <v>210</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>21</v>
@@ -13421,7 +13425,7 @@
         <v>41400.6168131597</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>28</v>
@@ -13440,7 +13444,7 @@
       </c>
       <c r="T124" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="37">
       <c r="A125" s="17" t="s">
         <v>20</v>
       </c>
@@ -13451,37 +13455,37 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>15</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M125" s="18" t="n">
         <v>41401.6187177083</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O125" s="0" t="s">
         <v>28</v>
@@ -13500,7 +13504,7 @@
       </c>
       <c r="T125" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="37">
       <c r="A126" s="17" t="s">
         <v>20</v>
       </c>
@@ -13511,10 +13515,10 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>30</v>
@@ -13523,13 +13527,13 @@
         <v>24</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>23</v>
@@ -13541,7 +13545,7 @@
         <v>41402.4505539005</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O126" s="0" t="s">
         <v>28</v>
@@ -13560,7 +13564,7 @@
       </c>
       <c r="T126" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="37">
       <c r="A127" s="17" t="s">
         <v>20</v>
       </c>
@@ -13571,10 +13575,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>30</v>
@@ -13589,7 +13593,7 @@
         <v>242</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>266</v>
@@ -13601,7 +13605,7 @@
         <v>41403.6118389236</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>28</v>
@@ -13620,7 +13624,7 @@
       </c>
       <c r="T127" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="37">
       <c r="A128" s="17" t="s">
         <v>20</v>
       </c>
@@ -13631,13 +13635,13 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>24</v>
@@ -13661,7 +13665,7 @@
         <v>41403.8700552894</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="O128" s="0" t="s">
         <v>28</v>
@@ -13680,7 +13684,7 @@
       </c>
       <c r="T128" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="37">
       <c r="A129" s="17" t="s">
         <v>20</v>
       </c>
@@ -13691,13 +13695,13 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>54</v>
@@ -13706,10 +13710,10 @@
         <v>277</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>6</v>
@@ -13721,7 +13725,7 @@
         <v>41407.5351728356</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O129" s="0" t="s">
         <v>28</v>
@@ -13740,7 +13744,7 @@
       </c>
       <c r="T129" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="37">
       <c r="A130" s="17" t="s">
         <v>20</v>
       </c>
@@ -13751,13 +13755,13 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>308</v>
@@ -13769,13 +13773,13 @@
         <v>135</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>35</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M130" s="18" t="n">
         <v>41407.6975019676</v>
@@ -13800,7 +13804,7 @@
       </c>
       <c r="T130" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="37">
       <c r="A131" s="17" t="s">
         <v>20</v>
       </c>
@@ -13811,10 +13815,10 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>30</v>
@@ -13832,7 +13836,7 @@
         <v>175</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L131" s="0" t="s">
         <v>177</v>
@@ -13841,7 +13845,7 @@
         <v>41409.4303223032</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>28</v>
@@ -13860,7 +13864,7 @@
       </c>
       <c r="T131" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="37">
       <c r="A132" s="17" t="s">
         <v>20</v>
       </c>
@@ -13871,13 +13875,13 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>24</v>
@@ -13901,7 +13905,7 @@
         <v>41409.5465580208</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O132" s="0" t="s">
         <v>28</v>
@@ -13920,7 +13924,7 @@
       </c>
       <c r="T132" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="37">
       <c r="A133" s="17" t="s">
         <v>20</v>
       </c>
@@ -13931,10 +13935,10 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>30</v>
@@ -13943,25 +13947,25 @@
         <v>30</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M133" s="18" t="n">
         <v>41409.6335074421</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O133" s="0" t="s">
         <v>30</v>
@@ -13980,7 +13984,7 @@
       </c>
       <c r="T133" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="37">
       <c r="A134" s="17" t="s">
         <v>20</v>
       </c>
@@ -13991,13 +13995,13 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>83</v>
@@ -14006,7 +14010,7 @@
         <v>248</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J134" s="0" t="s">
         <v>112</v>
@@ -14021,7 +14025,7 @@
         <v>41409.8738054745</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O134" s="0" t="s">
         <v>28</v>
@@ -14040,7 +14044,7 @@
       </c>
       <c r="T134" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="37">
       <c r="A135" s="17" t="s">
         <v>20</v>
       </c>
@@ -14051,10 +14055,10 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>276</v>
@@ -14066,10 +14070,10 @@
         <v>277</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>19</v>
@@ -14081,7 +14085,7 @@
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O135" s="0" t="s">
         <v>28</v>
@@ -14100,7 +14104,7 @@
       </c>
       <c r="T135" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="37">
       <c r="A136" s="17" t="s">
         <v>20</v>
       </c>
@@ -14111,7 +14115,7 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E136" s="0"/>
       <c r="F136" s="0" t="s">
@@ -14139,7 +14143,7 @@
         <v>41413.6731329861</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="O136" s="0" t="s">
         <v>28</v>
@@ -14158,7 +14162,7 @@
       </c>
       <c r="T136" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="37">
       <c r="A137" s="17" t="s">
         <v>20</v>
       </c>
@@ -14169,7 +14173,7 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="0" t="s">
@@ -14182,22 +14186,22 @@
         <v>173</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M137" s="18" t="n">
         <v>41415.646772419</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O137" s="0" t="s">
         <v>28</v>
@@ -14216,7 +14220,7 @@
       </c>
       <c r="T137" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="37">
       <c r="A138" s="17" t="s">
         <v>20</v>
       </c>
@@ -14227,10 +14231,10 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>164</v>
@@ -14242,10 +14246,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>7</v>
@@ -14276,7 +14280,7 @@
       </c>
       <c r="T138" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="37">
       <c r="A139" s="17" t="s">
         <v>20</v>
       </c>
@@ -14287,7 +14291,7 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E139" s="0"/>
       <c r="F139" s="0" t="s">
@@ -14297,7 +14301,7 @@
         <v>99</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I139" s="0" t="s">
         <v>30</v>
@@ -14315,7 +14319,7 @@
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>28</v>
@@ -14334,7 +14338,7 @@
       </c>
       <c r="T139" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="37">
       <c r="A140" s="17" t="s">
         <v>20</v>
       </c>
@@ -14345,13 +14349,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>69</v>
@@ -14363,7 +14367,7 @@
         <v>37</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>24</v>
@@ -14375,7 +14379,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="O140" s="0" t="s">
         <v>30</v>
@@ -14394,7 +14398,7 @@
       </c>
       <c r="T140" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="37">
       <c r="A141" s="17" t="s">
         <v>20</v>
       </c>
@@ -14405,13 +14409,13 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>30</v>
@@ -14420,13 +14424,13 @@
         <v>173</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L141" s="0" t="s">
         <v>177</v>
@@ -14435,7 +14439,7 @@
         <v>41422.4202321412</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>30</v>
@@ -14454,7 +14458,7 @@
       </c>
       <c r="T141" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="37">
       <c r="A142" s="17" t="s">
         <v>20</v>
       </c>
@@ -14465,37 +14469,37 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M142" s="18" t="n">
         <v>41422.5893254977</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>28</v>
@@ -14514,7 +14518,7 @@
       </c>
       <c r="T142" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="37">
       <c r="A143" s="17" t="s">
         <v>20</v>
       </c>
@@ -14525,19 +14529,19 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>30</v>
@@ -14549,13 +14553,13 @@
         <v>30</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M143" s="18" t="n">
         <v>41423.4291382755</v>
       </c>
       <c r="N143" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O143" s="0" t="s">
         <v>28</v>
@@ -14574,7 +14578,7 @@
       </c>
       <c r="T143" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="37">
       <c r="A144" s="17" t="s">
         <v>20</v>
       </c>
@@ -14585,10 +14589,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>104</v>
@@ -14609,13 +14613,13 @@
         <v>30</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M144" s="18" t="n">
         <v>41423.7250649653</v>
       </c>
       <c r="N144" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O144" s="0" t="s">
         <v>28</v>
@@ -14634,7 +14638,7 @@
       </c>
       <c r="T144" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="37">
       <c r="A145" s="17" t="s">
         <v>20</v>
       </c>
@@ -14645,7 +14649,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="0" t="s">
@@ -14655,7 +14659,7 @@
         <v>99</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I145" s="0" t="s">
         <v>30</v>
@@ -14673,7 +14677,7 @@
         <v>41423.7734304398</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>28</v>
@@ -14692,7 +14696,7 @@
       </c>
       <c r="T145" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="37">
       <c r="A146" s="17" t="s">
         <v>20</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
@@ -14713,7 +14717,7 @@
         <v>99</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I146" s="0" t="s">
         <v>30</v>
@@ -14731,7 +14735,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>28</v>
@@ -14750,7 +14754,7 @@
       </c>
       <c r="T146" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="37">
       <c r="A147" s="17" t="s">
         <v>20</v>
       </c>
@@ -14761,7 +14765,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E147" s="0"/>
       <c r="F147" s="0" t="s">
@@ -14789,7 +14793,7 @@
         <v>41423.8413989931</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>28</v>
@@ -14808,7 +14812,7 @@
       </c>
       <c r="T147" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="37">
       <c r="A148" s="17" t="s">
         <v>20</v>
       </c>
@@ -14819,13 +14823,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>30</v>
@@ -14849,7 +14853,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>30</v>
@@ -14868,7 +14872,7 @@
       </c>
       <c r="T148" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="37">
       <c r="A149" s="17" t="s">
         <v>20</v>
       </c>
@@ -14879,19 +14883,19 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I149" s="0" t="s">
         <v>30</v>
@@ -14903,13 +14907,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M149" s="18" t="n">
         <v>41425.3611156597</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="O149" s="0" t="s">
         <v>30</v>
@@ -14928,7 +14932,7 @@
       </c>
       <c r="T149" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="37">
       <c r="A150" s="17" t="s">
         <v>20</v>
       </c>
@@ -14939,7 +14943,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>81</v>
@@ -14951,13 +14955,13 @@
         <v>99</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>23</v>
@@ -14969,7 +14973,7 @@
         <v>41425.5221732986</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="O150" s="0" t="s">
         <v>28</v>
@@ -14988,7 +14992,7 @@
       </c>
       <c r="T150" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="37">
       <c r="A151" s="17" t="s">
         <v>20</v>
       </c>
@@ -14999,7 +15003,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E151" s="0"/>
       <c r="F151" s="0" t="s">
@@ -15009,16 +15013,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>69</v>
@@ -15027,7 +15031,7 @@
         <v>41425.5727136574</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O151" s="0" t="s">
         <v>28</v>
@@ -15046,7 +15050,7 @@
       </c>
       <c r="T151" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="37">
       <c r="A152" s="17" t="s">
         <v>20</v>
       </c>
@@ -15057,10 +15061,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>30</v>
@@ -15069,25 +15073,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M152" s="18" t="n">
         <v>41428.4703114583</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O152" s="0" t="s">
         <v>30</v>
@@ -15106,7 +15110,7 @@
       </c>
       <c r="T152" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="37">
       <c r="A153" s="17" t="s">
         <v>20</v>
       </c>
@@ -15117,13 +15121,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>30</v>
@@ -15132,22 +15136,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M153" s="18" t="n">
         <v>41428.5987583681</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O153" s="0" t="s">
         <v>30</v>
@@ -15166,7 +15170,7 @@
       </c>
       <c r="T153" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="37">
       <c r="A154" s="17" t="s">
         <v>20</v>
       </c>
@@ -15177,10 +15181,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>151</v>
@@ -15192,10 +15196,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>34</v>
@@ -15207,7 +15211,7 @@
         <v>41429.4211212616</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>30</v>
@@ -15226,7 +15230,7 @@
       </c>
       <c r="T154" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="37">
       <c r="A155" s="17" t="s">
         <v>20</v>
       </c>
@@ -15237,25 +15241,25 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G155" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>20</v>
@@ -15267,7 +15271,7 @@
         <v>41429.529555787</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O155" s="0" t="s">
         <v>30</v>
@@ -15286,7 +15290,7 @@
       </c>
       <c r="T155" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="37">
       <c r="A156" s="17" t="s">
         <v>20</v>
       </c>
@@ -15297,10 +15301,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>30</v>
@@ -15312,13 +15316,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>219</v>
@@ -15327,7 +15331,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O156" s="0" t="s">
         <v>30</v>
@@ -15346,7 +15350,7 @@
       </c>
       <c r="T156" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="37">
       <c r="A157" s="17" t="s">
         <v>20</v>
       </c>
@@ -15357,10 +15361,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>30</v>
@@ -15369,25 +15373,25 @@
         <v>30</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>27</v>
       </c>
       <c r="L157" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M157" s="18" t="n">
         <v>41431.5794003125</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="O157" s="0" t="s">
         <v>30</v>
@@ -15406,7 +15410,7 @@
       </c>
       <c r="T157" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="37">
       <c r="A158" s="17" t="s">
         <v>20</v>
       </c>
@@ -15417,10 +15421,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>53</v>
@@ -15432,10 +15436,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
@@ -15447,7 +15451,7 @@
         <v>41437.4946140046</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>30</v>
@@ -15466,7 +15470,7 @@
       </c>
       <c r="T158" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="37">
       <c r="A159" s="17" t="s">
         <v>20</v>
       </c>
@@ -15477,13 +15481,13 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>35</v>
@@ -15492,10 +15496,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>14</v>
@@ -15507,7 +15511,7 @@
         <v>41439.4236439468</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O159" s="0" t="s">
         <v>30</v>
@@ -15526,7 +15530,7 @@
       </c>
       <c r="T159" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="37">
       <c r="A160" s="17" t="s">
         <v>20</v>
       </c>
@@ -15537,35 +15541,35 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M160" s="18" t="n">
         <v>41442.581944294</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O160" s="0" t="s">
         <v>30</v>
@@ -15584,7 +15588,7 @@
       </c>
       <c r="T160" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="37">
       <c r="A161" s="17" t="s">
         <v>20</v>
       </c>
@@ -15595,10 +15599,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -15610,10 +15614,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -15625,7 +15629,7 @@
         <v>41442.6344805903</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -15644,7 +15648,7 @@
       </c>
       <c r="T161" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="37">
       <c r="A162" s="17" t="s">
         <v>20</v>
       </c>
@@ -15655,7 +15659,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -15668,10 +15672,10 @@
         <v>237</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>30</v>
@@ -15683,7 +15687,7 @@
         <v>41443.4305087153</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -15702,7 +15706,7 @@
       </c>
       <c r="T162" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="37">
       <c r="A163" s="17" t="s">
         <v>20</v>
       </c>
@@ -15713,10 +15717,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -15728,13 +15732,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -15743,7 +15747,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -15762,7 +15766,7 @@
       </c>
       <c r="T163" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="37">
       <c r="A164" s="17" t="s">
         <v>20</v>
       </c>
@@ -15773,7 +15777,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -15801,7 +15805,7 @@
         <v>41444.665028669</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -15820,7 +15824,7 @@
       </c>
       <c r="T164" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="37">
       <c r="A165" s="17" t="s">
         <v>20</v>
       </c>
@@ -15831,10 +15835,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -15846,13 +15850,13 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
@@ -15861,7 +15865,7 @@
         <v>41445.4579989583</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -15880,7 +15884,7 @@
       </c>
       <c r="T165" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="37">
       <c r="A166" s="17" t="s">
         <v>20</v>
       </c>
@@ -15891,7 +15895,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -15901,25 +15905,25 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L166" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M166" s="18" t="n">
         <v>41446.4608850694</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -15938,319 +15942,319 @@
       </c>
       <c r="T166" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="37">
       <c r="A167" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B167" s="38" t="n">
+      <c r="B167" s="39" t="n">
         <v>16085</v>
       </c>
-      <c r="C167" s="38" t="n">
+      <c r="C167" s="39" t="n">
         <v>20130021</v>
       </c>
-      <c r="D167" s="38" t="s">
-        <v>786</v>
-      </c>
-      <c r="E167" s="38" t="s">
-        <v>787</v>
+      <c r="D167" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>789</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G167" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="38" t="s">
-        <v>788</v>
-      </c>
-      <c r="I167" s="38" t="s">
-        <v>789</v>
-      </c>
-      <c r="J167" s="38" t="s">
+      <c r="G167" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="I167" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="J167" s="39" t="s">
         <v>152</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L167" s="38" t="s">
+      <c r="L167" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="M167" s="39" t="n">
+      <c r="M167" s="40" t="n">
         <v>41449.3498559028</v>
       </c>
-      <c r="N167" s="38" t="s">
-        <v>790</v>
-      </c>
-      <c r="O167" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P167" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q167" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R167" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S167" s="39" t="n">
+      <c r="N167" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="O167" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P167" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q167" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R167" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" s="40" t="n">
         <v>41449.3675326389</v>
       </c>
       <c r="T167" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="37">
       <c r="A168" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="38" t="n">
+      <c r="B168" s="39" t="n">
         <v>16086</v>
       </c>
-      <c r="C168" s="38" t="n">
+      <c r="C168" s="39" t="n">
         <v>20130022</v>
       </c>
-      <c r="D168" s="38" t="s">
-        <v>791</v>
-      </c>
-      <c r="E168" s="38" t="s">
-        <v>764</v>
+      <c r="D168" s="39" t="s">
+        <v>793</v>
+      </c>
+      <c r="E168" s="39" t="s">
+        <v>766</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G168" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H168" s="38" t="s">
+      <c r="G168" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="I168" s="38" t="n">
-        <v>29</v>
-      </c>
-      <c r="J168" s="38" t="s">
-        <v>734</v>
+      <c r="I168" s="39" t="n">
+        <v>29</v>
+      </c>
+      <c r="J168" s="39" t="s">
+        <v>736</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="L168" s="38" t="s">
+      <c r="L168" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="M168" s="39" t="n">
+      <c r="M168" s="40" t="n">
         <v>41449.494916169</v>
       </c>
-      <c r="N168" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="O168" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P168" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q168" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R168" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S168" s="39" t="n">
+      <c r="N168" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="O168" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P168" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q168" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R168" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" s="40" t="n">
         <v>41449.5007751968</v>
       </c>
       <c r="T168" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="37">
       <c r="A169" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="38" t="n">
+      <c r="B169" s="39" t="n">
         <v>16087</v>
       </c>
-      <c r="C169" s="38" t="n">
+      <c r="C169" s="39" t="n">
         <v>20130023</v>
       </c>
-      <c r="D169" s="38" t="s">
-        <v>793</v>
-      </c>
-      <c r="E169" s="38" t="s">
-        <v>794</v>
-      </c>
-      <c r="F169" s="38" t="s">
+      <c r="D169" s="39" t="s">
         <v>795</v>
       </c>
-      <c r="G169" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H169" s="38" t="s">
+      <c r="E169" s="39" t="s">
         <v>796</v>
       </c>
-      <c r="I169" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="J169" s="38" t="s">
-        <v>761</v>
+      <c r="F169" s="39" t="s">
+        <v>797</v>
+      </c>
+      <c r="G169" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" s="39" t="s">
+        <v>798</v>
+      </c>
+      <c r="I169" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="J169" s="39" t="s">
+        <v>763</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="L169" s="38" t="s">
-        <v>796</v>
-      </c>
-      <c r="M169" s="39" t="n">
+      <c r="L169" s="39" t="s">
+        <v>798</v>
+      </c>
+      <c r="M169" s="40" t="n">
         <v>41449.6461498843</v>
       </c>
-      <c r="N169" s="38" t="s">
-        <v>797</v>
-      </c>
-      <c r="O169" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P169" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q169" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R169" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S169" s="39" t="n">
+      <c r="N169" s="39" t="s">
+        <v>799</v>
+      </c>
+      <c r="O169" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P169" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q169" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R169" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" s="40" t="n">
         <v>41449.685081331</v>
       </c>
       <c r="T169" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="37">
       <c r="A170" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="38" t="n">
+      <c r="B170" s="39" t="n">
         <v>16089</v>
       </c>
-      <c r="C170" s="38" t="n">
+      <c r="C170" s="39" t="n">
         <v>20130024</v>
       </c>
-      <c r="D170" s="38" t="s">
-        <v>798</v>
-      </c>
-      <c r="E170" s="38" t="s">
-        <v>799</v>
-      </c>
-      <c r="F170" s="38" t="s">
+      <c r="D170" s="39" t="s">
         <v>800</v>
       </c>
-      <c r="G170" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="I170" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="J170" s="38" t="s">
+      <c r="E170" s="39" t="s">
         <v>801</v>
+      </c>
+      <c r="F170" s="39" t="s">
+        <v>802</v>
+      </c>
+      <c r="G170" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="I170" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="J170" s="39" t="s">
+        <v>803</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="L170" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="M170" s="39" t="n">
+      <c r="L170" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="M170" s="40" t="n">
         <v>41450.6984287037</v>
       </c>
-      <c r="N170" s="38" t="s">
-        <v>802</v>
-      </c>
-      <c r="O170" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P170" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q170" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R170" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S170" s="39" t="n">
+      <c r="N170" s="39" t="s">
+        <v>804</v>
+      </c>
+      <c r="O170" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P170" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q170" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R170" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" s="40" t="n">
         <v>41450.715544294</v>
       </c>
-      <c r="T170" s="38"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="36">
+      <c r="T170" s="39"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="37">
       <c r="A171" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="38" t="n">
+      <c r="B171" s="39" t="n">
         <v>16091</v>
       </c>
-      <c r="C171" s="38" t="n">
+      <c r="C171" s="39" t="n">
         <v>20130025</v>
       </c>
-      <c r="D171" s="38" t="s">
-        <v>803</v>
-      </c>
-      <c r="E171" s="38"/>
-      <c r="F171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="I171" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="J171" s="38" t="n">
+      <c r="D171" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="I171" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="J171" s="39" t="n">
         <v>40</v>
       </c>
-      <c r="K171" s="38" t="s">
-        <v>804</v>
-      </c>
-      <c r="L171" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="M171" s="39" t="n">
+      <c r="K171" s="39" t="s">
+        <v>806</v>
+      </c>
+      <c r="L171" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="M171" s="40" t="n">
         <v>41451.4667568287</v>
       </c>
-      <c r="N171" s="38" t="s">
-        <v>805</v>
-      </c>
-      <c r="O171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P171" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R171" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S171" s="39" t="n">
+      <c r="N171" s="39" t="s">
+        <v>807</v>
+      </c>
+      <c r="O171" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P171" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q171" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R171" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" s="40" t="n">
         <v>41451.4801988426</v>
       </c>
       <c r="T171" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="37">
       <c r="A172" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="38" t="n">
+      <c r="B172" s="39" t="n">
         <v>16093</v>
       </c>
-      <c r="C172" s="38" t="n">
+      <c r="C172" s="39" t="n">
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -16262,13 +16266,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -16277,7 +16281,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>
@@ -16296,27 +16300,27 @@
       </c>
       <c r="T172" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="37">
-      <c r="A173" s="40"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41"/>
-      <c r="J173" s="41"/>
-      <c r="K173" s="41"/>
-      <c r="L173" s="41"/>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="43">
+      <c r="A173" s="41"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="42"/>
       <c r="M173" s="18"/>
-      <c r="N173" s="41"/>
-      <c r="O173" s="41"/>
-      <c r="P173" s="41"/>
-      <c r="Q173" s="41"/>
-      <c r="R173" s="41"/>
+      <c r="N173" s="42"/>
+      <c r="O173" s="42"/>
+      <c r="P173" s="42"/>
+      <c r="Q173" s="42"/>
+      <c r="R173" s="42"/>
       <c r="S173" s="18"/>
-      <c r="T173" s="41"/>
+      <c r="T173" s="42"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -2595,7 +2595,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2732,15 +2732,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2854,9 +2850,9 @@
   <dimension ref="1:173"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A158" xSplit="0" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A62" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A171" activeCellId="0" pane="bottomLeft" sqref="171:171"/>
+      <selection activeCell="A71" activeCellId="0" pane="bottomLeft" sqref="71:71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7226,80 +7222,65 @@
       <c r="AH70" s="30"/>
       <c r="AI70" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71" s="35">
-      <c r="A71" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="34" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="71" s="15">
+      <c r="A71" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="16" t="n">
         <v>15428</v>
       </c>
-      <c r="C71" s="34" t="n">
+      <c r="C71" s="16" t="n">
         <v>20120378</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="34" t="s">
+      <c r="F71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="H71" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="I71" s="34" t="s">
+      <c r="I71" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="J71" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="K71" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="34" t="s">
+      <c r="K71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="M71" s="18" t="n">
+      <c r="M71" s="14" t="n">
         <v>41302.5911455208</v>
       </c>
-      <c r="N71" s="34" t="s">
+      <c r="N71" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="O71" s="34" t="s">
+      <c r="O71" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P71" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q71" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="R71" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S71" s="18" t="n">
+      <c r="P71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R71" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" s="14" t="n">
         <v>41304.627268287</v>
       </c>
-      <c r="T71" s="34"/>
-      <c r="U71" s="0"/>
-      <c r="V71" s="0"/>
-      <c r="W71" s="0"/>
-      <c r="X71" s="0"/>
-      <c r="Y71" s="0"/>
-      <c r="Z71" s="0"/>
-      <c r="AA71" s="0"/>
-      <c r="AB71" s="0"/>
-      <c r="AC71" s="0"/>
-      <c r="AD71" s="0"/>
-      <c r="AE71" s="0"/>
-      <c r="AF71" s="0"/>
-      <c r="AG71" s="0"/>
-      <c r="AH71" s="0"/>
-      <c r="AI71" s="0"/>
+      <c r="T71" s="16"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="72" s="33">
       <c r="A72" s="26" t="s">
@@ -8049,7 +8030,7 @@
       <c r="J84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K84" s="36" t="n">
+      <c r="K84" s="34" t="n">
         <v>41592</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -11650,7 +11631,7 @@
         <v>41366.5860202199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="36">
       <c r="A95" s="17" t="s">
         <v>20</v>
       </c>
@@ -11710,7 +11691,7 @@
       </c>
       <c r="T95" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="36">
       <c r="A96" s="17" t="s">
         <v>20</v>
       </c>
@@ -11770,7 +11751,7 @@
       </c>
       <c r="T96" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="36">
       <c r="A97" s="17" t="s">
         <v>20</v>
       </c>
@@ -11830,7 +11811,7 @@
       </c>
       <c r="T97" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="36">
       <c r="A98" s="17" t="s">
         <v>20</v>
       </c>
@@ -11890,7 +11871,7 @@
       </c>
       <c r="T98" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="36">
       <c r="A99" s="17" t="s">
         <v>20</v>
       </c>
@@ -11950,7 +11931,7 @@
       </c>
       <c r="T99" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="36">
       <c r="A100" s="17" t="s">
         <v>20</v>
       </c>
@@ -12010,7 +11991,7 @@
       </c>
       <c r="T100" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="36">
       <c r="A101" s="17" t="s">
         <v>20</v>
       </c>
@@ -12070,7 +12051,7 @@
       </c>
       <c r="T101" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="38">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="37">
       <c r="A102" s="26" t="s">
         <v>20</v>
       </c>
@@ -12130,7 +12111,7 @@
       </c>
       <c r="T102" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="36">
       <c r="A103" s="17" t="s">
         <v>20</v>
       </c>
@@ -12190,7 +12171,7 @@
       </c>
       <c r="T103" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="36">
       <c r="A104" s="17" t="s">
         <v>20</v>
       </c>
@@ -12250,7 +12231,7 @@
       </c>
       <c r="T104" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="36">
       <c r="A105" s="17" t="s">
         <v>20</v>
       </c>
@@ -12310,7 +12291,7 @@
       </c>
       <c r="T105" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="36">
       <c r="A106" s="17" t="s">
         <v>20</v>
       </c>
@@ -12370,7 +12351,7 @@
       </c>
       <c r="T106" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="36">
       <c r="A107" s="17" t="s">
         <v>20</v>
       </c>
@@ -12430,7 +12411,7 @@
       </c>
       <c r="T107" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="36">
       <c r="A108" s="17" t="s">
         <v>20</v>
       </c>
@@ -12490,7 +12471,7 @@
       </c>
       <c r="T108" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="36">
       <c r="A109" s="17" t="s">
         <v>20</v>
       </c>
@@ -12550,7 +12531,7 @@
       </c>
       <c r="T109" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="36">
       <c r="A110" s="17" t="s">
         <v>20</v>
       </c>
@@ -12610,7 +12591,7 @@
       </c>
       <c r="T110" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="36">
       <c r="A111" s="17" t="s">
         <v>20</v>
       </c>
@@ -12670,7 +12651,7 @@
       </c>
       <c r="T111" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="36">
       <c r="A112" s="17" t="s">
         <v>20</v>
       </c>
@@ -12728,7 +12709,7 @@
       </c>
       <c r="T112" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="36">
       <c r="A113" s="17" t="s">
         <v>20</v>
       </c>
@@ -12786,7 +12767,7 @@
       </c>
       <c r="T113" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="36">
       <c r="A114" s="17" t="s">
         <v>20</v>
       </c>
@@ -12846,7 +12827,7 @@
       </c>
       <c r="T114" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="36">
       <c r="A115" s="17" t="s">
         <v>20</v>
       </c>
@@ -12904,7 +12885,7 @@
       </c>
       <c r="T115" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="36">
       <c r="A116" s="17" t="s">
         <v>20</v>
       </c>
@@ -12964,7 +12945,7 @@
       </c>
       <c r="T116" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="36">
       <c r="A117" s="17" t="s">
         <v>20</v>
       </c>
@@ -13024,7 +13005,7 @@
       </c>
       <c r="T117" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="36">
       <c r="A118" s="17" t="s">
         <v>20</v>
       </c>
@@ -13084,7 +13065,7 @@
       </c>
       <c r="T118" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="36">
       <c r="A119" s="17" t="s">
         <v>20</v>
       </c>
@@ -13144,7 +13125,7 @@
       </c>
       <c r="T119" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="36">
       <c r="A120" s="17" t="s">
         <v>20</v>
       </c>
@@ -13204,7 +13185,7 @@
       </c>
       <c r="T120" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="36">
       <c r="A121" s="17" t="s">
         <v>20</v>
       </c>
@@ -13264,7 +13245,7 @@
       </c>
       <c r="T121" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="36">
       <c r="A122" s="17" t="s">
         <v>20</v>
       </c>
@@ -13324,7 +13305,7 @@
       </c>
       <c r="T122" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="36">
       <c r="A123" s="17" t="s">
         <v>20</v>
       </c>
@@ -13384,7 +13365,7 @@
       </c>
       <c r="T123" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="36">
       <c r="A124" s="17" t="s">
         <v>20</v>
       </c>
@@ -13444,7 +13425,7 @@
       </c>
       <c r="T124" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="36">
       <c r="A125" s="17" t="s">
         <v>20</v>
       </c>
@@ -13504,7 +13485,7 @@
       </c>
       <c r="T125" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="36">
       <c r="A126" s="17" t="s">
         <v>20</v>
       </c>
@@ -13564,7 +13545,7 @@
       </c>
       <c r="T126" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="36">
       <c r="A127" s="17" t="s">
         <v>20</v>
       </c>
@@ -13624,7 +13605,7 @@
       </c>
       <c r="T127" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="36">
       <c r="A128" s="17" t="s">
         <v>20</v>
       </c>
@@ -13684,7 +13665,7 @@
       </c>
       <c r="T128" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="36">
       <c r="A129" s="17" t="s">
         <v>20</v>
       </c>
@@ -13744,7 +13725,7 @@
       </c>
       <c r="T129" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="36">
       <c r="A130" s="17" t="s">
         <v>20</v>
       </c>
@@ -13804,7 +13785,7 @@
       </c>
       <c r="T130" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="36">
       <c r="A131" s="17" t="s">
         <v>20</v>
       </c>
@@ -13864,7 +13845,7 @@
       </c>
       <c r="T131" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="36">
       <c r="A132" s="17" t="s">
         <v>20</v>
       </c>
@@ -13924,7 +13905,7 @@
       </c>
       <c r="T132" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="36">
       <c r="A133" s="17" t="s">
         <v>20</v>
       </c>
@@ -13984,7 +13965,7 @@
       </c>
       <c r="T133" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="36">
       <c r="A134" s="17" t="s">
         <v>20</v>
       </c>
@@ -14044,7 +14025,7 @@
       </c>
       <c r="T134" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="36">
       <c r="A135" s="17" t="s">
         <v>20</v>
       </c>
@@ -14104,7 +14085,7 @@
       </c>
       <c r="T135" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="36">
       <c r="A136" s="17" t="s">
         <v>20</v>
       </c>
@@ -14162,7 +14143,7 @@
       </c>
       <c r="T136" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="36">
       <c r="A137" s="17" t="s">
         <v>20</v>
       </c>
@@ -14220,7 +14201,7 @@
       </c>
       <c r="T137" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="36">
       <c r="A138" s="17" t="s">
         <v>20</v>
       </c>
@@ -14280,7 +14261,7 @@
       </c>
       <c r="T138" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="36">
       <c r="A139" s="17" t="s">
         <v>20</v>
       </c>
@@ -14338,7 +14319,7 @@
       </c>
       <c r="T139" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="36">
       <c r="A140" s="17" t="s">
         <v>20</v>
       </c>
@@ -14398,7 +14379,7 @@
       </c>
       <c r="T140" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="36">
       <c r="A141" s="17" t="s">
         <v>20</v>
       </c>
@@ -14458,7 +14439,7 @@
       </c>
       <c r="T141" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="36">
       <c r="A142" s="17" t="s">
         <v>20</v>
       </c>
@@ -14518,7 +14499,7 @@
       </c>
       <c r="T142" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="36">
       <c r="A143" s="17" t="s">
         <v>20</v>
       </c>
@@ -14578,7 +14559,7 @@
       </c>
       <c r="T143" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="36">
       <c r="A144" s="17" t="s">
         <v>20</v>
       </c>
@@ -14638,7 +14619,7 @@
       </c>
       <c r="T144" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="36">
       <c r="A145" s="17" t="s">
         <v>20</v>
       </c>
@@ -14696,7 +14677,7 @@
       </c>
       <c r="T145" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="36">
       <c r="A146" s="17" t="s">
         <v>20</v>
       </c>
@@ -14754,7 +14735,7 @@
       </c>
       <c r="T146" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="36">
       <c r="A147" s="17" t="s">
         <v>20</v>
       </c>
@@ -14812,7 +14793,7 @@
       </c>
       <c r="T147" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="36">
       <c r="A148" s="17" t="s">
         <v>20</v>
       </c>
@@ -14872,7 +14853,7 @@
       </c>
       <c r="T148" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="36">
       <c r="A149" s="17" t="s">
         <v>20</v>
       </c>
@@ -14932,7 +14913,7 @@
       </c>
       <c r="T149" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="36">
       <c r="A150" s="17" t="s">
         <v>20</v>
       </c>
@@ -14992,7 +14973,7 @@
       </c>
       <c r="T150" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="36">
       <c r="A151" s="17" t="s">
         <v>20</v>
       </c>
@@ -15050,7 +15031,7 @@
       </c>
       <c r="T151" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="36">
       <c r="A152" s="17" t="s">
         <v>20</v>
       </c>
@@ -15110,7 +15091,7 @@
       </c>
       <c r="T152" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="36">
       <c r="A153" s="17" t="s">
         <v>20</v>
       </c>
@@ -15170,7 +15151,7 @@
       </c>
       <c r="T153" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="36">
       <c r="A154" s="17" t="s">
         <v>20</v>
       </c>
@@ -15230,7 +15211,7 @@
       </c>
       <c r="T154" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="36">
       <c r="A155" s="17" t="s">
         <v>20</v>
       </c>
@@ -15290,7 +15271,7 @@
       </c>
       <c r="T155" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="36">
       <c r="A156" s="17" t="s">
         <v>20</v>
       </c>
@@ -15350,7 +15331,7 @@
       </c>
       <c r="T156" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="36">
       <c r="A157" s="17" t="s">
         <v>20</v>
       </c>
@@ -15410,7 +15391,7 @@
       </c>
       <c r="T157" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="36">
       <c r="A158" s="17" t="s">
         <v>20</v>
       </c>
@@ -15470,7 +15451,7 @@
       </c>
       <c r="T158" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="36">
       <c r="A159" s="17" t="s">
         <v>20</v>
       </c>
@@ -15530,7 +15511,7 @@
       </c>
       <c r="T159" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="36">
       <c r="A160" s="17" t="s">
         <v>20</v>
       </c>
@@ -15588,7 +15569,7 @@
       </c>
       <c r="T160" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="36">
       <c r="A161" s="17" t="s">
         <v>20</v>
       </c>
@@ -15648,7 +15629,7 @@
       </c>
       <c r="T161" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="36">
       <c r="A162" s="17" t="s">
         <v>20</v>
       </c>
@@ -15706,7 +15687,7 @@
       </c>
       <c r="T162" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="36">
       <c r="A163" s="17" t="s">
         <v>20</v>
       </c>
@@ -15766,7 +15747,7 @@
       </c>
       <c r="T163" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="36">
       <c r="A164" s="17" t="s">
         <v>20</v>
       </c>
@@ -15824,7 +15805,7 @@
       </c>
       <c r="T164" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="36">
       <c r="A165" s="17" t="s">
         <v>20</v>
       </c>
@@ -15884,7 +15865,7 @@
       </c>
       <c r="T165" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="36">
       <c r="A166" s="17" t="s">
         <v>20</v>
       </c>
@@ -15942,312 +15923,312 @@
       </c>
       <c r="T166" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="36">
       <c r="A167" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B167" s="39" t="n">
+      <c r="B167" s="38" t="n">
         <v>16085</v>
       </c>
-      <c r="C167" s="39" t="n">
+      <c r="C167" s="38" t="n">
         <v>20130021</v>
       </c>
-      <c r="D167" s="39" t="s">
+      <c r="D167" s="38" t="s">
         <v>788</v>
       </c>
-      <c r="E167" s="39" t="s">
+      <c r="E167" s="38" t="s">
         <v>789</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G167" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="39" t="s">
+      <c r="G167" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="38" t="s">
         <v>790</v>
       </c>
-      <c r="I167" s="39" t="s">
+      <c r="I167" s="38" t="s">
         <v>791</v>
       </c>
-      <c r="J167" s="39" t="s">
+      <c r="J167" s="38" t="s">
         <v>152</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L167" s="39" t="s">
+      <c r="L167" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="M167" s="40" t="n">
+      <c r="M167" s="39" t="n">
         <v>41449.3498559028</v>
       </c>
-      <c r="N167" s="39" t="s">
+      <c r="N167" s="38" t="s">
         <v>792</v>
       </c>
-      <c r="O167" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P167" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q167" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R167" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S167" s="40" t="n">
+      <c r="O167" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P167" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q167" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R167" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" s="39" t="n">
         <v>41449.3675326389</v>
       </c>
       <c r="T167" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="36">
       <c r="A168" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="39" t="n">
+      <c r="B168" s="38" t="n">
         <v>16086</v>
       </c>
-      <c r="C168" s="39" t="n">
+      <c r="C168" s="38" t="n">
         <v>20130022</v>
       </c>
-      <c r="D168" s="39" t="s">
+      <c r="D168" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="E168" s="39" t="s">
+      <c r="E168" s="38" t="s">
         <v>766</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G168" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H168" s="39" t="s">
+      <c r="G168" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="I168" s="39" t="n">
-        <v>29</v>
-      </c>
-      <c r="J168" s="39" t="s">
+      <c r="I168" s="38" t="n">
+        <v>29</v>
+      </c>
+      <c r="J168" s="38" t="s">
         <v>736</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="L168" s="39" t="s">
+      <c r="L168" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="M168" s="40" t="n">
+      <c r="M168" s="39" t="n">
         <v>41449.494916169</v>
       </c>
-      <c r="N168" s="39" t="s">
+      <c r="N168" s="38" t="s">
         <v>794</v>
       </c>
-      <c r="O168" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P168" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q168" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R168" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S168" s="40" t="n">
+      <c r="O168" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P168" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q168" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R168" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" s="39" t="n">
         <v>41449.5007751968</v>
       </c>
       <c r="T168" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="36">
       <c r="A169" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="39" t="n">
+      <c r="B169" s="38" t="n">
         <v>16087</v>
       </c>
-      <c r="C169" s="39" t="n">
+      <c r="C169" s="38" t="n">
         <v>20130023</v>
       </c>
-      <c r="D169" s="39" t="s">
+      <c r="D169" s="38" t="s">
         <v>795</v>
       </c>
-      <c r="E169" s="39" t="s">
+      <c r="E169" s="38" t="s">
         <v>796</v>
       </c>
-      <c r="F169" s="39" t="s">
+      <c r="F169" s="38" t="s">
         <v>797</v>
       </c>
-      <c r="G169" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H169" s="39" t="s">
+      <c r="G169" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" s="38" t="s">
         <v>798</v>
       </c>
-      <c r="I169" s="39" t="s">
+      <c r="I169" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="J169" s="39" t="s">
+      <c r="J169" s="38" t="s">
         <v>763</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="L169" s="39" t="s">
+      <c r="L169" s="38" t="s">
         <v>798</v>
       </c>
-      <c r="M169" s="40" t="n">
+      <c r="M169" s="39" t="n">
         <v>41449.6461498843</v>
       </c>
-      <c r="N169" s="39" t="s">
+      <c r="N169" s="38" t="s">
         <v>799</v>
       </c>
-      <c r="O169" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P169" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q169" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R169" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S169" s="40" t="n">
+      <c r="O169" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P169" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q169" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R169" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" s="39" t="n">
         <v>41449.685081331</v>
       </c>
       <c r="T169" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="36">
       <c r="A170" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="39" t="n">
+      <c r="B170" s="38" t="n">
         <v>16089</v>
       </c>
-      <c r="C170" s="39" t="n">
+      <c r="C170" s="38" t="n">
         <v>20130024</v>
       </c>
-      <c r="D170" s="39" t="s">
+      <c r="D170" s="38" t="s">
         <v>800</v>
       </c>
-      <c r="E170" s="39" t="s">
+      <c r="E170" s="38" t="s">
         <v>801</v>
       </c>
-      <c r="F170" s="39" t="s">
+      <c r="F170" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="G170" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" s="39" t="s">
+      <c r="G170" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="I170" s="39" t="s">
+      <c r="I170" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="J170" s="39" t="s">
+      <c r="J170" s="38" t="s">
         <v>803</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="L170" s="39" t="s">
+      <c r="L170" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="M170" s="40" t="n">
+      <c r="M170" s="39" t="n">
         <v>41450.6984287037</v>
       </c>
-      <c r="N170" s="39" t="s">
+      <c r="N170" s="38" t="s">
         <v>804</v>
       </c>
-      <c r="O170" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P170" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q170" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R170" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S170" s="40" t="n">
+      <c r="O170" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P170" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q170" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R170" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" s="39" t="n">
         <v>41450.715544294</v>
       </c>
-      <c r="T170" s="39"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="37">
+      <c r="T170" s="38"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="36">
       <c r="A171" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="39" t="n">
+      <c r="B171" s="38" t="n">
         <v>16091</v>
       </c>
-      <c r="C171" s="39" t="n">
+      <c r="C171" s="38" t="n">
         <v>20130025</v>
       </c>
-      <c r="D171" s="39" t="s">
+      <c r="D171" s="38" t="s">
         <v>805</v>
       </c>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" s="39" t="s">
+      <c r="E171" s="38"/>
+      <c r="F171" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="I171" s="39" t="s">
+      <c r="I171" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="J171" s="39" t="n">
+      <c r="J171" s="38" t="n">
         <v>40</v>
       </c>
-      <c r="K171" s="39" t="s">
+      <c r="K171" s="38" t="s">
         <v>806</v>
       </c>
-      <c r="L171" s="39" t="s">
+      <c r="L171" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="M171" s="40" t="n">
+      <c r="M171" s="39" t="n">
         <v>41451.4667568287</v>
       </c>
-      <c r="N171" s="39" t="s">
+      <c r="N171" s="38" t="s">
         <v>807</v>
       </c>
-      <c r="O171" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P171" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q171" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R171" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S171" s="40" t="n">
+      <c r="O171" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P171" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q171" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R171" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" s="39" t="n">
         <v>41451.4801988426</v>
       </c>
       <c r="T171" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="36">
       <c r="A172" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="39" t="n">
+      <c r="B172" s="38" t="n">
         <v>16093</v>
       </c>
-      <c r="C172" s="39" t="n">
+      <c r="C172" s="38" t="n">
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
@@ -16300,27 +16281,27 @@
       </c>
       <c r="T172" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="43">
-      <c r="A173" s="41"/>
-      <c r="B173" s="42"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="42"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
-      <c r="G173" s="42"/>
-      <c r="H173" s="42"/>
-      <c r="I173" s="42"/>
-      <c r="J173" s="42"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="42"/>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="42">
+      <c r="A173" s="40"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
+      <c r="F173" s="41"/>
+      <c r="G173" s="41"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="41"/>
+      <c r="J173" s="41"/>
+      <c r="K173" s="41"/>
+      <c r="L173" s="41"/>
       <c r="M173" s="18"/>
-      <c r="N173" s="42"/>
-      <c r="O173" s="42"/>
-      <c r="P173" s="42"/>
-      <c r="Q173" s="42"/>
-      <c r="R173" s="42"/>
+      <c r="N173" s="41"/>
+      <c r="O173" s="41"/>
+      <c r="P173" s="41"/>
+      <c r="Q173" s="41"/>
+      <c r="R173" s="41"/>
       <c r="S173" s="18"/>
-      <c r="T173" s="42"/>
+      <c r="T173" s="41"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="813">
   <si>
     <t>Assigned</t>
   </si>
@@ -1200,6 +1200,9 @@
   </si>
   <si>
     <t>211-2046-8578</t>
+  </si>
+  <si>
+    <t>cant find, PLSS shows no streams that look like pdf.</t>
   </si>
   <si>
     <t>Spores Riparian Enhancement Project</t>
@@ -2850,9 +2853,9 @@
   <dimension ref="1:173"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A62" xSplit="0" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A65" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A71" activeCellId="0" pane="bottomLeft" sqref="71:71"/>
+      <selection activeCell="A80" activeCellId="0" pane="bottomLeft" sqref="80:80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7412,63 +7415,66 @@
         <v>41306.5414503819</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="74">
-      <c r="A74" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="74" s="23">
+      <c r="A74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="23" t="n">
         <v>15437</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="23" t="n">
         <v>20120415</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="M74" s="18" t="n">
+      <c r="M74" s="24" t="n">
         <v>41306.5329934028</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="N74" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="O74" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="P74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S74" s="18" t="n">
+      <c r="P74" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R74" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" s="24" t="n">
         <v>41327.4879565972</v>
+      </c>
+      <c r="T74" s="23" t="s">
+        <v>394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="75" s="27">
@@ -7482,13 +7488,13 @@
         <v>20120411</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G75" s="27" t="s">
         <v>35</v>
@@ -7512,7 +7518,7 @@
         <v>41311.4689634259</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O75" s="27" t="s">
         <v>28</v>
@@ -7541,22 +7547,22 @@
         <v>20120404</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>99</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I76" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K76" s="27" t="n">
         <v>13</v>
@@ -7568,7 +7574,7 @@
         <v>41316.7117378472</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O76" s="27" t="s">
         <v>28</v>
@@ -7597,37 +7603,37 @@
         <v>20120444</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I77" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K77" s="27" t="n">
         <v>4</v>
       </c>
       <c r="L77" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M77" s="28" t="n">
         <v>41320.4583300579</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O77" s="27" t="s">
         <v>28</v>
@@ -7656,37 +7662,37 @@
         <v>20120419</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G78" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I78" s="27" t="s">
         <v>105</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K78" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L78" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M78" s="28" t="n">
         <v>41327.4573636921</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O78" s="27" t="s">
         <v>28</v>
@@ -7704,121 +7710,121 @@
         <v>41330.5550878472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="79">
-      <c r="A79" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="79" s="27">
+      <c r="A79" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="27" t="n">
         <v>15477</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="27" t="n">
         <v>20120471</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="D79" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E79" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="F79" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="J79" s="2" t="s">
+      <c r="I79" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="J79" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="K79" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="M79" s="18" t="n">
+      <c r="M79" s="28" t="n">
         <v>41330.4895333333</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="O79" s="2" t="s">
+      <c r="N79" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="O79" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S79" s="18" t="n">
+      <c r="P79" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q79" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R79" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" s="28" t="n">
         <v>41354.3981266204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="80">
-      <c r="A80" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="80" s="13">
+      <c r="A80" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="13" t="n">
         <v>15485</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="13" t="n">
         <v>20120433</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="D80" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="E80" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="K80" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="L80" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M80" s="18" t="n">
+      <c r="M80" s="14" t="n">
         <v>41333.6565875</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="N80" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="O80" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R80" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S80" s="18" t="n">
+      <c r="P80" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R80" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" s="14" t="n">
         <v>41333.6820353356</v>
       </c>
     </row>
@@ -7833,37 +7839,37 @@
         <v>20130019</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K81" s="2" t="n">
         <v>13</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M81" s="18" t="n">
         <v>41337.5453774306</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>30</v>
@@ -7892,13 +7898,13 @@
         <v>20120445</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>172</v>
@@ -7910,19 +7916,19 @@
         <v>374</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K82" s="27" t="s">
         <v>30</v>
       </c>
       <c r="L82" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M82" s="28" t="n">
         <v>41340.4754460995</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O82" s="27" t="s">
         <v>28</v>
@@ -7951,13 +7957,13 @@
         <v>20120443</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>83</v>
@@ -7966,7 +7972,7 @@
         <v>248</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>187</v>
@@ -7981,7 +7987,7 @@
         <v>41340.5483920949</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>28</v>
@@ -8010,10 +8016,10 @@
         <v>20120442</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>104</v>
@@ -8040,7 +8046,7 @@
         <v>41340.5534409722</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>28</v>
@@ -8069,37 +8075,37 @@
         <v>20120454</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>216</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M85" s="18" t="n">
         <v>41341.5987565972</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>28</v>
@@ -8128,13 +8134,13 @@
         <v>20120458</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>83</v>
@@ -8158,7 +8164,7 @@
         <v>41345.6156529745</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>28</v>
@@ -8187,10 +8193,10 @@
         <v>20120456</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>30</v>
@@ -8208,7 +8214,7 @@
         <v>112</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>113</v>
@@ -8217,7 +8223,7 @@
         <v>41348.5506607292</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>28</v>
@@ -8246,25 +8252,25 @@
         <v>20120464</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E88" s="27" t="s">
         <v>81</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>99</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I88" s="27" t="s">
         <v>105</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K88" s="27" t="n">
         <v>27</v>
@@ -8276,7 +8282,7 @@
         <v>41352.375515544</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O88" s="27" t="s">
         <v>28</v>
@@ -8305,25 +8311,25 @@
         <v>20120496</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>111</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>31</v>
@@ -8335,7 +8341,7 @@
         <v>41358.509103588</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>28</v>
@@ -9354,7 +9360,7 @@
         <v>20120497</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E90" s="0"/>
       <c r="F90" s="0" t="s">
@@ -9364,7 +9370,7 @@
         <v>35</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>30</v>
@@ -9382,7 +9388,7 @@
         <v>41359.6074497338</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O90" s="0" t="s">
         <v>28</v>
@@ -10401,37 +10407,37 @@
         <v>20120618</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>216</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M91" s="18" t="n">
         <v>41360.3535715278</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O91" s="0" t="s">
         <v>28</v>
@@ -11450,10 +11456,10 @@
         <v>20120712</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F92" s="35" t="s">
         <v>30</v>
@@ -11462,25 +11468,25 @@
         <v>308</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I92" s="35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J92" s="35" t="s">
         <v>57</v>
       </c>
       <c r="K92" s="35" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L92" s="35" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M92" s="18" t="n">
         <v>41361.683209294</v>
       </c>
       <c r="N92" s="35" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O92" s="35" t="s">
         <v>28</v>
@@ -11524,10 +11530,10 @@
         <v>20120530</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>104</v>
@@ -11548,13 +11554,13 @@
         <v>26</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M93" s="18" t="n">
         <v>41366.4341045486</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>28</v>
@@ -11583,7 +11589,7 @@
         <v>20120531</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>81</v>
@@ -11601,7 +11607,7 @@
         <v>95</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K94" s="2" t="n">
         <v>15</v>
@@ -11613,7 +11619,7 @@
         <v>41366.5665204861</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>28</v>
@@ -11642,10 +11648,10 @@
         <v>20120640</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>30</v>
@@ -11654,25 +11660,25 @@
         <v>35</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M95" s="18" t="n">
         <v>41369.63865625</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O95" s="0" t="s">
         <v>28</v>
@@ -11702,10 +11708,10 @@
         <v>20120647</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>81</v>
@@ -11732,7 +11738,7 @@
         <v>41372.6617819444</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O96" s="0" t="s">
         <v>28</v>
@@ -11762,13 +11768,13 @@
         <v>20120658</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>83</v>
@@ -11777,13 +11783,13 @@
         <v>248</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L97" s="0" t="s">
         <v>122</v>
@@ -11792,7 +11798,7 @@
         <v>41373.4125752315</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O97" s="0" t="s">
         <v>28</v>
@@ -11822,19 +11828,19 @@
         <v>20120682</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>95</v>
@@ -11846,13 +11852,13 @@
         <v>28</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M98" s="18" t="n">
         <v>41375.2876225694</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O98" s="0" t="s">
         <v>28</v>
@@ -11882,13 +11888,13 @@
         <v>20130030</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>30</v>
@@ -11897,22 +11903,22 @@
         <v>381</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M99" s="18" t="n">
         <v>41375.3779989583</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O99" s="0" t="s">
         <v>30</v>
@@ -11942,13 +11948,13 @@
         <v>20120683</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>35</v>
@@ -11972,7 +11978,7 @@
         <v>41375.3958023495</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O100" s="0" t="s">
         <v>28</v>
@@ -12002,19 +12008,19 @@
         <v>20120684</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>174</v>
@@ -12023,16 +12029,16 @@
         <v>260</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M101" s="18" t="n">
         <v>41375.5867187847</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O101" s="0" t="s">
         <v>28</v>
@@ -12062,10 +12068,10 @@
         <v>20120687</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F102" s="27" t="s">
         <v>195</v>
@@ -12077,10 +12083,10 @@
         <v>173</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K102" s="27" t="n">
         <v>11</v>
@@ -12092,7 +12098,7 @@
         <v>41376.577928125</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O102" s="27" t="s">
         <v>28</v>
@@ -12122,13 +12128,13 @@
         <v>20120692</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>83</v>
@@ -12137,10 +12143,10 @@
         <v>336</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>36</v>
@@ -12152,7 +12158,7 @@
         <v>41379.0115039699</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O103" s="0" t="s">
         <v>28</v>
@@ -12182,19 +12188,19 @@
         <v>20120747</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>30</v>
@@ -12206,13 +12212,13 @@
         <v>30</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M104" s="18" t="n">
         <v>41379.3963328704</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O104" s="0" t="s">
         <v>28</v>
@@ -12242,28 +12248,28 @@
         <v>20120693</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L105" s="0" t="s">
         <v>25</v>
@@ -12272,7 +12278,7 @@
         <v>41379.4204547107</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O105" s="0" t="s">
         <v>28</v>
@@ -12302,10 +12308,10 @@
         <v>20120728</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>30</v>
@@ -12326,13 +12332,13 @@
         <v>30</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M106" s="18" t="n">
         <v>41380.4859515394</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O106" s="0" t="s">
         <v>28</v>
@@ -12362,10 +12368,10 @@
         <v>20120698</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>30</v>
@@ -12392,7 +12398,7 @@
         <v>41380.6362467593</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O107" s="0" t="s">
         <v>28</v>
@@ -12422,13 +12428,13 @@
         <v>20120731</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>35</v>
@@ -12440,7 +12446,7 @@
         <v>135</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>19</v>
@@ -12482,13 +12488,13 @@
         <v>20120701</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>35</v>
@@ -12512,7 +12518,7 @@
         <v>41380.7369794792</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O109" s="0" t="s">
         <v>28</v>
@@ -12542,13 +12548,13 @@
         <v>20120702</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>35</v>
@@ -12572,7 +12578,7 @@
         <v>41380.7715090625</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O110" s="0" t="s">
         <v>28</v>
@@ -12602,25 +12608,25 @@
         <v>20120704</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>32</v>
@@ -12632,7 +12638,7 @@
         <v>41381.5380797454</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O111" s="0" t="s">
         <v>28</v>
@@ -12662,7 +12668,7 @@
         <v>20120711</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E112" s="0"/>
       <c r="F112" s="0" t="s">
@@ -12678,19 +12684,19 @@
         <v>135</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M112" s="18" t="n">
         <v>41382.3362046296</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O112" s="0" t="s">
         <v>28</v>
@@ -12720,7 +12726,7 @@
         <v>20120721</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E113" s="0"/>
       <c r="F113" s="0" t="s">
@@ -12733,22 +12739,22 @@
         <v>180</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M113" s="18" t="n">
         <v>41386.533459375</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O113" s="0" t="s">
         <v>28</v>
@@ -12778,10 +12784,10 @@
         <v>20120713</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>195</v>
@@ -12796,7 +12802,7 @@
         <v>166</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>18</v>
@@ -12808,7 +12814,7 @@
         <v>41387.3496603356</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O114" s="0" t="s">
         <v>28</v>
@@ -12838,7 +12844,7 @@
         <v>20120719</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E115" s="0"/>
       <c r="F115" s="0" t="s">
@@ -12866,7 +12872,7 @@
         <v>41389.4028955671</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O115" s="0" t="s">
         <v>28</v>
@@ -12896,13 +12902,13 @@
         <v>20120714</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>83</v>
@@ -12911,7 +12917,7 @@
         <v>252</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>112</v>
@@ -12926,7 +12932,7 @@
         <v>41389.598034375</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O116" s="0" t="s">
         <v>28</v>
@@ -12956,13 +12962,13 @@
         <v>20120715</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>83</v>
@@ -12971,22 +12977,22 @@
         <v>252</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M117" s="18" t="n">
         <v>41390.4169229977</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O117" s="0" t="s">
         <v>28</v>
@@ -13016,13 +13022,13 @@
         <v>20120716</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>83</v>
@@ -13031,7 +13037,7 @@
         <v>252</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>112</v>
@@ -13046,7 +13052,7 @@
         <v>41390.4574103819</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O118" s="0" t="s">
         <v>28</v>
@@ -13076,10 +13082,10 @@
         <v>20120717</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>30</v>
@@ -13088,25 +13094,25 @@
         <v>45</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M119" s="18" t="n">
         <v>41390.5339625</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O119" s="0" t="s">
         <v>28</v>
@@ -13136,10 +13142,10 @@
         <v>20120720</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>30</v>
@@ -13151,10 +13157,10 @@
         <v>296</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>35</v>
@@ -13166,7 +13172,7 @@
         <v>41395.6476705671</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O120" s="0" t="s">
         <v>28</v>
@@ -13196,10 +13202,10 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>145</v>
@@ -13211,13 +13217,13 @@
         <v>145</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L121" s="0" t="s">
         <v>146</v>
@@ -13226,7 +13232,7 @@
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O121" s="0" t="s">
         <v>30</v>
@@ -13256,37 +13262,37 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>216</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>28</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M122" s="18" t="n">
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O122" s="0" t="s">
         <v>28</v>
@@ -13316,19 +13322,19 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>271</v>
@@ -13340,13 +13346,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M123" s="18" t="n">
         <v>41400.580093287</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O123" s="0" t="s">
         <v>28</v>
@@ -13376,10 +13382,10 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>30</v>
@@ -13394,7 +13400,7 @@
         <v>210</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>21</v>
@@ -13406,7 +13412,7 @@
         <v>41400.6168131597</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>28</v>
@@ -13436,37 +13442,37 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>15</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M125" s="18" t="n">
         <v>41401.6187177083</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O125" s="0" t="s">
         <v>28</v>
@@ -13496,10 +13502,10 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>30</v>
@@ -13508,10 +13514,10 @@
         <v>24</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>359</v>
@@ -13526,7 +13532,7 @@
         <v>41402.4505539005</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O126" s="0" t="s">
         <v>28</v>
@@ -13556,10 +13562,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>30</v>
@@ -13574,7 +13580,7 @@
         <v>242</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>266</v>
@@ -13586,7 +13592,7 @@
         <v>41403.6118389236</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>28</v>
@@ -13616,13 +13622,13 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>24</v>
@@ -13646,7 +13652,7 @@
         <v>41403.8700552894</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O128" s="0" t="s">
         <v>28</v>
@@ -13676,13 +13682,13 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>54</v>
@@ -13691,10 +13697,10 @@
         <v>277</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>6</v>
@@ -13706,7 +13712,7 @@
         <v>41407.5351728356</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O129" s="0" t="s">
         <v>28</v>
@@ -13736,13 +13742,13 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>308</v>
@@ -13754,13 +13760,13 @@
         <v>135</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>35</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M130" s="18" t="n">
         <v>41407.6975019676</v>
@@ -13796,10 +13802,10 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>30</v>
@@ -13817,7 +13823,7 @@
         <v>175</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L131" s="0" t="s">
         <v>177</v>
@@ -13826,7 +13832,7 @@
         <v>41409.4303223032</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>28</v>
@@ -13856,13 +13862,13 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>24</v>
@@ -13886,7 +13892,7 @@
         <v>41409.5465580208</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O132" s="0" t="s">
         <v>28</v>
@@ -13916,10 +13922,10 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>30</v>
@@ -13928,25 +13934,25 @@
         <v>30</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M133" s="18" t="n">
         <v>41409.6335074421</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O133" s="0" t="s">
         <v>30</v>
@@ -13976,13 +13982,13 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>83</v>
@@ -13991,7 +13997,7 @@
         <v>248</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J134" s="0" t="s">
         <v>112</v>
@@ -14006,7 +14012,7 @@
         <v>41409.8738054745</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O134" s="0" t="s">
         <v>28</v>
@@ -14036,10 +14042,10 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>276</v>
@@ -14051,10 +14057,10 @@
         <v>277</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>19</v>
@@ -14066,7 +14072,7 @@
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O135" s="0" t="s">
         <v>28</v>
@@ -14096,7 +14102,7 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E136" s="0"/>
       <c r="F136" s="0" t="s">
@@ -14124,7 +14130,7 @@
         <v>41413.6731329861</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O136" s="0" t="s">
         <v>28</v>
@@ -14154,7 +14160,7 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="0" t="s">
@@ -14167,22 +14173,22 @@
         <v>173</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M137" s="18" t="n">
         <v>41415.646772419</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O137" s="0" t="s">
         <v>28</v>
@@ -14212,10 +14218,10 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>164</v>
@@ -14227,10 +14233,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>7</v>
@@ -14272,7 +14278,7 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E139" s="0"/>
       <c r="F139" s="0" t="s">
@@ -14300,7 +14306,7 @@
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>28</v>
@@ -14330,13 +14336,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>69</v>
@@ -14360,7 +14366,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O140" s="0" t="s">
         <v>30</v>
@@ -14390,13 +14396,13 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>30</v>
@@ -14405,13 +14411,13 @@
         <v>173</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L141" s="0" t="s">
         <v>177</v>
@@ -14420,7 +14426,7 @@
         <v>41422.4202321412</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>30</v>
@@ -14450,13 +14456,13 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>35</v>
@@ -14468,19 +14474,19 @@
         <v>351</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M142" s="18" t="n">
         <v>41422.5893254977</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>28</v>
@@ -14510,19 +14516,19 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>30</v>
@@ -14534,13 +14540,13 @@
         <v>30</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M143" s="18" t="n">
         <v>41423.4291382755</v>
       </c>
       <c r="N143" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O143" s="0" t="s">
         <v>28</v>
@@ -14570,10 +14576,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>104</v>
@@ -14594,13 +14600,13 @@
         <v>30</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M144" s="18" t="n">
         <v>41423.7250649653</v>
       </c>
       <c r="N144" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O144" s="0" t="s">
         <v>28</v>
@@ -14630,7 +14636,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="0" t="s">
@@ -14658,7 +14664,7 @@
         <v>41423.7734304398</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>28</v>
@@ -14688,7 +14694,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
@@ -14716,7 +14722,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>28</v>
@@ -14746,7 +14752,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E147" s="0"/>
       <c r="F147" s="0" t="s">
@@ -14774,7 +14780,7 @@
         <v>41423.8413989931</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>28</v>
@@ -14804,13 +14810,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>30</v>
@@ -14834,7 +14840,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>30</v>
@@ -14864,19 +14870,19 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I149" s="0" t="s">
         <v>30</v>
@@ -14888,13 +14894,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M149" s="18" t="n">
         <v>41425.3611156597</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O149" s="0" t="s">
         <v>30</v>
@@ -14924,7 +14930,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>81</v>
@@ -14936,13 +14942,13 @@
         <v>99</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>23</v>
@@ -14954,7 +14960,7 @@
         <v>41425.5221732986</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O150" s="0" t="s">
         <v>28</v>
@@ -14984,7 +14990,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E151" s="0"/>
       <c r="F151" s="0" t="s">
@@ -14994,16 +15000,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>69</v>
@@ -15012,7 +15018,7 @@
         <v>41425.5727136574</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O151" s="0" t="s">
         <v>28</v>
@@ -15042,10 +15048,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>30</v>
@@ -15054,25 +15060,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M152" s="18" t="n">
         <v>41428.4703114583</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O152" s="0" t="s">
         <v>30</v>
@@ -15102,13 +15108,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>30</v>
@@ -15117,22 +15123,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M153" s="18" t="n">
         <v>41428.5987583681</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O153" s="0" t="s">
         <v>30</v>
@@ -15162,10 +15168,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>151</v>
@@ -15177,10 +15183,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>34</v>
@@ -15192,7 +15198,7 @@
         <v>41429.4211212616</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>30</v>
@@ -15222,13 +15228,13 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G155" s="0" t="s">
         <v>30</v>
@@ -15237,10 +15243,10 @@
         <v>378</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>20</v>
@@ -15252,7 +15258,7 @@
         <v>41429.529555787</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O155" s="0" t="s">
         <v>30</v>
@@ -15282,10 +15288,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>30</v>
@@ -15297,13 +15303,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>219</v>
@@ -15312,7 +15318,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O156" s="0" t="s">
         <v>30</v>
@@ -15342,10 +15348,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>30</v>
@@ -15354,25 +15360,25 @@
         <v>30</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>27</v>
       </c>
       <c r="L157" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M157" s="18" t="n">
         <v>41431.5794003125</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O157" s="0" t="s">
         <v>30</v>
@@ -15402,10 +15408,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>53</v>
@@ -15417,10 +15423,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
@@ -15432,7 +15438,7 @@
         <v>41437.4946140046</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>30</v>
@@ -15462,13 +15468,13 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>35</v>
@@ -15477,10 +15483,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>14</v>
@@ -15492,7 +15498,7 @@
         <v>41439.4236439468</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O159" s="0" t="s">
         <v>30</v>
@@ -15522,35 +15528,35 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M160" s="18" t="n">
         <v>41442.581944294</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="O160" s="0" t="s">
         <v>30</v>
@@ -15580,10 +15586,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -15595,10 +15601,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -15610,7 +15616,7 @@
         <v>41442.6344805903</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -15640,7 +15646,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -15653,10 +15659,10 @@
         <v>237</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>30</v>
@@ -15668,7 +15674,7 @@
         <v>41443.4305087153</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -15698,10 +15704,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -15713,13 +15719,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -15728,7 +15734,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -15758,7 +15764,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -15786,7 +15792,7 @@
         <v>41444.665028669</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -15816,10 +15822,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -15831,13 +15837,13 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
@@ -15846,7 +15852,7 @@
         <v>41445.4579989583</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -15876,7 +15882,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -15886,13 +15892,13 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
@@ -15904,7 +15910,7 @@
         <v>41446.4608850694</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -15934,10 +15940,10 @@
         <v>20130021</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E167" s="38" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
@@ -15946,10 +15952,10 @@
         <v>30</v>
       </c>
       <c r="H167" s="38" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>152</v>
@@ -15964,7 +15970,7 @@
         <v>41449.3498559028</v>
       </c>
       <c r="N167" s="38" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="O167" s="38" t="s">
         <v>30</v>
@@ -15994,10 +16000,10 @@
         <v>20130022</v>
       </c>
       <c r="D168" s="38" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
@@ -16012,7 +16018,7 @@
         <v>29</v>
       </c>
       <c r="J168" s="38" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
@@ -16024,7 +16030,7 @@
         <v>41449.494916169</v>
       </c>
       <c r="N168" s="38" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O168" s="38" t="s">
         <v>30</v>
@@ -16054,37 +16060,37 @@
         <v>20130023</v>
       </c>
       <c r="D169" s="38" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E169" s="38" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F169" s="38" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G169" s="38" t="s">
         <v>30</v>
       </c>
       <c r="H169" s="38" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
       <c r="L169" s="38" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M169" s="39" t="n">
         <v>41449.6461498843</v>
       </c>
       <c r="N169" s="38" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="O169" s="38" t="s">
         <v>30</v>
@@ -16114,37 +16120,37 @@
         <v>20130024</v>
       </c>
       <c r="D170" s="38" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F170" s="38" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G170" s="38" t="s">
         <v>30</v>
       </c>
       <c r="H170" s="38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I170" s="38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
       </c>
       <c r="L170" s="38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M170" s="39" t="n">
         <v>41450.6984287037</v>
       </c>
       <c r="N170" s="38" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O170" s="38" t="s">
         <v>30</v>
@@ -16174,7 +16180,7 @@
         <v>20130025</v>
       </c>
       <c r="D171" s="38" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E171" s="38"/>
       <c r="F171" s="38" t="s">
@@ -16187,13 +16193,13 @@
         <v>325</v>
       </c>
       <c r="I171" s="38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J171" s="38" t="n">
         <v>40</v>
       </c>
       <c r="K171" s="38" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L171" s="38" t="s">
         <v>326</v>
@@ -16202,7 +16208,7 @@
         <v>41451.4667568287</v>
       </c>
       <c r="N171" s="38" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O171" s="38" t="s">
         <v>30</v>
@@ -16232,10 +16238,10 @@
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -16247,13 +16253,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -16262,7 +16268,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="816">
   <si>
     <t>Assigned</t>
   </si>
@@ -1325,6 +1325,9 @@
     <t>12-10-007</t>
   </si>
   <si>
+    <t>Can't find. PLSS and GPS don't match, PDF does not match NAIP2011 or 2009.</t>
+  </si>
+  <si>
     <t>Wall Creek Watershed Riparian Area Restoration</t>
   </si>
   <si>
@@ -1400,6 +1403,9 @@
     <t>209-1040</t>
   </si>
   <si>
+    <t>Provided map needs a legend so I can see what the colors symbolize.</t>
+  </si>
+  <si>
     <t>Willow Creek Bench Tailwater Recovery</t>
   </si>
   <si>
@@ -1437,6 +1443,9 @@
   </si>
   <si>
     <t>209-3016-6729</t>
+  </si>
+  <si>
+    <t>Maybe ask respondent for shp on this one? Lots of points.</t>
   </si>
   <si>
     <t>Jackson Double Spring &amp; Habitat Restoration</t>
@@ -2506,7 +2515,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2541,12 +2550,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B9B8"/>
-        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -2598,7 +2601,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2735,11 +2738,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2763,11 +2762,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="21">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="21">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2798,7 +2797,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFE6B9B8"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2850,12 +2849,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:173"/>
+  <dimension ref="A1:AI173"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A65" xSplit="0" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A74" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A80" activeCellId="0" pane="bottomLeft" sqref="80:80"/>
+      <selection activeCell="A94" activeCellId="0" pane="bottomLeft" sqref="94:94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7828,63 +7827,66 @@
         <v>41333.6820353356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="81">
-      <c r="A81" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="81" s="8">
+      <c r="A81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="8" t="n">
         <v>15489</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="8" t="n">
         <v>20130019</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="G81" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="K81" s="2" t="n">
+      <c r="K81" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="M81" s="18" t="n">
+      <c r="M81" s="9" t="n">
         <v>41337.5453774306</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="N81" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="O81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R81" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S81" s="18" t="n">
+      <c r="O81" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R81" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" s="9" t="n">
         <v>41446.4359273958</v>
+      </c>
+      <c r="T81" s="8" t="s">
+        <v>435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="82" s="27">
@@ -7898,13 +7900,13 @@
         <v>20120445</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>172</v>
@@ -7916,19 +7918,19 @@
         <v>374</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K82" s="27" t="s">
         <v>30</v>
       </c>
       <c r="L82" s="27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M82" s="28" t="n">
         <v>41340.4754460995</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O82" s="27" t="s">
         <v>28</v>
@@ -7946,299 +7948,302 @@
         <v>41341.4559791667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="83">
-      <c r="A83" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="83" s="13">
+      <c r="A83" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="13" t="n">
         <v>15493</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="13" t="n">
         <v>20120443</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="D83" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="E83" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="F83" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="G83" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J83" s="2" t="s">
+      <c r="I83" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="J83" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K83" s="13" t="n">
         <v>33</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M83" s="18" t="n">
+      <c r="M83" s="14" t="n">
         <v>41340.5483920949</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R83" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S83" s="18" t="n">
+      <c r="N83" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q83" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R83" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" s="14" t="n">
         <v>41340.7857539005</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="84">
-      <c r="A84" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="84" s="13">
+      <c r="A84" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="13" t="n">
         <v>15494</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="13" t="n">
         <v>20120442</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D84" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E84" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K84" s="34" t="n">
         <v>41592</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M84" s="18" t="n">
+      <c r="M84" s="14" t="n">
         <v>41340.5534409722</v>
       </c>
-      <c r="N84" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R84" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S84" s="18" t="n">
+      <c r="N84" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P84" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q84" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R84" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" s="14" t="n">
         <v>41340.5797805208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="85">
-      <c r="A85" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="85" s="13">
+      <c r="A85" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="13" t="n">
         <v>15495</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="13" t="n">
         <v>20120454</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="D85" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="E85" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F85" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L85" s="2" t="s">
+      <c r="K85" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="L85" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="M85" s="18" t="n">
+      <c r="M85" s="14" t="n">
         <v>41341.5987565972</v>
       </c>
-      <c r="N85" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R85" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S85" s="18" t="n">
+      <c r="N85" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P85" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q85" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R85" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" s="14" t="n">
         <v>41347.5174840278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="86">
-      <c r="A86" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="86" s="13">
+      <c r="A86" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="13" t="n">
         <v>15497</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="13" t="n">
         <v>20120458</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="D86" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="E86" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="F86" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G86" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="K86" s="2" t="n">
+      <c r="K86" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="M86" s="18" t="n">
+      <c r="M86" s="14" t="n">
         <v>41345.6156529745</v>
       </c>
-      <c r="N86" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R86" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S86" s="18" t="n">
+      <c r="N86" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="O86" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P86" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q86" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R86" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" s="14" t="n">
         <v>41351.5827573264</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="87">
-      <c r="A87" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="87" s="8">
+      <c r="A87" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="8" t="n">
         <v>15505</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="8" t="n">
         <v>20120456</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="D87" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="E87" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L87" s="2" t="s">
+      <c r="K87" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="L87" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M87" s="18" t="n">
+      <c r="M87" s="9" t="n">
         <v>41348.5506607292</v>
       </c>
-      <c r="N87" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R87" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S87" s="18" t="n">
+      <c r="N87" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R87" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" s="9" t="n">
         <v>41348.7088268519</v>
+      </c>
+      <c r="T87" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="88" s="27">
@@ -8252,7 +8257,7 @@
         <v>20120464</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E88" s="27" t="s">
         <v>81</v>
@@ -8264,13 +8269,13 @@
         <v>99</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I88" s="27" t="s">
         <v>105</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K88" s="27" t="n">
         <v>27</v>
@@ -8282,7 +8287,7 @@
         <v>41352.375515544</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="O88" s="27" t="s">
         <v>28</v>
@@ -8300,3344 +8305,406 @@
         <v>41352.7037724884</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="89">
-      <c r="A89" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="0" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="89" s="15">
+      <c r="A89" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="15" t="n">
         <v>15562</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="15" t="n">
         <v>20120496</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="F89" s="0" t="s">
+      <c r="D89" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="E89" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H89" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="I89" s="0" t="s">
+      <c r="H89" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="I89" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="J89" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="K89" s="0" t="n">
+      <c r="J89" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="K89" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="L89" s="0" t="s">
+      <c r="L89" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="M89" s="18" t="n">
+      <c r="M89" s="14" t="n">
         <v>41358.509103588</v>
       </c>
-      <c r="N89" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="O89" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P89" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q89" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R89" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S89" s="18" t="n">
+      <c r="N89" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="O89" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R89" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" s="14" t="n">
         <v>41358.5180358796</v>
       </c>
-      <c r="T89" s="0"/>
-      <c r="AJ89" s="0"/>
-      <c r="AK89" s="0"/>
-      <c r="AL89" s="0"/>
-      <c r="AM89" s="0"/>
-      <c r="AN89" s="0"/>
-      <c r="AO89" s="0"/>
-      <c r="AP89" s="0"/>
-      <c r="AQ89" s="0"/>
-      <c r="AR89" s="0"/>
-      <c r="AS89" s="0"/>
-      <c r="AT89" s="0"/>
-      <c r="AU89" s="0"/>
-      <c r="AV89" s="0"/>
-      <c r="AW89" s="0"/>
-      <c r="AX89" s="0"/>
-      <c r="AY89" s="0"/>
-      <c r="AZ89" s="0"/>
-      <c r="BA89" s="0"/>
-      <c r="BB89" s="0"/>
-      <c r="BC89" s="0"/>
-      <c r="BD89" s="0"/>
-      <c r="BE89" s="0"/>
-      <c r="BF89" s="0"/>
-      <c r="BG89" s="0"/>
-      <c r="BH89" s="0"/>
-      <c r="BI89" s="0"/>
-      <c r="BJ89" s="0"/>
-      <c r="BK89" s="0"/>
-      <c r="BL89" s="0"/>
-      <c r="BM89" s="0"/>
-      <c r="BN89" s="0"/>
-      <c r="BO89" s="0"/>
-      <c r="BP89" s="0"/>
-      <c r="BQ89" s="0"/>
-      <c r="BR89" s="0"/>
-      <c r="BS89" s="0"/>
-      <c r="BT89" s="0"/>
-      <c r="BU89" s="0"/>
-      <c r="BV89" s="0"/>
-      <c r="BW89" s="0"/>
-      <c r="BX89" s="0"/>
-      <c r="BY89" s="0"/>
-      <c r="BZ89" s="0"/>
-      <c r="CA89" s="0"/>
-      <c r="CB89" s="0"/>
-      <c r="CC89" s="0"/>
-      <c r="CD89" s="0"/>
-      <c r="CE89" s="0"/>
-      <c r="CF89" s="0"/>
-      <c r="CG89" s="0"/>
-      <c r="CH89" s="0"/>
-      <c r="CI89" s="0"/>
-      <c r="CJ89" s="0"/>
-      <c r="CK89" s="0"/>
-      <c r="CL89" s="0"/>
-      <c r="CM89" s="0"/>
-      <c r="CN89" s="0"/>
-      <c r="CO89" s="0"/>
-      <c r="CP89" s="0"/>
-      <c r="CQ89" s="0"/>
-      <c r="CR89" s="0"/>
-      <c r="CS89" s="0"/>
-      <c r="CT89" s="0"/>
-      <c r="CU89" s="0"/>
-      <c r="CV89" s="0"/>
-      <c r="CW89" s="0"/>
-      <c r="CX89" s="0"/>
-      <c r="CY89" s="0"/>
-      <c r="CZ89" s="0"/>
-      <c r="DA89" s="0"/>
-      <c r="DB89" s="0"/>
-      <c r="DC89" s="0"/>
-      <c r="DD89" s="0"/>
-      <c r="DE89" s="0"/>
-      <c r="DF89" s="0"/>
-      <c r="DG89" s="0"/>
-      <c r="DH89" s="0"/>
-      <c r="DI89" s="0"/>
-      <c r="DJ89" s="0"/>
-      <c r="DK89" s="0"/>
-      <c r="DL89" s="0"/>
-      <c r="DM89" s="0"/>
-      <c r="DN89" s="0"/>
-      <c r="DO89" s="0"/>
-      <c r="DP89" s="0"/>
-      <c r="DQ89" s="0"/>
-      <c r="DR89" s="0"/>
-      <c r="DS89" s="0"/>
-      <c r="DT89" s="0"/>
-      <c r="DU89" s="0"/>
-      <c r="DV89" s="0"/>
-      <c r="DW89" s="0"/>
-      <c r="DX89" s="0"/>
-      <c r="DY89" s="0"/>
-      <c r="DZ89" s="0"/>
-      <c r="EA89" s="0"/>
-      <c r="EB89" s="0"/>
-      <c r="EC89" s="0"/>
-      <c r="ED89" s="0"/>
-      <c r="EE89" s="0"/>
-      <c r="EF89" s="0"/>
-      <c r="EG89" s="0"/>
-      <c r="EH89" s="0"/>
-      <c r="EI89" s="0"/>
-      <c r="EJ89" s="0"/>
-      <c r="EK89" s="0"/>
-      <c r="EL89" s="0"/>
-      <c r="EM89" s="0"/>
-      <c r="EN89" s="0"/>
-      <c r="EO89" s="0"/>
-      <c r="EP89" s="0"/>
-      <c r="EQ89" s="0"/>
-      <c r="ER89" s="0"/>
-      <c r="ES89" s="0"/>
-      <c r="ET89" s="0"/>
-      <c r="EU89" s="0"/>
-      <c r="EV89" s="0"/>
-      <c r="EW89" s="0"/>
-      <c r="EX89" s="0"/>
-      <c r="EY89" s="0"/>
-      <c r="EZ89" s="0"/>
-      <c r="FA89" s="0"/>
-      <c r="FB89" s="0"/>
-      <c r="FC89" s="0"/>
-      <c r="FD89" s="0"/>
-      <c r="FE89" s="0"/>
-      <c r="FF89" s="0"/>
-      <c r="FG89" s="0"/>
-      <c r="FH89" s="0"/>
-      <c r="FI89" s="0"/>
-      <c r="FJ89" s="0"/>
-      <c r="FK89" s="0"/>
-      <c r="FL89" s="0"/>
-      <c r="FM89" s="0"/>
-      <c r="FN89" s="0"/>
-      <c r="FO89" s="0"/>
-      <c r="FP89" s="0"/>
-      <c r="FQ89" s="0"/>
-      <c r="FR89" s="0"/>
-      <c r="FS89" s="0"/>
-      <c r="FT89" s="0"/>
-      <c r="FU89" s="0"/>
-      <c r="FV89" s="0"/>
-      <c r="FW89" s="0"/>
-      <c r="FX89" s="0"/>
-      <c r="FY89" s="0"/>
-      <c r="FZ89" s="0"/>
-      <c r="GA89" s="0"/>
-      <c r="GB89" s="0"/>
-      <c r="GC89" s="0"/>
-      <c r="GD89" s="0"/>
-      <c r="GE89" s="0"/>
-      <c r="GF89" s="0"/>
-      <c r="GG89" s="0"/>
-      <c r="GH89" s="0"/>
-      <c r="GI89" s="0"/>
-      <c r="GJ89" s="0"/>
-      <c r="GK89" s="0"/>
-      <c r="GL89" s="0"/>
-      <c r="GM89" s="0"/>
-      <c r="GN89" s="0"/>
-      <c r="GO89" s="0"/>
-      <c r="GP89" s="0"/>
-      <c r="GQ89" s="0"/>
-      <c r="GR89" s="0"/>
-      <c r="GS89" s="0"/>
-      <c r="GT89" s="0"/>
-      <c r="GU89" s="0"/>
-      <c r="GV89" s="0"/>
-      <c r="GW89" s="0"/>
-      <c r="GX89" s="0"/>
-      <c r="GY89" s="0"/>
-      <c r="GZ89" s="0"/>
-      <c r="HA89" s="0"/>
-      <c r="HB89" s="0"/>
-      <c r="HC89" s="0"/>
-      <c r="HD89" s="0"/>
-      <c r="HE89" s="0"/>
-      <c r="HF89" s="0"/>
-      <c r="HG89" s="0"/>
-      <c r="HH89" s="0"/>
-      <c r="HI89" s="0"/>
-      <c r="HJ89" s="0"/>
-      <c r="HK89" s="0"/>
-      <c r="HL89" s="0"/>
-      <c r="HM89" s="0"/>
-      <c r="HN89" s="0"/>
-      <c r="HO89" s="0"/>
-      <c r="HP89" s="0"/>
-      <c r="HQ89" s="0"/>
-      <c r="HR89" s="0"/>
-      <c r="HS89" s="0"/>
-      <c r="HT89" s="0"/>
-      <c r="HU89" s="0"/>
-      <c r="HV89" s="0"/>
-      <c r="HW89" s="0"/>
-      <c r="HX89" s="0"/>
-      <c r="HY89" s="0"/>
-      <c r="HZ89" s="0"/>
-      <c r="IA89" s="0"/>
-      <c r="IB89" s="0"/>
-      <c r="IC89" s="0"/>
-      <c r="ID89" s="0"/>
-      <c r="IE89" s="0"/>
-      <c r="IF89" s="0"/>
-      <c r="IG89" s="0"/>
-      <c r="IH89" s="0"/>
-      <c r="II89" s="0"/>
-      <c r="IJ89" s="0"/>
-      <c r="IK89" s="0"/>
-      <c r="IL89" s="0"/>
-      <c r="IM89" s="0"/>
-      <c r="IN89" s="0"/>
-      <c r="IO89" s="0"/>
-      <c r="IP89" s="0"/>
-      <c r="IQ89" s="0"/>
-      <c r="IR89" s="0"/>
-      <c r="IS89" s="0"/>
-      <c r="IT89" s="0"/>
-      <c r="IU89" s="0"/>
-      <c r="IV89" s="0"/>
-      <c r="IW89" s="0"/>
-      <c r="IX89" s="0"/>
-      <c r="IY89" s="0"/>
-      <c r="IZ89" s="0"/>
-      <c r="JA89" s="0"/>
-      <c r="JB89" s="0"/>
-      <c r="JC89" s="0"/>
-      <c r="JD89" s="0"/>
-      <c r="JE89" s="0"/>
-      <c r="JF89" s="0"/>
-      <c r="JG89" s="0"/>
-      <c r="JH89" s="0"/>
-      <c r="JI89" s="0"/>
-      <c r="JJ89" s="0"/>
-      <c r="JK89" s="0"/>
-      <c r="JL89" s="0"/>
-      <c r="JM89" s="0"/>
-      <c r="JN89" s="0"/>
-      <c r="JO89" s="0"/>
-      <c r="JP89" s="0"/>
-      <c r="JQ89" s="0"/>
-      <c r="JR89" s="0"/>
-      <c r="JS89" s="0"/>
-      <c r="JT89" s="0"/>
-      <c r="JU89" s="0"/>
-      <c r="JV89" s="0"/>
-      <c r="JW89" s="0"/>
-      <c r="JX89" s="0"/>
-      <c r="JY89" s="0"/>
-      <c r="JZ89" s="0"/>
-      <c r="KA89" s="0"/>
-      <c r="KB89" s="0"/>
-      <c r="KC89" s="0"/>
-      <c r="KD89" s="0"/>
-      <c r="KE89" s="0"/>
-      <c r="KF89" s="0"/>
-      <c r="KG89" s="0"/>
-      <c r="KH89" s="0"/>
-      <c r="KI89" s="0"/>
-      <c r="KJ89" s="0"/>
-      <c r="KK89" s="0"/>
-      <c r="KL89" s="0"/>
-      <c r="KM89" s="0"/>
-      <c r="KN89" s="0"/>
-      <c r="KO89" s="0"/>
-      <c r="KP89" s="0"/>
-      <c r="KQ89" s="0"/>
-      <c r="KR89" s="0"/>
-      <c r="KS89" s="0"/>
-      <c r="KT89" s="0"/>
-      <c r="KU89" s="0"/>
-      <c r="KV89" s="0"/>
-      <c r="KW89" s="0"/>
-      <c r="KX89" s="0"/>
-      <c r="KY89" s="0"/>
-      <c r="KZ89" s="0"/>
-      <c r="LA89" s="0"/>
-      <c r="LB89" s="0"/>
-      <c r="LC89" s="0"/>
-      <c r="LD89" s="0"/>
-      <c r="LE89" s="0"/>
-      <c r="LF89" s="0"/>
-      <c r="LG89" s="0"/>
-      <c r="LH89" s="0"/>
-      <c r="LI89" s="0"/>
-      <c r="LJ89" s="0"/>
-      <c r="LK89" s="0"/>
-      <c r="LL89" s="0"/>
-      <c r="LM89" s="0"/>
-      <c r="LN89" s="0"/>
-      <c r="LO89" s="0"/>
-      <c r="LP89" s="0"/>
-      <c r="LQ89" s="0"/>
-      <c r="LR89" s="0"/>
-      <c r="LS89" s="0"/>
-      <c r="LT89" s="0"/>
-      <c r="LU89" s="0"/>
-      <c r="LV89" s="0"/>
-      <c r="LW89" s="0"/>
-      <c r="LX89" s="0"/>
-      <c r="LY89" s="0"/>
-      <c r="LZ89" s="0"/>
-      <c r="MA89" s="0"/>
-      <c r="MB89" s="0"/>
-      <c r="MC89" s="0"/>
-      <c r="MD89" s="0"/>
-      <c r="ME89" s="0"/>
-      <c r="MF89" s="0"/>
-      <c r="MG89" s="0"/>
-      <c r="MH89" s="0"/>
-      <c r="MI89" s="0"/>
-      <c r="MJ89" s="0"/>
-      <c r="MK89" s="0"/>
-      <c r="ML89" s="0"/>
-      <c r="MM89" s="0"/>
-      <c r="MN89" s="0"/>
-      <c r="MO89" s="0"/>
-      <c r="MP89" s="0"/>
-      <c r="MQ89" s="0"/>
-      <c r="MR89" s="0"/>
-      <c r="MS89" s="0"/>
-      <c r="MT89" s="0"/>
-      <c r="MU89" s="0"/>
-      <c r="MV89" s="0"/>
-      <c r="MW89" s="0"/>
-      <c r="MX89" s="0"/>
-      <c r="MY89" s="0"/>
-      <c r="MZ89" s="0"/>
-      <c r="NA89" s="0"/>
-      <c r="NB89" s="0"/>
-      <c r="NC89" s="0"/>
-      <c r="ND89" s="0"/>
-      <c r="NE89" s="0"/>
-      <c r="NF89" s="0"/>
-      <c r="NG89" s="0"/>
-      <c r="NH89" s="0"/>
-      <c r="NI89" s="0"/>
-      <c r="NJ89" s="0"/>
-      <c r="NK89" s="0"/>
-      <c r="NL89" s="0"/>
-      <c r="NM89" s="0"/>
-      <c r="NN89" s="0"/>
-      <c r="NO89" s="0"/>
-      <c r="NP89" s="0"/>
-      <c r="NQ89" s="0"/>
-      <c r="NR89" s="0"/>
-      <c r="NS89" s="0"/>
-      <c r="NT89" s="0"/>
-      <c r="NU89" s="0"/>
-      <c r="NV89" s="0"/>
-      <c r="NW89" s="0"/>
-      <c r="NX89" s="0"/>
-      <c r="NY89" s="0"/>
-      <c r="NZ89" s="0"/>
-      <c r="OA89" s="0"/>
-      <c r="OB89" s="0"/>
-      <c r="OC89" s="0"/>
-      <c r="OD89" s="0"/>
-      <c r="OE89" s="0"/>
-      <c r="OF89" s="0"/>
-      <c r="OG89" s="0"/>
-      <c r="OH89" s="0"/>
-      <c r="OI89" s="0"/>
-      <c r="OJ89" s="0"/>
-      <c r="OK89" s="0"/>
-      <c r="OL89" s="0"/>
-      <c r="OM89" s="0"/>
-      <c r="ON89" s="0"/>
-      <c r="OO89" s="0"/>
-      <c r="OP89" s="0"/>
-      <c r="OQ89" s="0"/>
-      <c r="OR89" s="0"/>
-      <c r="OS89" s="0"/>
-      <c r="OT89" s="0"/>
-      <c r="OU89" s="0"/>
-      <c r="OV89" s="0"/>
-      <c r="OW89" s="0"/>
-      <c r="OX89" s="0"/>
-      <c r="OY89" s="0"/>
-      <c r="OZ89" s="0"/>
-      <c r="PA89" s="0"/>
-      <c r="PB89" s="0"/>
-      <c r="PC89" s="0"/>
-      <c r="PD89" s="0"/>
-      <c r="PE89" s="0"/>
-      <c r="PF89" s="0"/>
-      <c r="PG89" s="0"/>
-      <c r="PH89" s="0"/>
-      <c r="PI89" s="0"/>
-      <c r="PJ89" s="0"/>
-      <c r="PK89" s="0"/>
-      <c r="PL89" s="0"/>
-      <c r="PM89" s="0"/>
-      <c r="PN89" s="0"/>
-      <c r="PO89" s="0"/>
-      <c r="PP89" s="0"/>
-      <c r="PQ89" s="0"/>
-      <c r="PR89" s="0"/>
-      <c r="PS89" s="0"/>
-      <c r="PT89" s="0"/>
-      <c r="PU89" s="0"/>
-      <c r="PV89" s="0"/>
-      <c r="PW89" s="0"/>
-      <c r="PX89" s="0"/>
-      <c r="PY89" s="0"/>
-      <c r="PZ89" s="0"/>
-      <c r="QA89" s="0"/>
-      <c r="QB89" s="0"/>
-      <c r="QC89" s="0"/>
-      <c r="QD89" s="0"/>
-      <c r="QE89" s="0"/>
-      <c r="QF89" s="0"/>
-      <c r="QG89" s="0"/>
-      <c r="QH89" s="0"/>
-      <c r="QI89" s="0"/>
-      <c r="QJ89" s="0"/>
-      <c r="QK89" s="0"/>
-      <c r="QL89" s="0"/>
-      <c r="QM89" s="0"/>
-      <c r="QN89" s="0"/>
-      <c r="QO89" s="0"/>
-      <c r="QP89" s="0"/>
-      <c r="QQ89" s="0"/>
-      <c r="QR89" s="0"/>
-      <c r="QS89" s="0"/>
-      <c r="QT89" s="0"/>
-      <c r="QU89" s="0"/>
-      <c r="QV89" s="0"/>
-      <c r="QW89" s="0"/>
-      <c r="QX89" s="0"/>
-      <c r="QY89" s="0"/>
-      <c r="QZ89" s="0"/>
-      <c r="RA89" s="0"/>
-      <c r="RB89" s="0"/>
-      <c r="RC89" s="0"/>
-      <c r="RD89" s="0"/>
-      <c r="RE89" s="0"/>
-      <c r="RF89" s="0"/>
-      <c r="RG89" s="0"/>
-      <c r="RH89" s="0"/>
-      <c r="RI89" s="0"/>
-      <c r="RJ89" s="0"/>
-      <c r="RK89" s="0"/>
-      <c r="RL89" s="0"/>
-      <c r="RM89" s="0"/>
-      <c r="RN89" s="0"/>
-      <c r="RO89" s="0"/>
-      <c r="RP89" s="0"/>
-      <c r="RQ89" s="0"/>
-      <c r="RR89" s="0"/>
-      <c r="RS89" s="0"/>
-      <c r="RT89" s="0"/>
-      <c r="RU89" s="0"/>
-      <c r="RV89" s="0"/>
-      <c r="RW89" s="0"/>
-      <c r="RX89" s="0"/>
-      <c r="RY89" s="0"/>
-      <c r="RZ89" s="0"/>
-      <c r="SA89" s="0"/>
-      <c r="SB89" s="0"/>
-      <c r="SC89" s="0"/>
-      <c r="SD89" s="0"/>
-      <c r="SE89" s="0"/>
-      <c r="SF89" s="0"/>
-      <c r="SG89" s="0"/>
-      <c r="SH89" s="0"/>
-      <c r="SI89" s="0"/>
-      <c r="SJ89" s="0"/>
-      <c r="SK89" s="0"/>
-      <c r="SL89" s="0"/>
-      <c r="SM89" s="0"/>
-      <c r="SN89" s="0"/>
-      <c r="SO89" s="0"/>
-      <c r="SP89" s="0"/>
-      <c r="SQ89" s="0"/>
-      <c r="SR89" s="0"/>
-      <c r="SS89" s="0"/>
-      <c r="ST89" s="0"/>
-      <c r="SU89" s="0"/>
-      <c r="SV89" s="0"/>
-      <c r="SW89" s="0"/>
-      <c r="SX89" s="0"/>
-      <c r="SY89" s="0"/>
-      <c r="SZ89" s="0"/>
-      <c r="TA89" s="0"/>
-      <c r="TB89" s="0"/>
-      <c r="TC89" s="0"/>
-      <c r="TD89" s="0"/>
-      <c r="TE89" s="0"/>
-      <c r="TF89" s="0"/>
-      <c r="TG89" s="0"/>
-      <c r="TH89" s="0"/>
-      <c r="TI89" s="0"/>
-      <c r="TJ89" s="0"/>
-      <c r="TK89" s="0"/>
-      <c r="TL89" s="0"/>
-      <c r="TM89" s="0"/>
-      <c r="TN89" s="0"/>
-      <c r="TO89" s="0"/>
-      <c r="TP89" s="0"/>
-      <c r="TQ89" s="0"/>
-      <c r="TR89" s="0"/>
-      <c r="TS89" s="0"/>
-      <c r="TT89" s="0"/>
-      <c r="TU89" s="0"/>
-      <c r="TV89" s="0"/>
-      <c r="TW89" s="0"/>
-      <c r="TX89" s="0"/>
-      <c r="TY89" s="0"/>
-      <c r="TZ89" s="0"/>
-      <c r="UA89" s="0"/>
-      <c r="UB89" s="0"/>
-      <c r="UC89" s="0"/>
-      <c r="UD89" s="0"/>
-      <c r="UE89" s="0"/>
-      <c r="UF89" s="0"/>
-      <c r="UG89" s="0"/>
-      <c r="UH89" s="0"/>
-      <c r="UI89" s="0"/>
-      <c r="UJ89" s="0"/>
-      <c r="UK89" s="0"/>
-      <c r="UL89" s="0"/>
-      <c r="UM89" s="0"/>
-      <c r="UN89" s="0"/>
-      <c r="UO89" s="0"/>
-      <c r="UP89" s="0"/>
-      <c r="UQ89" s="0"/>
-      <c r="UR89" s="0"/>
-      <c r="US89" s="0"/>
-      <c r="UT89" s="0"/>
-      <c r="UU89" s="0"/>
-      <c r="UV89" s="0"/>
-      <c r="UW89" s="0"/>
-      <c r="UX89" s="0"/>
-      <c r="UY89" s="0"/>
-      <c r="UZ89" s="0"/>
-      <c r="VA89" s="0"/>
-      <c r="VB89" s="0"/>
-      <c r="VC89" s="0"/>
-      <c r="VD89" s="0"/>
-      <c r="VE89" s="0"/>
-      <c r="VF89" s="0"/>
-      <c r="VG89" s="0"/>
-      <c r="VH89" s="0"/>
-      <c r="VI89" s="0"/>
-      <c r="VJ89" s="0"/>
-      <c r="VK89" s="0"/>
-      <c r="VL89" s="0"/>
-      <c r="VM89" s="0"/>
-      <c r="VN89" s="0"/>
-      <c r="VO89" s="0"/>
-      <c r="VP89" s="0"/>
-      <c r="VQ89" s="0"/>
-      <c r="VR89" s="0"/>
-      <c r="VS89" s="0"/>
-      <c r="VT89" s="0"/>
-      <c r="VU89" s="0"/>
-      <c r="VV89" s="0"/>
-      <c r="VW89" s="0"/>
-      <c r="VX89" s="0"/>
-      <c r="VY89" s="0"/>
-      <c r="VZ89" s="0"/>
-      <c r="WA89" s="0"/>
-      <c r="WB89" s="0"/>
-      <c r="WC89" s="0"/>
-      <c r="WD89" s="0"/>
-      <c r="WE89" s="0"/>
-      <c r="WF89" s="0"/>
-      <c r="WG89" s="0"/>
-      <c r="WH89" s="0"/>
-      <c r="WI89" s="0"/>
-      <c r="WJ89" s="0"/>
-      <c r="WK89" s="0"/>
-      <c r="WL89" s="0"/>
-      <c r="WM89" s="0"/>
-      <c r="WN89" s="0"/>
-      <c r="WO89" s="0"/>
-      <c r="WP89" s="0"/>
-      <c r="WQ89" s="0"/>
-      <c r="WR89" s="0"/>
-      <c r="WS89" s="0"/>
-      <c r="WT89" s="0"/>
-      <c r="WU89" s="0"/>
-      <c r="WV89" s="0"/>
-      <c r="WW89" s="0"/>
-      <c r="WX89" s="0"/>
-      <c r="WY89" s="0"/>
-      <c r="WZ89" s="0"/>
-      <c r="XA89" s="0"/>
-      <c r="XB89" s="0"/>
-      <c r="XC89" s="0"/>
-      <c r="XD89" s="0"/>
-      <c r="XE89" s="0"/>
-      <c r="XF89" s="0"/>
-      <c r="XG89" s="0"/>
-      <c r="XH89" s="0"/>
-      <c r="XI89" s="0"/>
-      <c r="XJ89" s="0"/>
-      <c r="XK89" s="0"/>
-      <c r="XL89" s="0"/>
-      <c r="XM89" s="0"/>
-      <c r="XN89" s="0"/>
-      <c r="XO89" s="0"/>
-      <c r="XP89" s="0"/>
-      <c r="XQ89" s="0"/>
-      <c r="XR89" s="0"/>
-      <c r="XS89" s="0"/>
-      <c r="XT89" s="0"/>
-      <c r="XU89" s="0"/>
-      <c r="XV89" s="0"/>
-      <c r="XW89" s="0"/>
-      <c r="XX89" s="0"/>
-      <c r="XY89" s="0"/>
-      <c r="XZ89" s="0"/>
-      <c r="YA89" s="0"/>
-      <c r="YB89" s="0"/>
-      <c r="YC89" s="0"/>
-      <c r="YD89" s="0"/>
-      <c r="YE89" s="0"/>
-      <c r="YF89" s="0"/>
-      <c r="YG89" s="0"/>
-      <c r="YH89" s="0"/>
-      <c r="YI89" s="0"/>
-      <c r="YJ89" s="0"/>
-      <c r="YK89" s="0"/>
-      <c r="YL89" s="0"/>
-      <c r="YM89" s="0"/>
-      <c r="YN89" s="0"/>
-      <c r="YO89" s="0"/>
-      <c r="YP89" s="0"/>
-      <c r="YQ89" s="0"/>
-      <c r="YR89" s="0"/>
-      <c r="YS89" s="0"/>
-      <c r="YT89" s="0"/>
-      <c r="YU89" s="0"/>
-      <c r="YV89" s="0"/>
-      <c r="YW89" s="0"/>
-      <c r="YX89" s="0"/>
-      <c r="YY89" s="0"/>
-      <c r="YZ89" s="0"/>
-      <c r="ZA89" s="0"/>
-      <c r="ZB89" s="0"/>
-      <c r="ZC89" s="0"/>
-      <c r="ZD89" s="0"/>
-      <c r="ZE89" s="0"/>
-      <c r="ZF89" s="0"/>
-      <c r="ZG89" s="0"/>
-      <c r="ZH89" s="0"/>
-      <c r="ZI89" s="0"/>
-      <c r="ZJ89" s="0"/>
-      <c r="ZK89" s="0"/>
-      <c r="ZL89" s="0"/>
-      <c r="ZM89" s="0"/>
-      <c r="ZN89" s="0"/>
-      <c r="ZO89" s="0"/>
-      <c r="ZP89" s="0"/>
-      <c r="ZQ89" s="0"/>
-      <c r="ZR89" s="0"/>
-      <c r="ZS89" s="0"/>
-      <c r="ZT89" s="0"/>
-      <c r="ZU89" s="0"/>
-      <c r="ZV89" s="0"/>
-      <c r="ZW89" s="0"/>
-      <c r="ZX89" s="0"/>
-      <c r="ZY89" s="0"/>
-      <c r="ZZ89" s="0"/>
-      <c r="AAA89" s="0"/>
-      <c r="AAB89" s="0"/>
-      <c r="AAC89" s="0"/>
-      <c r="AAD89" s="0"/>
-      <c r="AAE89" s="0"/>
-      <c r="AAF89" s="0"/>
-      <c r="AAG89" s="0"/>
-      <c r="AAH89" s="0"/>
-      <c r="AAI89" s="0"/>
-      <c r="AAJ89" s="0"/>
-      <c r="AAK89" s="0"/>
-      <c r="AAL89" s="0"/>
-      <c r="AAM89" s="0"/>
-      <c r="AAN89" s="0"/>
-      <c r="AAO89" s="0"/>
-      <c r="AAP89" s="0"/>
-      <c r="AAQ89" s="0"/>
-      <c r="AAR89" s="0"/>
-      <c r="AAS89" s="0"/>
-      <c r="AAT89" s="0"/>
-      <c r="AAU89" s="0"/>
-      <c r="AAV89" s="0"/>
-      <c r="AAW89" s="0"/>
-      <c r="AAX89" s="0"/>
-      <c r="AAY89" s="0"/>
-      <c r="AAZ89" s="0"/>
-      <c r="ABA89" s="0"/>
-      <c r="ABB89" s="0"/>
-      <c r="ABC89" s="0"/>
-      <c r="ABD89" s="0"/>
-      <c r="ABE89" s="0"/>
-      <c r="ABF89" s="0"/>
-      <c r="ABG89" s="0"/>
-      <c r="ABH89" s="0"/>
-      <c r="ABI89" s="0"/>
-      <c r="ABJ89" s="0"/>
-      <c r="ABK89" s="0"/>
-      <c r="ABL89" s="0"/>
-      <c r="ABM89" s="0"/>
-      <c r="ABN89" s="0"/>
-      <c r="ABO89" s="0"/>
-      <c r="ABP89" s="0"/>
-      <c r="ABQ89" s="0"/>
-      <c r="ABR89" s="0"/>
-      <c r="ABS89" s="0"/>
-      <c r="ABT89" s="0"/>
-      <c r="ABU89" s="0"/>
-      <c r="ABV89" s="0"/>
-      <c r="ABW89" s="0"/>
-      <c r="ABX89" s="0"/>
-      <c r="ABY89" s="0"/>
-      <c r="ABZ89" s="0"/>
-      <c r="ACA89" s="0"/>
-      <c r="ACB89" s="0"/>
-      <c r="ACC89" s="0"/>
-      <c r="ACD89" s="0"/>
-      <c r="ACE89" s="0"/>
-      <c r="ACF89" s="0"/>
-      <c r="ACG89" s="0"/>
-      <c r="ACH89" s="0"/>
-      <c r="ACI89" s="0"/>
-      <c r="ACJ89" s="0"/>
-      <c r="ACK89" s="0"/>
-      <c r="ACL89" s="0"/>
-      <c r="ACM89" s="0"/>
-      <c r="ACN89" s="0"/>
-      <c r="ACO89" s="0"/>
-      <c r="ACP89" s="0"/>
-      <c r="ACQ89" s="0"/>
-      <c r="ACR89" s="0"/>
-      <c r="ACS89" s="0"/>
-      <c r="ACT89" s="0"/>
-      <c r="ACU89" s="0"/>
-      <c r="ACV89" s="0"/>
-      <c r="ACW89" s="0"/>
-      <c r="ACX89" s="0"/>
-      <c r="ACY89" s="0"/>
-      <c r="ACZ89" s="0"/>
-      <c r="ADA89" s="0"/>
-      <c r="ADB89" s="0"/>
-      <c r="ADC89" s="0"/>
-      <c r="ADD89" s="0"/>
-      <c r="ADE89" s="0"/>
-      <c r="ADF89" s="0"/>
-      <c r="ADG89" s="0"/>
-      <c r="ADH89" s="0"/>
-      <c r="ADI89" s="0"/>
-      <c r="ADJ89" s="0"/>
-      <c r="ADK89" s="0"/>
-      <c r="ADL89" s="0"/>
-      <c r="ADM89" s="0"/>
-      <c r="ADN89" s="0"/>
-      <c r="ADO89" s="0"/>
-      <c r="ADP89" s="0"/>
-      <c r="ADQ89" s="0"/>
-      <c r="ADR89" s="0"/>
-      <c r="ADS89" s="0"/>
-      <c r="ADT89" s="0"/>
-      <c r="ADU89" s="0"/>
-      <c r="ADV89" s="0"/>
-      <c r="ADW89" s="0"/>
-      <c r="ADX89" s="0"/>
-      <c r="ADY89" s="0"/>
-      <c r="ADZ89" s="0"/>
-      <c r="AEA89" s="0"/>
-      <c r="AEB89" s="0"/>
-      <c r="AEC89" s="0"/>
-      <c r="AED89" s="0"/>
-      <c r="AEE89" s="0"/>
-      <c r="AEF89" s="0"/>
-      <c r="AEG89" s="0"/>
-      <c r="AEH89" s="0"/>
-      <c r="AEI89" s="0"/>
-      <c r="AEJ89" s="0"/>
-      <c r="AEK89" s="0"/>
-      <c r="AEL89" s="0"/>
-      <c r="AEM89" s="0"/>
-      <c r="AEN89" s="0"/>
-      <c r="AEO89" s="0"/>
-      <c r="AEP89" s="0"/>
-      <c r="AEQ89" s="0"/>
-      <c r="AER89" s="0"/>
-      <c r="AES89" s="0"/>
-      <c r="AET89" s="0"/>
-      <c r="AEU89" s="0"/>
-      <c r="AEV89" s="0"/>
-      <c r="AEW89" s="0"/>
-      <c r="AEX89" s="0"/>
-      <c r="AEY89" s="0"/>
-      <c r="AEZ89" s="0"/>
-      <c r="AFA89" s="0"/>
-      <c r="AFB89" s="0"/>
-      <c r="AFC89" s="0"/>
-      <c r="AFD89" s="0"/>
-      <c r="AFE89" s="0"/>
-      <c r="AFF89" s="0"/>
-      <c r="AFG89" s="0"/>
-      <c r="AFH89" s="0"/>
-      <c r="AFI89" s="0"/>
-      <c r="AFJ89" s="0"/>
-      <c r="AFK89" s="0"/>
-      <c r="AFL89" s="0"/>
-      <c r="AFM89" s="0"/>
-      <c r="AFN89" s="0"/>
-      <c r="AFO89" s="0"/>
-      <c r="AFP89" s="0"/>
-      <c r="AFQ89" s="0"/>
-      <c r="AFR89" s="0"/>
-      <c r="AFS89" s="0"/>
-      <c r="AFT89" s="0"/>
-      <c r="AFU89" s="0"/>
-      <c r="AFV89" s="0"/>
-      <c r="AFW89" s="0"/>
-      <c r="AFX89" s="0"/>
-      <c r="AFY89" s="0"/>
-      <c r="AFZ89" s="0"/>
-      <c r="AGA89" s="0"/>
-      <c r="AGB89" s="0"/>
-      <c r="AGC89" s="0"/>
-      <c r="AGD89" s="0"/>
-      <c r="AGE89" s="0"/>
-      <c r="AGF89" s="0"/>
-      <c r="AGG89" s="0"/>
-      <c r="AGH89" s="0"/>
-      <c r="AGI89" s="0"/>
-      <c r="AGJ89" s="0"/>
-      <c r="AGK89" s="0"/>
-      <c r="AGL89" s="0"/>
-      <c r="AGM89" s="0"/>
-      <c r="AGN89" s="0"/>
-      <c r="AGO89" s="0"/>
-      <c r="AGP89" s="0"/>
-      <c r="AGQ89" s="0"/>
-      <c r="AGR89" s="0"/>
-      <c r="AGS89" s="0"/>
-      <c r="AGT89" s="0"/>
-      <c r="AGU89" s="0"/>
-      <c r="AGV89" s="0"/>
-      <c r="AGW89" s="0"/>
-      <c r="AGX89" s="0"/>
-      <c r="AGY89" s="0"/>
-      <c r="AGZ89" s="0"/>
-      <c r="AHA89" s="0"/>
-      <c r="AHB89" s="0"/>
-      <c r="AHC89" s="0"/>
-      <c r="AHD89" s="0"/>
-      <c r="AHE89" s="0"/>
-      <c r="AHF89" s="0"/>
-      <c r="AHG89" s="0"/>
-      <c r="AHH89" s="0"/>
-      <c r="AHI89" s="0"/>
-      <c r="AHJ89" s="0"/>
-      <c r="AHK89" s="0"/>
-      <c r="AHL89" s="0"/>
-      <c r="AHM89" s="0"/>
-      <c r="AHN89" s="0"/>
-      <c r="AHO89" s="0"/>
-      <c r="AHP89" s="0"/>
-      <c r="AHQ89" s="0"/>
-      <c r="AHR89" s="0"/>
-      <c r="AHS89" s="0"/>
-      <c r="AHT89" s="0"/>
-      <c r="AHU89" s="0"/>
-      <c r="AHV89" s="0"/>
-      <c r="AHW89" s="0"/>
-      <c r="AHX89" s="0"/>
-      <c r="AHY89" s="0"/>
-      <c r="AHZ89" s="0"/>
-      <c r="AIA89" s="0"/>
-      <c r="AIB89" s="0"/>
-      <c r="AIC89" s="0"/>
-      <c r="AID89" s="0"/>
-      <c r="AIE89" s="0"/>
-      <c r="AIF89" s="0"/>
-      <c r="AIG89" s="0"/>
-      <c r="AIH89" s="0"/>
-      <c r="AII89" s="0"/>
-      <c r="AIJ89" s="0"/>
-      <c r="AIK89" s="0"/>
-      <c r="AIL89" s="0"/>
-      <c r="AIM89" s="0"/>
-      <c r="AIN89" s="0"/>
-      <c r="AIO89" s="0"/>
-      <c r="AIP89" s="0"/>
-      <c r="AIQ89" s="0"/>
-      <c r="AIR89" s="0"/>
-      <c r="AIS89" s="0"/>
-      <c r="AIT89" s="0"/>
-      <c r="AIU89" s="0"/>
-      <c r="AIV89" s="0"/>
-      <c r="AIW89" s="0"/>
-      <c r="AIX89" s="0"/>
-      <c r="AIY89" s="0"/>
-      <c r="AIZ89" s="0"/>
-      <c r="AJA89" s="0"/>
-      <c r="AJB89" s="0"/>
-      <c r="AJC89" s="0"/>
-      <c r="AJD89" s="0"/>
-      <c r="AJE89" s="0"/>
-      <c r="AJF89" s="0"/>
-      <c r="AJG89" s="0"/>
-      <c r="AJH89" s="0"/>
-      <c r="AJI89" s="0"/>
-      <c r="AJJ89" s="0"/>
-      <c r="AJK89" s="0"/>
-      <c r="AJL89" s="0"/>
-      <c r="AJM89" s="0"/>
-      <c r="AJN89" s="0"/>
-      <c r="AJO89" s="0"/>
-      <c r="AJP89" s="0"/>
-      <c r="AJQ89" s="0"/>
-      <c r="AJR89" s="0"/>
-      <c r="AJS89" s="0"/>
-      <c r="AJT89" s="0"/>
-      <c r="AJU89" s="0"/>
-      <c r="AJV89" s="0"/>
-      <c r="AJW89" s="0"/>
-      <c r="AJX89" s="0"/>
-      <c r="AJY89" s="0"/>
-      <c r="AJZ89" s="0"/>
-      <c r="AKA89" s="0"/>
-      <c r="AKB89" s="0"/>
-      <c r="AKC89" s="0"/>
-      <c r="AKD89" s="0"/>
-      <c r="AKE89" s="0"/>
-      <c r="AKF89" s="0"/>
-      <c r="AKG89" s="0"/>
-      <c r="AKH89" s="0"/>
-      <c r="AKI89" s="0"/>
-      <c r="AKJ89" s="0"/>
-      <c r="AKK89" s="0"/>
-      <c r="AKL89" s="0"/>
-      <c r="AKM89" s="0"/>
-      <c r="AKN89" s="0"/>
-      <c r="AKO89" s="0"/>
-      <c r="AKP89" s="0"/>
-      <c r="AKQ89" s="0"/>
-      <c r="AKR89" s="0"/>
-      <c r="AKS89" s="0"/>
-      <c r="AKT89" s="0"/>
-      <c r="AKU89" s="0"/>
-      <c r="AKV89" s="0"/>
-      <c r="AKW89" s="0"/>
-      <c r="AKX89" s="0"/>
-      <c r="AKY89" s="0"/>
-      <c r="AKZ89" s="0"/>
-      <c r="ALA89" s="0"/>
-      <c r="ALB89" s="0"/>
-      <c r="ALC89" s="0"/>
-      <c r="ALD89" s="0"/>
-      <c r="ALE89" s="0"/>
-      <c r="ALF89" s="0"/>
-      <c r="ALG89" s="0"/>
-      <c r="ALH89" s="0"/>
-      <c r="ALI89" s="0"/>
-      <c r="ALJ89" s="0"/>
-      <c r="ALK89" s="0"/>
-      <c r="ALL89" s="0"/>
-      <c r="ALM89" s="0"/>
-      <c r="ALN89" s="0"/>
-      <c r="ALO89" s="0"/>
-      <c r="ALP89" s="0"/>
-      <c r="ALQ89" s="0"/>
-      <c r="ALR89" s="0"/>
-      <c r="ALS89" s="0"/>
-      <c r="ALT89" s="0"/>
-      <c r="ALU89" s="0"/>
-      <c r="ALV89" s="0"/>
-      <c r="ALW89" s="0"/>
-      <c r="ALX89" s="0"/>
-      <c r="ALY89" s="0"/>
-      <c r="ALZ89" s="0"/>
-      <c r="AMA89" s="0"/>
-      <c r="AMB89" s="0"/>
-      <c r="AMC89" s="0"/>
-      <c r="AMD89" s="0"/>
-      <c r="AME89" s="0"/>
-      <c r="AMF89" s="0"/>
-      <c r="AMG89" s="0"/>
-      <c r="AMH89" s="0"/>
-      <c r="AMI89" s="0"/>
-      <c r="AMJ89" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="90">
-      <c r="A90" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="0" t="n">
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
+      <c r="AA89" s="13"/>
+      <c r="AB89" s="13"/>
+      <c r="AC89" s="13"/>
+      <c r="AD89" s="13"/>
+      <c r="AE89" s="13"/>
+      <c r="AF89" s="13"/>
+      <c r="AG89" s="13"/>
+      <c r="AH89" s="13"/>
+      <c r="AI89" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="90" s="32">
+      <c r="A90" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="32" t="n">
         <v>15564</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="32" t="n">
         <v>20120497</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="E90" s="0"/>
-      <c r="F90" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" s="0" t="s">
+      <c r="D90" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L90" s="0" t="s">
+      <c r="H90" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="I90" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="M90" s="18" t="n">
+      <c r="M90" s="24" t="n">
         <v>41359.6074497338</v>
       </c>
-      <c r="N90" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="O90" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P90" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q90" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R90" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S90" s="18" t="n">
+      <c r="N90" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="O90" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P90" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q90" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R90" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" s="24" t="n">
         <v>41359.6303167014</v>
       </c>
-      <c r="T90" s="0"/>
-      <c r="AJ90" s="0"/>
-      <c r="AK90" s="0"/>
-      <c r="AL90" s="0"/>
-      <c r="AM90" s="0"/>
-      <c r="AN90" s="0"/>
-      <c r="AO90" s="0"/>
-      <c r="AP90" s="0"/>
-      <c r="AQ90" s="0"/>
-      <c r="AR90" s="0"/>
-      <c r="AS90" s="0"/>
-      <c r="AT90" s="0"/>
-      <c r="AU90" s="0"/>
-      <c r="AV90" s="0"/>
-      <c r="AW90" s="0"/>
-      <c r="AX90" s="0"/>
-      <c r="AY90" s="0"/>
-      <c r="AZ90" s="0"/>
-      <c r="BA90" s="0"/>
-      <c r="BB90" s="0"/>
-      <c r="BC90" s="0"/>
-      <c r="BD90" s="0"/>
-      <c r="BE90" s="0"/>
-      <c r="BF90" s="0"/>
-      <c r="BG90" s="0"/>
-      <c r="BH90" s="0"/>
-      <c r="BI90" s="0"/>
-      <c r="BJ90" s="0"/>
-      <c r="BK90" s="0"/>
-      <c r="BL90" s="0"/>
-      <c r="BM90" s="0"/>
-      <c r="BN90" s="0"/>
-      <c r="BO90" s="0"/>
-      <c r="BP90" s="0"/>
-      <c r="BQ90" s="0"/>
-      <c r="BR90" s="0"/>
-      <c r="BS90" s="0"/>
-      <c r="BT90" s="0"/>
-      <c r="BU90" s="0"/>
-      <c r="BV90" s="0"/>
-      <c r="BW90" s="0"/>
-      <c r="BX90" s="0"/>
-      <c r="BY90" s="0"/>
-      <c r="BZ90" s="0"/>
-      <c r="CA90" s="0"/>
-      <c r="CB90" s="0"/>
-      <c r="CC90" s="0"/>
-      <c r="CD90" s="0"/>
-      <c r="CE90" s="0"/>
-      <c r="CF90" s="0"/>
-      <c r="CG90" s="0"/>
-      <c r="CH90" s="0"/>
-      <c r="CI90" s="0"/>
-      <c r="CJ90" s="0"/>
-      <c r="CK90" s="0"/>
-      <c r="CL90" s="0"/>
-      <c r="CM90" s="0"/>
-      <c r="CN90" s="0"/>
-      <c r="CO90" s="0"/>
-      <c r="CP90" s="0"/>
-      <c r="CQ90" s="0"/>
-      <c r="CR90" s="0"/>
-      <c r="CS90" s="0"/>
-      <c r="CT90" s="0"/>
-      <c r="CU90" s="0"/>
-      <c r="CV90" s="0"/>
-      <c r="CW90" s="0"/>
-      <c r="CX90" s="0"/>
-      <c r="CY90" s="0"/>
-      <c r="CZ90" s="0"/>
-      <c r="DA90" s="0"/>
-      <c r="DB90" s="0"/>
-      <c r="DC90" s="0"/>
-      <c r="DD90" s="0"/>
-      <c r="DE90" s="0"/>
-      <c r="DF90" s="0"/>
-      <c r="DG90" s="0"/>
-      <c r="DH90" s="0"/>
-      <c r="DI90" s="0"/>
-      <c r="DJ90" s="0"/>
-      <c r="DK90" s="0"/>
-      <c r="DL90" s="0"/>
-      <c r="DM90" s="0"/>
-      <c r="DN90" s="0"/>
-      <c r="DO90" s="0"/>
-      <c r="DP90" s="0"/>
-      <c r="DQ90" s="0"/>
-      <c r="DR90" s="0"/>
-      <c r="DS90" s="0"/>
-      <c r="DT90" s="0"/>
-      <c r="DU90" s="0"/>
-      <c r="DV90" s="0"/>
-      <c r="DW90" s="0"/>
-      <c r="DX90" s="0"/>
-      <c r="DY90" s="0"/>
-      <c r="DZ90" s="0"/>
-      <c r="EA90" s="0"/>
-      <c r="EB90" s="0"/>
-      <c r="EC90" s="0"/>
-      <c r="ED90" s="0"/>
-      <c r="EE90" s="0"/>
-      <c r="EF90" s="0"/>
-      <c r="EG90" s="0"/>
-      <c r="EH90" s="0"/>
-      <c r="EI90" s="0"/>
-      <c r="EJ90" s="0"/>
-      <c r="EK90" s="0"/>
-      <c r="EL90" s="0"/>
-      <c r="EM90" s="0"/>
-      <c r="EN90" s="0"/>
-      <c r="EO90" s="0"/>
-      <c r="EP90" s="0"/>
-      <c r="EQ90" s="0"/>
-      <c r="ER90" s="0"/>
-      <c r="ES90" s="0"/>
-      <c r="ET90" s="0"/>
-      <c r="EU90" s="0"/>
-      <c r="EV90" s="0"/>
-      <c r="EW90" s="0"/>
-      <c r="EX90" s="0"/>
-      <c r="EY90" s="0"/>
-      <c r="EZ90" s="0"/>
-      <c r="FA90" s="0"/>
-      <c r="FB90" s="0"/>
-      <c r="FC90" s="0"/>
-      <c r="FD90" s="0"/>
-      <c r="FE90" s="0"/>
-      <c r="FF90" s="0"/>
-      <c r="FG90" s="0"/>
-      <c r="FH90" s="0"/>
-      <c r="FI90" s="0"/>
-      <c r="FJ90" s="0"/>
-      <c r="FK90" s="0"/>
-      <c r="FL90" s="0"/>
-      <c r="FM90" s="0"/>
-      <c r="FN90" s="0"/>
-      <c r="FO90" s="0"/>
-      <c r="FP90" s="0"/>
-      <c r="FQ90" s="0"/>
-      <c r="FR90" s="0"/>
-      <c r="FS90" s="0"/>
-      <c r="FT90" s="0"/>
-      <c r="FU90" s="0"/>
-      <c r="FV90" s="0"/>
-      <c r="FW90" s="0"/>
-      <c r="FX90" s="0"/>
-      <c r="FY90" s="0"/>
-      <c r="FZ90" s="0"/>
-      <c r="GA90" s="0"/>
-      <c r="GB90" s="0"/>
-      <c r="GC90" s="0"/>
-      <c r="GD90" s="0"/>
-      <c r="GE90" s="0"/>
-      <c r="GF90" s="0"/>
-      <c r="GG90" s="0"/>
-      <c r="GH90" s="0"/>
-      <c r="GI90" s="0"/>
-      <c r="GJ90" s="0"/>
-      <c r="GK90" s="0"/>
-      <c r="GL90" s="0"/>
-      <c r="GM90" s="0"/>
-      <c r="GN90" s="0"/>
-      <c r="GO90" s="0"/>
-      <c r="GP90" s="0"/>
-      <c r="GQ90" s="0"/>
-      <c r="GR90" s="0"/>
-      <c r="GS90" s="0"/>
-      <c r="GT90" s="0"/>
-      <c r="GU90" s="0"/>
-      <c r="GV90" s="0"/>
-      <c r="GW90" s="0"/>
-      <c r="GX90" s="0"/>
-      <c r="GY90" s="0"/>
-      <c r="GZ90" s="0"/>
-      <c r="HA90" s="0"/>
-      <c r="HB90" s="0"/>
-      <c r="HC90" s="0"/>
-      <c r="HD90" s="0"/>
-      <c r="HE90" s="0"/>
-      <c r="HF90" s="0"/>
-      <c r="HG90" s="0"/>
-      <c r="HH90" s="0"/>
-      <c r="HI90" s="0"/>
-      <c r="HJ90" s="0"/>
-      <c r="HK90" s="0"/>
-      <c r="HL90" s="0"/>
-      <c r="HM90" s="0"/>
-      <c r="HN90" s="0"/>
-      <c r="HO90" s="0"/>
-      <c r="HP90" s="0"/>
-      <c r="HQ90" s="0"/>
-      <c r="HR90" s="0"/>
-      <c r="HS90" s="0"/>
-      <c r="HT90" s="0"/>
-      <c r="HU90" s="0"/>
-      <c r="HV90" s="0"/>
-      <c r="HW90" s="0"/>
-      <c r="HX90" s="0"/>
-      <c r="HY90" s="0"/>
-      <c r="HZ90" s="0"/>
-      <c r="IA90" s="0"/>
-      <c r="IB90" s="0"/>
-      <c r="IC90" s="0"/>
-      <c r="ID90" s="0"/>
-      <c r="IE90" s="0"/>
-      <c r="IF90" s="0"/>
-      <c r="IG90" s="0"/>
-      <c r="IH90" s="0"/>
-      <c r="II90" s="0"/>
-      <c r="IJ90" s="0"/>
-      <c r="IK90" s="0"/>
-      <c r="IL90" s="0"/>
-      <c r="IM90" s="0"/>
-      <c r="IN90" s="0"/>
-      <c r="IO90" s="0"/>
-      <c r="IP90" s="0"/>
-      <c r="IQ90" s="0"/>
-      <c r="IR90" s="0"/>
-      <c r="IS90" s="0"/>
-      <c r="IT90" s="0"/>
-      <c r="IU90" s="0"/>
-      <c r="IV90" s="0"/>
-      <c r="IW90" s="0"/>
-      <c r="IX90" s="0"/>
-      <c r="IY90" s="0"/>
-      <c r="IZ90" s="0"/>
-      <c r="JA90" s="0"/>
-      <c r="JB90" s="0"/>
-      <c r="JC90" s="0"/>
-      <c r="JD90" s="0"/>
-      <c r="JE90" s="0"/>
-      <c r="JF90" s="0"/>
-      <c r="JG90" s="0"/>
-      <c r="JH90" s="0"/>
-      <c r="JI90" s="0"/>
-      <c r="JJ90" s="0"/>
-      <c r="JK90" s="0"/>
-      <c r="JL90" s="0"/>
-      <c r="JM90" s="0"/>
-      <c r="JN90" s="0"/>
-      <c r="JO90" s="0"/>
-      <c r="JP90" s="0"/>
-      <c r="JQ90" s="0"/>
-      <c r="JR90" s="0"/>
-      <c r="JS90" s="0"/>
-      <c r="JT90" s="0"/>
-      <c r="JU90" s="0"/>
-      <c r="JV90" s="0"/>
-      <c r="JW90" s="0"/>
-      <c r="JX90" s="0"/>
-      <c r="JY90" s="0"/>
-      <c r="JZ90" s="0"/>
-      <c r="KA90" s="0"/>
-      <c r="KB90" s="0"/>
-      <c r="KC90" s="0"/>
-      <c r="KD90" s="0"/>
-      <c r="KE90" s="0"/>
-      <c r="KF90" s="0"/>
-      <c r="KG90" s="0"/>
-      <c r="KH90" s="0"/>
-      <c r="KI90" s="0"/>
-      <c r="KJ90" s="0"/>
-      <c r="KK90" s="0"/>
-      <c r="KL90" s="0"/>
-      <c r="KM90" s="0"/>
-      <c r="KN90" s="0"/>
-      <c r="KO90" s="0"/>
-      <c r="KP90" s="0"/>
-      <c r="KQ90" s="0"/>
-      <c r="KR90" s="0"/>
-      <c r="KS90" s="0"/>
-      <c r="KT90" s="0"/>
-      <c r="KU90" s="0"/>
-      <c r="KV90" s="0"/>
-      <c r="KW90" s="0"/>
-      <c r="KX90" s="0"/>
-      <c r="KY90" s="0"/>
-      <c r="KZ90" s="0"/>
-      <c r="LA90" s="0"/>
-      <c r="LB90" s="0"/>
-      <c r="LC90" s="0"/>
-      <c r="LD90" s="0"/>
-      <c r="LE90" s="0"/>
-      <c r="LF90" s="0"/>
-      <c r="LG90" s="0"/>
-      <c r="LH90" s="0"/>
-      <c r="LI90" s="0"/>
-      <c r="LJ90" s="0"/>
-      <c r="LK90" s="0"/>
-      <c r="LL90" s="0"/>
-      <c r="LM90" s="0"/>
-      <c r="LN90" s="0"/>
-      <c r="LO90" s="0"/>
-      <c r="LP90" s="0"/>
-      <c r="LQ90" s="0"/>
-      <c r="LR90" s="0"/>
-      <c r="LS90" s="0"/>
-      <c r="LT90" s="0"/>
-      <c r="LU90" s="0"/>
-      <c r="LV90" s="0"/>
-      <c r="LW90" s="0"/>
-      <c r="LX90" s="0"/>
-      <c r="LY90" s="0"/>
-      <c r="LZ90" s="0"/>
-      <c r="MA90" s="0"/>
-      <c r="MB90" s="0"/>
-      <c r="MC90" s="0"/>
-      <c r="MD90" s="0"/>
-      <c r="ME90" s="0"/>
-      <c r="MF90" s="0"/>
-      <c r="MG90" s="0"/>
-      <c r="MH90" s="0"/>
-      <c r="MI90" s="0"/>
-      <c r="MJ90" s="0"/>
-      <c r="MK90" s="0"/>
-      <c r="ML90" s="0"/>
-      <c r="MM90" s="0"/>
-      <c r="MN90" s="0"/>
-      <c r="MO90" s="0"/>
-      <c r="MP90" s="0"/>
-      <c r="MQ90" s="0"/>
-      <c r="MR90" s="0"/>
-      <c r="MS90" s="0"/>
-      <c r="MT90" s="0"/>
-      <c r="MU90" s="0"/>
-      <c r="MV90" s="0"/>
-      <c r="MW90" s="0"/>
-      <c r="MX90" s="0"/>
-      <c r="MY90" s="0"/>
-      <c r="MZ90" s="0"/>
-      <c r="NA90" s="0"/>
-      <c r="NB90" s="0"/>
-      <c r="NC90" s="0"/>
-      <c r="ND90" s="0"/>
-      <c r="NE90" s="0"/>
-      <c r="NF90" s="0"/>
-      <c r="NG90" s="0"/>
-      <c r="NH90" s="0"/>
-      <c r="NI90" s="0"/>
-      <c r="NJ90" s="0"/>
-      <c r="NK90" s="0"/>
-      <c r="NL90" s="0"/>
-      <c r="NM90" s="0"/>
-      <c r="NN90" s="0"/>
-      <c r="NO90" s="0"/>
-      <c r="NP90" s="0"/>
-      <c r="NQ90" s="0"/>
-      <c r="NR90" s="0"/>
-      <c r="NS90" s="0"/>
-      <c r="NT90" s="0"/>
-      <c r="NU90" s="0"/>
-      <c r="NV90" s="0"/>
-      <c r="NW90" s="0"/>
-      <c r="NX90" s="0"/>
-      <c r="NY90" s="0"/>
-      <c r="NZ90" s="0"/>
-      <c r="OA90" s="0"/>
-      <c r="OB90" s="0"/>
-      <c r="OC90" s="0"/>
-      <c r="OD90" s="0"/>
-      <c r="OE90" s="0"/>
-      <c r="OF90" s="0"/>
-      <c r="OG90" s="0"/>
-      <c r="OH90" s="0"/>
-      <c r="OI90" s="0"/>
-      <c r="OJ90" s="0"/>
-      <c r="OK90" s="0"/>
-      <c r="OL90" s="0"/>
-      <c r="OM90" s="0"/>
-      <c r="ON90" s="0"/>
-      <c r="OO90" s="0"/>
-      <c r="OP90" s="0"/>
-      <c r="OQ90" s="0"/>
-      <c r="OR90" s="0"/>
-      <c r="OS90" s="0"/>
-      <c r="OT90" s="0"/>
-      <c r="OU90" s="0"/>
-      <c r="OV90" s="0"/>
-      <c r="OW90" s="0"/>
-      <c r="OX90" s="0"/>
-      <c r="OY90" s="0"/>
-      <c r="OZ90" s="0"/>
-      <c r="PA90" s="0"/>
-      <c r="PB90" s="0"/>
-      <c r="PC90" s="0"/>
-      <c r="PD90" s="0"/>
-      <c r="PE90" s="0"/>
-      <c r="PF90" s="0"/>
-      <c r="PG90" s="0"/>
-      <c r="PH90" s="0"/>
-      <c r="PI90" s="0"/>
-      <c r="PJ90" s="0"/>
-      <c r="PK90" s="0"/>
-      <c r="PL90" s="0"/>
-      <c r="PM90" s="0"/>
-      <c r="PN90" s="0"/>
-      <c r="PO90" s="0"/>
-      <c r="PP90" s="0"/>
-      <c r="PQ90" s="0"/>
-      <c r="PR90" s="0"/>
-      <c r="PS90" s="0"/>
-      <c r="PT90" s="0"/>
-      <c r="PU90" s="0"/>
-      <c r="PV90" s="0"/>
-      <c r="PW90" s="0"/>
-      <c r="PX90" s="0"/>
-      <c r="PY90" s="0"/>
-      <c r="PZ90" s="0"/>
-      <c r="QA90" s="0"/>
-      <c r="QB90" s="0"/>
-      <c r="QC90" s="0"/>
-      <c r="QD90" s="0"/>
-      <c r="QE90" s="0"/>
-      <c r="QF90" s="0"/>
-      <c r="QG90" s="0"/>
-      <c r="QH90" s="0"/>
-      <c r="QI90" s="0"/>
-      <c r="QJ90" s="0"/>
-      <c r="QK90" s="0"/>
-      <c r="QL90" s="0"/>
-      <c r="QM90" s="0"/>
-      <c r="QN90" s="0"/>
-      <c r="QO90" s="0"/>
-      <c r="QP90" s="0"/>
-      <c r="QQ90" s="0"/>
-      <c r="QR90" s="0"/>
-      <c r="QS90" s="0"/>
-      <c r="QT90" s="0"/>
-      <c r="QU90" s="0"/>
-      <c r="QV90" s="0"/>
-      <c r="QW90" s="0"/>
-      <c r="QX90" s="0"/>
-      <c r="QY90" s="0"/>
-      <c r="QZ90" s="0"/>
-      <c r="RA90" s="0"/>
-      <c r="RB90" s="0"/>
-      <c r="RC90" s="0"/>
-      <c r="RD90" s="0"/>
-      <c r="RE90" s="0"/>
-      <c r="RF90" s="0"/>
-      <c r="RG90" s="0"/>
-      <c r="RH90" s="0"/>
-      <c r="RI90" s="0"/>
-      <c r="RJ90" s="0"/>
-      <c r="RK90" s="0"/>
-      <c r="RL90" s="0"/>
-      <c r="RM90" s="0"/>
-      <c r="RN90" s="0"/>
-      <c r="RO90" s="0"/>
-      <c r="RP90" s="0"/>
-      <c r="RQ90" s="0"/>
-      <c r="RR90" s="0"/>
-      <c r="RS90" s="0"/>
-      <c r="RT90" s="0"/>
-      <c r="RU90" s="0"/>
-      <c r="RV90" s="0"/>
-      <c r="RW90" s="0"/>
-      <c r="RX90" s="0"/>
-      <c r="RY90" s="0"/>
-      <c r="RZ90" s="0"/>
-      <c r="SA90" s="0"/>
-      <c r="SB90" s="0"/>
-      <c r="SC90" s="0"/>
-      <c r="SD90" s="0"/>
-      <c r="SE90" s="0"/>
-      <c r="SF90" s="0"/>
-      <c r="SG90" s="0"/>
-      <c r="SH90" s="0"/>
-      <c r="SI90" s="0"/>
-      <c r="SJ90" s="0"/>
-      <c r="SK90" s="0"/>
-      <c r="SL90" s="0"/>
-      <c r="SM90" s="0"/>
-      <c r="SN90" s="0"/>
-      <c r="SO90" s="0"/>
-      <c r="SP90" s="0"/>
-      <c r="SQ90" s="0"/>
-      <c r="SR90" s="0"/>
-      <c r="SS90" s="0"/>
-      <c r="ST90" s="0"/>
-      <c r="SU90" s="0"/>
-      <c r="SV90" s="0"/>
-      <c r="SW90" s="0"/>
-      <c r="SX90" s="0"/>
-      <c r="SY90" s="0"/>
-      <c r="SZ90" s="0"/>
-      <c r="TA90" s="0"/>
-      <c r="TB90" s="0"/>
-      <c r="TC90" s="0"/>
-      <c r="TD90" s="0"/>
-      <c r="TE90" s="0"/>
-      <c r="TF90" s="0"/>
-      <c r="TG90" s="0"/>
-      <c r="TH90" s="0"/>
-      <c r="TI90" s="0"/>
-      <c r="TJ90" s="0"/>
-      <c r="TK90" s="0"/>
-      <c r="TL90" s="0"/>
-      <c r="TM90" s="0"/>
-      <c r="TN90" s="0"/>
-      <c r="TO90" s="0"/>
-      <c r="TP90" s="0"/>
-      <c r="TQ90" s="0"/>
-      <c r="TR90" s="0"/>
-      <c r="TS90" s="0"/>
-      <c r="TT90" s="0"/>
-      <c r="TU90" s="0"/>
-      <c r="TV90" s="0"/>
-      <c r="TW90" s="0"/>
-      <c r="TX90" s="0"/>
-      <c r="TY90" s="0"/>
-      <c r="TZ90" s="0"/>
-      <c r="UA90" s="0"/>
-      <c r="UB90" s="0"/>
-      <c r="UC90" s="0"/>
-      <c r="UD90" s="0"/>
-      <c r="UE90" s="0"/>
-      <c r="UF90" s="0"/>
-      <c r="UG90" s="0"/>
-      <c r="UH90" s="0"/>
-      <c r="UI90" s="0"/>
-      <c r="UJ90" s="0"/>
-      <c r="UK90" s="0"/>
-      <c r="UL90" s="0"/>
-      <c r="UM90" s="0"/>
-      <c r="UN90" s="0"/>
-      <c r="UO90" s="0"/>
-      <c r="UP90" s="0"/>
-      <c r="UQ90" s="0"/>
-      <c r="UR90" s="0"/>
-      <c r="US90" s="0"/>
-      <c r="UT90" s="0"/>
-      <c r="UU90" s="0"/>
-      <c r="UV90" s="0"/>
-      <c r="UW90" s="0"/>
-      <c r="UX90" s="0"/>
-      <c r="UY90" s="0"/>
-      <c r="UZ90" s="0"/>
-      <c r="VA90" s="0"/>
-      <c r="VB90" s="0"/>
-      <c r="VC90" s="0"/>
-      <c r="VD90" s="0"/>
-      <c r="VE90" s="0"/>
-      <c r="VF90" s="0"/>
-      <c r="VG90" s="0"/>
-      <c r="VH90" s="0"/>
-      <c r="VI90" s="0"/>
-      <c r="VJ90" s="0"/>
-      <c r="VK90" s="0"/>
-      <c r="VL90" s="0"/>
-      <c r="VM90" s="0"/>
-      <c r="VN90" s="0"/>
-      <c r="VO90" s="0"/>
-      <c r="VP90" s="0"/>
-      <c r="VQ90" s="0"/>
-      <c r="VR90" s="0"/>
-      <c r="VS90" s="0"/>
-      <c r="VT90" s="0"/>
-      <c r="VU90" s="0"/>
-      <c r="VV90" s="0"/>
-      <c r="VW90" s="0"/>
-      <c r="VX90" s="0"/>
-      <c r="VY90" s="0"/>
-      <c r="VZ90" s="0"/>
-      <c r="WA90" s="0"/>
-      <c r="WB90" s="0"/>
-      <c r="WC90" s="0"/>
-      <c r="WD90" s="0"/>
-      <c r="WE90" s="0"/>
-      <c r="WF90" s="0"/>
-      <c r="WG90" s="0"/>
-      <c r="WH90" s="0"/>
-      <c r="WI90" s="0"/>
-      <c r="WJ90" s="0"/>
-      <c r="WK90" s="0"/>
-      <c r="WL90" s="0"/>
-      <c r="WM90" s="0"/>
-      <c r="WN90" s="0"/>
-      <c r="WO90" s="0"/>
-      <c r="WP90" s="0"/>
-      <c r="WQ90" s="0"/>
-      <c r="WR90" s="0"/>
-      <c r="WS90" s="0"/>
-      <c r="WT90" s="0"/>
-      <c r="WU90" s="0"/>
-      <c r="WV90" s="0"/>
-      <c r="WW90" s="0"/>
-      <c r="WX90" s="0"/>
-      <c r="WY90" s="0"/>
-      <c r="WZ90" s="0"/>
-      <c r="XA90" s="0"/>
-      <c r="XB90" s="0"/>
-      <c r="XC90" s="0"/>
-      <c r="XD90" s="0"/>
-      <c r="XE90" s="0"/>
-      <c r="XF90" s="0"/>
-      <c r="XG90" s="0"/>
-      <c r="XH90" s="0"/>
-      <c r="XI90" s="0"/>
-      <c r="XJ90" s="0"/>
-      <c r="XK90" s="0"/>
-      <c r="XL90" s="0"/>
-      <c r="XM90" s="0"/>
-      <c r="XN90" s="0"/>
-      <c r="XO90" s="0"/>
-      <c r="XP90" s="0"/>
-      <c r="XQ90" s="0"/>
-      <c r="XR90" s="0"/>
-      <c r="XS90" s="0"/>
-      <c r="XT90" s="0"/>
-      <c r="XU90" s="0"/>
-      <c r="XV90" s="0"/>
-      <c r="XW90" s="0"/>
-      <c r="XX90" s="0"/>
-      <c r="XY90" s="0"/>
-      <c r="XZ90" s="0"/>
-      <c r="YA90" s="0"/>
-      <c r="YB90" s="0"/>
-      <c r="YC90" s="0"/>
-      <c r="YD90" s="0"/>
-      <c r="YE90" s="0"/>
-      <c r="YF90" s="0"/>
-      <c r="YG90" s="0"/>
-      <c r="YH90" s="0"/>
-      <c r="YI90" s="0"/>
-      <c r="YJ90" s="0"/>
-      <c r="YK90" s="0"/>
-      <c r="YL90" s="0"/>
-      <c r="YM90" s="0"/>
-      <c r="YN90" s="0"/>
-      <c r="YO90" s="0"/>
-      <c r="YP90" s="0"/>
-      <c r="YQ90" s="0"/>
-      <c r="YR90" s="0"/>
-      <c r="YS90" s="0"/>
-      <c r="YT90" s="0"/>
-      <c r="YU90" s="0"/>
-      <c r="YV90" s="0"/>
-      <c r="YW90" s="0"/>
-      <c r="YX90" s="0"/>
-      <c r="YY90" s="0"/>
-      <c r="YZ90" s="0"/>
-      <c r="ZA90" s="0"/>
-      <c r="ZB90" s="0"/>
-      <c r="ZC90" s="0"/>
-      <c r="ZD90" s="0"/>
-      <c r="ZE90" s="0"/>
-      <c r="ZF90" s="0"/>
-      <c r="ZG90" s="0"/>
-      <c r="ZH90" s="0"/>
-      <c r="ZI90" s="0"/>
-      <c r="ZJ90" s="0"/>
-      <c r="ZK90" s="0"/>
-      <c r="ZL90" s="0"/>
-      <c r="ZM90" s="0"/>
-      <c r="ZN90" s="0"/>
-      <c r="ZO90" s="0"/>
-      <c r="ZP90" s="0"/>
-      <c r="ZQ90" s="0"/>
-      <c r="ZR90" s="0"/>
-      <c r="ZS90" s="0"/>
-      <c r="ZT90" s="0"/>
-      <c r="ZU90" s="0"/>
-      <c r="ZV90" s="0"/>
-      <c r="ZW90" s="0"/>
-      <c r="ZX90" s="0"/>
-      <c r="ZY90" s="0"/>
-      <c r="ZZ90" s="0"/>
-      <c r="AAA90" s="0"/>
-      <c r="AAB90" s="0"/>
-      <c r="AAC90" s="0"/>
-      <c r="AAD90" s="0"/>
-      <c r="AAE90" s="0"/>
-      <c r="AAF90" s="0"/>
-      <c r="AAG90" s="0"/>
-      <c r="AAH90" s="0"/>
-      <c r="AAI90" s="0"/>
-      <c r="AAJ90" s="0"/>
-      <c r="AAK90" s="0"/>
-      <c r="AAL90" s="0"/>
-      <c r="AAM90" s="0"/>
-      <c r="AAN90" s="0"/>
-      <c r="AAO90" s="0"/>
-      <c r="AAP90" s="0"/>
-      <c r="AAQ90" s="0"/>
-      <c r="AAR90" s="0"/>
-      <c r="AAS90" s="0"/>
-      <c r="AAT90" s="0"/>
-      <c r="AAU90" s="0"/>
-      <c r="AAV90" s="0"/>
-      <c r="AAW90" s="0"/>
-      <c r="AAX90" s="0"/>
-      <c r="AAY90" s="0"/>
-      <c r="AAZ90" s="0"/>
-      <c r="ABA90" s="0"/>
-      <c r="ABB90" s="0"/>
-      <c r="ABC90" s="0"/>
-      <c r="ABD90" s="0"/>
-      <c r="ABE90" s="0"/>
-      <c r="ABF90" s="0"/>
-      <c r="ABG90" s="0"/>
-      <c r="ABH90" s="0"/>
-      <c r="ABI90" s="0"/>
-      <c r="ABJ90" s="0"/>
-      <c r="ABK90" s="0"/>
-      <c r="ABL90" s="0"/>
-      <c r="ABM90" s="0"/>
-      <c r="ABN90" s="0"/>
-      <c r="ABO90" s="0"/>
-      <c r="ABP90" s="0"/>
-      <c r="ABQ90" s="0"/>
-      <c r="ABR90" s="0"/>
-      <c r="ABS90" s="0"/>
-      <c r="ABT90" s="0"/>
-      <c r="ABU90" s="0"/>
-      <c r="ABV90" s="0"/>
-      <c r="ABW90" s="0"/>
-      <c r="ABX90" s="0"/>
-      <c r="ABY90" s="0"/>
-      <c r="ABZ90" s="0"/>
-      <c r="ACA90" s="0"/>
-      <c r="ACB90" s="0"/>
-      <c r="ACC90" s="0"/>
-      <c r="ACD90" s="0"/>
-      <c r="ACE90" s="0"/>
-      <c r="ACF90" s="0"/>
-      <c r="ACG90" s="0"/>
-      <c r="ACH90" s="0"/>
-      <c r="ACI90" s="0"/>
-      <c r="ACJ90" s="0"/>
-      <c r="ACK90" s="0"/>
-      <c r="ACL90" s="0"/>
-      <c r="ACM90" s="0"/>
-      <c r="ACN90" s="0"/>
-      <c r="ACO90" s="0"/>
-      <c r="ACP90" s="0"/>
-      <c r="ACQ90" s="0"/>
-      <c r="ACR90" s="0"/>
-      <c r="ACS90" s="0"/>
-      <c r="ACT90" s="0"/>
-      <c r="ACU90" s="0"/>
-      <c r="ACV90" s="0"/>
-      <c r="ACW90" s="0"/>
-      <c r="ACX90" s="0"/>
-      <c r="ACY90" s="0"/>
-      <c r="ACZ90" s="0"/>
-      <c r="ADA90" s="0"/>
-      <c r="ADB90" s="0"/>
-      <c r="ADC90" s="0"/>
-      <c r="ADD90" s="0"/>
-      <c r="ADE90" s="0"/>
-      <c r="ADF90" s="0"/>
-      <c r="ADG90" s="0"/>
-      <c r="ADH90" s="0"/>
-      <c r="ADI90" s="0"/>
-      <c r="ADJ90" s="0"/>
-      <c r="ADK90" s="0"/>
-      <c r="ADL90" s="0"/>
-      <c r="ADM90" s="0"/>
-      <c r="ADN90" s="0"/>
-      <c r="ADO90" s="0"/>
-      <c r="ADP90" s="0"/>
-      <c r="ADQ90" s="0"/>
-      <c r="ADR90" s="0"/>
-      <c r="ADS90" s="0"/>
-      <c r="ADT90" s="0"/>
-      <c r="ADU90" s="0"/>
-      <c r="ADV90" s="0"/>
-      <c r="ADW90" s="0"/>
-      <c r="ADX90" s="0"/>
-      <c r="ADY90" s="0"/>
-      <c r="ADZ90" s="0"/>
-      <c r="AEA90" s="0"/>
-      <c r="AEB90" s="0"/>
-      <c r="AEC90" s="0"/>
-      <c r="AED90" s="0"/>
-      <c r="AEE90" s="0"/>
-      <c r="AEF90" s="0"/>
-      <c r="AEG90" s="0"/>
-      <c r="AEH90" s="0"/>
-      <c r="AEI90" s="0"/>
-      <c r="AEJ90" s="0"/>
-      <c r="AEK90" s="0"/>
-      <c r="AEL90" s="0"/>
-      <c r="AEM90" s="0"/>
-      <c r="AEN90" s="0"/>
-      <c r="AEO90" s="0"/>
-      <c r="AEP90" s="0"/>
-      <c r="AEQ90" s="0"/>
-      <c r="AER90" s="0"/>
-      <c r="AES90" s="0"/>
-      <c r="AET90" s="0"/>
-      <c r="AEU90" s="0"/>
-      <c r="AEV90" s="0"/>
-      <c r="AEW90" s="0"/>
-      <c r="AEX90" s="0"/>
-      <c r="AEY90" s="0"/>
-      <c r="AEZ90" s="0"/>
-      <c r="AFA90" s="0"/>
-      <c r="AFB90" s="0"/>
-      <c r="AFC90" s="0"/>
-      <c r="AFD90" s="0"/>
-      <c r="AFE90" s="0"/>
-      <c r="AFF90" s="0"/>
-      <c r="AFG90" s="0"/>
-      <c r="AFH90" s="0"/>
-      <c r="AFI90" s="0"/>
-      <c r="AFJ90" s="0"/>
-      <c r="AFK90" s="0"/>
-      <c r="AFL90" s="0"/>
-      <c r="AFM90" s="0"/>
-      <c r="AFN90" s="0"/>
-      <c r="AFO90" s="0"/>
-      <c r="AFP90" s="0"/>
-      <c r="AFQ90" s="0"/>
-      <c r="AFR90" s="0"/>
-      <c r="AFS90" s="0"/>
-      <c r="AFT90" s="0"/>
-      <c r="AFU90" s="0"/>
-      <c r="AFV90" s="0"/>
-      <c r="AFW90" s="0"/>
-      <c r="AFX90" s="0"/>
-      <c r="AFY90" s="0"/>
-      <c r="AFZ90" s="0"/>
-      <c r="AGA90" s="0"/>
-      <c r="AGB90" s="0"/>
-      <c r="AGC90" s="0"/>
-      <c r="AGD90" s="0"/>
-      <c r="AGE90" s="0"/>
-      <c r="AGF90" s="0"/>
-      <c r="AGG90" s="0"/>
-      <c r="AGH90" s="0"/>
-      <c r="AGI90" s="0"/>
-      <c r="AGJ90" s="0"/>
-      <c r="AGK90" s="0"/>
-      <c r="AGL90" s="0"/>
-      <c r="AGM90" s="0"/>
-      <c r="AGN90" s="0"/>
-      <c r="AGO90" s="0"/>
-      <c r="AGP90" s="0"/>
-      <c r="AGQ90" s="0"/>
-      <c r="AGR90" s="0"/>
-      <c r="AGS90" s="0"/>
-      <c r="AGT90" s="0"/>
-      <c r="AGU90" s="0"/>
-      <c r="AGV90" s="0"/>
-      <c r="AGW90" s="0"/>
-      <c r="AGX90" s="0"/>
-      <c r="AGY90" s="0"/>
-      <c r="AGZ90" s="0"/>
-      <c r="AHA90" s="0"/>
-      <c r="AHB90" s="0"/>
-      <c r="AHC90" s="0"/>
-      <c r="AHD90" s="0"/>
-      <c r="AHE90" s="0"/>
-      <c r="AHF90" s="0"/>
-      <c r="AHG90" s="0"/>
-      <c r="AHH90" s="0"/>
-      <c r="AHI90" s="0"/>
-      <c r="AHJ90" s="0"/>
-      <c r="AHK90" s="0"/>
-      <c r="AHL90" s="0"/>
-      <c r="AHM90" s="0"/>
-      <c r="AHN90" s="0"/>
-      <c r="AHO90" s="0"/>
-      <c r="AHP90" s="0"/>
-      <c r="AHQ90" s="0"/>
-      <c r="AHR90" s="0"/>
-      <c r="AHS90" s="0"/>
-      <c r="AHT90" s="0"/>
-      <c r="AHU90" s="0"/>
-      <c r="AHV90" s="0"/>
-      <c r="AHW90" s="0"/>
-      <c r="AHX90" s="0"/>
-      <c r="AHY90" s="0"/>
-      <c r="AHZ90" s="0"/>
-      <c r="AIA90" s="0"/>
-      <c r="AIB90" s="0"/>
-      <c r="AIC90" s="0"/>
-      <c r="AID90" s="0"/>
-      <c r="AIE90" s="0"/>
-      <c r="AIF90" s="0"/>
-      <c r="AIG90" s="0"/>
-      <c r="AIH90" s="0"/>
-      <c r="AII90" s="0"/>
-      <c r="AIJ90" s="0"/>
-      <c r="AIK90" s="0"/>
-      <c r="AIL90" s="0"/>
-      <c r="AIM90" s="0"/>
-      <c r="AIN90" s="0"/>
-      <c r="AIO90" s="0"/>
-      <c r="AIP90" s="0"/>
-      <c r="AIQ90" s="0"/>
-      <c r="AIR90" s="0"/>
-      <c r="AIS90" s="0"/>
-      <c r="AIT90" s="0"/>
-      <c r="AIU90" s="0"/>
-      <c r="AIV90" s="0"/>
-      <c r="AIW90" s="0"/>
-      <c r="AIX90" s="0"/>
-      <c r="AIY90" s="0"/>
-      <c r="AIZ90" s="0"/>
-      <c r="AJA90" s="0"/>
-      <c r="AJB90" s="0"/>
-      <c r="AJC90" s="0"/>
-      <c r="AJD90" s="0"/>
-      <c r="AJE90" s="0"/>
-      <c r="AJF90" s="0"/>
-      <c r="AJG90" s="0"/>
-      <c r="AJH90" s="0"/>
-      <c r="AJI90" s="0"/>
-      <c r="AJJ90" s="0"/>
-      <c r="AJK90" s="0"/>
-      <c r="AJL90" s="0"/>
-      <c r="AJM90" s="0"/>
-      <c r="AJN90" s="0"/>
-      <c r="AJO90" s="0"/>
-      <c r="AJP90" s="0"/>
-      <c r="AJQ90" s="0"/>
-      <c r="AJR90" s="0"/>
-      <c r="AJS90" s="0"/>
-      <c r="AJT90" s="0"/>
-      <c r="AJU90" s="0"/>
-      <c r="AJV90" s="0"/>
-      <c r="AJW90" s="0"/>
-      <c r="AJX90" s="0"/>
-      <c r="AJY90" s="0"/>
-      <c r="AJZ90" s="0"/>
-      <c r="AKA90" s="0"/>
-      <c r="AKB90" s="0"/>
-      <c r="AKC90" s="0"/>
-      <c r="AKD90" s="0"/>
-      <c r="AKE90" s="0"/>
-      <c r="AKF90" s="0"/>
-      <c r="AKG90" s="0"/>
-      <c r="AKH90" s="0"/>
-      <c r="AKI90" s="0"/>
-      <c r="AKJ90" s="0"/>
-      <c r="AKK90" s="0"/>
-      <c r="AKL90" s="0"/>
-      <c r="AKM90" s="0"/>
-      <c r="AKN90" s="0"/>
-      <c r="AKO90" s="0"/>
-      <c r="AKP90" s="0"/>
-      <c r="AKQ90" s="0"/>
-      <c r="AKR90" s="0"/>
-      <c r="AKS90" s="0"/>
-      <c r="AKT90" s="0"/>
-      <c r="AKU90" s="0"/>
-      <c r="AKV90" s="0"/>
-      <c r="AKW90" s="0"/>
-      <c r="AKX90" s="0"/>
-      <c r="AKY90" s="0"/>
-      <c r="AKZ90" s="0"/>
-      <c r="ALA90" s="0"/>
-      <c r="ALB90" s="0"/>
-      <c r="ALC90" s="0"/>
-      <c r="ALD90" s="0"/>
-      <c r="ALE90" s="0"/>
-      <c r="ALF90" s="0"/>
-      <c r="ALG90" s="0"/>
-      <c r="ALH90" s="0"/>
-      <c r="ALI90" s="0"/>
-      <c r="ALJ90" s="0"/>
-      <c r="ALK90" s="0"/>
-      <c r="ALL90" s="0"/>
-      <c r="ALM90" s="0"/>
-      <c r="ALN90" s="0"/>
-      <c r="ALO90" s="0"/>
-      <c r="ALP90" s="0"/>
-      <c r="ALQ90" s="0"/>
-      <c r="ALR90" s="0"/>
-      <c r="ALS90" s="0"/>
-      <c r="ALT90" s="0"/>
-      <c r="ALU90" s="0"/>
-      <c r="ALV90" s="0"/>
-      <c r="ALW90" s="0"/>
-      <c r="ALX90" s="0"/>
-      <c r="ALY90" s="0"/>
-      <c r="ALZ90" s="0"/>
-      <c r="AMA90" s="0"/>
-      <c r="AMB90" s="0"/>
-      <c r="AMC90" s="0"/>
-      <c r="AMD90" s="0"/>
-      <c r="AME90" s="0"/>
-      <c r="AMF90" s="0"/>
-      <c r="AMG90" s="0"/>
-      <c r="AMH90" s="0"/>
-      <c r="AMI90" s="0"/>
-      <c r="AMJ90" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="91">
-      <c r="A91" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="0" t="n">
+      <c r="T90" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="U90" s="23"/>
+      <c r="V90" s="23"/>
+      <c r="W90" s="23"/>
+      <c r="X90" s="23"/>
+      <c r="Y90" s="23"/>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="23"/>
+      <c r="AD90" s="23"/>
+      <c r="AE90" s="23"/>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="23"/>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="23"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="91" s="15">
+      <c r="A91" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="15" t="n">
         <v>15570</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="15" t="n">
         <v>20120618</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="G91" s="0" t="s">
+      <c r="D91" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G91" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="0" t="s">
+      <c r="H91" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="I91" s="0" t="s">
+      <c r="I91" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J91" s="0" t="s">
+      <c r="J91" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="K91" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="L91" s="0" t="s">
+      <c r="K91" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="L91" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="M91" s="18" t="n">
+      <c r="M91" s="14" t="n">
         <v>41360.3535715278</v>
       </c>
-      <c r="N91" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="O91" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P91" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q91" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R91" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S91" s="18" t="n">
+      <c r="N91" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R91" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" s="14" t="n">
         <v>41368.7920587616</v>
       </c>
-      <c r="T91" s="0"/>
-      <c r="AJ91" s="0"/>
-      <c r="AK91" s="0"/>
-      <c r="AL91" s="0"/>
-      <c r="AM91" s="0"/>
-      <c r="AN91" s="0"/>
-      <c r="AO91" s="0"/>
-      <c r="AP91" s="0"/>
-      <c r="AQ91" s="0"/>
-      <c r="AR91" s="0"/>
-      <c r="AS91" s="0"/>
-      <c r="AT91" s="0"/>
-      <c r="AU91" s="0"/>
-      <c r="AV91" s="0"/>
-      <c r="AW91" s="0"/>
-      <c r="AX91" s="0"/>
-      <c r="AY91" s="0"/>
-      <c r="AZ91" s="0"/>
-      <c r="BA91" s="0"/>
-      <c r="BB91" s="0"/>
-      <c r="BC91" s="0"/>
-      <c r="BD91" s="0"/>
-      <c r="BE91" s="0"/>
-      <c r="BF91" s="0"/>
-      <c r="BG91" s="0"/>
-      <c r="BH91" s="0"/>
-      <c r="BI91" s="0"/>
-      <c r="BJ91" s="0"/>
-      <c r="BK91" s="0"/>
-      <c r="BL91" s="0"/>
-      <c r="BM91" s="0"/>
-      <c r="BN91" s="0"/>
-      <c r="BO91" s="0"/>
-      <c r="BP91" s="0"/>
-      <c r="BQ91" s="0"/>
-      <c r="BR91" s="0"/>
-      <c r="BS91" s="0"/>
-      <c r="BT91" s="0"/>
-      <c r="BU91" s="0"/>
-      <c r="BV91" s="0"/>
-      <c r="BW91" s="0"/>
-      <c r="BX91" s="0"/>
-      <c r="BY91" s="0"/>
-      <c r="BZ91" s="0"/>
-      <c r="CA91" s="0"/>
-      <c r="CB91" s="0"/>
-      <c r="CC91" s="0"/>
-      <c r="CD91" s="0"/>
-      <c r="CE91" s="0"/>
-      <c r="CF91" s="0"/>
-      <c r="CG91" s="0"/>
-      <c r="CH91" s="0"/>
-      <c r="CI91" s="0"/>
-      <c r="CJ91" s="0"/>
-      <c r="CK91" s="0"/>
-      <c r="CL91" s="0"/>
-      <c r="CM91" s="0"/>
-      <c r="CN91" s="0"/>
-      <c r="CO91" s="0"/>
-      <c r="CP91" s="0"/>
-      <c r="CQ91" s="0"/>
-      <c r="CR91" s="0"/>
-      <c r="CS91" s="0"/>
-      <c r="CT91" s="0"/>
-      <c r="CU91" s="0"/>
-      <c r="CV91" s="0"/>
-      <c r="CW91" s="0"/>
-      <c r="CX91" s="0"/>
-      <c r="CY91" s="0"/>
-      <c r="CZ91" s="0"/>
-      <c r="DA91" s="0"/>
-      <c r="DB91" s="0"/>
-      <c r="DC91" s="0"/>
-      <c r="DD91" s="0"/>
-      <c r="DE91" s="0"/>
-      <c r="DF91" s="0"/>
-      <c r="DG91" s="0"/>
-      <c r="DH91" s="0"/>
-      <c r="DI91" s="0"/>
-      <c r="DJ91" s="0"/>
-      <c r="DK91" s="0"/>
-      <c r="DL91" s="0"/>
-      <c r="DM91" s="0"/>
-      <c r="DN91" s="0"/>
-      <c r="DO91" s="0"/>
-      <c r="DP91" s="0"/>
-      <c r="DQ91" s="0"/>
-      <c r="DR91" s="0"/>
-      <c r="DS91" s="0"/>
-      <c r="DT91" s="0"/>
-      <c r="DU91" s="0"/>
-      <c r="DV91" s="0"/>
-      <c r="DW91" s="0"/>
-      <c r="DX91" s="0"/>
-      <c r="DY91" s="0"/>
-      <c r="DZ91" s="0"/>
-      <c r="EA91" s="0"/>
-      <c r="EB91" s="0"/>
-      <c r="EC91" s="0"/>
-      <c r="ED91" s="0"/>
-      <c r="EE91" s="0"/>
-      <c r="EF91" s="0"/>
-      <c r="EG91" s="0"/>
-      <c r="EH91" s="0"/>
-      <c r="EI91" s="0"/>
-      <c r="EJ91" s="0"/>
-      <c r="EK91" s="0"/>
-      <c r="EL91" s="0"/>
-      <c r="EM91" s="0"/>
-      <c r="EN91" s="0"/>
-      <c r="EO91" s="0"/>
-      <c r="EP91" s="0"/>
-      <c r="EQ91" s="0"/>
-      <c r="ER91" s="0"/>
-      <c r="ES91" s="0"/>
-      <c r="ET91" s="0"/>
-      <c r="EU91" s="0"/>
-      <c r="EV91" s="0"/>
-      <c r="EW91" s="0"/>
-      <c r="EX91" s="0"/>
-      <c r="EY91" s="0"/>
-      <c r="EZ91" s="0"/>
-      <c r="FA91" s="0"/>
-      <c r="FB91" s="0"/>
-      <c r="FC91" s="0"/>
-      <c r="FD91" s="0"/>
-      <c r="FE91" s="0"/>
-      <c r="FF91" s="0"/>
-      <c r="FG91" s="0"/>
-      <c r="FH91" s="0"/>
-      <c r="FI91" s="0"/>
-      <c r="FJ91" s="0"/>
-      <c r="FK91" s="0"/>
-      <c r="FL91" s="0"/>
-      <c r="FM91" s="0"/>
-      <c r="FN91" s="0"/>
-      <c r="FO91" s="0"/>
-      <c r="FP91" s="0"/>
-      <c r="FQ91" s="0"/>
-      <c r="FR91" s="0"/>
-      <c r="FS91" s="0"/>
-      <c r="FT91" s="0"/>
-      <c r="FU91" s="0"/>
-      <c r="FV91" s="0"/>
-      <c r="FW91" s="0"/>
-      <c r="FX91" s="0"/>
-      <c r="FY91" s="0"/>
-      <c r="FZ91" s="0"/>
-      <c r="GA91" s="0"/>
-      <c r="GB91" s="0"/>
-      <c r="GC91" s="0"/>
-      <c r="GD91" s="0"/>
-      <c r="GE91" s="0"/>
-      <c r="GF91" s="0"/>
-      <c r="GG91" s="0"/>
-      <c r="GH91" s="0"/>
-      <c r="GI91" s="0"/>
-      <c r="GJ91" s="0"/>
-      <c r="GK91" s="0"/>
-      <c r="GL91" s="0"/>
-      <c r="GM91" s="0"/>
-      <c r="GN91" s="0"/>
-      <c r="GO91" s="0"/>
-      <c r="GP91" s="0"/>
-      <c r="GQ91" s="0"/>
-      <c r="GR91" s="0"/>
-      <c r="GS91" s="0"/>
-      <c r="GT91" s="0"/>
-      <c r="GU91" s="0"/>
-      <c r="GV91" s="0"/>
-      <c r="GW91" s="0"/>
-      <c r="GX91" s="0"/>
-      <c r="GY91" s="0"/>
-      <c r="GZ91" s="0"/>
-      <c r="HA91" s="0"/>
-      <c r="HB91" s="0"/>
-      <c r="HC91" s="0"/>
-      <c r="HD91" s="0"/>
-      <c r="HE91" s="0"/>
-      <c r="HF91" s="0"/>
-      <c r="HG91" s="0"/>
-      <c r="HH91" s="0"/>
-      <c r="HI91" s="0"/>
-      <c r="HJ91" s="0"/>
-      <c r="HK91" s="0"/>
-      <c r="HL91" s="0"/>
-      <c r="HM91" s="0"/>
-      <c r="HN91" s="0"/>
-      <c r="HO91" s="0"/>
-      <c r="HP91" s="0"/>
-      <c r="HQ91" s="0"/>
-      <c r="HR91" s="0"/>
-      <c r="HS91" s="0"/>
-      <c r="HT91" s="0"/>
-      <c r="HU91" s="0"/>
-      <c r="HV91" s="0"/>
-      <c r="HW91" s="0"/>
-      <c r="HX91" s="0"/>
-      <c r="HY91" s="0"/>
-      <c r="HZ91" s="0"/>
-      <c r="IA91" s="0"/>
-      <c r="IB91" s="0"/>
-      <c r="IC91" s="0"/>
-      <c r="ID91" s="0"/>
-      <c r="IE91" s="0"/>
-      <c r="IF91" s="0"/>
-      <c r="IG91" s="0"/>
-      <c r="IH91" s="0"/>
-      <c r="II91" s="0"/>
-      <c r="IJ91" s="0"/>
-      <c r="IK91" s="0"/>
-      <c r="IL91" s="0"/>
-      <c r="IM91" s="0"/>
-      <c r="IN91" s="0"/>
-      <c r="IO91" s="0"/>
-      <c r="IP91" s="0"/>
-      <c r="IQ91" s="0"/>
-      <c r="IR91" s="0"/>
-      <c r="IS91" s="0"/>
-      <c r="IT91" s="0"/>
-      <c r="IU91" s="0"/>
-      <c r="IV91" s="0"/>
-      <c r="IW91" s="0"/>
-      <c r="IX91" s="0"/>
-      <c r="IY91" s="0"/>
-      <c r="IZ91" s="0"/>
-      <c r="JA91" s="0"/>
-      <c r="JB91" s="0"/>
-      <c r="JC91" s="0"/>
-      <c r="JD91" s="0"/>
-      <c r="JE91" s="0"/>
-      <c r="JF91" s="0"/>
-      <c r="JG91" s="0"/>
-      <c r="JH91" s="0"/>
-      <c r="JI91" s="0"/>
-      <c r="JJ91" s="0"/>
-      <c r="JK91" s="0"/>
-      <c r="JL91" s="0"/>
-      <c r="JM91" s="0"/>
-      <c r="JN91" s="0"/>
-      <c r="JO91" s="0"/>
-      <c r="JP91" s="0"/>
-      <c r="JQ91" s="0"/>
-      <c r="JR91" s="0"/>
-      <c r="JS91" s="0"/>
-      <c r="JT91" s="0"/>
-      <c r="JU91" s="0"/>
-      <c r="JV91" s="0"/>
-      <c r="JW91" s="0"/>
-      <c r="JX91" s="0"/>
-      <c r="JY91" s="0"/>
-      <c r="JZ91" s="0"/>
-      <c r="KA91" s="0"/>
-      <c r="KB91" s="0"/>
-      <c r="KC91" s="0"/>
-      <c r="KD91" s="0"/>
-      <c r="KE91" s="0"/>
-      <c r="KF91" s="0"/>
-      <c r="KG91" s="0"/>
-      <c r="KH91" s="0"/>
-      <c r="KI91" s="0"/>
-      <c r="KJ91" s="0"/>
-      <c r="KK91" s="0"/>
-      <c r="KL91" s="0"/>
-      <c r="KM91" s="0"/>
-      <c r="KN91" s="0"/>
-      <c r="KO91" s="0"/>
-      <c r="KP91" s="0"/>
-      <c r="KQ91" s="0"/>
-      <c r="KR91" s="0"/>
-      <c r="KS91" s="0"/>
-      <c r="KT91" s="0"/>
-      <c r="KU91" s="0"/>
-      <c r="KV91" s="0"/>
-      <c r="KW91" s="0"/>
-      <c r="KX91" s="0"/>
-      <c r="KY91" s="0"/>
-      <c r="KZ91" s="0"/>
-      <c r="LA91" s="0"/>
-      <c r="LB91" s="0"/>
-      <c r="LC91" s="0"/>
-      <c r="LD91" s="0"/>
-      <c r="LE91" s="0"/>
-      <c r="LF91" s="0"/>
-      <c r="LG91" s="0"/>
-      <c r="LH91" s="0"/>
-      <c r="LI91" s="0"/>
-      <c r="LJ91" s="0"/>
-      <c r="LK91" s="0"/>
-      <c r="LL91" s="0"/>
-      <c r="LM91" s="0"/>
-      <c r="LN91" s="0"/>
-      <c r="LO91" s="0"/>
-      <c r="LP91" s="0"/>
-      <c r="LQ91" s="0"/>
-      <c r="LR91" s="0"/>
-      <c r="LS91" s="0"/>
-      <c r="LT91" s="0"/>
-      <c r="LU91" s="0"/>
-      <c r="LV91" s="0"/>
-      <c r="LW91" s="0"/>
-      <c r="LX91" s="0"/>
-      <c r="LY91" s="0"/>
-      <c r="LZ91" s="0"/>
-      <c r="MA91" s="0"/>
-      <c r="MB91" s="0"/>
-      <c r="MC91" s="0"/>
-      <c r="MD91" s="0"/>
-      <c r="ME91" s="0"/>
-      <c r="MF91" s="0"/>
-      <c r="MG91" s="0"/>
-      <c r="MH91" s="0"/>
-      <c r="MI91" s="0"/>
-      <c r="MJ91" s="0"/>
-      <c r="MK91" s="0"/>
-      <c r="ML91" s="0"/>
-      <c r="MM91" s="0"/>
-      <c r="MN91" s="0"/>
-      <c r="MO91" s="0"/>
-      <c r="MP91" s="0"/>
-      <c r="MQ91" s="0"/>
-      <c r="MR91" s="0"/>
-      <c r="MS91" s="0"/>
-      <c r="MT91" s="0"/>
-      <c r="MU91" s="0"/>
-      <c r="MV91" s="0"/>
-      <c r="MW91" s="0"/>
-      <c r="MX91" s="0"/>
-      <c r="MY91" s="0"/>
-      <c r="MZ91" s="0"/>
-      <c r="NA91" s="0"/>
-      <c r="NB91" s="0"/>
-      <c r="NC91" s="0"/>
-      <c r="ND91" s="0"/>
-      <c r="NE91" s="0"/>
-      <c r="NF91" s="0"/>
-      <c r="NG91" s="0"/>
-      <c r="NH91" s="0"/>
-      <c r="NI91" s="0"/>
-      <c r="NJ91" s="0"/>
-      <c r="NK91" s="0"/>
-      <c r="NL91" s="0"/>
-      <c r="NM91" s="0"/>
-      <c r="NN91" s="0"/>
-      <c r="NO91" s="0"/>
-      <c r="NP91" s="0"/>
-      <c r="NQ91" s="0"/>
-      <c r="NR91" s="0"/>
-      <c r="NS91" s="0"/>
-      <c r="NT91" s="0"/>
-      <c r="NU91" s="0"/>
-      <c r="NV91" s="0"/>
-      <c r="NW91" s="0"/>
-      <c r="NX91" s="0"/>
-      <c r="NY91" s="0"/>
-      <c r="NZ91" s="0"/>
-      <c r="OA91" s="0"/>
-      <c r="OB91" s="0"/>
-      <c r="OC91" s="0"/>
-      <c r="OD91" s="0"/>
-      <c r="OE91" s="0"/>
-      <c r="OF91" s="0"/>
-      <c r="OG91" s="0"/>
-      <c r="OH91" s="0"/>
-      <c r="OI91" s="0"/>
-      <c r="OJ91" s="0"/>
-      <c r="OK91" s="0"/>
-      <c r="OL91" s="0"/>
-      <c r="OM91" s="0"/>
-      <c r="ON91" s="0"/>
-      <c r="OO91" s="0"/>
-      <c r="OP91" s="0"/>
-      <c r="OQ91" s="0"/>
-      <c r="OR91" s="0"/>
-      <c r="OS91" s="0"/>
-      <c r="OT91" s="0"/>
-      <c r="OU91" s="0"/>
-      <c r="OV91" s="0"/>
-      <c r="OW91" s="0"/>
-      <c r="OX91" s="0"/>
-      <c r="OY91" s="0"/>
-      <c r="OZ91" s="0"/>
-      <c r="PA91" s="0"/>
-      <c r="PB91" s="0"/>
-      <c r="PC91" s="0"/>
-      <c r="PD91" s="0"/>
-      <c r="PE91" s="0"/>
-      <c r="PF91" s="0"/>
-      <c r="PG91" s="0"/>
-      <c r="PH91" s="0"/>
-      <c r="PI91" s="0"/>
-      <c r="PJ91" s="0"/>
-      <c r="PK91" s="0"/>
-      <c r="PL91" s="0"/>
-      <c r="PM91" s="0"/>
-      <c r="PN91" s="0"/>
-      <c r="PO91" s="0"/>
-      <c r="PP91" s="0"/>
-      <c r="PQ91" s="0"/>
-      <c r="PR91" s="0"/>
-      <c r="PS91" s="0"/>
-      <c r="PT91" s="0"/>
-      <c r="PU91" s="0"/>
-      <c r="PV91" s="0"/>
-      <c r="PW91" s="0"/>
-      <c r="PX91" s="0"/>
-      <c r="PY91" s="0"/>
-      <c r="PZ91" s="0"/>
-      <c r="QA91" s="0"/>
-      <c r="QB91" s="0"/>
-      <c r="QC91" s="0"/>
-      <c r="QD91" s="0"/>
-      <c r="QE91" s="0"/>
-      <c r="QF91" s="0"/>
-      <c r="QG91" s="0"/>
-      <c r="QH91" s="0"/>
-      <c r="QI91" s="0"/>
-      <c r="QJ91" s="0"/>
-      <c r="QK91" s="0"/>
-      <c r="QL91" s="0"/>
-      <c r="QM91" s="0"/>
-      <c r="QN91" s="0"/>
-      <c r="QO91" s="0"/>
-      <c r="QP91" s="0"/>
-      <c r="QQ91" s="0"/>
-      <c r="QR91" s="0"/>
-      <c r="QS91" s="0"/>
-      <c r="QT91" s="0"/>
-      <c r="QU91" s="0"/>
-      <c r="QV91" s="0"/>
-      <c r="QW91" s="0"/>
-      <c r="QX91" s="0"/>
-      <c r="QY91" s="0"/>
-      <c r="QZ91" s="0"/>
-      <c r="RA91" s="0"/>
-      <c r="RB91" s="0"/>
-      <c r="RC91" s="0"/>
-      <c r="RD91" s="0"/>
-      <c r="RE91" s="0"/>
-      <c r="RF91" s="0"/>
-      <c r="RG91" s="0"/>
-      <c r="RH91" s="0"/>
-      <c r="RI91" s="0"/>
-      <c r="RJ91" s="0"/>
-      <c r="RK91" s="0"/>
-      <c r="RL91" s="0"/>
-      <c r="RM91" s="0"/>
-      <c r="RN91" s="0"/>
-      <c r="RO91" s="0"/>
-      <c r="RP91" s="0"/>
-      <c r="RQ91" s="0"/>
-      <c r="RR91" s="0"/>
-      <c r="RS91" s="0"/>
-      <c r="RT91" s="0"/>
-      <c r="RU91" s="0"/>
-      <c r="RV91" s="0"/>
-      <c r="RW91" s="0"/>
-      <c r="RX91" s="0"/>
-      <c r="RY91" s="0"/>
-      <c r="RZ91" s="0"/>
-      <c r="SA91" s="0"/>
-      <c r="SB91" s="0"/>
-      <c r="SC91" s="0"/>
-      <c r="SD91" s="0"/>
-      <c r="SE91" s="0"/>
-      <c r="SF91" s="0"/>
-      <c r="SG91" s="0"/>
-      <c r="SH91" s="0"/>
-      <c r="SI91" s="0"/>
-      <c r="SJ91" s="0"/>
-      <c r="SK91" s="0"/>
-      <c r="SL91" s="0"/>
-      <c r="SM91" s="0"/>
-      <c r="SN91" s="0"/>
-      <c r="SO91" s="0"/>
-      <c r="SP91" s="0"/>
-      <c r="SQ91" s="0"/>
-      <c r="SR91" s="0"/>
-      <c r="SS91" s="0"/>
-      <c r="ST91" s="0"/>
-      <c r="SU91" s="0"/>
-      <c r="SV91" s="0"/>
-      <c r="SW91" s="0"/>
-      <c r="SX91" s="0"/>
-      <c r="SY91" s="0"/>
-      <c r="SZ91" s="0"/>
-      <c r="TA91" s="0"/>
-      <c r="TB91" s="0"/>
-      <c r="TC91" s="0"/>
-      <c r="TD91" s="0"/>
-      <c r="TE91" s="0"/>
-      <c r="TF91" s="0"/>
-      <c r="TG91" s="0"/>
-      <c r="TH91" s="0"/>
-      <c r="TI91" s="0"/>
-      <c r="TJ91" s="0"/>
-      <c r="TK91" s="0"/>
-      <c r="TL91" s="0"/>
-      <c r="TM91" s="0"/>
-      <c r="TN91" s="0"/>
-      <c r="TO91" s="0"/>
-      <c r="TP91" s="0"/>
-      <c r="TQ91" s="0"/>
-      <c r="TR91" s="0"/>
-      <c r="TS91" s="0"/>
-      <c r="TT91" s="0"/>
-      <c r="TU91" s="0"/>
-      <c r="TV91" s="0"/>
-      <c r="TW91" s="0"/>
-      <c r="TX91" s="0"/>
-      <c r="TY91" s="0"/>
-      <c r="TZ91" s="0"/>
-      <c r="UA91" s="0"/>
-      <c r="UB91" s="0"/>
-      <c r="UC91" s="0"/>
-      <c r="UD91" s="0"/>
-      <c r="UE91" s="0"/>
-      <c r="UF91" s="0"/>
-      <c r="UG91" s="0"/>
-      <c r="UH91" s="0"/>
-      <c r="UI91" s="0"/>
-      <c r="UJ91" s="0"/>
-      <c r="UK91" s="0"/>
-      <c r="UL91" s="0"/>
-      <c r="UM91" s="0"/>
-      <c r="UN91" s="0"/>
-      <c r="UO91" s="0"/>
-      <c r="UP91" s="0"/>
-      <c r="UQ91" s="0"/>
-      <c r="UR91" s="0"/>
-      <c r="US91" s="0"/>
-      <c r="UT91" s="0"/>
-      <c r="UU91" s="0"/>
-      <c r="UV91" s="0"/>
-      <c r="UW91" s="0"/>
-      <c r="UX91" s="0"/>
-      <c r="UY91" s="0"/>
-      <c r="UZ91" s="0"/>
-      <c r="VA91" s="0"/>
-      <c r="VB91" s="0"/>
-      <c r="VC91" s="0"/>
-      <c r="VD91" s="0"/>
-      <c r="VE91" s="0"/>
-      <c r="VF91" s="0"/>
-      <c r="VG91" s="0"/>
-      <c r="VH91" s="0"/>
-      <c r="VI91" s="0"/>
-      <c r="VJ91" s="0"/>
-      <c r="VK91" s="0"/>
-      <c r="VL91" s="0"/>
-      <c r="VM91" s="0"/>
-      <c r="VN91" s="0"/>
-      <c r="VO91" s="0"/>
-      <c r="VP91" s="0"/>
-      <c r="VQ91" s="0"/>
-      <c r="VR91" s="0"/>
-      <c r="VS91" s="0"/>
-      <c r="VT91" s="0"/>
-      <c r="VU91" s="0"/>
-      <c r="VV91" s="0"/>
-      <c r="VW91" s="0"/>
-      <c r="VX91" s="0"/>
-      <c r="VY91" s="0"/>
-      <c r="VZ91" s="0"/>
-      <c r="WA91" s="0"/>
-      <c r="WB91" s="0"/>
-      <c r="WC91" s="0"/>
-      <c r="WD91" s="0"/>
-      <c r="WE91" s="0"/>
-      <c r="WF91" s="0"/>
-      <c r="WG91" s="0"/>
-      <c r="WH91" s="0"/>
-      <c r="WI91" s="0"/>
-      <c r="WJ91" s="0"/>
-      <c r="WK91" s="0"/>
-      <c r="WL91" s="0"/>
-      <c r="WM91" s="0"/>
-      <c r="WN91" s="0"/>
-      <c r="WO91" s="0"/>
-      <c r="WP91" s="0"/>
-      <c r="WQ91" s="0"/>
-      <c r="WR91" s="0"/>
-      <c r="WS91" s="0"/>
-      <c r="WT91" s="0"/>
-      <c r="WU91" s="0"/>
-      <c r="WV91" s="0"/>
-      <c r="WW91" s="0"/>
-      <c r="WX91" s="0"/>
-      <c r="WY91" s="0"/>
-      <c r="WZ91" s="0"/>
-      <c r="XA91" s="0"/>
-      <c r="XB91" s="0"/>
-      <c r="XC91" s="0"/>
-      <c r="XD91" s="0"/>
-      <c r="XE91" s="0"/>
-      <c r="XF91" s="0"/>
-      <c r="XG91" s="0"/>
-      <c r="XH91" s="0"/>
-      <c r="XI91" s="0"/>
-      <c r="XJ91" s="0"/>
-      <c r="XK91" s="0"/>
-      <c r="XL91" s="0"/>
-      <c r="XM91" s="0"/>
-      <c r="XN91" s="0"/>
-      <c r="XO91" s="0"/>
-      <c r="XP91" s="0"/>
-      <c r="XQ91" s="0"/>
-      <c r="XR91" s="0"/>
-      <c r="XS91" s="0"/>
-      <c r="XT91" s="0"/>
-      <c r="XU91" s="0"/>
-      <c r="XV91" s="0"/>
-      <c r="XW91" s="0"/>
-      <c r="XX91" s="0"/>
-      <c r="XY91" s="0"/>
-      <c r="XZ91" s="0"/>
-      <c r="YA91" s="0"/>
-      <c r="YB91" s="0"/>
-      <c r="YC91" s="0"/>
-      <c r="YD91" s="0"/>
-      <c r="YE91" s="0"/>
-      <c r="YF91" s="0"/>
-      <c r="YG91" s="0"/>
-      <c r="YH91" s="0"/>
-      <c r="YI91" s="0"/>
-      <c r="YJ91" s="0"/>
-      <c r="YK91" s="0"/>
-      <c r="YL91" s="0"/>
-      <c r="YM91" s="0"/>
-      <c r="YN91" s="0"/>
-      <c r="YO91" s="0"/>
-      <c r="YP91" s="0"/>
-      <c r="YQ91" s="0"/>
-      <c r="YR91" s="0"/>
-      <c r="YS91" s="0"/>
-      <c r="YT91" s="0"/>
-      <c r="YU91" s="0"/>
-      <c r="YV91" s="0"/>
-      <c r="YW91" s="0"/>
-      <c r="YX91" s="0"/>
-      <c r="YY91" s="0"/>
-      <c r="YZ91" s="0"/>
-      <c r="ZA91" s="0"/>
-      <c r="ZB91" s="0"/>
-      <c r="ZC91" s="0"/>
-      <c r="ZD91" s="0"/>
-      <c r="ZE91" s="0"/>
-      <c r="ZF91" s="0"/>
-      <c r="ZG91" s="0"/>
-      <c r="ZH91" s="0"/>
-      <c r="ZI91" s="0"/>
-      <c r="ZJ91" s="0"/>
-      <c r="ZK91" s="0"/>
-      <c r="ZL91" s="0"/>
-      <c r="ZM91" s="0"/>
-      <c r="ZN91" s="0"/>
-      <c r="ZO91" s="0"/>
-      <c r="ZP91" s="0"/>
-      <c r="ZQ91" s="0"/>
-      <c r="ZR91" s="0"/>
-      <c r="ZS91" s="0"/>
-      <c r="ZT91" s="0"/>
-      <c r="ZU91" s="0"/>
-      <c r="ZV91" s="0"/>
-      <c r="ZW91" s="0"/>
-      <c r="ZX91" s="0"/>
-      <c r="ZY91" s="0"/>
-      <c r="ZZ91" s="0"/>
-      <c r="AAA91" s="0"/>
-      <c r="AAB91" s="0"/>
-      <c r="AAC91" s="0"/>
-      <c r="AAD91" s="0"/>
-      <c r="AAE91" s="0"/>
-      <c r="AAF91" s="0"/>
-      <c r="AAG91" s="0"/>
-      <c r="AAH91" s="0"/>
-      <c r="AAI91" s="0"/>
-      <c r="AAJ91" s="0"/>
-      <c r="AAK91" s="0"/>
-      <c r="AAL91" s="0"/>
-      <c r="AAM91" s="0"/>
-      <c r="AAN91" s="0"/>
-      <c r="AAO91" s="0"/>
-      <c r="AAP91" s="0"/>
-      <c r="AAQ91" s="0"/>
-      <c r="AAR91" s="0"/>
-      <c r="AAS91" s="0"/>
-      <c r="AAT91" s="0"/>
-      <c r="AAU91" s="0"/>
-      <c r="AAV91" s="0"/>
-      <c r="AAW91" s="0"/>
-      <c r="AAX91" s="0"/>
-      <c r="AAY91" s="0"/>
-      <c r="AAZ91" s="0"/>
-      <c r="ABA91" s="0"/>
-      <c r="ABB91" s="0"/>
-      <c r="ABC91" s="0"/>
-      <c r="ABD91" s="0"/>
-      <c r="ABE91" s="0"/>
-      <c r="ABF91" s="0"/>
-      <c r="ABG91" s="0"/>
-      <c r="ABH91" s="0"/>
-      <c r="ABI91" s="0"/>
-      <c r="ABJ91" s="0"/>
-      <c r="ABK91" s="0"/>
-      <c r="ABL91" s="0"/>
-      <c r="ABM91" s="0"/>
-      <c r="ABN91" s="0"/>
-      <c r="ABO91" s="0"/>
-      <c r="ABP91" s="0"/>
-      <c r="ABQ91" s="0"/>
-      <c r="ABR91" s="0"/>
-      <c r="ABS91" s="0"/>
-      <c r="ABT91" s="0"/>
-      <c r="ABU91" s="0"/>
-      <c r="ABV91" s="0"/>
-      <c r="ABW91" s="0"/>
-      <c r="ABX91" s="0"/>
-      <c r="ABY91" s="0"/>
-      <c r="ABZ91" s="0"/>
-      <c r="ACA91" s="0"/>
-      <c r="ACB91" s="0"/>
-      <c r="ACC91" s="0"/>
-      <c r="ACD91" s="0"/>
-      <c r="ACE91" s="0"/>
-      <c r="ACF91" s="0"/>
-      <c r="ACG91" s="0"/>
-      <c r="ACH91" s="0"/>
-      <c r="ACI91" s="0"/>
-      <c r="ACJ91" s="0"/>
-      <c r="ACK91" s="0"/>
-      <c r="ACL91" s="0"/>
-      <c r="ACM91" s="0"/>
-      <c r="ACN91" s="0"/>
-      <c r="ACO91" s="0"/>
-      <c r="ACP91" s="0"/>
-      <c r="ACQ91" s="0"/>
-      <c r="ACR91" s="0"/>
-      <c r="ACS91" s="0"/>
-      <c r="ACT91" s="0"/>
-      <c r="ACU91" s="0"/>
-      <c r="ACV91" s="0"/>
-      <c r="ACW91" s="0"/>
-      <c r="ACX91" s="0"/>
-      <c r="ACY91" s="0"/>
-      <c r="ACZ91" s="0"/>
-      <c r="ADA91" s="0"/>
-      <c r="ADB91" s="0"/>
-      <c r="ADC91" s="0"/>
-      <c r="ADD91" s="0"/>
-      <c r="ADE91" s="0"/>
-      <c r="ADF91" s="0"/>
-      <c r="ADG91" s="0"/>
-      <c r="ADH91" s="0"/>
-      <c r="ADI91" s="0"/>
-      <c r="ADJ91" s="0"/>
-      <c r="ADK91" s="0"/>
-      <c r="ADL91" s="0"/>
-      <c r="ADM91" s="0"/>
-      <c r="ADN91" s="0"/>
-      <c r="ADO91" s="0"/>
-      <c r="ADP91" s="0"/>
-      <c r="ADQ91" s="0"/>
-      <c r="ADR91" s="0"/>
-      <c r="ADS91" s="0"/>
-      <c r="ADT91" s="0"/>
-      <c r="ADU91" s="0"/>
-      <c r="ADV91" s="0"/>
-      <c r="ADW91" s="0"/>
-      <c r="ADX91" s="0"/>
-      <c r="ADY91" s="0"/>
-      <c r="ADZ91" s="0"/>
-      <c r="AEA91" s="0"/>
-      <c r="AEB91" s="0"/>
-      <c r="AEC91" s="0"/>
-      <c r="AED91" s="0"/>
-      <c r="AEE91" s="0"/>
-      <c r="AEF91" s="0"/>
-      <c r="AEG91" s="0"/>
-      <c r="AEH91" s="0"/>
-      <c r="AEI91" s="0"/>
-      <c r="AEJ91" s="0"/>
-      <c r="AEK91" s="0"/>
-      <c r="AEL91" s="0"/>
-      <c r="AEM91" s="0"/>
-      <c r="AEN91" s="0"/>
-      <c r="AEO91" s="0"/>
-      <c r="AEP91" s="0"/>
-      <c r="AEQ91" s="0"/>
-      <c r="AER91" s="0"/>
-      <c r="AES91" s="0"/>
-      <c r="AET91" s="0"/>
-      <c r="AEU91" s="0"/>
-      <c r="AEV91" s="0"/>
-      <c r="AEW91" s="0"/>
-      <c r="AEX91" s="0"/>
-      <c r="AEY91" s="0"/>
-      <c r="AEZ91" s="0"/>
-      <c r="AFA91" s="0"/>
-      <c r="AFB91" s="0"/>
-      <c r="AFC91" s="0"/>
-      <c r="AFD91" s="0"/>
-      <c r="AFE91" s="0"/>
-      <c r="AFF91" s="0"/>
-      <c r="AFG91" s="0"/>
-      <c r="AFH91" s="0"/>
-      <c r="AFI91" s="0"/>
-      <c r="AFJ91" s="0"/>
-      <c r="AFK91" s="0"/>
-      <c r="AFL91" s="0"/>
-      <c r="AFM91" s="0"/>
-      <c r="AFN91" s="0"/>
-      <c r="AFO91" s="0"/>
-      <c r="AFP91" s="0"/>
-      <c r="AFQ91" s="0"/>
-      <c r="AFR91" s="0"/>
-      <c r="AFS91" s="0"/>
-      <c r="AFT91" s="0"/>
-      <c r="AFU91" s="0"/>
-      <c r="AFV91" s="0"/>
-      <c r="AFW91" s="0"/>
-      <c r="AFX91" s="0"/>
-      <c r="AFY91" s="0"/>
-      <c r="AFZ91" s="0"/>
-      <c r="AGA91" s="0"/>
-      <c r="AGB91" s="0"/>
-      <c r="AGC91" s="0"/>
-      <c r="AGD91" s="0"/>
-      <c r="AGE91" s="0"/>
-      <c r="AGF91" s="0"/>
-      <c r="AGG91" s="0"/>
-      <c r="AGH91" s="0"/>
-      <c r="AGI91" s="0"/>
-      <c r="AGJ91" s="0"/>
-      <c r="AGK91" s="0"/>
-      <c r="AGL91" s="0"/>
-      <c r="AGM91" s="0"/>
-      <c r="AGN91" s="0"/>
-      <c r="AGO91" s="0"/>
-      <c r="AGP91" s="0"/>
-      <c r="AGQ91" s="0"/>
-      <c r="AGR91" s="0"/>
-      <c r="AGS91" s="0"/>
-      <c r="AGT91" s="0"/>
-      <c r="AGU91" s="0"/>
-      <c r="AGV91" s="0"/>
-      <c r="AGW91" s="0"/>
-      <c r="AGX91" s="0"/>
-      <c r="AGY91" s="0"/>
-      <c r="AGZ91" s="0"/>
-      <c r="AHA91" s="0"/>
-      <c r="AHB91" s="0"/>
-      <c r="AHC91" s="0"/>
-      <c r="AHD91" s="0"/>
-      <c r="AHE91" s="0"/>
-      <c r="AHF91" s="0"/>
-      <c r="AHG91" s="0"/>
-      <c r="AHH91" s="0"/>
-      <c r="AHI91" s="0"/>
-      <c r="AHJ91" s="0"/>
-      <c r="AHK91" s="0"/>
-      <c r="AHL91" s="0"/>
-      <c r="AHM91" s="0"/>
-      <c r="AHN91" s="0"/>
-      <c r="AHO91" s="0"/>
-      <c r="AHP91" s="0"/>
-      <c r="AHQ91" s="0"/>
-      <c r="AHR91" s="0"/>
-      <c r="AHS91" s="0"/>
-      <c r="AHT91" s="0"/>
-      <c r="AHU91" s="0"/>
-      <c r="AHV91" s="0"/>
-      <c r="AHW91" s="0"/>
-      <c r="AHX91" s="0"/>
-      <c r="AHY91" s="0"/>
-      <c r="AHZ91" s="0"/>
-      <c r="AIA91" s="0"/>
-      <c r="AIB91" s="0"/>
-      <c r="AIC91" s="0"/>
-      <c r="AID91" s="0"/>
-      <c r="AIE91" s="0"/>
-      <c r="AIF91" s="0"/>
-      <c r="AIG91" s="0"/>
-      <c r="AIH91" s="0"/>
-      <c r="AII91" s="0"/>
-      <c r="AIJ91" s="0"/>
-      <c r="AIK91" s="0"/>
-      <c r="AIL91" s="0"/>
-      <c r="AIM91" s="0"/>
-      <c r="AIN91" s="0"/>
-      <c r="AIO91" s="0"/>
-      <c r="AIP91" s="0"/>
-      <c r="AIQ91" s="0"/>
-      <c r="AIR91" s="0"/>
-      <c r="AIS91" s="0"/>
-      <c r="AIT91" s="0"/>
-      <c r="AIU91" s="0"/>
-      <c r="AIV91" s="0"/>
-      <c r="AIW91" s="0"/>
-      <c r="AIX91" s="0"/>
-      <c r="AIY91" s="0"/>
-      <c r="AIZ91" s="0"/>
-      <c r="AJA91" s="0"/>
-      <c r="AJB91" s="0"/>
-      <c r="AJC91" s="0"/>
-      <c r="AJD91" s="0"/>
-      <c r="AJE91" s="0"/>
-      <c r="AJF91" s="0"/>
-      <c r="AJG91" s="0"/>
-      <c r="AJH91" s="0"/>
-      <c r="AJI91" s="0"/>
-      <c r="AJJ91" s="0"/>
-      <c r="AJK91" s="0"/>
-      <c r="AJL91" s="0"/>
-      <c r="AJM91" s="0"/>
-      <c r="AJN91" s="0"/>
-      <c r="AJO91" s="0"/>
-      <c r="AJP91" s="0"/>
-      <c r="AJQ91" s="0"/>
-      <c r="AJR91" s="0"/>
-      <c r="AJS91" s="0"/>
-      <c r="AJT91" s="0"/>
-      <c r="AJU91" s="0"/>
-      <c r="AJV91" s="0"/>
-      <c r="AJW91" s="0"/>
-      <c r="AJX91" s="0"/>
-      <c r="AJY91" s="0"/>
-      <c r="AJZ91" s="0"/>
-      <c r="AKA91" s="0"/>
-      <c r="AKB91" s="0"/>
-      <c r="AKC91" s="0"/>
-      <c r="AKD91" s="0"/>
-      <c r="AKE91" s="0"/>
-      <c r="AKF91" s="0"/>
-      <c r="AKG91" s="0"/>
-      <c r="AKH91" s="0"/>
-      <c r="AKI91" s="0"/>
-      <c r="AKJ91" s="0"/>
-      <c r="AKK91" s="0"/>
-      <c r="AKL91" s="0"/>
-      <c r="AKM91" s="0"/>
-      <c r="AKN91" s="0"/>
-      <c r="AKO91" s="0"/>
-      <c r="AKP91" s="0"/>
-      <c r="AKQ91" s="0"/>
-      <c r="AKR91" s="0"/>
-      <c r="AKS91" s="0"/>
-      <c r="AKT91" s="0"/>
-      <c r="AKU91" s="0"/>
-      <c r="AKV91" s="0"/>
-      <c r="AKW91" s="0"/>
-      <c r="AKX91" s="0"/>
-      <c r="AKY91" s="0"/>
-      <c r="AKZ91" s="0"/>
-      <c r="ALA91" s="0"/>
-      <c r="ALB91" s="0"/>
-      <c r="ALC91" s="0"/>
-      <c r="ALD91" s="0"/>
-      <c r="ALE91" s="0"/>
-      <c r="ALF91" s="0"/>
-      <c r="ALG91" s="0"/>
-      <c r="ALH91" s="0"/>
-      <c r="ALI91" s="0"/>
-      <c r="ALJ91" s="0"/>
-      <c r="ALK91" s="0"/>
-      <c r="ALL91" s="0"/>
-      <c r="ALM91" s="0"/>
-      <c r="ALN91" s="0"/>
-      <c r="ALO91" s="0"/>
-      <c r="ALP91" s="0"/>
-      <c r="ALQ91" s="0"/>
-      <c r="ALR91" s="0"/>
-      <c r="ALS91" s="0"/>
-      <c r="ALT91" s="0"/>
-      <c r="ALU91" s="0"/>
-      <c r="ALV91" s="0"/>
-      <c r="ALW91" s="0"/>
-      <c r="ALX91" s="0"/>
-      <c r="ALY91" s="0"/>
-      <c r="ALZ91" s="0"/>
-      <c r="AMA91" s="0"/>
-      <c r="AMB91" s="0"/>
-      <c r="AMC91" s="0"/>
-      <c r="AMD91" s="0"/>
-      <c r="AME91" s="0"/>
-      <c r="AMF91" s="0"/>
-      <c r="AMG91" s="0"/>
-      <c r="AMH91" s="0"/>
-      <c r="AMI91" s="0"/>
-      <c r="AMJ91" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92" s="35">
-      <c r="A92" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="35" t="n">
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="13"/>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="13"/>
+      <c r="AI91" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="92" s="15">
+      <c r="A92" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="15" t="n">
         <v>15592</v>
       </c>
-      <c r="C92" s="35" t="n">
+      <c r="C92" s="15" t="n">
         <v>20120712</v>
       </c>
-      <c r="D92" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="F92" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" s="35" t="s">
+      <c r="D92" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="H92" s="35" t="s">
-        <v>480</v>
-      </c>
-      <c r="I92" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="J92" s="35" t="s">
+      <c r="H92" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="J92" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="L92" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="M92" s="18" t="n">
+      <c r="K92" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="M92" s="14" t="n">
         <v>41361.683209294</v>
       </c>
-      <c r="N92" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="O92" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P92" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q92" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="R92" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S92" s="18" t="n">
+      <c r="N92" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O92" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q92" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R92" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" s="14" t="n">
         <v>41386.7166903935</v>
       </c>
-      <c r="U92" s="0"/>
-      <c r="V92" s="0"/>
-      <c r="W92" s="0"/>
-      <c r="X92" s="0"/>
-      <c r="Y92" s="0"/>
-      <c r="Z92" s="0"/>
-      <c r="AA92" s="0"/>
-      <c r="AB92" s="0"/>
-      <c r="AC92" s="0"/>
-      <c r="AD92" s="0"/>
-      <c r="AE92" s="0"/>
-      <c r="AF92" s="0"/>
-      <c r="AG92" s="0"/>
-      <c r="AH92" s="0"/>
-      <c r="AI92" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="93">
-      <c r="A93" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="2" t="n">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="93" s="13">
+      <c r="A93" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="13" t="n">
         <v>15621</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="13" t="n">
         <v>20120530</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="D93" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="K93" s="2" t="n">
+      <c r="K93" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="M93" s="18" t="n">
+      <c r="M93" s="14" t="n">
         <v>41366.4341045486</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R93" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S93" s="18" t="n">
+      <c r="N93" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P93" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q93" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R93" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" s="14" t="n">
         <v>41366.5167278935</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="94">
-      <c r="A94" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="94" s="13">
+      <c r="A94" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="13" t="n">
         <v>15633</v>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="C94" s="13" t="n">
         <v>20120531</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="D94" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="F94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K94" s="2" t="n">
+      <c r="J94" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="K94" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="M94" s="18" t="n">
+      <c r="M94" s="14" t="n">
         <v>41366.5665204861</v>
       </c>
-      <c r="N94" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R94" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S94" s="18" t="n">
+      <c r="N94" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="O94" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P94" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R94" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" s="14" t="n">
         <v>41366.5860202199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="35">
       <c r="A95" s="17" t="s">
         <v>20</v>
       </c>
@@ -11648,10 +8715,10 @@
         <v>20120640</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>30</v>
@@ -11660,13 +8727,13 @@
         <v>35</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>6</v>
@@ -11678,7 +8745,7 @@
         <v>41369.63865625</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="O95" s="0" t="s">
         <v>28</v>
@@ -11697,7 +8764,7 @@
       </c>
       <c r="T95" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="35">
       <c r="A96" s="17" t="s">
         <v>20</v>
       </c>
@@ -11708,10 +8775,10 @@
         <v>20120647</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>81</v>
@@ -11738,7 +8805,7 @@
         <v>41372.6617819444</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="O96" s="0" t="s">
         <v>28</v>
@@ -11757,7 +8824,7 @@
       </c>
       <c r="T96" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="35">
       <c r="A97" s="17" t="s">
         <v>20</v>
       </c>
@@ -11768,13 +8835,13 @@
         <v>20120658</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>83</v>
@@ -11783,13 +8850,13 @@
         <v>248</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L97" s="0" t="s">
         <v>122</v>
@@ -11798,7 +8865,7 @@
         <v>41373.4125752315</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="O97" s="0" t="s">
         <v>28</v>
@@ -11817,7 +8884,7 @@
       </c>
       <c r="T97" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="35">
       <c r="A98" s="17" t="s">
         <v>20</v>
       </c>
@@ -11828,19 +8895,19 @@
         <v>20120682</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>95</v>
@@ -11852,13 +8919,13 @@
         <v>28</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M98" s="18" t="n">
         <v>41375.2876225694</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="O98" s="0" t="s">
         <v>28</v>
@@ -11877,7 +8944,7 @@
       </c>
       <c r="T98" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="35">
       <c r="A99" s="17" t="s">
         <v>20</v>
       </c>
@@ -11888,13 +8955,13 @@
         <v>20130030</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>30</v>
@@ -11903,10 +8970,10 @@
         <v>381</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>6</v>
@@ -11918,7 +8985,7 @@
         <v>41375.3779989583</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="O99" s="0" t="s">
         <v>30</v>
@@ -11937,7 +9004,7 @@
       </c>
       <c r="T99" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="35">
       <c r="A100" s="17" t="s">
         <v>20</v>
       </c>
@@ -11948,13 +9015,13 @@
         <v>20120683</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>35</v>
@@ -11978,7 +9045,7 @@
         <v>41375.3958023495</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="O100" s="0" t="s">
         <v>28</v>
@@ -11997,7 +9064,7 @@
       </c>
       <c r="T100" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="35">
       <c r="A101" s="17" t="s">
         <v>20</v>
       </c>
@@ -12008,19 +9075,19 @@
         <v>20120684</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>174</v>
@@ -12029,16 +9096,16 @@
         <v>260</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M101" s="18" t="n">
         <v>41375.5867187847</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="O101" s="0" t="s">
         <v>28</v>
@@ -12057,7 +9124,7 @@
       </c>
       <c r="T101" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="36">
       <c r="A102" s="26" t="s">
         <v>20</v>
       </c>
@@ -12068,10 +9135,10 @@
         <v>20120687</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F102" s="27" t="s">
         <v>195</v>
@@ -12083,10 +9150,10 @@
         <v>173</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K102" s="27" t="n">
         <v>11</v>
@@ -12098,7 +9165,7 @@
         <v>41376.577928125</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="O102" s="27" t="s">
         <v>28</v>
@@ -12117,7 +9184,7 @@
       </c>
       <c r="T102" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="35">
       <c r="A103" s="17" t="s">
         <v>20</v>
       </c>
@@ -12128,13 +9195,13 @@
         <v>20120692</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>83</v>
@@ -12143,10 +9210,10 @@
         <v>336</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>36</v>
@@ -12158,7 +9225,7 @@
         <v>41379.0115039699</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="O103" s="0" t="s">
         <v>28</v>
@@ -12177,7 +9244,7 @@
       </c>
       <c r="T103" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="35">
       <c r="A104" s="17" t="s">
         <v>20</v>
       </c>
@@ -12188,19 +9255,19 @@
         <v>20120747</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>30</v>
@@ -12212,13 +9279,13 @@
         <v>30</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M104" s="18" t="n">
         <v>41379.3963328704</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="O104" s="0" t="s">
         <v>28</v>
@@ -12237,7 +9304,7 @@
       </c>
       <c r="T104" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="35">
       <c r="A105" s="17" t="s">
         <v>20</v>
       </c>
@@ -12248,28 +9315,28 @@
         <v>20120693</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L105" s="0" t="s">
         <v>25</v>
@@ -12278,7 +9345,7 @@
         <v>41379.4204547107</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="O105" s="0" t="s">
         <v>28</v>
@@ -12297,7 +9364,7 @@
       </c>
       <c r="T105" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="35">
       <c r="A106" s="17" t="s">
         <v>20</v>
       </c>
@@ -12308,10 +9375,10 @@
         <v>20120728</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>30</v>
@@ -12338,7 +9405,7 @@
         <v>41380.4859515394</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="O106" s="0" t="s">
         <v>28</v>
@@ -12357,7 +9424,7 @@
       </c>
       <c r="T106" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="35">
       <c r="A107" s="17" t="s">
         <v>20</v>
       </c>
@@ -12368,10 +9435,10 @@
         <v>20120698</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>30</v>
@@ -12398,7 +9465,7 @@
         <v>41380.6362467593</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O107" s="0" t="s">
         <v>28</v>
@@ -12417,7 +9484,7 @@
       </c>
       <c r="T107" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="35">
       <c r="A108" s="17" t="s">
         <v>20</v>
       </c>
@@ -12428,13 +9495,13 @@
         <v>20120731</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>35</v>
@@ -12446,7 +9513,7 @@
         <v>135</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>19</v>
@@ -12477,7 +9544,7 @@
       </c>
       <c r="T108" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="35">
       <c r="A109" s="17" t="s">
         <v>20</v>
       </c>
@@ -12488,13 +9555,13 @@
         <v>20120701</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>35</v>
@@ -12518,7 +9585,7 @@
         <v>41380.7369794792</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="O109" s="0" t="s">
         <v>28</v>
@@ -12537,7 +9604,7 @@
       </c>
       <c r="T109" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="35">
       <c r="A110" s="17" t="s">
         <v>20</v>
       </c>
@@ -12548,13 +9615,13 @@
         <v>20120702</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E110" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="F110" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>562</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>35</v>
@@ -12578,7 +9645,7 @@
         <v>41380.7715090625</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="O110" s="0" t="s">
         <v>28</v>
@@ -12597,7 +9664,7 @@
       </c>
       <c r="T110" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="35">
       <c r="A111" s="17" t="s">
         <v>20</v>
       </c>
@@ -12608,25 +9675,25 @@
         <v>20120704</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>402</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>32</v>
@@ -12638,7 +9705,7 @@
         <v>41381.5380797454</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="O111" s="0" t="s">
         <v>28</v>
@@ -12657,7 +9724,7 @@
       </c>
       <c r="T111" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="35">
       <c r="A112" s="17" t="s">
         <v>20</v>
       </c>
@@ -12668,7 +9735,7 @@
         <v>20120711</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E112" s="0"/>
       <c r="F112" s="0" t="s">
@@ -12684,19 +9751,19 @@
         <v>135</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M112" s="18" t="n">
         <v>41382.3362046296</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="O112" s="0" t="s">
         <v>28</v>
@@ -12715,7 +9782,7 @@
       </c>
       <c r="T112" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="35">
       <c r="A113" s="17" t="s">
         <v>20</v>
       </c>
@@ -12726,7 +9793,7 @@
         <v>20120721</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E113" s="0"/>
       <c r="F113" s="0" t="s">
@@ -12739,22 +9806,22 @@
         <v>180</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M113" s="18" t="n">
         <v>41386.533459375</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="O113" s="0" t="s">
         <v>28</v>
@@ -12773,7 +9840,7 @@
       </c>
       <c r="T113" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="35">
       <c r="A114" s="17" t="s">
         <v>20</v>
       </c>
@@ -12784,10 +9851,10 @@
         <v>20120713</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>195</v>
@@ -12814,7 +9881,7 @@
         <v>41387.3496603356</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="O114" s="0" t="s">
         <v>28</v>
@@ -12833,7 +9900,7 @@
       </c>
       <c r="T114" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="35">
       <c r="A115" s="17" t="s">
         <v>20</v>
       </c>
@@ -12844,7 +9911,7 @@
         <v>20120719</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E115" s="0"/>
       <c r="F115" s="0" t="s">
@@ -12872,7 +9939,7 @@
         <v>41389.4028955671</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="O115" s="0" t="s">
         <v>28</v>
@@ -12891,7 +9958,7 @@
       </c>
       <c r="T115" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="35">
       <c r="A116" s="17" t="s">
         <v>20</v>
       </c>
@@ -12902,13 +9969,13 @@
         <v>20120714</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>83</v>
@@ -12917,7 +9984,7 @@
         <v>252</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>112</v>
@@ -12932,7 +9999,7 @@
         <v>41389.598034375</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="O116" s="0" t="s">
         <v>28</v>
@@ -12951,7 +10018,7 @@
       </c>
       <c r="T116" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="35">
       <c r="A117" s="17" t="s">
         <v>20</v>
       </c>
@@ -12962,13 +10029,13 @@
         <v>20120715</v>
       </c>
       <c r="D117" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="F117" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>83</v>
@@ -12977,22 +10044,22 @@
         <v>252</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="M117" s="18" t="n">
         <v>41390.4169229977</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="O117" s="0" t="s">
         <v>28</v>
@@ -13011,7 +10078,7 @@
       </c>
       <c r="T117" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="35">
       <c r="A118" s="17" t="s">
         <v>20</v>
       </c>
@@ -13022,13 +10089,13 @@
         <v>20120716</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>83</v>
@@ -13037,7 +10104,7 @@
         <v>252</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>112</v>
@@ -13052,7 +10119,7 @@
         <v>41390.4574103819</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="O118" s="0" t="s">
         <v>28</v>
@@ -13071,7 +10138,7 @@
       </c>
       <c r="T118" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="35">
       <c r="A119" s="17" t="s">
         <v>20</v>
       </c>
@@ -13082,7 +10149,7 @@
         <v>20120717</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>407</v>
@@ -13097,13 +10164,13 @@
         <v>408</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L119" s="0" t="s">
         <v>411</v>
@@ -13112,7 +10179,7 @@
         <v>41390.5339625</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="O119" s="0" t="s">
         <v>28</v>
@@ -13131,7 +10198,7 @@
       </c>
       <c r="T119" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="35">
       <c r="A120" s="17" t="s">
         <v>20</v>
       </c>
@@ -13142,10 +10209,10 @@
         <v>20120720</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>30</v>
@@ -13157,10 +10224,10 @@
         <v>296</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>35</v>
@@ -13172,7 +10239,7 @@
         <v>41395.6476705671</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="O120" s="0" t="s">
         <v>28</v>
@@ -13191,7 +10258,7 @@
       </c>
       <c r="T120" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="35">
       <c r="A121" s="17" t="s">
         <v>20</v>
       </c>
@@ -13202,10 +10269,10 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>145</v>
@@ -13217,13 +10284,13 @@
         <v>145</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L121" s="0" t="s">
         <v>146</v>
@@ -13232,7 +10299,7 @@
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="O121" s="0" t="s">
         <v>30</v>
@@ -13251,7 +10318,7 @@
       </c>
       <c r="T121" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="35">
       <c r="A122" s="17" t="s">
         <v>20</v>
       </c>
@@ -13262,10 +10329,10 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>407</v>
@@ -13292,7 +10359,7 @@
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="O122" s="0" t="s">
         <v>28</v>
@@ -13311,7 +10378,7 @@
       </c>
       <c r="T122" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="35">
       <c r="A123" s="17" t="s">
         <v>20</v>
       </c>
@@ -13322,19 +10389,19 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>271</v>
@@ -13346,13 +10413,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M123" s="18" t="n">
         <v>41400.580093287</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="O123" s="0" t="s">
         <v>28</v>
@@ -13371,7 +10438,7 @@
       </c>
       <c r="T123" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="35">
       <c r="A124" s="17" t="s">
         <v>20</v>
       </c>
@@ -13382,10 +10449,10 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>30</v>
@@ -13400,7 +10467,7 @@
         <v>210</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>21</v>
@@ -13412,7 +10479,7 @@
         <v>41400.6168131597</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>28</v>
@@ -13431,7 +10498,7 @@
       </c>
       <c r="T124" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="35">
       <c r="A125" s="17" t="s">
         <v>20</v>
       </c>
@@ -13442,37 +10509,37 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>15</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M125" s="18" t="n">
         <v>41401.6187177083</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="O125" s="0" t="s">
         <v>28</v>
@@ -13491,7 +10558,7 @@
       </c>
       <c r="T125" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="35">
       <c r="A126" s="17" t="s">
         <v>20</v>
       </c>
@@ -13502,10 +10569,10 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>30</v>
@@ -13514,10 +10581,10 @@
         <v>24</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>359</v>
@@ -13532,7 +10599,7 @@
         <v>41402.4505539005</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O126" s="0" t="s">
         <v>28</v>
@@ -13551,7 +10618,7 @@
       </c>
       <c r="T126" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="35">
       <c r="A127" s="17" t="s">
         <v>20</v>
       </c>
@@ -13562,10 +10629,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>30</v>
@@ -13580,7 +10647,7 @@
         <v>242</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>266</v>
@@ -13592,7 +10659,7 @@
         <v>41403.6118389236</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>28</v>
@@ -13611,7 +10678,7 @@
       </c>
       <c r="T127" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="35">
       <c r="A128" s="17" t="s">
         <v>20</v>
       </c>
@@ -13622,13 +10689,13 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>24</v>
@@ -13652,7 +10719,7 @@
         <v>41403.8700552894</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="O128" s="0" t="s">
         <v>28</v>
@@ -13671,7 +10738,7 @@
       </c>
       <c r="T128" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="35">
       <c r="A129" s="17" t="s">
         <v>20</v>
       </c>
@@ -13682,13 +10749,13 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>54</v>
@@ -13697,10 +10764,10 @@
         <v>277</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>6</v>
@@ -13712,7 +10779,7 @@
         <v>41407.5351728356</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="O129" s="0" t="s">
         <v>28</v>
@@ -13731,7 +10798,7 @@
       </c>
       <c r="T129" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="35">
       <c r="A130" s="17" t="s">
         <v>20</v>
       </c>
@@ -13742,13 +10809,13 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>308</v>
@@ -13760,7 +10827,7 @@
         <v>135</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>35</v>
@@ -13791,7 +10858,7 @@
       </c>
       <c r="T130" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="35">
       <c r="A131" s="17" t="s">
         <v>20</v>
       </c>
@@ -13802,10 +10869,10 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>30</v>
@@ -13823,7 +10890,7 @@
         <v>175</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="L131" s="0" t="s">
         <v>177</v>
@@ -13832,7 +10899,7 @@
         <v>41409.4303223032</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>28</v>
@@ -13851,7 +10918,7 @@
       </c>
       <c r="T131" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="35">
       <c r="A132" s="17" t="s">
         <v>20</v>
       </c>
@@ -13862,13 +10929,13 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>24</v>
@@ -13892,7 +10959,7 @@
         <v>41409.5465580208</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="O132" s="0" t="s">
         <v>28</v>
@@ -13911,7 +10978,7 @@
       </c>
       <c r="T132" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="35">
       <c r="A133" s="17" t="s">
         <v>20</v>
       </c>
@@ -13922,7 +10989,7 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>429</v>
@@ -13940,10 +11007,10 @@
         <v>431</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L133" s="0" t="s">
         <v>433</v>
@@ -13952,7 +11019,7 @@
         <v>41409.6335074421</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="O133" s="0" t="s">
         <v>30</v>
@@ -13971,7 +11038,7 @@
       </c>
       <c r="T133" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="35">
       <c r="A134" s="17" t="s">
         <v>20</v>
       </c>
@@ -13982,13 +11049,13 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>83</v>
@@ -13997,7 +11064,7 @@
         <v>248</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J134" s="0" t="s">
         <v>112</v>
@@ -14012,7 +11079,7 @@
         <v>41409.8738054745</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="O134" s="0" t="s">
         <v>28</v>
@@ -14031,7 +11098,7 @@
       </c>
       <c r="T134" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="35">
       <c r="A135" s="17" t="s">
         <v>20</v>
       </c>
@@ -14042,10 +11109,10 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>276</v>
@@ -14057,10 +11124,10 @@
         <v>277</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>19</v>
@@ -14072,7 +11139,7 @@
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="O135" s="0" t="s">
         <v>28</v>
@@ -14091,7 +11158,7 @@
       </c>
       <c r="T135" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="35">
       <c r="A136" s="17" t="s">
         <v>20</v>
       </c>
@@ -14102,7 +11169,7 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E136" s="0"/>
       <c r="F136" s="0" t="s">
@@ -14130,7 +11197,7 @@
         <v>41413.6731329861</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="O136" s="0" t="s">
         <v>28</v>
@@ -14149,7 +11216,7 @@
       </c>
       <c r="T136" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="35">
       <c r="A137" s="17" t="s">
         <v>20</v>
       </c>
@@ -14160,7 +11227,7 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="0" t="s">
@@ -14173,22 +11240,22 @@
         <v>173</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M137" s="18" t="n">
         <v>41415.646772419</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="O137" s="0" t="s">
         <v>28</v>
@@ -14207,7 +11274,7 @@
       </c>
       <c r="T137" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="35">
       <c r="A138" s="17" t="s">
         <v>20</v>
       </c>
@@ -14218,10 +11285,10 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>164</v>
@@ -14233,10 +11300,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>7</v>
@@ -14267,7 +11334,7 @@
       </c>
       <c r="T138" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="35">
       <c r="A139" s="17" t="s">
         <v>20</v>
       </c>
@@ -14278,7 +11345,7 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E139" s="0"/>
       <c r="F139" s="0" t="s">
@@ -14306,7 +11373,7 @@
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>28</v>
@@ -14325,7 +11392,7 @@
       </c>
       <c r="T139" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="35">
       <c r="A140" s="17" t="s">
         <v>20</v>
       </c>
@@ -14336,13 +11403,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>69</v>
@@ -14366,7 +11433,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="O140" s="0" t="s">
         <v>30</v>
@@ -14385,7 +11452,7 @@
       </c>
       <c r="T140" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="35">
       <c r="A141" s="17" t="s">
         <v>20</v>
       </c>
@@ -14396,13 +11463,13 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>30</v>
@@ -14411,13 +11478,13 @@
         <v>173</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="L141" s="0" t="s">
         <v>177</v>
@@ -14426,7 +11493,7 @@
         <v>41422.4202321412</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>30</v>
@@ -14445,7 +11512,7 @@
       </c>
       <c r="T141" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="35">
       <c r="A142" s="17" t="s">
         <v>20</v>
       </c>
@@ -14456,13 +11523,13 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>35</v>
@@ -14474,19 +11541,19 @@
         <v>351</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="M142" s="18" t="n">
         <v>41422.5893254977</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>28</v>
@@ -14505,7 +11572,7 @@
       </c>
       <c r="T142" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="35">
       <c r="A143" s="17" t="s">
         <v>20</v>
       </c>
@@ -14516,19 +11583,19 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>30</v>
@@ -14540,13 +11607,13 @@
         <v>30</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M143" s="18" t="n">
         <v>41423.4291382755</v>
       </c>
       <c r="N143" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="O143" s="0" t="s">
         <v>28</v>
@@ -14565,7 +11632,7 @@
       </c>
       <c r="T143" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="35">
       <c r="A144" s="17" t="s">
         <v>20</v>
       </c>
@@ -14576,10 +11643,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>104</v>
@@ -14600,13 +11667,13 @@
         <v>30</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M144" s="18" t="n">
         <v>41423.7250649653</v>
       </c>
       <c r="N144" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="O144" s="0" t="s">
         <v>28</v>
@@ -14625,7 +11692,7 @@
       </c>
       <c r="T144" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="35">
       <c r="A145" s="17" t="s">
         <v>20</v>
       </c>
@@ -14636,7 +11703,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="0" t="s">
@@ -14664,7 +11731,7 @@
         <v>41423.7734304398</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>28</v>
@@ -14683,7 +11750,7 @@
       </c>
       <c r="T145" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="35">
       <c r="A146" s="17" t="s">
         <v>20</v>
       </c>
@@ -14694,7 +11761,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
@@ -14722,7 +11789,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>28</v>
@@ -14741,7 +11808,7 @@
       </c>
       <c r="T146" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="35">
       <c r="A147" s="17" t="s">
         <v>20</v>
       </c>
@@ -14752,7 +11819,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E147" s="0"/>
       <c r="F147" s="0" t="s">
@@ -14780,7 +11847,7 @@
         <v>41423.8413989931</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>28</v>
@@ -14799,7 +11866,7 @@
       </c>
       <c r="T147" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="35">
       <c r="A148" s="17" t="s">
         <v>20</v>
       </c>
@@ -14810,13 +11877,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>30</v>
@@ -14840,7 +11907,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>30</v>
@@ -14859,7 +11926,7 @@
       </c>
       <c r="T148" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="35">
       <c r="A149" s="17" t="s">
         <v>20</v>
       </c>
@@ -14870,19 +11937,19 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I149" s="0" t="s">
         <v>30</v>
@@ -14894,13 +11961,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="M149" s="18" t="n">
         <v>41425.3611156597</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="O149" s="0" t="s">
         <v>30</v>
@@ -14919,7 +11986,7 @@
       </c>
       <c r="T149" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="35">
       <c r="A150" s="17" t="s">
         <v>20</v>
       </c>
@@ -14930,7 +11997,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>81</v>
@@ -14942,7 +12009,7 @@
         <v>99</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I150" s="0" t="s">
         <v>402</v>
@@ -14960,7 +12027,7 @@
         <v>41425.5221732986</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="O150" s="0" t="s">
         <v>28</v>
@@ -14979,7 +12046,7 @@
       </c>
       <c r="T150" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="35">
       <c r="A151" s="17" t="s">
         <v>20</v>
       </c>
@@ -14990,7 +12057,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E151" s="0"/>
       <c r="F151" s="0" t="s">
@@ -15000,16 +12067,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>69</v>
@@ -15018,7 +12085,7 @@
         <v>41425.5727136574</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="O151" s="0" t="s">
         <v>28</v>
@@ -15037,7 +12104,7 @@
       </c>
       <c r="T151" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="35">
       <c r="A152" s="17" t="s">
         <v>20</v>
       </c>
@@ -15048,10 +12115,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>30</v>
@@ -15060,25 +12127,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="M152" s="18" t="n">
         <v>41428.4703114583</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="O152" s="0" t="s">
         <v>30</v>
@@ -15097,7 +12164,7 @@
       </c>
       <c r="T152" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="35">
       <c r="A153" s="17" t="s">
         <v>20</v>
       </c>
@@ -15108,13 +12175,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>30</v>
@@ -15123,22 +12190,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="M153" s="18" t="n">
         <v>41428.5987583681</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="O153" s="0" t="s">
         <v>30</v>
@@ -15157,7 +12224,7 @@
       </c>
       <c r="T153" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="35">
       <c r="A154" s="17" t="s">
         <v>20</v>
       </c>
@@ -15168,10 +12235,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>151</v>
@@ -15183,10 +12250,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>34</v>
@@ -15198,7 +12265,7 @@
         <v>41429.4211212616</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>30</v>
@@ -15217,7 +12284,7 @@
       </c>
       <c r="T154" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="35">
       <c r="A155" s="17" t="s">
         <v>20</v>
       </c>
@@ -15228,10 +12295,10 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>397</v>
@@ -15243,10 +12310,10 @@
         <v>378</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>20</v>
@@ -15258,7 +12325,7 @@
         <v>41429.529555787</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="O155" s="0" t="s">
         <v>30</v>
@@ -15277,7 +12344,7 @@
       </c>
       <c r="T155" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="35">
       <c r="A156" s="17" t="s">
         <v>20</v>
       </c>
@@ -15288,10 +12355,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>30</v>
@@ -15303,13 +12370,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>219</v>
@@ -15318,7 +12385,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O156" s="0" t="s">
         <v>30</v>
@@ -15337,7 +12404,7 @@
       </c>
       <c r="T156" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="35">
       <c r="A157" s="17" t="s">
         <v>20</v>
       </c>
@@ -15348,10 +12415,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>30</v>
@@ -15360,25 +12427,25 @@
         <v>30</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>27</v>
       </c>
       <c r="L157" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M157" s="18" t="n">
         <v>41431.5794003125</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O157" s="0" t="s">
         <v>30</v>
@@ -15397,7 +12464,7 @@
       </c>
       <c r="T157" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="35">
       <c r="A158" s="17" t="s">
         <v>20</v>
       </c>
@@ -15408,10 +12475,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>53</v>
@@ -15423,10 +12490,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
@@ -15438,7 +12505,7 @@
         <v>41437.4946140046</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>30</v>
@@ -15457,7 +12524,7 @@
       </c>
       <c r="T158" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="35">
       <c r="A159" s="17" t="s">
         <v>20</v>
       </c>
@@ -15468,13 +12535,13 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>35</v>
@@ -15483,10 +12550,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>14</v>
@@ -15498,7 +12565,7 @@
         <v>41439.4236439468</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="O159" s="0" t="s">
         <v>30</v>
@@ -15517,7 +12584,7 @@
       </c>
       <c r="T159" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="35">
       <c r="A160" s="17" t="s">
         <v>20</v>
       </c>
@@ -15528,11 +12595,11 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>30</v>
@@ -15541,22 +12608,22 @@
         <v>430</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="M160" s="18" t="n">
         <v>41442.581944294</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="O160" s="0" t="s">
         <v>30</v>
@@ -15575,7 +12642,7 @@
       </c>
       <c r="T160" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="35">
       <c r="A161" s="17" t="s">
         <v>20</v>
       </c>
@@ -15586,10 +12653,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -15601,10 +12668,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -15616,7 +12683,7 @@
         <v>41442.6344805903</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -15635,7 +12702,7 @@
       </c>
       <c r="T161" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="35">
       <c r="A162" s="17" t="s">
         <v>20</v>
       </c>
@@ -15646,7 +12713,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -15659,10 +12726,10 @@
         <v>237</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>30</v>
@@ -15674,7 +12741,7 @@
         <v>41443.4305087153</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -15693,7 +12760,7 @@
       </c>
       <c r="T162" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="35">
       <c r="A163" s="17" t="s">
         <v>20</v>
       </c>
@@ -15704,10 +12771,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -15719,13 +12786,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -15734,7 +12801,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -15753,7 +12820,7 @@
       </c>
       <c r="T163" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="35">
       <c r="A164" s="17" t="s">
         <v>20</v>
       </c>
@@ -15764,7 +12831,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -15792,7 +12859,7 @@
         <v>41444.665028669</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -15811,7 +12878,7 @@
       </c>
       <c r="T164" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="35">
       <c r="A165" s="17" t="s">
         <v>20</v>
       </c>
@@ -15822,10 +12889,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -15837,13 +12904,13 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
@@ -15852,7 +12919,7 @@
         <v>41445.4579989583</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -15871,7 +12938,7 @@
       </c>
       <c r="T165" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="35">
       <c r="A166" s="17" t="s">
         <v>20</v>
       </c>
@@ -15882,7 +12949,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -15892,13 +12959,13 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
@@ -15910,7 +12977,7 @@
         <v>41446.4608850694</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -15929,319 +12996,319 @@
       </c>
       <c r="T166" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="35">
       <c r="A167" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B167" s="38" t="n">
+      <c r="B167" s="37" t="n">
         <v>16085</v>
       </c>
-      <c r="C167" s="38" t="n">
+      <c r="C167" s="37" t="n">
         <v>20130021</v>
       </c>
-      <c r="D167" s="38" t="s">
-        <v>789</v>
-      </c>
-      <c r="E167" s="38" t="s">
-        <v>790</v>
+      <c r="D167" s="37" t="s">
+        <v>792</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>793</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G167" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="38" t="s">
-        <v>791</v>
-      </c>
-      <c r="I167" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="J167" s="38" t="s">
+      <c r="G167" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="I167" s="37" t="s">
+        <v>795</v>
+      </c>
+      <c r="J167" s="37" t="s">
         <v>152</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L167" s="38" t="s">
+      <c r="L167" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="M167" s="39" t="n">
+      <c r="M167" s="38" t="n">
         <v>41449.3498559028</v>
       </c>
-      <c r="N167" s="38" t="s">
-        <v>793</v>
-      </c>
-      <c r="O167" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P167" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q167" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R167" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S167" s="39" t="n">
+      <c r="N167" s="37" t="s">
+        <v>796</v>
+      </c>
+      <c r="O167" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P167" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q167" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R167" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" s="38" t="n">
         <v>41449.3675326389</v>
       </c>
       <c r="T167" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="35">
       <c r="A168" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="38" t="n">
+      <c r="B168" s="37" t="n">
         <v>16086</v>
       </c>
-      <c r="C168" s="38" t="n">
+      <c r="C168" s="37" t="n">
         <v>20130022</v>
       </c>
-      <c r="D168" s="38" t="s">
-        <v>794</v>
-      </c>
-      <c r="E168" s="38" t="s">
-        <v>767</v>
+      <c r="D168" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="E168" s="37" t="s">
+        <v>770</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G168" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H168" s="38" t="s">
+      <c r="G168" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="I168" s="38" t="n">
-        <v>29</v>
-      </c>
-      <c r="J168" s="38" t="s">
-        <v>737</v>
+      <c r="I168" s="37" t="n">
+        <v>29</v>
+      </c>
+      <c r="J168" s="37" t="s">
+        <v>740</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="L168" s="38" t="s">
+      <c r="L168" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="M168" s="39" t="n">
+      <c r="M168" s="38" t="n">
         <v>41449.494916169</v>
       </c>
-      <c r="N168" s="38" t="s">
-        <v>795</v>
-      </c>
-      <c r="O168" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P168" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q168" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R168" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S168" s="39" t="n">
+      <c r="N168" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="O168" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P168" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q168" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R168" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" s="38" t="n">
         <v>41449.5007751968</v>
       </c>
       <c r="T168" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="35">
       <c r="A169" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="38" t="n">
+      <c r="B169" s="37" t="n">
         <v>16087</v>
       </c>
-      <c r="C169" s="38" t="n">
+      <c r="C169" s="37" t="n">
         <v>20130023</v>
       </c>
-      <c r="D169" s="38" t="s">
-        <v>796</v>
-      </c>
-      <c r="E169" s="38" t="s">
-        <v>797</v>
-      </c>
-      <c r="F169" s="38" t="s">
-        <v>798</v>
-      </c>
-      <c r="G169" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H169" s="38" t="s">
+      <c r="D169" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="I169" s="38" t="s">
+      <c r="E169" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="G169" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" s="37" t="s">
+        <v>802</v>
+      </c>
+      <c r="I169" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="J169" s="38" t="s">
-        <v>764</v>
+      <c r="J169" s="37" t="s">
+        <v>767</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="L169" s="38" t="s">
-        <v>799</v>
-      </c>
-      <c r="M169" s="39" t="n">
+      <c r="L169" s="37" t="s">
+        <v>802</v>
+      </c>
+      <c r="M169" s="38" t="n">
         <v>41449.6461498843</v>
       </c>
-      <c r="N169" s="38" t="s">
-        <v>800</v>
-      </c>
-      <c r="O169" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P169" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q169" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R169" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S169" s="39" t="n">
+      <c r="N169" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="O169" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P169" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q169" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R169" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" s="38" t="n">
         <v>41449.685081331</v>
       </c>
       <c r="T169" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="35">
       <c r="A170" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="38" t="n">
+      <c r="B170" s="37" t="n">
         <v>16089</v>
       </c>
-      <c r="C170" s="38" t="n">
+      <c r="C170" s="37" t="n">
         <v>20130024</v>
       </c>
-      <c r="D170" s="38" t="s">
-        <v>801</v>
-      </c>
-      <c r="E170" s="38" t="s">
-        <v>802</v>
-      </c>
-      <c r="F170" s="38" t="s">
-        <v>803</v>
-      </c>
-      <c r="G170" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" s="38" t="s">
+      <c r="D170" s="37" t="s">
+        <v>804</v>
+      </c>
+      <c r="E170" s="37" t="s">
+        <v>805</v>
+      </c>
+      <c r="F170" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="G170" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="I170" s="38" t="s">
+      <c r="I170" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="J170" s="38" t="s">
-        <v>804</v>
+      <c r="J170" s="37" t="s">
+        <v>807</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="L170" s="38" t="s">
+      <c r="L170" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="M170" s="39" t="n">
+      <c r="M170" s="38" t="n">
         <v>41450.6984287037</v>
       </c>
-      <c r="N170" s="38" t="s">
-        <v>805</v>
-      </c>
-      <c r="O170" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P170" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q170" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R170" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S170" s="39" t="n">
+      <c r="N170" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="O170" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P170" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q170" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R170" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" s="38" t="n">
         <v>41450.715544294</v>
       </c>
-      <c r="T170" s="38"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="36">
+      <c r="T170" s="37"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="35">
       <c r="A171" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="38" t="n">
+      <c r="B171" s="37" t="n">
         <v>16091</v>
       </c>
-      <c r="C171" s="38" t="n">
+      <c r="C171" s="37" t="n">
         <v>20130025</v>
       </c>
-      <c r="D171" s="38" t="s">
-        <v>806</v>
-      </c>
-      <c r="E171" s="38"/>
-      <c r="F171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" s="38" t="s">
+      <c r="D171" s="37" t="s">
+        <v>809</v>
+      </c>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="I171" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="J171" s="38" t="n">
+      <c r="I171" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="J171" s="37" t="n">
         <v>40</v>
       </c>
-      <c r="K171" s="38" t="s">
-        <v>807</v>
-      </c>
-      <c r="L171" s="38" t="s">
+      <c r="K171" s="37" t="s">
+        <v>810</v>
+      </c>
+      <c r="L171" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="M171" s="39" t="n">
+      <c r="M171" s="38" t="n">
         <v>41451.4667568287</v>
       </c>
-      <c r="N171" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="O171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P171" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q171" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R171" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S171" s="39" t="n">
+      <c r="N171" s="37" t="s">
+        <v>811</v>
+      </c>
+      <c r="O171" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P171" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q171" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R171" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" s="38" t="n">
         <v>41451.4801988426</v>
       </c>
       <c r="T171" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="35">
       <c r="A172" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="38" t="n">
+      <c r="B172" s="37" t="n">
         <v>16093</v>
       </c>
-      <c r="C172" s="38" t="n">
+      <c r="C172" s="37" t="n">
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -16253,13 +13320,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -16268,7 +13335,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>
@@ -16287,27 +13354,27 @@
       </c>
       <c r="T172" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="42">
-      <c r="A173" s="40"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41"/>
-      <c r="J173" s="41"/>
-      <c r="K173" s="41"/>
-      <c r="L173" s="41"/>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="41">
+      <c r="A173" s="39"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="40"/>
+      <c r="L173" s="40"/>
       <c r="M173" s="18"/>
-      <c r="N173" s="41"/>
-      <c r="O173" s="41"/>
-      <c r="P173" s="41"/>
-      <c r="Q173" s="41"/>
-      <c r="R173" s="41"/>
+      <c r="N173" s="40"/>
+      <c r="O173" s="40"/>
+      <c r="P173" s="40"/>
+      <c r="Q173" s="40"/>
+      <c r="R173" s="40"/>
       <c r="S173" s="18"/>
-      <c r="T173" s="41"/>
+      <c r="T173" s="40"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="229" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="226" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Nick To Map remaining" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="822">
   <si>
     <t>Assigned</t>
   </si>
@@ -1520,6 +1520,9 @@
     <t>211-3005</t>
   </si>
   <si>
+    <t>Could not find, imagery not matching with given PLSS</t>
+  </si>
+  <si>
     <t>Donaldson Creek Wood and Riparian</t>
   </si>
   <si>
@@ -1529,6 +1532,9 @@
     <t>05-10-012</t>
   </si>
   <si>
+    <t>Everything good, but upland watering sites not shown in map.</t>
+  </si>
+  <si>
     <t>Brush Creek Restoration Phase 1</t>
   </si>
   <si>
@@ -1586,6 +1592,9 @@
     <t>12-12-010</t>
   </si>
   <si>
+    <t>big download, try somewhere with better connection</t>
+  </si>
+  <si>
     <t>Skillings Compost Facility</t>
   </si>
   <si>
@@ -1643,6 +1652,9 @@
     <t>05-10-011</t>
   </si>
   <si>
+    <t>Shapefile did not include Culverts added at locations other than above stream crossings. Only storage tank locations. Did not import this, waiting for additional info about culverts.</t>
+  </si>
+  <si>
     <t>Calapooia-Santiam Regional Riparian Restoration (North Santiam)</t>
   </si>
   <si>
@@ -1661,6 +1673,9 @@
     <t>208-3090-8651</t>
   </si>
   <si>
+    <t>Mapped riparian activity. Instream and Fish Passage not in supplied shp</t>
+  </si>
+  <si>
     <t>Stillman Ditch Piping Efficiency</t>
   </si>
   <si>
@@ -1707,6 +1722,9 @@
   </si>
   <si>
     <t>03e</t>
+  </si>
+  <si>
+    <t>Area mapped for wetland/upland. Stormwater/wastewater facility not shown on map.</t>
   </si>
   <si>
     <t>Ferguson and Eber Creek Invasives Control and Livestock Water</t>
@@ -2480,7 +2498,6 @@
   <fonts count="6">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -2502,7 +2519,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="FF000000"/>
@@ -2510,12 +2526,11 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2542,14 +2557,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF99284C"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2601,7 +2622,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2742,11 +2763,35 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="21">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="21">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="21">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="21">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2762,11 +2807,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="21">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="21">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2778,8 +2823,8 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2800,7 +2845,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF99284C"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -2852,9 +2897,9 @@
   <dimension ref="A1:AI173"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A74" xSplit="0" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A95" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A94" activeCellId="0" pane="bottomLeft" sqref="94:94"/>
+      <selection activeCell="A109" activeCellId="0" pane="bottomLeft" sqref="109:109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2972,7 +3017,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="9" t="n">
-        <v>41060.3807008912</v>
+        <v>41060.3807008102</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>27</v>
@@ -3034,7 +3079,7 @@
         <v>39</v>
       </c>
       <c r="M3" s="9" t="n">
-        <v>41065.64469375</v>
+        <v>41065.6446936343</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>40</v>
@@ -3052,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="9" t="n">
-        <v>41073.3380674421</v>
+        <v>41073.3380673611</v>
       </c>
       <c r="T3" s="10" t="s">
         <v>41</v>
@@ -3111,7 +3156,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>41066.5446702546</v>
+        <v>41066.5446701389</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>50</v>
@@ -3129,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>41066.5773410069</v>
+        <v>41066.5773409722</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="5" s="15">
@@ -3170,7 +3215,7 @@
         <v>58</v>
       </c>
       <c r="M5" s="14" t="n">
-        <v>41068.7438768171</v>
+        <v>41068.7438767361</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>59</v>
@@ -3188,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="S5" s="14" t="n">
-        <v>41071.564030787</v>
+        <v>41071.5640306713</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6" s="15">
@@ -3229,7 +3274,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>41072.2846229977</v>
+        <v>41072.2846229167</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>66</v>
@@ -3247,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="14" t="n">
-        <v>41079.5668861921</v>
+        <v>41079.5668859954</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7" s="13">
@@ -3288,7 +3333,7 @@
         <v>69</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>41072.5602743866</v>
+        <v>41072.5602743056</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>72</v>
@@ -3306,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>41304.5132543981</v>
+        <v>41304.5132542824</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8" s="8">
@@ -3344,7 +3389,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="9" t="n">
-        <v>41073.5349794792</v>
+        <v>41073.5349793981</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>78</v>
@@ -3362,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="S8" s="9" t="n">
-        <v>41074.5641554398</v>
+        <v>41074.5641553241</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>79</v>
@@ -3406,7 +3451,7 @@
         <v>87</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>41073.9590199074</v>
+        <v>41073.9590197917</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>88</v>
@@ -3424,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>41075.4937074074</v>
+        <v>41075.4937072917</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10" s="15">
@@ -3465,7 +3510,7 @@
         <v>49</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>41088.406037419</v>
+        <v>41088.4060373843</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>91</v>
@@ -3483,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>41088.4140931366</v>
+        <v>41088.4140930556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11" s="16">
@@ -3524,7 +3569,7 @@
         <v>96</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>41089.5931419329</v>
+        <v>41089.5931418982</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>97</v>
@@ -3595,7 +3640,7 @@
         <v>101</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>41096.5668918171</v>
+        <v>41096.5668917824</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>102</v>
@@ -3613,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>41096.5819193634</v>
+        <v>41096.5819193287</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
@@ -3654,7 +3699,7 @@
         <v>107</v>
       </c>
       <c r="M13" s="18" t="n">
-        <v>41099.6110231829</v>
+        <v>41099.6110231482</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>108</v>
@@ -3713,7 +3758,7 @@
         <v>113</v>
       </c>
       <c r="M14" s="18" t="n">
-        <v>41099.648674537</v>
+        <v>41099.6486743055</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>114</v>
@@ -3731,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="18" t="n">
-        <v>41170.4644665856</v>
+        <v>41170.4644665509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="15" s="13">
@@ -3790,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="S15" s="14" t="n">
-        <v>41121.5516165509</v>
+        <v>41121.5516164352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16" s="13">
@@ -3849,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="14" t="n">
-        <v>41101.6724161227</v>
+        <v>41101.672416088</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17" s="13">
@@ -3890,7 +3935,7 @@
         <v>138</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>41106.4917931366</v>
+        <v>41106.4917930556</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>139</v>
@@ -3908,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="S17" s="14" t="n">
-        <v>41106.6839658218</v>
+        <v>41106.6839657407</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="18" s="13">
@@ -3946,7 +3991,7 @@
         <v>101</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>41106.5599732986</v>
+        <v>41106.5599732639</v>
       </c>
       <c r="N18" s="13" t="s">
         <v>141</v>
@@ -3964,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="S18" s="14" t="n">
-        <v>41106.5819927083</v>
+        <v>41106.5819925926</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="19" s="20">
@@ -4067,7 +4112,7 @@
         <v>154</v>
       </c>
       <c r="M20" s="14" t="n">
-        <v>41107.6286944097</v>
+        <v>41107.628694213</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>155</v>
@@ -4085,7 +4130,7 @@
         <v>3</v>
       </c>
       <c r="S20" s="14" t="n">
-        <v>41107.6932998843</v>
+        <v>41107.6932997685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="21" s="8">
@@ -4123,7 +4168,7 @@
         <v>159</v>
       </c>
       <c r="M21" s="9" t="n">
-        <v>41107.7066167824</v>
+        <v>41107.7066165509</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>160</v>
@@ -4141,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="S21" s="9" t="n">
-        <v>41254.6417638542</v>
+        <v>41254.6417637732</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>161</v>
@@ -4185,7 +4230,7 @@
         <v>25</v>
       </c>
       <c r="M22" s="24" t="n">
-        <v>41108.5728826736</v>
+        <v>41108.5728826389</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>168</v>
@@ -4203,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="S22" s="24" t="n">
-        <v>41109.4006856134</v>
+        <v>41109.4006855324</v>
       </c>
       <c r="T22" s="23" t="s">
         <v>169</v>
@@ -4265,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="S23" s="14" t="n">
-        <v>41109.4942756597</v>
+        <v>41109.4942755787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="24" s="15">
@@ -4306,7 +4351,7 @@
         <v>181</v>
       </c>
       <c r="M24" s="14" t="n">
-        <v>41109.5210351042</v>
+        <v>41109.5210350694</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>182</v>
@@ -4324,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="S24" s="14" t="n">
-        <v>41109.5298134607</v>
+        <v>41109.5298134259</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="25" s="13">
@@ -4362,7 +4407,7 @@
         <v>101</v>
       </c>
       <c r="M25" s="14" t="n">
-        <v>41114.3637359607</v>
+        <v>41114.3637358796</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>184</v>
@@ -4380,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="S25" s="14" t="n">
-        <v>41114.3744462153</v>
+        <v>41114.3744461806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="26" s="20">
@@ -4421,7 +4466,7 @@
         <v>122</v>
       </c>
       <c r="M26" s="21" t="n">
-        <v>41116.6158131597</v>
+        <v>41116.6158130787</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>189</v>
@@ -4439,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="S26" s="21" t="n">
-        <v>41122.5103413194</v>
+        <v>41122.5103412037</v>
       </c>
       <c r="T26" s="20" t="s">
         <v>190</v>
@@ -4481,7 +4526,7 @@
         <v>101</v>
       </c>
       <c r="M27" s="21" t="n">
-        <v>41120.4331309375</v>
+        <v>41120.4331309028</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>192</v>
@@ -4558,7 +4603,7 @@
         <v>196</v>
       </c>
       <c r="M28" s="9" t="n">
-        <v>41121.4457947107</v>
+        <v>41121.4457946759</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>197</v>
@@ -4620,7 +4665,7 @@
         <v>196</v>
       </c>
       <c r="M29" s="24" t="n">
-        <v>41121.6098218403</v>
+        <v>41121.6098217593</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>201</v>
@@ -4680,7 +4725,7 @@
         <v>101</v>
       </c>
       <c r="M30" s="28" t="n">
-        <v>41123.6190674421</v>
+        <v>41123.6190673611</v>
       </c>
       <c r="N30" s="27" t="s">
         <v>204</v>
@@ -4775,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="S31" s="28" t="n">
-        <v>41124.4612270023</v>
+        <v>41124.4612269676</v>
       </c>
       <c r="T31" s="29" t="s">
         <v>190</v>
@@ -4834,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="S32" s="28" t="n">
-        <v>41138.4554401273</v>
+        <v>41138.4554400463</v>
       </c>
       <c r="T32" s="29" t="s">
         <v>190</v>
@@ -4875,7 +4920,7 @@
         <v>219</v>
       </c>
       <c r="M33" s="28" t="n">
-        <v>41136.4763602199</v>
+        <v>41136.4763601852</v>
       </c>
       <c r="N33" s="27" t="s">
         <v>220</v>
@@ -4934,7 +4979,7 @@
         <v>219</v>
       </c>
       <c r="M34" s="28" t="n">
-        <v>41137.4621015394</v>
+        <v>41137.4621015046</v>
       </c>
       <c r="N34" s="27" t="s">
         <v>220</v>
@@ -4952,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="28" t="n">
-        <v>41138.4635913542</v>
+        <v>41138.4635913194</v>
       </c>
       <c r="T34" s="29" t="s">
         <v>190</v>
@@ -4993,7 +5038,7 @@
         <v>219</v>
       </c>
       <c r="M35" s="28" t="n">
-        <v>41138.3815253472</v>
+        <v>41138.3815251157</v>
       </c>
       <c r="N35" s="27" t="s">
         <v>220</v>
@@ -5011,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="S35" s="28" t="n">
-        <v>41138.4762314005</v>
+        <v>41138.4762313657</v>
       </c>
       <c r="T35" s="29" t="s">
         <v>190</v>
@@ -5070,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="S36" s="28" t="n">
-        <v>41138.4769562153</v>
+        <v>41138.4769561343</v>
       </c>
       <c r="T36" s="29" t="s">
         <v>190</v>
@@ -5112,7 +5157,7 @@
         <v>219</v>
       </c>
       <c r="M37" s="28" t="n">
-        <v>41138.4023823264</v>
+        <v>41138.4023822917</v>
       </c>
       <c r="N37" s="27" t="s">
         <v>220</v>
@@ -5187,7 +5232,7 @@
         <v>219</v>
       </c>
       <c r="M38" s="28" t="n">
-        <v>41138.4781451736</v>
+        <v>41138.4781451389</v>
       </c>
       <c r="N38" s="27" t="s">
         <v>220</v>
@@ -5205,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="S38" s="28" t="n">
-        <v>41138.4808949421</v>
+        <v>41138.4808949074</v>
       </c>
       <c r="T38" s="29" t="s">
         <v>190</v>
@@ -5282,7 +5327,7 @@
         <v>3</v>
       </c>
       <c r="S39" s="28" t="n">
-        <v>41142.6655486111</v>
+        <v>41142.6655484954</v>
       </c>
       <c r="T39" s="29" t="s">
         <v>190</v>
@@ -5323,7 +5368,7 @@
         <v>212</v>
       </c>
       <c r="M40" s="28" t="n">
-        <v>41142.4832069792</v>
+        <v>41142.4832069444</v>
       </c>
       <c r="N40" s="27" t="s">
         <v>240</v>
@@ -5341,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="S40" s="28" t="n">
-        <v>41143.3783254977</v>
+        <v>41143.378325463</v>
       </c>
       <c r="T40" s="29" t="s">
         <v>190</v>
@@ -5385,7 +5430,7 @@
         <v>196</v>
       </c>
       <c r="M41" s="14" t="n">
-        <v>41149.5504400116</v>
+        <v>41149.5504399306</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>245</v>
@@ -5444,7 +5489,7 @@
         <v>122</v>
       </c>
       <c r="M42" s="9" t="n">
-        <v>41149.7238157755</v>
+        <v>41149.7238157407</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>249</v>
@@ -5503,7 +5548,7 @@
         <v>252</v>
       </c>
       <c r="M43" s="9" t="n">
-        <v>41150.4228819792</v>
+        <v>41150.4228819445</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>256</v>
@@ -5521,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="S43" s="9" t="n">
-        <v>41214.6117733796</v>
+        <v>41214.6117732639</v>
       </c>
       <c r="T43" s="31" t="s">
         <v>257</v>
@@ -5563,7 +5608,7 @@
         <v>107</v>
       </c>
       <c r="M44" s="24" t="n">
-        <v>41150.6310667477</v>
+        <v>41150.6310666667</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>261</v>
@@ -5581,7 +5626,7 @@
         <v>3</v>
       </c>
       <c r="S44" s="24" t="n">
-        <v>41150.6788440162</v>
+        <v>41150.6788439815</v>
       </c>
       <c r="T44" s="23" t="s">
         <v>262</v>
@@ -5637,7 +5682,7 @@
         <v>177</v>
       </c>
       <c r="M45" s="18" t="n">
-        <v>41165.6515762384</v>
+        <v>41165.6515761574</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>267</v>
@@ -5655,7 +5700,7 @@
         <v>3</v>
       </c>
       <c r="S45" s="18" t="n">
-        <v>41165.6845707986</v>
+        <v>41165.6845707176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="46" s="8">
@@ -5696,7 +5741,7 @@
         <v>69</v>
       </c>
       <c r="M46" s="9" t="n">
-        <v>41169.4047743403</v>
+        <v>41169.4047743056</v>
       </c>
       <c r="N46" s="8" t="s">
         <v>272</v>
@@ -5714,7 +5759,7 @@
         <v>3</v>
       </c>
       <c r="S46" s="9" t="n">
-        <v>41169.4440929745</v>
+        <v>41169.4440929398</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>273</v>
@@ -5758,7 +5803,7 @@
         <v>107</v>
       </c>
       <c r="M47" s="28" t="n">
-        <v>41178.7300547107</v>
+        <v>41178.7300546296</v>
       </c>
       <c r="N47" s="27" t="s">
         <v>280</v>
@@ -5776,7 +5821,7 @@
         <v>3</v>
       </c>
       <c r="S47" s="28" t="n">
-        <v>41207.614002662</v>
+        <v>41207.6140025463</v>
       </c>
       <c r="T47" s="27" t="s">
         <v>190</v>
@@ -5838,7 +5883,7 @@
         <v>3</v>
       </c>
       <c r="S48" s="9" t="n">
-        <v>41253.4528903588</v>
+        <v>41253.4528902778</v>
       </c>
       <c r="T48" s="8" t="s">
         <v>285</v>
@@ -5882,7 +5927,7 @@
         <v>212</v>
       </c>
       <c r="M49" s="28" t="n">
-        <v>41196.941634294</v>
+        <v>41196.9416342593</v>
       </c>
       <c r="N49" s="27" t="s">
         <v>290</v>
@@ -5900,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="S49" s="28" t="n">
-        <v>41198.0559452894</v>
+        <v>41198.0559452546</v>
       </c>
       <c r="T49" s="29" t="s">
         <v>190</v>
@@ -5962,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="S50" s="28" t="n">
-        <v>41198.0557996875</v>
+        <v>41198.0557996528</v>
       </c>
       <c r="T50" s="29" t="s">
         <v>190</v>
@@ -6006,7 +6051,7 @@
         <v>113</v>
       </c>
       <c r="M51" s="9" t="n">
-        <v>41198.4895848727</v>
+        <v>41198.489584838</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>297</v>
@@ -6065,7 +6110,7 @@
         <v>122</v>
       </c>
       <c r="M52" s="14" t="n">
-        <v>41199.6275835648</v>
+        <v>41199.6275834491</v>
       </c>
       <c r="N52" s="13" t="s">
         <v>301</v>
@@ -6083,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="S52" s="14" t="n">
-        <v>41200.6401648495</v>
+        <v>41200.6401648148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="53" s="30">
@@ -6140,7 +6185,7 @@
         <v>3</v>
       </c>
       <c r="S53" s="28" t="n">
-        <v>41222.4348692477</v>
+        <v>41222.434869213</v>
       </c>
       <c r="T53" s="27" t="s">
         <v>190</v>
@@ -6287,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="S55" s="14" t="n">
-        <v>41281.5369976505</v>
+        <v>41281.5369975695</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="56" s="27">
@@ -6325,7 +6370,7 @@
         <v>219</v>
       </c>
       <c r="M56" s="28" t="n">
-        <v>41204.587358912</v>
+        <v>41204.5873587963</v>
       </c>
       <c r="N56" s="27" t="s">
         <v>317</v>
@@ -6387,7 +6432,7 @@
         <v>107</v>
       </c>
       <c r="M57" s="28" t="n">
-        <v>41205.4651765046</v>
+        <v>41205.4651763889</v>
       </c>
       <c r="N57" s="27" t="s">
         <v>322</v>
@@ -6405,7 +6450,7 @@
         <v>3</v>
       </c>
       <c r="S57" s="28" t="n">
-        <v>41208.6185199421</v>
+        <v>41208.6185199074</v>
       </c>
       <c r="T57" s="27" t="s">
         <v>323</v>
@@ -6461,7 +6506,7 @@
         <v>326</v>
       </c>
       <c r="M58" s="9" t="n">
-        <v>41205.5341565972</v>
+        <v>41205.5341564815</v>
       </c>
       <c r="N58" s="8" t="s">
         <v>327</v>
@@ -6479,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="S58" s="9" t="n">
-        <v>41207.6450975347</v>
+        <v>41207.6450974537</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>328</v>
@@ -6523,7 +6568,7 @@
         <v>146</v>
       </c>
       <c r="M59" s="28" t="n">
-        <v>41207.4083723727</v>
+        <v>41207.408372338</v>
       </c>
       <c r="N59" s="27" t="s">
         <v>334</v>
@@ -6541,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="S59" s="28" t="n">
-        <v>41207.427530787</v>
+        <v>41207.4275306713</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="60" s="33">
@@ -6579,7 +6624,7 @@
         <v>87</v>
       </c>
       <c r="M60" s="28" t="n">
-        <v>41210.5831710648</v>
+        <v>41210.5831709491</v>
       </c>
       <c r="N60" s="33" t="s">
         <v>337</v>
@@ -6597,7 +6642,7 @@
         <v>3</v>
       </c>
       <c r="S60" s="28" t="n">
-        <v>41212.431104132</v>
+        <v>41212.4311040509</v>
       </c>
       <c r="U60" s="30"/>
       <c r="V60" s="30"/>
@@ -6650,7 +6695,7 @@
         <v>101</v>
       </c>
       <c r="M61" s="28" t="n">
-        <v>41233.4709574074</v>
+        <v>41233.4709572917</v>
       </c>
       <c r="N61" s="27" t="s">
         <v>340</v>
@@ -6668,7 +6713,7 @@
         <v>3</v>
       </c>
       <c r="S61" s="28" t="n">
-        <v>41233.4953285069</v>
+        <v>41233.4953284722</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="62" s="27">
@@ -6709,7 +6754,7 @@
         <v>219</v>
       </c>
       <c r="M62" s="28" t="n">
-        <v>41240.3506242708</v>
+        <v>41240.3506241898</v>
       </c>
       <c r="N62" s="27" t="s">
         <v>344</v>
@@ -6765,7 +6810,7 @@
         <v>101</v>
       </c>
       <c r="M63" s="18" t="n">
-        <v>41243.5707371181</v>
+        <v>41243.5707369213</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>347</v>
@@ -6824,7 +6869,7 @@
         <v>353</v>
       </c>
       <c r="M64" s="28" t="n">
-        <v>41247.9034753472</v>
+        <v>41247.9034752315</v>
       </c>
       <c r="N64" s="27" t="s">
         <v>354</v>
@@ -6842,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="S64" s="28" t="n">
-        <v>41331.6749808681</v>
+        <v>41331.674980787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="65" s="27">
@@ -6901,7 +6946,7 @@
         <v>3</v>
       </c>
       <c r="S65" s="28" t="n">
-        <v>41278.5676700579</v>
+        <v>41278.5676699074</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
@@ -6942,7 +6987,7 @@
         <v>212</v>
       </c>
       <c r="M66" s="18" t="n">
-        <v>41278.6358895486</v>
+        <v>41278.6358894676</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>364</v>
@@ -7001,7 +7046,7 @@
         <v>219</v>
       </c>
       <c r="M67" s="28" t="n">
-        <v>41281.5898056366</v>
+        <v>41281.5898055556</v>
       </c>
       <c r="N67" s="27" t="s">
         <v>369</v>
@@ -7019,7 +7064,7 @@
         <v>3</v>
       </c>
       <c r="S67" s="28" t="n">
-        <v>41288.605065544</v>
+        <v>41288.6050655093</v>
       </c>
       <c r="T67" s="27"/>
       <c r="U67" s="27"/>
@@ -7073,7 +7118,7 @@
         <v>49</v>
       </c>
       <c r="M68" s="18" t="n">
-        <v>41288.4558511574</v>
+        <v>41288.4558510417</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>371</v>
@@ -7091,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="S68" s="18" t="n">
-        <v>41288.568308912</v>
+        <v>41288.5683086806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="69" s="27">
@@ -7132,7 +7177,7 @@
         <v>219</v>
       </c>
       <c r="M69" s="28" t="n">
-        <v>41291.6404073264</v>
+        <v>41291.6404072917</v>
       </c>
       <c r="N69" s="27" t="s">
         <v>376</v>
@@ -7150,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="S69" s="28" t="n">
-        <v>41292.7439197107</v>
+        <v>41292.7439196759</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="70" s="33">
@@ -7188,7 +7233,7 @@
         <v>107</v>
       </c>
       <c r="M70" s="28" t="n">
-        <v>41294.5077270486</v>
+        <v>41294.5077269676</v>
       </c>
       <c r="N70" s="33" t="s">
         <v>379</v>
@@ -7206,7 +7251,7 @@
         <v>3</v>
       </c>
       <c r="S70" s="28" t="n">
-        <v>41309.4628889236</v>
+        <v>41309.4628888889</v>
       </c>
       <c r="U70" s="30"/>
       <c r="V70" s="30"/>
@@ -7262,7 +7307,7 @@
         <v>310</v>
       </c>
       <c r="M71" s="14" t="n">
-        <v>41302.5911455208</v>
+        <v>41302.5911454861</v>
       </c>
       <c r="N71" s="16" t="s">
         <v>383</v>
@@ -7280,7 +7325,7 @@
         <v>3</v>
       </c>
       <c r="S71" s="14" t="n">
-        <v>41304.627268287</v>
+        <v>41304.6272681713</v>
       </c>
       <c r="T71" s="16"/>
     </row>
@@ -7319,7 +7364,7 @@
         <v>219</v>
       </c>
       <c r="M72" s="28" t="n">
-        <v>41303.6479885069</v>
+        <v>41303.6479884259</v>
       </c>
       <c r="N72" s="33" t="s">
         <v>385</v>
@@ -7393,7 +7438,7 @@
         <v>219</v>
       </c>
       <c r="M73" s="28" t="n">
-        <v>41306.532899537</v>
+        <v>41306.5328994213</v>
       </c>
       <c r="N73" s="27" t="s">
         <v>388</v>
@@ -7411,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="S73" s="28" t="n">
-        <v>41306.5414503819</v>
+        <v>41306.5414503472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="74" s="23">
@@ -7470,7 +7515,7 @@
         <v>3</v>
       </c>
       <c r="S74" s="24" t="n">
-        <v>41327.4879565972</v>
+        <v>41327.4879564815</v>
       </c>
       <c r="T74" s="23" t="s">
         <v>394</v>
@@ -7514,7 +7559,7 @@
         <v>107</v>
       </c>
       <c r="M75" s="28" t="n">
-        <v>41311.4689634259</v>
+        <v>41311.4689633102</v>
       </c>
       <c r="N75" s="27" t="s">
         <v>398</v>
@@ -7570,7 +7615,7 @@
         <v>101</v>
       </c>
       <c r="M76" s="28" t="n">
-        <v>41316.7117378472</v>
+        <v>41316.7117377315</v>
       </c>
       <c r="N76" s="27" t="s">
         <v>404</v>
@@ -7588,7 +7633,7 @@
         <v>3</v>
       </c>
       <c r="S76" s="28" t="n">
-        <v>41317.7332084144</v>
+        <v>41317.7332083333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="77" s="27">
@@ -7629,7 +7674,7 @@
         <v>411</v>
       </c>
       <c r="M77" s="28" t="n">
-        <v>41320.4583300579</v>
+        <v>41320.4583299769</v>
       </c>
       <c r="N77" s="27" t="s">
         <v>412</v>
@@ -7647,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="S77" s="28" t="n">
-        <v>41341.3959231829</v>
+        <v>41341.3959231482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="78" s="27">
@@ -7688,7 +7733,7 @@
         <v>411</v>
       </c>
       <c r="M78" s="28" t="n">
-        <v>41327.4573636921</v>
+        <v>41327.4573636574</v>
       </c>
       <c r="N78" s="27" t="s">
         <v>418</v>
@@ -7706,7 +7751,7 @@
         <v>3</v>
       </c>
       <c r="S78" s="28" t="n">
-        <v>41330.5550878472</v>
+        <v>41330.5550877315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="79" s="27">
@@ -7747,7 +7792,7 @@
         <v>122</v>
       </c>
       <c r="M79" s="28" t="n">
-        <v>41330.4895333333</v>
+        <v>41330.4895332176</v>
       </c>
       <c r="N79" s="27" t="s">
         <v>421</v>
@@ -7824,7 +7869,7 @@
         <v>3</v>
       </c>
       <c r="S80" s="14" t="n">
-        <v>41333.6820353356</v>
+        <v>41333.6820351852</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="81" s="8">
@@ -7865,7 +7910,7 @@
         <v>433</v>
       </c>
       <c r="M81" s="9" t="n">
-        <v>41337.5453774306</v>
+        <v>41337.5453773148</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>434</v>
@@ -7883,7 +7928,7 @@
         <v>3</v>
       </c>
       <c r="S81" s="9" t="n">
-        <v>41446.4359273958</v>
+        <v>41446.4359273148</v>
       </c>
       <c r="T81" s="8" t="s">
         <v>435</v>
@@ -7927,7 +7972,7 @@
         <v>440</v>
       </c>
       <c r="M82" s="28" t="n">
-        <v>41340.4754460995</v>
+        <v>41340.4754460648</v>
       </c>
       <c r="N82" s="27" t="s">
         <v>441</v>
@@ -7986,7 +8031,7 @@
         <v>122</v>
       </c>
       <c r="M83" s="14" t="n">
-        <v>41340.5483920949</v>
+        <v>41340.5483920139</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>446</v>
@@ -8004,7 +8049,7 @@
         <v>3</v>
       </c>
       <c r="S83" s="14" t="n">
-        <v>41340.7857539005</v>
+        <v>41340.7857538194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="84" s="13">
@@ -8045,7 +8090,7 @@
         <v>107</v>
       </c>
       <c r="M84" s="14" t="n">
-        <v>41340.5534409722</v>
+        <v>41340.5534408565</v>
       </c>
       <c r="N84" s="13" t="s">
         <v>448</v>
@@ -8063,7 +8108,7 @@
         <v>3</v>
       </c>
       <c r="S84" s="14" t="n">
-        <v>41340.5797805208</v>
+        <v>41340.5797804398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="85" s="13">
@@ -8104,7 +8149,7 @@
         <v>411</v>
       </c>
       <c r="M85" s="14" t="n">
-        <v>41341.5987565972</v>
+        <v>41341.5987564815</v>
       </c>
       <c r="N85" s="13" t="s">
         <v>452</v>
@@ -8163,7 +8208,7 @@
         <v>252</v>
       </c>
       <c r="M86" s="14" t="n">
-        <v>41345.6156529745</v>
+        <v>41345.6156528935</v>
       </c>
       <c r="N86" s="13" t="s">
         <v>456</v>
@@ -8181,7 +8226,7 @@
         <v>3</v>
       </c>
       <c r="S86" s="14" t="n">
-        <v>41351.5827573264</v>
+        <v>41351.5827572917</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="87" s="8">
@@ -8222,7 +8267,7 @@
         <v>113</v>
       </c>
       <c r="M87" s="9" t="n">
-        <v>41348.5506607292</v>
+        <v>41348.5506606481</v>
       </c>
       <c r="N87" s="8" t="s">
         <v>460</v>
@@ -8284,7 +8329,7 @@
         <v>101</v>
       </c>
       <c r="M88" s="28" t="n">
-        <v>41352.375515544</v>
+        <v>41352.3755155093</v>
       </c>
       <c r="N88" s="27" t="s">
         <v>465</v>
@@ -8302,7 +8347,7 @@
         <v>3</v>
       </c>
       <c r="S88" s="28" t="n">
-        <v>41352.7037724884</v>
+        <v>41352.7037724537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="89" s="15">
@@ -8361,7 +8406,7 @@
         <v>3</v>
       </c>
       <c r="S89" s="14" t="n">
-        <v>41358.5180358796</v>
+        <v>41358.5180356481</v>
       </c>
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
@@ -8414,7 +8459,7 @@
         <v>107</v>
       </c>
       <c r="M90" s="24" t="n">
-        <v>41359.6074497338</v>
+        <v>41359.6074496528</v>
       </c>
       <c r="N90" s="32" t="s">
         <v>474</v>
@@ -8432,7 +8477,7 @@
         <v>3</v>
       </c>
       <c r="S90" s="24" t="n">
-        <v>41359.6303167014</v>
+        <v>41359.6303166667</v>
       </c>
       <c r="T90" s="32" t="s">
         <v>475</v>
@@ -8453,79 +8498,79 @@
       <c r="AH90" s="23"/>
       <c r="AI90" s="23"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="91" s="15">
-      <c r="A91" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="15" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="91" s="32">
+      <c r="A91" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="32" t="n">
         <v>15570</v>
       </c>
-      <c r="C91" s="15" t="n">
+      <c r="C91" s="32" t="n">
         <v>20120618</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="15" t="s">
+      <c r="H91" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="I91" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="J91" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="K91" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="L91" s="15" t="s">
+      <c r="L91" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="M91" s="14" t="n">
+      <c r="M91" s="24" t="n">
         <v>41360.3535715278</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="N91" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="O91" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P91" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q91" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R91" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S91" s="14" t="n">
-        <v>41368.7920587616</v>
-      </c>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
-      <c r="AA91" s="13"/>
-      <c r="AB91" s="13"/>
-      <c r="AC91" s="13"/>
-      <c r="AD91" s="13"/>
-      <c r="AE91" s="13"/>
-      <c r="AF91" s="13"/>
-      <c r="AG91" s="13"/>
-      <c r="AH91" s="13"/>
-      <c r="AI91" s="13"/>
+      <c r="O91" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P91" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q91" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R91" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" s="24" t="n">
+        <v>41368.7920586806</v>
+      </c>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="92" s="15">
       <c r="A92" s="12" t="s">
@@ -8565,7 +8610,7 @@
         <v>486</v>
       </c>
       <c r="M92" s="14" t="n">
-        <v>41361.683209294</v>
+        <v>41361.6832092593</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>487</v>
@@ -8583,7 +8628,7 @@
         <v>3</v>
       </c>
       <c r="S92" s="14" t="n">
-        <v>41386.7166903935</v>
+        <v>41386.7166902778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="93" s="13">
@@ -8624,7 +8669,7 @@
         <v>433</v>
       </c>
       <c r="M93" s="14" t="n">
-        <v>41366.4341045486</v>
+        <v>41366.4341045139</v>
       </c>
       <c r="N93" s="13" t="s">
         <v>490</v>
@@ -8642,7 +8687,7 @@
         <v>3</v>
       </c>
       <c r="S93" s="14" t="n">
-        <v>41366.5167278935</v>
+        <v>41366.5167277778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="94" s="13">
@@ -8683,7 +8728,7 @@
         <v>181</v>
       </c>
       <c r="M94" s="14" t="n">
-        <v>41366.5665204861</v>
+        <v>41366.5665203704</v>
       </c>
       <c r="N94" s="13" t="s">
         <v>493</v>
@@ -8701,430 +8746,436 @@
         <v>3</v>
       </c>
       <c r="S94" s="14" t="n">
-        <v>41366.5860202199</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95" s="35">
-      <c r="A95" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="0" t="n">
+        <v>41366.5860201389</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="95" s="35">
+      <c r="A95" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="11" t="n">
         <v>15683</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="11" t="n">
         <v>20120640</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="F95" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" s="0" t="s">
+      <c r="F95" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="H95" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="I95" s="0" t="s">
+      <c r="I95" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="J95" s="0" t="s">
+      <c r="J95" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="K95" s="0" t="n">
+      <c r="K95" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="L95" s="0" t="s">
+      <c r="L95" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="M95" s="18" t="n">
+      <c r="M95" s="9" t="n">
         <v>41369.63865625</v>
       </c>
-      <c r="N95" s="0" t="s">
+      <c r="N95" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="O95" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P95" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q95" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R95" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S95" s="18" t="n">
-        <v>41369.6558372685</v>
-      </c>
-      <c r="T95" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96" s="35">
-      <c r="A96" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" s="0" t="n">
+      <c r="O95" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q95" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R95" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" s="9" t="n">
+        <v>41369.655837037</v>
+      </c>
+      <c r="T95" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="96" s="35">
+      <c r="A96" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="11" t="n">
         <v>15702</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="11" t="n">
         <v>20120647</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="E96" s="0" t="s">
+      <c r="D96" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="E96" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F96" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H96" s="0" t="s">
+      <c r="H96" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I96" s="0" t="s">
+      <c r="I96" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="0" t="s">
+      <c r="J96" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K96" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="L96" s="0" t="s">
+      <c r="L96" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M96" s="18" t="n">
-        <v>41372.6617819444</v>
-      </c>
-      <c r="N96" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="O96" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P96" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q96" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R96" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S96" s="18" t="n">
-        <v>41372.8411001157</v>
-      </c>
-      <c r="T96" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97" s="35">
-      <c r="A97" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="0" t="n">
+      <c r="M96" s="9" t="n">
+        <v>41372.6617818287</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q96" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R96" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" s="9" t="n">
+        <v>41372.8411</v>
+      </c>
+      <c r="T96" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="97" s="36">
+      <c r="A97" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="15" t="n">
         <v>15708</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="15" t="n">
         <v>20120658</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="F97" s="0" t="s">
+      <c r="D97" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="E97" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="G97" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="H97" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I97" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="J97" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="K97" s="0" t="s">
+      <c r="I97" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="L97" s="0" t="s">
+      <c r="J97" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="L97" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="M97" s="18" t="n">
+      <c r="M97" s="14" t="n">
         <v>41373.4125752315</v>
       </c>
-      <c r="N97" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="O97" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P97" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q97" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R97" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S97" s="18" t="n">
+      <c r="N97" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="O97" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q97" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R97" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" s="14" t="n">
         <v>41373.4328002315</v>
       </c>
-      <c r="T97" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98" s="35">
-      <c r="A98" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="0" t="n">
+      <c r="T97" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="98" s="36">
+      <c r="A98" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="15" t="n">
         <v>15712</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="15" t="n">
         <v>20120682</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="D98" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="E98" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G98" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="I98" s="0" t="s">
+      <c r="H98" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="I98" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J98" s="0" t="s">
+      <c r="J98" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="K98" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="L98" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="M98" s="18" t="n">
-        <v>41375.2876225694</v>
-      </c>
-      <c r="N98" s="0" t="s">
+      <c r="K98" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="M98" s="14" t="n">
+        <v>41375.2876224537</v>
+      </c>
+      <c r="N98" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="O98" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P98" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q98" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R98" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" s="14" t="n">
+        <v>41375.359318287</v>
+      </c>
+      <c r="T98" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="99" s="40">
+      <c r="A99" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="38" t="n">
+        <v>15713</v>
+      </c>
+      <c r="C99" s="38" t="n">
+        <v>20130030</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="I99" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="J99" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="K99" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L99" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="M99" s="39" t="n">
+        <v>41375.3779988426</v>
+      </c>
+      <c r="N99" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="O99" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P99" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q99" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R99" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" s="39" t="n">
+        <v>41453.3494300926</v>
+      </c>
+      <c r="T99" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="100" s="36">
+      <c r="A100" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="15" t="n">
+        <v>15714</v>
+      </c>
+      <c r="C100" s="15" t="n">
+        <v>20120683</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K100" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="L100" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M100" s="14" t="n">
+        <v>41375.3958023148</v>
+      </c>
+      <c r="N100" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="O100" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q100" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R100" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" s="14" t="n">
+        <v>41375.4240033565</v>
+      </c>
+      <c r="T100" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="101" s="36">
+      <c r="A101" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="15" t="n">
+        <v>15717</v>
+      </c>
+      <c r="C101" s="15" t="n">
+        <v>20120684</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="O98" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P98" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q98" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R98" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S98" s="18" t="n">
-        <v>41375.3593183681</v>
-      </c>
-      <c r="T98" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99" s="35">
-      <c r="A99" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <v>15713</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>20130030</v>
-      </c>
-      <c r="D99" s="0" t="s">
+      <c r="G101" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K101" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="L101" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="K99" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="M99" s="18" t="n">
-        <v>41375.3779989583</v>
-      </c>
-      <c r="N99" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="O99" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P99" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q99" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R99" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S99" s="18" t="n">
-        <v>41453.3494300926</v>
-      </c>
-      <c r="T99" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100" s="35">
-      <c r="A100" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="0" t="n">
-        <v>15714</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>20120683</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="K100" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="L100" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M100" s="18" t="n">
-        <v>41375.3958023495</v>
-      </c>
-      <c r="N100" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="O100" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P100" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q100" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R100" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S100" s="18" t="n">
-        <v>41375.4240034722</v>
-      </c>
-      <c r="T100" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101" s="35">
-      <c r="A101" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="0" t="n">
-        <v>15717</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>20120684</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J101" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="K101" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="L101" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="M101" s="18" t="n">
-        <v>41375.5867187847</v>
-      </c>
-      <c r="N101" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="O101" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P101" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q101" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R101" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S101" s="18" t="n">
-        <v>41375.6140001505</v>
-      </c>
-      <c r="T101" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="36">
+      <c r="M101" s="14" t="n">
+        <v>41375.58671875</v>
+      </c>
+      <c r="N101" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="O101" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P101" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q101" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R101" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" s="14" t="n">
+        <v>41375.6140001157</v>
+      </c>
+      <c r="T101" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="41">
       <c r="A102" s="26" t="s">
         <v>20</v>
       </c>
@@ -9135,10 +9186,10 @@
         <v>20120687</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F102" s="27" t="s">
         <v>195</v>
@@ -9150,10 +9201,10 @@
         <v>173</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K102" s="27" t="n">
         <v>11</v>
@@ -9165,7 +9216,7 @@
         <v>41376.577928125</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="O102" s="27" t="s">
         <v>28</v>
@@ -9184,427 +9235,433 @@
       </c>
       <c r="T102" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103" s="35">
-      <c r="A103" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="0" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="103" s="35">
+      <c r="A103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="11" t="n">
         <v>15726</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="11" t="n">
         <v>20120692</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="G103" s="0" t="s">
+      <c r="D103" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="G103" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H103" s="0" t="s">
+      <c r="H103" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="I103" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="J103" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="K103" s="0" t="n">
+      <c r="I103" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K103" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="L103" s="0" t="s">
+      <c r="L103" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M103" s="18" t="n">
-        <v>41379.0115039699</v>
-      </c>
-      <c r="N103" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="O103" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P103" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q103" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R103" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S103" s="18" t="n">
-        <v>41379.0781995023</v>
-      </c>
-      <c r="T103" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104" s="35">
-      <c r="A104" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="0" t="n">
+      <c r="M103" s="9" t="n">
+        <v>41379.0115039352</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="O103" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P103" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q103" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R103" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" s="9" t="n">
+        <v>41379.0781994213</v>
+      </c>
+      <c r="T103" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="104" s="35">
+      <c r="A104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="11" t="n">
         <v>15727</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="11" t="n">
         <v>20120747</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="G104" s="0" t="s">
+      <c r="D104" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G104" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H104" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J104" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K104" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L104" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="M104" s="18" t="n">
+      <c r="H104" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="M104" s="9" t="n">
         <v>41379.3963328704</v>
       </c>
-      <c r="N104" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="O104" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P104" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q104" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R104" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S104" s="18" t="n">
+      <c r="N104" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="O104" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P104" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q104" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R104" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" s="9" t="n">
         <v>41424.7528541667</v>
       </c>
-      <c r="T104" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105" s="35">
-      <c r="A105" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" s="0" t="n">
+      <c r="T104" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="105" s="36">
+      <c r="A105" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="15" t="n">
         <v>15728</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="15" t="n">
         <v>20120693</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="G105" s="0" t="s">
+      <c r="D105" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G105" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H105" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="J105" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="K105" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="L105" s="0" t="s">
+      <c r="H105" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="K105" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="L105" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M105" s="18" t="n">
-        <v>41379.4204547107</v>
-      </c>
-      <c r="N105" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="O105" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P105" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q105" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R105" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S105" s="18" t="n">
-        <v>41379.5291512731</v>
-      </c>
-      <c r="T105" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106" s="35">
-      <c r="A106" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="0" t="n">
+      <c r="M105" s="14" t="n">
+        <v>41379.4204546296</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="O105" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P105" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q105" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R105" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" s="14" t="n">
+        <v>41379.5291511574</v>
+      </c>
+      <c r="T105" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="106" s="36">
+      <c r="A106" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="15" t="n">
         <v>15730</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="15" t="n">
         <v>20120728</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="E106" s="0" t="s">
+      <c r="D106" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="E106" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F106" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" s="0" t="s">
+      <c r="F106" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H106" s="0" t="s">
+      <c r="H106" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="I106" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J106" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K106" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L106" s="0" t="s">
+      <c r="I106" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="M106" s="18" t="n">
-        <v>41380.4859515394</v>
-      </c>
-      <c r="N106" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="O106" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P106" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q106" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R106" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S106" s="18" t="n">
+      <c r="M106" s="14" t="n">
+        <v>41380.4859515046</v>
+      </c>
+      <c r="N106" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="O106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q106" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R106" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" s="14" t="n">
         <v>41403.6339299769</v>
       </c>
-      <c r="T106" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107" s="35">
-      <c r="A107" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B107" s="0" t="n">
+      <c r="T106" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="107" s="36">
+      <c r="A107" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="15" t="n">
         <v>15734</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="15" t="n">
         <v>20120698</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="E107" s="0" t="s">
+      <c r="D107" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E107" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="F107" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" s="0" t="s">
+      <c r="F107" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="H107" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="I107" s="0" t="s">
+      <c r="I107" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="J107" s="0" t="s">
+      <c r="J107" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="K107" s="0" t="n">
+      <c r="K107" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="L107" s="0" t="s">
+      <c r="L107" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="M107" s="18" t="n">
+      <c r="M107" s="14" t="n">
         <v>41380.6362467593</v>
       </c>
-      <c r="N107" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="O107" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P107" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q107" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R107" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S107" s="18" t="n">
-        <v>41380.6559268171</v>
-      </c>
-      <c r="T107" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108" s="35">
-      <c r="A108" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B108" s="0" t="n">
+      <c r="N107" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="O107" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q107" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R107" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" s="14" t="n">
+        <v>41380.6559267361</v>
+      </c>
+      <c r="T107" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="108" s="35">
+      <c r="A108" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="11" t="n">
         <v>15736</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="11" t="n">
         <v>20120731</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="G108" s="0" t="s">
+      <c r="D108" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="H108" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="I108" s="0" t="s">
+      <c r="I108" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J108" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="K108" s="0" t="n">
+      <c r="J108" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="K108" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="L108" s="0" t="s">
+      <c r="L108" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M108" s="18" t="n">
-        <v>41380.6544068634</v>
-      </c>
-      <c r="N108" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O108" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P108" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q108" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R108" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S108" s="18" t="n">
-        <v>41408.5971545949</v>
-      </c>
-      <c r="T108" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109" s="35">
-      <c r="A109" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="0" t="n">
+      <c r="M108" s="9" t="n">
+        <v>41380.6544068287</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O108" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P108" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q108" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R108" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" s="9" t="n">
+        <v>41408.5971545139</v>
+      </c>
+      <c r="T108" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="109" s="36">
+      <c r="A109" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="15" t="n">
         <v>15738</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="15" t="n">
         <v>20120701</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="G109" s="0" t="s">
+      <c r="D109" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="G109" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H109" s="0" t="s">
+      <c r="H109" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I109" s="0" t="s">
+      <c r="I109" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="J109" s="0" t="s">
+      <c r="J109" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K109" s="0" t="n">
+      <c r="K109" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="L109" s="0" t="s">
+      <c r="L109" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M109" s="18" t="n">
-        <v>41380.7369794792</v>
-      </c>
-      <c r="N109" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="O109" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P109" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q109" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R109" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S109" s="18" t="n">
-        <v>41380.7701677894</v>
-      </c>
-      <c r="T109" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="35">
+      <c r="M109" s="14" t="n">
+        <v>41380.7369793982</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="O109" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P109" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q109" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R109" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" s="14" t="n">
+        <v>41380.7701677083</v>
+      </c>
+      <c r="T109" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="42">
       <c r="A110" s="17" t="s">
         <v>20</v>
       </c>
@@ -9615,13 +9672,13 @@
         <v>20120702</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>35</v>
@@ -9642,10 +9699,10 @@
         <v>107</v>
       </c>
       <c r="M110" s="18" t="n">
-        <v>41380.7715090625</v>
+        <v>41380.7715090278</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="O110" s="0" t="s">
         <v>28</v>
@@ -9660,11 +9717,11 @@
         <v>3</v>
       </c>
       <c r="S110" s="18" t="n">
-        <v>41380.7922883449</v>
+        <v>41380.7922881944</v>
       </c>
       <c r="T110" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="42">
       <c r="A111" s="17" t="s">
         <v>20</v>
       </c>
@@ -9675,10 +9732,10 @@
         <v>20120704</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>473</v>
@@ -9693,7 +9750,7 @@
         <v>402</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>32</v>
@@ -9705,7 +9762,7 @@
         <v>41381.5380797454</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="O111" s="0" t="s">
         <v>28</v>
@@ -9720,11 +9777,11 @@
         <v>3</v>
       </c>
       <c r="S111" s="18" t="n">
-        <v>41381.573203669</v>
+        <v>41381.573203588</v>
       </c>
       <c r="T111" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="42">
       <c r="A112" s="17" t="s">
         <v>20</v>
       </c>
@@ -9735,7 +9792,7 @@
         <v>20120711</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E112" s="0"/>
       <c r="F112" s="0" t="s">
@@ -9757,13 +9814,13 @@
         <v>10</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="M112" s="18" t="n">
-        <v>41382.3362046296</v>
+        <v>41382.3362045139</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="O112" s="0" t="s">
         <v>28</v>
@@ -9778,11 +9835,11 @@
         <v>3</v>
       </c>
       <c r="S112" s="18" t="n">
-        <v>41386.5445853009</v>
+        <v>41386.5445851852</v>
       </c>
       <c r="T112" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="42">
       <c r="A113" s="17" t="s">
         <v>20</v>
       </c>
@@ -9793,7 +9850,7 @@
         <v>20120721</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E113" s="0"/>
       <c r="F113" s="0" t="s">
@@ -9806,22 +9863,22 @@
         <v>180</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M113" s="18" t="n">
-        <v>41386.533459375</v>
+        <v>41386.5334592593</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="O113" s="0" t="s">
         <v>28</v>
@@ -9836,11 +9893,11 @@
         <v>3</v>
       </c>
       <c r="S113" s="18" t="n">
-        <v>41400.3458495718</v>
+        <v>41400.345849537</v>
       </c>
       <c r="T113" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="42">
       <c r="A114" s="17" t="s">
         <v>20</v>
       </c>
@@ -9851,10 +9908,10 @@
         <v>20120713</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>195</v>
@@ -9878,10 +9935,10 @@
         <v>196</v>
       </c>
       <c r="M114" s="18" t="n">
-        <v>41387.3496603356</v>
+        <v>41387.3496603009</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="O114" s="0" t="s">
         <v>28</v>
@@ -9900,7 +9957,7 @@
       </c>
       <c r="T114" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="42">
       <c r="A115" s="17" t="s">
         <v>20</v>
       </c>
@@ -9911,7 +9968,7 @@
         <v>20120719</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E115" s="0"/>
       <c r="F115" s="0" t="s">
@@ -9936,10 +9993,10 @@
         <v>101</v>
       </c>
       <c r="M115" s="18" t="n">
-        <v>41389.4028955671</v>
+        <v>41389.4028954861</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="O115" s="0" t="s">
         <v>28</v>
@@ -9954,11 +10011,11 @@
         <v>3</v>
       </c>
       <c r="S115" s="18" t="n">
-        <v>41394.4009287384</v>
+        <v>41394.4009287037</v>
       </c>
       <c r="T115" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="42">
       <c r="A116" s="17" t="s">
         <v>20</v>
       </c>
@@ -9969,13 +10026,13 @@
         <v>20120714</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>83</v>
@@ -9984,7 +10041,7 @@
         <v>252</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>112</v>
@@ -9999,7 +10056,7 @@
         <v>41389.598034375</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="O116" s="0" t="s">
         <v>28</v>
@@ -10014,11 +10071,11 @@
         <v>3</v>
       </c>
       <c r="S116" s="18" t="n">
-        <v>41390.4154044792</v>
+        <v>41390.4154043981</v>
       </c>
       <c r="T116" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="42">
       <c r="A117" s="17" t="s">
         <v>20</v>
       </c>
@@ -10029,13 +10086,13 @@
         <v>20120715</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>83</v>
@@ -10044,22 +10101,22 @@
         <v>252</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="L117" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="M117" s="18" t="n">
+        <v>41390.4169229167</v>
+      </c>
+      <c r="N117" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="M117" s="18" t="n">
-        <v>41390.4169229977</v>
-      </c>
-      <c r="N117" s="0" t="s">
-        <v>590</v>
       </c>
       <c r="O117" s="0" t="s">
         <v>28</v>
@@ -10078,7 +10135,7 @@
       </c>
       <c r="T117" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="42">
       <c r="A118" s="17" t="s">
         <v>20</v>
       </c>
@@ -10089,13 +10146,13 @@
         <v>20120716</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>83</v>
@@ -10104,7 +10161,7 @@
         <v>252</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>112</v>
@@ -10116,10 +10173,10 @@
         <v>122</v>
       </c>
       <c r="M118" s="18" t="n">
-        <v>41390.4574103819</v>
+        <v>41390.4574103009</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="O118" s="0" t="s">
         <v>28</v>
@@ -10134,11 +10191,11 @@
         <v>3</v>
       </c>
       <c r="S118" s="18" t="n">
-        <v>41390.4985154745</v>
+        <v>41390.4985153935</v>
       </c>
       <c r="T118" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="42">
       <c r="A119" s="17" t="s">
         <v>20</v>
       </c>
@@ -10149,7 +10206,7 @@
         <v>20120717</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>407</v>
@@ -10164,13 +10221,13 @@
         <v>408</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="L119" s="0" t="s">
         <v>411</v>
@@ -10179,7 +10236,7 @@
         <v>41390.5339625</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="O119" s="0" t="s">
         <v>28</v>
@@ -10194,11 +10251,11 @@
         <v>3</v>
       </c>
       <c r="S119" s="18" t="n">
-        <v>41390.6308382755</v>
+        <v>41390.6308381945</v>
       </c>
       <c r="T119" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="42">
       <c r="A120" s="17" t="s">
         <v>20</v>
       </c>
@@ -10209,10 +10266,10 @@
         <v>20120720</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>30</v>
@@ -10224,10 +10281,10 @@
         <v>296</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>35</v>
@@ -10236,10 +10293,10 @@
         <v>113</v>
       </c>
       <c r="M120" s="18" t="n">
-        <v>41395.6476705671</v>
+        <v>41395.6476704861</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="O120" s="0" t="s">
         <v>28</v>
@@ -10254,11 +10311,11 @@
         <v>3</v>
       </c>
       <c r="S120" s="18" t="n">
-        <v>41396.4067241898</v>
+        <v>41396.4067240741</v>
       </c>
       <c r="T120" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="42">
       <c r="A121" s="17" t="s">
         <v>20</v>
       </c>
@@ -10269,10 +10326,10 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>145</v>
@@ -10284,13 +10341,13 @@
         <v>145</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="L121" s="0" t="s">
         <v>146</v>
@@ -10299,7 +10356,7 @@
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="O121" s="0" t="s">
         <v>30</v>
@@ -10314,11 +10371,11 @@
         <v>3</v>
       </c>
       <c r="S121" s="18" t="n">
-        <v>41444.4912668171</v>
+        <v>41444.4912667824</v>
       </c>
       <c r="T121" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="42">
       <c r="A122" s="17" t="s">
         <v>20</v>
       </c>
@@ -10329,7 +10386,7 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>450</v>
@@ -10359,7 +10416,7 @@
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="O122" s="0" t="s">
         <v>28</v>
@@ -10374,11 +10431,11 @@
         <v>3</v>
       </c>
       <c r="S122" s="18" t="n">
-        <v>41400.5870654282</v>
+        <v>41400.5870653935</v>
       </c>
       <c r="T122" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="42">
       <c r="A123" s="17" t="s">
         <v>20</v>
       </c>
@@ -10389,19 +10446,19 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>271</v>
@@ -10413,13 +10470,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M123" s="18" t="n">
-        <v>41400.580093287</v>
+        <v>41400.5800931713</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="O123" s="0" t="s">
         <v>28</v>
@@ -10438,7 +10495,7 @@
       </c>
       <c r="T123" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="42">
       <c r="A124" s="17" t="s">
         <v>20</v>
       </c>
@@ -10449,10 +10506,10 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>30</v>
@@ -10467,7 +10524,7 @@
         <v>210</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>21</v>
@@ -10476,10 +10533,10 @@
         <v>122</v>
       </c>
       <c r="M124" s="18" t="n">
-        <v>41400.6168131597</v>
+        <v>41400.6168130787</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>28</v>
@@ -10494,11 +10551,11 @@
         <v>3</v>
       </c>
       <c r="S124" s="18" t="n">
-        <v>41402.4662491898</v>
+        <v>41402.4662490741</v>
       </c>
       <c r="T124" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="42">
       <c r="A125" s="17" t="s">
         <v>20</v>
       </c>
@@ -10509,37 +10566,37 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>15</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M125" s="18" t="n">
-        <v>41401.6187177083</v>
+        <v>41401.6187175926</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="O125" s="0" t="s">
         <v>28</v>
@@ -10554,11 +10611,11 @@
         <v>3</v>
       </c>
       <c r="S125" s="18" t="n">
-        <v>41401.644543206</v>
+        <v>41401.6445431713</v>
       </c>
       <c r="T125" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="42">
       <c r="A126" s="17" t="s">
         <v>20</v>
       </c>
@@ -10569,10 +10626,10 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>30</v>
@@ -10581,10 +10638,10 @@
         <v>24</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>359</v>
@@ -10596,10 +10653,10 @@
         <v>25</v>
       </c>
       <c r="M126" s="18" t="n">
-        <v>41402.4505539005</v>
+        <v>41402.4505538194</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="O126" s="0" t="s">
         <v>28</v>
@@ -10614,11 +10671,11 @@
         <v>3</v>
       </c>
       <c r="S126" s="18" t="n">
-        <v>41402.6119722222</v>
+        <v>41402.6119721065</v>
       </c>
       <c r="T126" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="42">
       <c r="A127" s="17" t="s">
         <v>20</v>
       </c>
@@ -10629,10 +10686,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>30</v>
@@ -10647,7 +10704,7 @@
         <v>242</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>266</v>
@@ -10656,10 +10713,10 @@
         <v>69</v>
       </c>
       <c r="M127" s="18" t="n">
-        <v>41403.6118389236</v>
+        <v>41403.6118388889</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>28</v>
@@ -10674,11 +10731,11 @@
         <v>3</v>
       </c>
       <c r="S127" s="18" t="n">
-        <v>41403.6263330208</v>
+        <v>41403.6263329861</v>
       </c>
       <c r="T127" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="42">
       <c r="A128" s="17" t="s">
         <v>20</v>
       </c>
@@ -10689,13 +10746,13 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>24</v>
@@ -10716,10 +10773,10 @@
         <v>138</v>
       </c>
       <c r="M128" s="18" t="n">
-        <v>41403.8700552894</v>
+        <v>41403.8700552083</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="O128" s="0" t="s">
         <v>28</v>
@@ -10734,11 +10791,11 @@
         <v>3</v>
       </c>
       <c r="S128" s="18" t="n">
-        <v>41408.5709522338</v>
+        <v>41408.5709521991</v>
       </c>
       <c r="T128" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="42">
       <c r="A129" s="17" t="s">
         <v>20</v>
       </c>
@@ -10749,13 +10806,13 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>54</v>
@@ -10764,10 +10821,10 @@
         <v>277</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>6</v>
@@ -10776,10 +10833,10 @@
         <v>107</v>
       </c>
       <c r="M129" s="18" t="n">
-        <v>41407.5351728356</v>
+        <v>41407.5351728009</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="O129" s="0" t="s">
         <v>28</v>
@@ -10794,11 +10851,11 @@
         <v>3</v>
       </c>
       <c r="S129" s="18" t="n">
-        <v>41407.5630426273</v>
+        <v>41407.5630425926</v>
       </c>
       <c r="T129" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="42">
       <c r="A130" s="17" t="s">
         <v>20</v>
       </c>
@@ -10809,13 +10866,13 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>308</v>
@@ -10827,7 +10884,7 @@
         <v>135</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>35</v>
@@ -10854,11 +10911,11 @@
         <v>3</v>
       </c>
       <c r="S130" s="18" t="n">
-        <v>41409.3901060995</v>
+        <v>41409.3901060185</v>
       </c>
       <c r="T130" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="42">
       <c r="A131" s="17" t="s">
         <v>20</v>
       </c>
@@ -10869,10 +10926,10 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>30</v>
@@ -10890,16 +10947,16 @@
         <v>175</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="L131" s="0" t="s">
         <v>177</v>
       </c>
       <c r="M131" s="18" t="n">
-        <v>41409.4303223032</v>
+        <v>41409.4303221065</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>28</v>
@@ -10918,7 +10975,7 @@
       </c>
       <c r="T131" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="42">
       <c r="A132" s="17" t="s">
         <v>20</v>
       </c>
@@ -10929,13 +10986,13 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>24</v>
@@ -10956,10 +11013,10 @@
         <v>138</v>
       </c>
       <c r="M132" s="18" t="n">
-        <v>41409.5465580208</v>
+        <v>41409.5465578704</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="O132" s="0" t="s">
         <v>28</v>
@@ -10974,11 +11031,11 @@
         <v>3</v>
       </c>
       <c r="S132" s="18" t="n">
-        <v>41409.6597541319</v>
+        <v>41409.6597539352</v>
       </c>
       <c r="T132" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="42">
       <c r="A133" s="17" t="s">
         <v>20</v>
       </c>
@@ -10989,7 +11046,7 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>429</v>
@@ -11007,19 +11064,19 @@
         <v>431</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="L133" s="0" t="s">
         <v>433</v>
       </c>
       <c r="M133" s="18" t="n">
-        <v>41409.6335074421</v>
+        <v>41409.6335072917</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="O133" s="0" t="s">
         <v>30</v>
@@ -11038,7 +11095,7 @@
       </c>
       <c r="T133" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="42">
       <c r="A134" s="17" t="s">
         <v>20</v>
       </c>
@@ -11049,13 +11106,13 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>83</v>
@@ -11064,7 +11121,7 @@
         <v>248</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J134" s="0" t="s">
         <v>112</v>
@@ -11076,10 +11133,10 @@
         <v>122</v>
       </c>
       <c r="M134" s="18" t="n">
-        <v>41409.8738054745</v>
+        <v>41409.8738054398</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="O134" s="0" t="s">
         <v>28</v>
@@ -11098,7 +11155,7 @@
       </c>
       <c r="T134" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="42">
       <c r="A135" s="17" t="s">
         <v>20</v>
       </c>
@@ -11109,10 +11166,10 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>276</v>
@@ -11124,10 +11181,10 @@
         <v>277</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>19</v>
@@ -11139,7 +11196,7 @@
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="O135" s="0" t="s">
         <v>28</v>
@@ -11154,11 +11211,11 @@
         <v>3</v>
       </c>
       <c r="S135" s="18" t="n">
-        <v>41410.5680613773</v>
+        <v>41410.5680612269</v>
       </c>
       <c r="T135" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="42">
       <c r="A136" s="17" t="s">
         <v>20</v>
       </c>
@@ -11169,7 +11226,7 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="E136" s="0"/>
       <c r="F136" s="0" t="s">
@@ -11194,10 +11251,10 @@
         <v>101</v>
       </c>
       <c r="M136" s="18" t="n">
-        <v>41413.6731329861</v>
+        <v>41413.6731327546</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="O136" s="0" t="s">
         <v>28</v>
@@ -11212,11 +11269,11 @@
         <v>3</v>
       </c>
       <c r="S136" s="18" t="n">
-        <v>41416.4081171644</v>
+        <v>41416.4081171296</v>
       </c>
       <c r="T136" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="42">
       <c r="A137" s="17" t="s">
         <v>20</v>
       </c>
@@ -11227,7 +11284,7 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="0" t="s">
@@ -11240,22 +11297,22 @@
         <v>173</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M137" s="18" t="n">
-        <v>41415.646772419</v>
+        <v>41415.646772338</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="O137" s="0" t="s">
         <v>28</v>
@@ -11270,11 +11327,11 @@
         <v>3</v>
       </c>
       <c r="S137" s="18" t="n">
-        <v>41416.6472109607</v>
+        <v>41416.6472108796</v>
       </c>
       <c r="T137" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="42">
       <c r="A138" s="17" t="s">
         <v>20</v>
       </c>
@@ -11285,10 +11342,10 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>164</v>
@@ -11300,10 +11357,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>7</v>
@@ -11312,7 +11369,7 @@
         <v>25</v>
       </c>
       <c r="M138" s="18" t="n">
-        <v>41416.3749281597</v>
+        <v>41416.374928125</v>
       </c>
       <c r="N138" s="0" t="s">
         <v>27</v>
@@ -11330,11 +11387,11 @@
         <v>3</v>
       </c>
       <c r="S138" s="18" t="n">
-        <v>41431.6803141204</v>
+        <v>41431.6803140046</v>
       </c>
       <c r="T138" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="42">
       <c r="A139" s="17" t="s">
         <v>20</v>
       </c>
@@ -11345,7 +11402,7 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E139" s="0"/>
       <c r="F139" s="0" t="s">
@@ -11373,7 +11430,7 @@
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>28</v>
@@ -11388,11 +11445,11 @@
         <v>3</v>
       </c>
       <c r="S139" s="18" t="n">
-        <v>41416.4223429398</v>
+        <v>41416.4223428241</v>
       </c>
       <c r="T139" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="42">
       <c r="A140" s="17" t="s">
         <v>20</v>
       </c>
@@ -11403,13 +11460,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>69</v>
@@ -11433,7 +11490,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="O140" s="0" t="s">
         <v>30</v>
@@ -11448,11 +11505,11 @@
         <v>3</v>
       </c>
       <c r="S140" s="18" t="n">
-        <v>41438.4522059838</v>
+        <v>41438.4522059028</v>
       </c>
       <c r="T140" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="42">
       <c r="A141" s="17" t="s">
         <v>20</v>
       </c>
@@ -11463,13 +11520,13 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>30</v>
@@ -11478,22 +11535,22 @@
         <v>173</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="L141" s="0" t="s">
         <v>177</v>
       </c>
       <c r="M141" s="18" t="n">
-        <v>41422.4202321412</v>
+        <v>41422.4202319444</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>30</v>
@@ -11508,11 +11565,11 @@
         <v>3</v>
       </c>
       <c r="S141" s="18" t="n">
-        <v>41435.6075096875</v>
+        <v>41435.6075096065</v>
       </c>
       <c r="T141" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="42">
       <c r="A142" s="17" t="s">
         <v>20</v>
       </c>
@@ -11523,13 +11580,13 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>35</v>
@@ -11541,19 +11598,19 @@
         <v>351</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="M142" s="18" t="n">
-        <v>41422.5893254977</v>
+        <v>41422.589325463</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>28</v>
@@ -11572,7 +11629,7 @@
       </c>
       <c r="T142" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="42">
       <c r="A143" s="17" t="s">
         <v>20</v>
       </c>
@@ -11583,19 +11640,19 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>30</v>
@@ -11607,13 +11664,13 @@
         <v>30</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M143" s="18" t="n">
-        <v>41423.4291382755</v>
+        <v>41423.4291381944</v>
       </c>
       <c r="N143" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="O143" s="0" t="s">
         <v>28</v>
@@ -11628,11 +11685,11 @@
         <v>3</v>
       </c>
       <c r="S143" s="18" t="n">
-        <v>41424.7292217245</v>
+        <v>41424.7292216435</v>
       </c>
       <c r="T143" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="42">
       <c r="A144" s="17" t="s">
         <v>20</v>
       </c>
@@ -11643,10 +11700,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>104</v>
@@ -11667,13 +11724,13 @@
         <v>30</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M144" s="18" t="n">
-        <v>41423.7250649653</v>
+        <v>41423.7250649306</v>
       </c>
       <c r="N144" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="O144" s="0" t="s">
         <v>28</v>
@@ -11688,11 +11745,11 @@
         <v>3</v>
       </c>
       <c r="S144" s="18" t="n">
-        <v>41424.6425417824</v>
+        <v>41424.6425415509</v>
       </c>
       <c r="T144" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="42">
       <c r="A145" s="17" t="s">
         <v>20</v>
       </c>
@@ -11703,7 +11760,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="0" t="s">
@@ -11728,10 +11785,10 @@
         <v>101</v>
       </c>
       <c r="M145" s="18" t="n">
-        <v>41423.7734304398</v>
+        <v>41423.7734303241</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>28</v>
@@ -11746,11 +11803,11 @@
         <v>3</v>
       </c>
       <c r="S145" s="18" t="n">
-        <v>41423.7810798264</v>
+        <v>41423.7810796296</v>
       </c>
       <c r="T145" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="42">
       <c r="A146" s="17" t="s">
         <v>20</v>
       </c>
@@ -11761,7 +11818,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
@@ -11789,7 +11846,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>28</v>
@@ -11804,11 +11861,11 @@
         <v>3</v>
       </c>
       <c r="S146" s="18" t="n">
-        <v>41423.7946974537</v>
+        <v>41423.794697338</v>
       </c>
       <c r="T146" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="42">
       <c r="A147" s="17" t="s">
         <v>20</v>
       </c>
@@ -11819,7 +11876,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="E147" s="0"/>
       <c r="F147" s="0" t="s">
@@ -11844,10 +11901,10 @@
         <v>101</v>
       </c>
       <c r="M147" s="18" t="n">
-        <v>41423.8413989931</v>
+        <v>41423.8413989583</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>28</v>
@@ -11862,11 +11919,11 @@
         <v>3</v>
       </c>
       <c r="S147" s="18" t="n">
-        <v>41423.8482772338</v>
+        <v>41423.8482770833</v>
       </c>
       <c r="T147" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="42">
       <c r="A148" s="17" t="s">
         <v>20</v>
       </c>
@@ -11877,13 +11934,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>30</v>
@@ -11907,7 +11964,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>30</v>
@@ -11922,11 +11979,11 @@
         <v>3</v>
       </c>
       <c r="S148" s="18" t="n">
-        <v>41429.6013191319</v>
+        <v>41429.6013190972</v>
       </c>
       <c r="T148" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="42">
       <c r="A149" s="17" t="s">
         <v>20</v>
       </c>
@@ -11937,19 +11994,19 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="I149" s="0" t="s">
         <v>30</v>
@@ -11961,13 +12018,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="M149" s="18" t="n">
-        <v>41425.3611156597</v>
+        <v>41425.361115625</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="O149" s="0" t="s">
         <v>30</v>
@@ -11982,11 +12039,11 @@
         <v>3</v>
       </c>
       <c r="S149" s="18" t="n">
-        <v>41446.7091498495</v>
+        <v>41446.7091497685</v>
       </c>
       <c r="T149" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="42">
       <c r="A150" s="17" t="s">
         <v>20</v>
       </c>
@@ -11997,7 +12054,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>81</v>
@@ -12024,10 +12081,10 @@
         <v>101</v>
       </c>
       <c r="M150" s="18" t="n">
-        <v>41425.5221732986</v>
+        <v>41425.5221732639</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="O150" s="0" t="s">
         <v>28</v>
@@ -12042,11 +12099,11 @@
         <v>3</v>
       </c>
       <c r="S150" s="18" t="n">
-        <v>41425.5683483449</v>
+        <v>41425.5683482639</v>
       </c>
       <c r="T150" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="42">
       <c r="A151" s="17" t="s">
         <v>20</v>
       </c>
@@ -12057,7 +12114,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E151" s="0"/>
       <c r="F151" s="0" t="s">
@@ -12067,25 +12124,25 @@
         <v>69</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>69</v>
       </c>
       <c r="M151" s="18" t="n">
-        <v>41425.5727136574</v>
+        <v>41425.5727134259</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="O151" s="0" t="s">
         <v>28</v>
@@ -12100,11 +12157,11 @@
         <v>3</v>
       </c>
       <c r="S151" s="18" t="n">
-        <v>41425.6055085648</v>
+        <v>41425.6055084491</v>
       </c>
       <c r="T151" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="42">
       <c r="A152" s="17" t="s">
         <v>20</v>
       </c>
@@ -12115,10 +12172,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>30</v>
@@ -12127,25 +12184,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="M152" s="18" t="n">
-        <v>41428.4703114583</v>
+        <v>41428.4703113426</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="O152" s="0" t="s">
         <v>30</v>
@@ -12160,11 +12217,11 @@
         <v>3</v>
       </c>
       <c r="S152" s="18" t="n">
-        <v>41428.5247158912</v>
+        <v>41428.5247158565</v>
       </c>
       <c r="T152" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="42">
       <c r="A153" s="17" t="s">
         <v>20</v>
       </c>
@@ -12175,13 +12232,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>30</v>
@@ -12190,22 +12247,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="M153" s="18" t="n">
-        <v>41428.5987583681</v>
+        <v>41428.5987583333</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="O153" s="0" t="s">
         <v>30</v>
@@ -12220,11 +12277,11 @@
         <v>3</v>
       </c>
       <c r="S153" s="18" t="n">
-        <v>41451.5624622338</v>
+        <v>41451.5624621528</v>
       </c>
       <c r="T153" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="42">
       <c r="A154" s="17" t="s">
         <v>20</v>
       </c>
@@ -12235,10 +12292,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>151</v>
@@ -12250,10 +12307,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>34</v>
@@ -12262,10 +12319,10 @@
         <v>154</v>
       </c>
       <c r="M154" s="18" t="n">
-        <v>41429.4211212616</v>
+        <v>41429.4211211806</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>30</v>
@@ -12280,11 +12337,11 @@
         <v>3</v>
       </c>
       <c r="S154" s="18" t="n">
-        <v>41429.5048460648</v>
+        <v>41429.5048459491</v>
       </c>
       <c r="T154" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="42">
       <c r="A155" s="17" t="s">
         <v>20</v>
       </c>
@@ -12295,10 +12352,10 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>397</v>
@@ -12310,10 +12367,10 @@
         <v>378</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>20</v>
@@ -12322,10 +12379,10 @@
         <v>107</v>
       </c>
       <c r="M155" s="18" t="n">
-        <v>41429.529555787</v>
+        <v>41429.5295556713</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="O155" s="0" t="s">
         <v>30</v>
@@ -12340,11 +12397,11 @@
         <v>3</v>
       </c>
       <c r="S155" s="18" t="n">
-        <v>41429.6654361111</v>
+        <v>41429.6654359954</v>
       </c>
       <c r="T155" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="42">
       <c r="A156" s="17" t="s">
         <v>20</v>
       </c>
@@ -12355,10 +12412,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>30</v>
@@ -12370,13 +12427,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>219</v>
@@ -12385,7 +12442,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="O156" s="0" t="s">
         <v>30</v>
@@ -12400,11 +12457,11 @@
         <v>3</v>
       </c>
       <c r="S156" s="18" t="n">
-        <v>41429.5703815625</v>
+        <v>41429.5703814815</v>
       </c>
       <c r="T156" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="42">
       <c r="A157" s="17" t="s">
         <v>20</v>
       </c>
@@ -12415,10 +12472,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>30</v>
@@ -12427,25 +12484,25 @@
         <v>30</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>27</v>
       </c>
       <c r="L157" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M157" s="18" t="n">
-        <v>41431.5794003125</v>
+        <v>41431.5794002315</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="O157" s="0" t="s">
         <v>30</v>
@@ -12464,7 +12521,7 @@
       </c>
       <c r="T157" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="42">
       <c r="A158" s="17" t="s">
         <v>20</v>
       </c>
@@ -12475,10 +12532,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>53</v>
@@ -12490,10 +12547,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
@@ -12502,10 +12559,10 @@
         <v>58</v>
       </c>
       <c r="M158" s="18" t="n">
-        <v>41437.4946140046</v>
+        <v>41437.4946138889</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>30</v>
@@ -12520,11 +12577,11 @@
         <v>3</v>
       </c>
       <c r="S158" s="18" t="n">
-        <v>41451.5483249653</v>
+        <v>41451.5483248843</v>
       </c>
       <c r="T158" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="42">
       <c r="A159" s="17" t="s">
         <v>20</v>
       </c>
@@ -12535,13 +12592,13 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>35</v>
@@ -12550,10 +12607,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>14</v>
@@ -12562,10 +12619,10 @@
         <v>107</v>
       </c>
       <c r="M159" s="18" t="n">
-        <v>41439.4236439468</v>
+        <v>41439.4236438657</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="O159" s="0" t="s">
         <v>30</v>
@@ -12580,11 +12637,11 @@
         <v>3</v>
       </c>
       <c r="S159" s="18" t="n">
-        <v>41439.4544053588</v>
+        <v>41439.4544053241</v>
       </c>
       <c r="T159" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="42">
       <c r="A160" s="17" t="s">
         <v>20</v>
       </c>
@@ -12595,11 +12652,11 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>30</v>
@@ -12608,22 +12665,22 @@
         <v>430</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="M160" s="18" t="n">
-        <v>41442.581944294</v>
+        <v>41442.581944213</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="O160" s="0" t="s">
         <v>30</v>
@@ -12638,11 +12695,11 @@
         <v>3</v>
       </c>
       <c r="S160" s="18" t="n">
-        <v>41445.3940660532</v>
+        <v>41445.3940659722</v>
       </c>
       <c r="T160" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="42">
       <c r="A161" s="17" t="s">
         <v>20</v>
       </c>
@@ -12653,10 +12710,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -12668,10 +12725,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -12680,10 +12737,10 @@
         <v>181</v>
       </c>
       <c r="M161" s="18" t="n">
-        <v>41442.6344805903</v>
+        <v>41442.6344804398</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -12698,11 +12755,11 @@
         <v>3</v>
       </c>
       <c r="S161" s="18" t="n">
-        <v>41445.3949270833</v>
+        <v>41445.3949269676</v>
       </c>
       <c r="T161" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="42">
       <c r="A162" s="17" t="s">
         <v>20</v>
       </c>
@@ -12713,7 +12770,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -12726,7 +12783,7 @@
         <v>237</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J162" s="0" t="s">
         <v>439</v>
@@ -12738,10 +12795,10 @@
         <v>212</v>
       </c>
       <c r="M162" s="18" t="n">
-        <v>41443.4305087153</v>
+        <v>41443.4305086806</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -12756,11 +12813,11 @@
         <v>3</v>
       </c>
       <c r="S162" s="18" t="n">
-        <v>41445.4506866088</v>
+        <v>41445.4506865741</v>
       </c>
       <c r="T162" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="42">
       <c r="A163" s="17" t="s">
         <v>20</v>
       </c>
@@ -12771,10 +12828,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -12786,13 +12843,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -12801,7 +12858,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -12820,7 +12877,7 @@
       </c>
       <c r="T163" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="42">
       <c r="A164" s="17" t="s">
         <v>20</v>
       </c>
@@ -12831,7 +12888,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -12856,10 +12913,10 @@
         <v>154</v>
       </c>
       <c r="M164" s="18" t="n">
-        <v>41444.665028669</v>
+        <v>41444.665028588</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -12874,11 +12931,11 @@
         <v>3</v>
       </c>
       <c r="S164" s="18" t="n">
-        <v>41445.4034752662</v>
+        <v>41445.4034752315</v>
       </c>
       <c r="T164" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="42">
       <c r="A165" s="17" t="s">
         <v>20</v>
       </c>
@@ -12889,10 +12946,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -12904,22 +12961,22 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
       </c>
       <c r="M165" s="18" t="n">
-        <v>41445.4579989583</v>
+        <v>41445.4579988426</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -12934,11 +12991,11 @@
         <v>3</v>
       </c>
       <c r="S165" s="18" t="n">
-        <v>41454.8893689005</v>
+        <v>41454.8893688657</v>
       </c>
       <c r="T165" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="42">
       <c r="A166" s="17" t="s">
         <v>20</v>
       </c>
@@ -12949,7 +13006,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -12959,13 +13016,13 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
@@ -12974,10 +13031,10 @@
         <v>360</v>
       </c>
       <c r="M166" s="18" t="n">
-        <v>41446.4608850694</v>
+        <v>41446.4608849537</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -12992,323 +13049,323 @@
         <v>3</v>
       </c>
       <c r="S166" s="18" t="n">
-        <v>41452.3569886574</v>
+        <v>41452.3569885417</v>
       </c>
       <c r="T166" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="42">
       <c r="A167" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B167" s="37" t="n">
+      <c r="B167" s="43" t="n">
         <v>16085</v>
       </c>
-      <c r="C167" s="37" t="n">
+      <c r="C167" s="43" t="n">
         <v>20130021</v>
       </c>
-      <c r="D167" s="37" t="s">
-        <v>792</v>
-      </c>
-      <c r="E167" s="37" t="s">
-        <v>793</v>
+      <c r="D167" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="E167" s="43" t="s">
+        <v>799</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G167" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="37" t="s">
-        <v>794</v>
-      </c>
-      <c r="I167" s="37" t="s">
-        <v>795</v>
-      </c>
-      <c r="J167" s="37" t="s">
+      <c r="G167" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="43" t="s">
+        <v>800</v>
+      </c>
+      <c r="I167" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="J167" s="43" t="s">
         <v>152</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L167" s="37" t="s">
+      <c r="L167" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="M167" s="38" t="n">
+      <c r="M167" s="44" t="n">
         <v>41449.3498559028</v>
       </c>
-      <c r="N167" s="37" t="s">
-        <v>796</v>
-      </c>
-      <c r="O167" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P167" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q167" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R167" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S167" s="38" t="n">
+      <c r="N167" s="43" t="s">
+        <v>802</v>
+      </c>
+      <c r="O167" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P167" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q167" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R167" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" s="44" t="n">
         <v>41449.3675326389</v>
       </c>
       <c r="T167" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="42">
       <c r="A168" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="37" t="n">
+      <c r="B168" s="43" t="n">
         <v>16086</v>
       </c>
-      <c r="C168" s="37" t="n">
+      <c r="C168" s="43" t="n">
         <v>20130022</v>
       </c>
-      <c r="D168" s="37" t="s">
-        <v>797</v>
-      </c>
-      <c r="E168" s="37" t="s">
-        <v>770</v>
+      <c r="D168" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="E168" s="43" t="s">
+        <v>776</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G168" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H168" s="37" t="s">
+      <c r="G168" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I168" s="37" t="n">
-        <v>29</v>
-      </c>
-      <c r="J168" s="37" t="s">
-        <v>740</v>
+      <c r="I168" s="43" t="n">
+        <v>29</v>
+      </c>
+      <c r="J168" s="43" t="s">
+        <v>746</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="L168" s="37" t="s">
+      <c r="L168" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="M168" s="38" t="n">
-        <v>41449.494916169</v>
-      </c>
-      <c r="N168" s="37" t="s">
-        <v>798</v>
-      </c>
-      <c r="O168" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P168" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q168" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R168" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S168" s="38" t="n">
-        <v>41449.5007751968</v>
+      <c r="M168" s="44" t="n">
+        <v>41449.494916088</v>
+      </c>
+      <c r="N168" s="43" t="s">
+        <v>804</v>
+      </c>
+      <c r="O168" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P168" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q168" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R168" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" s="44" t="n">
+        <v>41449.5007751157</v>
       </c>
       <c r="T168" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="42">
       <c r="A169" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="37" t="n">
+      <c r="B169" s="43" t="n">
         <v>16087</v>
       </c>
-      <c r="C169" s="37" t="n">
+      <c r="C169" s="43" t="n">
         <v>20130023</v>
       </c>
-      <c r="D169" s="37" t="s">
-        <v>799</v>
-      </c>
-      <c r="E169" s="37" t="s">
-        <v>800</v>
-      </c>
-      <c r="F169" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="G169" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H169" s="37" t="s">
-        <v>802</v>
-      </c>
-      <c r="I169" s="37" t="s">
+      <c r="D169" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="E169" s="43" t="s">
+        <v>806</v>
+      </c>
+      <c r="F169" s="43" t="s">
+        <v>807</v>
+      </c>
+      <c r="G169" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" s="43" t="s">
+        <v>808</v>
+      </c>
+      <c r="I169" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="J169" s="37" t="s">
-        <v>767</v>
+      <c r="J169" s="43" t="s">
+        <v>773</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="L169" s="37" t="s">
-        <v>802</v>
-      </c>
-      <c r="M169" s="38" t="n">
+      <c r="L169" s="43" t="s">
+        <v>808</v>
+      </c>
+      <c r="M169" s="44" t="n">
         <v>41449.6461498843</v>
       </c>
-      <c r="N169" s="37" t="s">
-        <v>803</v>
-      </c>
-      <c r="O169" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P169" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q169" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R169" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S169" s="38" t="n">
-        <v>41449.685081331</v>
+      <c r="N169" s="43" t="s">
+        <v>809</v>
+      </c>
+      <c r="O169" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P169" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q169" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R169" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" s="44" t="n">
+        <v>41449.68508125</v>
       </c>
       <c r="T169" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="42">
       <c r="A170" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="37" t="n">
+      <c r="B170" s="43" t="n">
         <v>16089</v>
       </c>
-      <c r="C170" s="37" t="n">
+      <c r="C170" s="43" t="n">
         <v>20130024</v>
       </c>
-      <c r="D170" s="37" t="s">
-        <v>804</v>
-      </c>
-      <c r="E170" s="37" t="s">
-        <v>805</v>
-      </c>
-      <c r="F170" s="37" t="s">
-        <v>806</v>
-      </c>
-      <c r="G170" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" s="37" t="s">
+      <c r="D170" s="43" t="s">
+        <v>810</v>
+      </c>
+      <c r="E170" s="43" t="s">
+        <v>811</v>
+      </c>
+      <c r="F170" s="43" t="s">
+        <v>812</v>
+      </c>
+      <c r="G170" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="I170" s="37" t="s">
+      <c r="I170" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="J170" s="37" t="s">
-        <v>807</v>
+      <c r="J170" s="43" t="s">
+        <v>813</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="L170" s="37" t="s">
+      <c r="L170" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="M170" s="38" t="n">
-        <v>41450.6984287037</v>
-      </c>
-      <c r="N170" s="37" t="s">
-        <v>808</v>
-      </c>
-      <c r="O170" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P170" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q170" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R170" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S170" s="38" t="n">
-        <v>41450.715544294</v>
-      </c>
-      <c r="T170" s="37"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="35">
+      <c r="M170" s="44" t="n">
+        <v>41450.698428588</v>
+      </c>
+      <c r="N170" s="43" t="s">
+        <v>814</v>
+      </c>
+      <c r="O170" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P170" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q170" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R170" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" s="44" t="n">
+        <v>41450.715544213</v>
+      </c>
+      <c r="T170" s="43"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="42">
       <c r="A171" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="37" t="n">
+      <c r="B171" s="43" t="n">
         <v>16091</v>
       </c>
-      <c r="C171" s="37" t="n">
+      <c r="C171" s="43" t="n">
         <v>20130025</v>
       </c>
-      <c r="D171" s="37" t="s">
-        <v>809</v>
-      </c>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" s="37" t="s">
+      <c r="D171" s="43" t="s">
+        <v>815</v>
+      </c>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="I171" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="J171" s="37" t="n">
+      <c r="I171" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="J171" s="43" t="n">
         <v>40</v>
       </c>
-      <c r="K171" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="L171" s="37" t="s">
+      <c r="K171" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="L171" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="M171" s="38" t="n">
-        <v>41451.4667568287</v>
-      </c>
-      <c r="N171" s="37" t="s">
-        <v>811</v>
-      </c>
-      <c r="O171" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P171" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q171" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R171" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S171" s="38" t="n">
+      <c r="M171" s="44" t="n">
+        <v>41451.466756713</v>
+      </c>
+      <c r="N171" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="O171" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P171" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q171" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R171" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" s="44" t="n">
         <v>41451.4801988426</v>
       </c>
       <c r="T171" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="42">
       <c r="A172" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="37" t="n">
+      <c r="B172" s="43" t="n">
         <v>16093</v>
       </c>
-      <c r="C172" s="37" t="n">
+      <c r="C172" s="43" t="n">
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -13320,13 +13377,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -13335,7 +13392,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>
@@ -13354,27 +13411,27 @@
       </c>
       <c r="T172" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="41">
-      <c r="A173" s="39"/>
-      <c r="B173" s="40"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="40"/>
-      <c r="F173" s="40"/>
-      <c r="G173" s="40"/>
-      <c r="H173" s="40"/>
-      <c r="I173" s="40"/>
-      <c r="J173" s="40"/>
-      <c r="K173" s="40"/>
-      <c r="L173" s="40"/>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="47">
+      <c r="A173" s="45"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="46"/>
+      <c r="J173" s="46"/>
+      <c r="K173" s="46"/>
+      <c r="L173" s="46"/>
       <c r="M173" s="18"/>
-      <c r="N173" s="40"/>
-      <c r="O173" s="40"/>
-      <c r="P173" s="40"/>
-      <c r="Q173" s="40"/>
-      <c r="R173" s="40"/>
+      <c r="N173" s="46"/>
+      <c r="O173" s="46"/>
+      <c r="P173" s="46"/>
+      <c r="Q173" s="46"/>
+      <c r="R173" s="46"/>
       <c r="S173" s="18"/>
-      <c r="T173" s="40"/>
+      <c r="T173" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="226" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="223" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Nick To Map remaining" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="824">
   <si>
     <t>Assigned</t>
   </si>
@@ -1757,6 +1757,9 @@
     <t>08-10-011</t>
   </si>
   <si>
+    <t>Nothing shown on respondent's map.</t>
+  </si>
+  <si>
     <t>Tower Pasture Livestock Water</t>
   </si>
   <si>
@@ -1788,6 +1791,9 @@
   </si>
   <si>
     <t>16-12-007</t>
+  </si>
+  <si>
+    <t>Shp contains irrigation info, nothing about fencing.</t>
   </si>
   <si>
     <t>Cluster Water Quality Improvement</t>
@@ -2498,6 +2504,7 @@
   <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -2519,6 +2526,7 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="FF000000"/>
@@ -2526,6 +2534,7 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="11"/>
     </font>
@@ -2823,8 +2832,8 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2896,10 +2905,10 @@
   </sheetPr>
   <dimension ref="A1:AI173"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A95" xSplit="0" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A109" activeCellId="0" pane="bottomLeft" sqref="109:109"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="L1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A98" xSplit="0" ySplit="1"/>
+      <selection activeCell="L1" activeCellId="0" pane="topLeft" sqref="L1"/>
+      <selection activeCell="T114" activeCellId="0" pane="bottomLeft" sqref="T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9661,301 +9670,305 @@
       </c>
       <c r="T109" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110" s="42">
-      <c r="A110" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="0" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="110" s="36">
+      <c r="A110" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="15" t="n">
         <v>15739</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="15" t="n">
         <v>20120702</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H110" s="0" t="s">
+      <c r="H110" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I110" s="0" t="s">
+      <c r="I110" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="J110" s="0" t="s">
+      <c r="J110" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K110" s="0" t="n">
+      <c r="K110" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="L110" s="0" t="s">
+      <c r="L110" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M110" s="18" t="n">
+      <c r="M110" s="14" t="n">
         <v>41380.7715090278</v>
       </c>
-      <c r="N110" s="0" t="s">
+      <c r="N110" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="O110" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P110" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q110" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R110" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S110" s="18" t="n">
+      <c r="O110" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P110" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q110" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R110" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" s="14" t="n">
         <v>41380.7922881944</v>
       </c>
-      <c r="T110" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111" s="42">
-      <c r="A111" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B111" s="0" t="n">
+      <c r="T110" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="111" s="35">
+      <c r="A111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="11" t="n">
         <v>15741</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="11" t="n">
         <v>20120704</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H111" s="0" t="s">
+      <c r="H111" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="I111" s="0" t="s">
+      <c r="I111" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="J111" s="0" t="s">
+      <c r="J111" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="K111" s="0" t="n">
+      <c r="K111" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="L111" s="0" t="s">
+      <c r="L111" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="M111" s="18" t="n">
+      <c r="M111" s="9" t="n">
         <v>41381.5380797454</v>
       </c>
-      <c r="N111" s="0" t="s">
+      <c r="N111" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="O111" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P111" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q111" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R111" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S111" s="18" t="n">
+      <c r="O111" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P111" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q111" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R111" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" s="9" t="n">
         <v>41381.573203588</v>
       </c>
-      <c r="T111" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112" s="42">
-      <c r="A112" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" s="0" t="n">
+      <c r="T111" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="112" s="36">
+      <c r="A112" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="15" t="n">
         <v>15742</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="15" t="n">
         <v>20120711</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="E112" s="0"/>
-      <c r="F112" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" s="0" t="s">
+      <c r="D112" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H112" s="0" t="s">
+      <c r="H112" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I112" s="0" t="s">
+      <c r="I112" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J112" s="0" t="s">
+      <c r="J112" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="K112" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="L112" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="M112" s="18" t="n">
+      <c r="L112" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="M112" s="14" t="n">
         <v>41382.3362045139</v>
       </c>
-      <c r="N112" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="O112" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P112" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q112" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R112" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S112" s="18" t="n">
+      <c r="N112" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="O112" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q112" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R112" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" s="14" t="n">
         <v>41386.5445851852</v>
       </c>
-      <c r="T112" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113" s="42">
-      <c r="A113" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" s="0" t="n">
+      <c r="T112" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="113" s="36">
+      <c r="A113" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="15" t="n">
         <v>15748</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="15" t="n">
         <v>20120721</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" s="0" t="s">
+      <c r="D113" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H113" s="0" t="s">
+      <c r="H113" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="I113" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="J113" s="0" t="s">
+      <c r="I113" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="K113" s="0" t="s">
+      <c r="J113" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="L113" s="0" t="s">
+      <c r="K113" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="M113" s="18" t="n">
+      <c r="L113" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="M113" s="14" t="n">
         <v>41386.5334592593</v>
       </c>
-      <c r="N113" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="O113" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P113" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q113" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R113" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S113" s="18" t="n">
+      <c r="N113" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="O113" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q113" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R113" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" s="14" t="n">
         <v>41400.345849537</v>
       </c>
-      <c r="T113" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114" s="42">
-      <c r="A114" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="0" t="n">
+      <c r="T113" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="114" s="35">
+      <c r="A114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="11" t="n">
         <v>15749</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="11" t="n">
         <v>20120713</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="E114" s="0" t="s">
+      <c r="D114" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H114" s="0" t="s">
+      <c r="H114" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="I114" s="0" t="s">
+      <c r="I114" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="J114" s="0" t="s">
+      <c r="J114" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="K114" s="0" t="n">
+      <c r="K114" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="L114" s="0" t="s">
+      <c r="L114" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M114" s="18" t="n">
+      <c r="M114" s="9" t="n">
         <v>41387.3496603009</v>
       </c>
-      <c r="N114" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="O114" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P114" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q114" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R114" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S114" s="18" t="n">
+      <c r="N114" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="O114" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P114" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R114" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" s="9" t="n">
         <v>41387.3718373843</v>
       </c>
-      <c r="T114" s="0"/>
+      <c r="T114" s="11" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="42">
       <c r="A115" s="17" t="s">
@@ -9968,7 +9981,7 @@
         <v>20120719</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E115" s="0"/>
       <c r="F115" s="0" t="s">
@@ -9996,7 +10009,7 @@
         <v>41389.4028954861</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="O115" s="0" t="s">
         <v>28</v>
@@ -10026,13 +10039,13 @@
         <v>20120714</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>83</v>
@@ -10041,7 +10054,7 @@
         <v>252</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>112</v>
@@ -10056,7 +10069,7 @@
         <v>41389.598034375</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O116" s="0" t="s">
         <v>28</v>
@@ -10086,13 +10099,13 @@
         <v>20120715</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>83</v>
@@ -10101,22 +10114,22 @@
         <v>252</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M117" s="18" t="n">
         <v>41390.4169229167</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O117" s="0" t="s">
         <v>28</v>
@@ -10146,13 +10159,13 @@
         <v>20120716</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>83</v>
@@ -10161,7 +10174,7 @@
         <v>252</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>112</v>
@@ -10176,7 +10189,7 @@
         <v>41390.4574103009</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O118" s="0" t="s">
         <v>28</v>
@@ -10206,7 +10219,7 @@
         <v>20120717</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>407</v>
@@ -10221,13 +10234,13 @@
         <v>408</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L119" s="0" t="s">
         <v>411</v>
@@ -10236,7 +10249,7 @@
         <v>41390.5339625</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O119" s="0" t="s">
         <v>28</v>
@@ -10266,10 +10279,10 @@
         <v>20120720</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>30</v>
@@ -10281,10 +10294,10 @@
         <v>296</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>35</v>
@@ -10296,7 +10309,7 @@
         <v>41395.6476704861</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="O120" s="0" t="s">
         <v>28</v>
@@ -10326,10 +10339,10 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>145</v>
@@ -10341,13 +10354,13 @@
         <v>145</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L121" s="0" t="s">
         <v>146</v>
@@ -10356,7 +10369,7 @@
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="O121" s="0" t="s">
         <v>30</v>
@@ -10386,7 +10399,7 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>450</v>
@@ -10416,7 +10429,7 @@
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O122" s="0" t="s">
         <v>28</v>
@@ -10446,19 +10459,19 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>271</v>
@@ -10470,13 +10483,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M123" s="18" t="n">
         <v>41400.5800931713</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O123" s="0" t="s">
         <v>28</v>
@@ -10506,10 +10519,10 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>30</v>
@@ -10536,7 +10549,7 @@
         <v>41400.6168130787</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>28</v>
@@ -10566,19 +10579,19 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>71</v>
@@ -10590,13 +10603,13 @@
         <v>15</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M125" s="18" t="n">
         <v>41401.6187175926</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O125" s="0" t="s">
         <v>28</v>
@@ -10626,7 +10639,7 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>554</v>
@@ -10656,7 +10669,7 @@
         <v>41402.4505538194</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O126" s="0" t="s">
         <v>28</v>
@@ -10686,10 +10699,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>30</v>
@@ -10716,7 +10729,7 @@
         <v>41403.6118388889</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>28</v>
@@ -10746,13 +10759,13 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>24</v>
@@ -10776,7 +10789,7 @@
         <v>41403.8700552083</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="O128" s="0" t="s">
         <v>28</v>
@@ -10806,13 +10819,13 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>54</v>
@@ -10821,10 +10834,10 @@
         <v>277</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>6</v>
@@ -10836,7 +10849,7 @@
         <v>41407.5351728009</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O129" s="0" t="s">
         <v>28</v>
@@ -10866,13 +10879,13 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>308</v>
@@ -10884,7 +10897,7 @@
         <v>135</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>35</v>
@@ -10926,10 +10939,10 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>30</v>
@@ -10947,7 +10960,7 @@
         <v>175</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="L131" s="0" t="s">
         <v>177</v>
@@ -10956,7 +10969,7 @@
         <v>41409.4303221065</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>28</v>
@@ -10986,13 +10999,13 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>24</v>
@@ -11016,7 +11029,7 @@
         <v>41409.5465578704</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O132" s="0" t="s">
         <v>28</v>
@@ -11046,7 +11059,7 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>429</v>
@@ -11064,10 +11077,10 @@
         <v>431</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L133" s="0" t="s">
         <v>433</v>
@@ -11076,7 +11089,7 @@
         <v>41409.6335072917</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O133" s="0" t="s">
         <v>30</v>
@@ -11106,13 +11119,13 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>83</v>
@@ -11136,7 +11149,7 @@
         <v>41409.8738054398</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O134" s="0" t="s">
         <v>28</v>
@@ -11166,10 +11179,10 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>276</v>
@@ -11181,10 +11194,10 @@
         <v>277</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>19</v>
@@ -11196,7 +11209,7 @@
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="O135" s="0" t="s">
         <v>28</v>
@@ -11226,7 +11239,7 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E136" s="0"/>
       <c r="F136" s="0" t="s">
@@ -11254,7 +11267,7 @@
         <v>41413.6731327546</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="O136" s="0" t="s">
         <v>28</v>
@@ -11284,7 +11297,7 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="0" t="s">
@@ -11297,22 +11310,22 @@
         <v>173</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M137" s="18" t="n">
         <v>41415.646772338</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O137" s="0" t="s">
         <v>28</v>
@@ -11342,10 +11355,10 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>164</v>
@@ -11357,10 +11370,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>7</v>
@@ -11402,7 +11415,7 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E139" s="0"/>
       <c r="F139" s="0" t="s">
@@ -11430,7 +11443,7 @@
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>28</v>
@@ -11460,13 +11473,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>69</v>
@@ -11490,7 +11503,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O140" s="0" t="s">
         <v>30</v>
@@ -11520,13 +11533,13 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>30</v>
@@ -11535,13 +11548,13 @@
         <v>173</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="L141" s="0" t="s">
         <v>177</v>
@@ -11550,7 +11563,7 @@
         <v>41422.4202319444</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>30</v>
@@ -11580,13 +11593,13 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>35</v>
@@ -11604,13 +11617,13 @@
         <v>6</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M142" s="18" t="n">
         <v>41422.589325463</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>28</v>
@@ -11640,13 +11653,13 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>35</v>
@@ -11700,10 +11713,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>104</v>
@@ -11760,7 +11773,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="0" t="s">
@@ -11788,7 +11801,7 @@
         <v>41423.7734303241</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>28</v>
@@ -11818,7 +11831,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
@@ -11846,7 +11859,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>28</v>
@@ -11876,7 +11889,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E147" s="0"/>
       <c r="F147" s="0" t="s">
@@ -11904,7 +11917,7 @@
         <v>41423.8413989583</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>28</v>
@@ -11934,13 +11947,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>30</v>
@@ -11964,7 +11977,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>30</v>
@@ -11994,13 +12007,13 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>30</v>
@@ -12018,13 +12031,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M149" s="18" t="n">
         <v>41425.361115625</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="O149" s="0" t="s">
         <v>30</v>
@@ -12054,7 +12067,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>81</v>
@@ -12084,7 +12097,7 @@
         <v>41425.5221732639</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O150" s="0" t="s">
         <v>28</v>
@@ -12114,7 +12127,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E151" s="0"/>
       <c r="F151" s="0" t="s">
@@ -12124,16 +12137,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>69</v>
@@ -12142,7 +12155,7 @@
         <v>41425.5727134259</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="O151" s="0" t="s">
         <v>28</v>
@@ -12172,10 +12185,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>30</v>
@@ -12184,25 +12197,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M152" s="18" t="n">
         <v>41428.4703113426</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O152" s="0" t="s">
         <v>30</v>
@@ -12232,13 +12245,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>30</v>
@@ -12247,22 +12260,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M153" s="18" t="n">
         <v>41428.5987583333</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="O153" s="0" t="s">
         <v>30</v>
@@ -12292,10 +12305,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>151</v>
@@ -12307,10 +12320,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>34</v>
@@ -12322,7 +12335,7 @@
         <v>41429.4211211806</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>30</v>
@@ -12352,10 +12365,10 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>397</v>
@@ -12367,10 +12380,10 @@
         <v>378</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>20</v>
@@ -12382,7 +12395,7 @@
         <v>41429.5295556713</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O155" s="0" t="s">
         <v>30</v>
@@ -12412,10 +12425,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>30</v>
@@ -12427,13 +12440,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>219</v>
@@ -12442,7 +12455,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O156" s="0" t="s">
         <v>30</v>
@@ -12472,10 +12485,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>30</v>
@@ -12487,10 +12500,10 @@
         <v>548</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>27</v>
@@ -12502,7 +12515,7 @@
         <v>41431.5794002315</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="O157" s="0" t="s">
         <v>30</v>
@@ -12532,10 +12545,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>53</v>
@@ -12547,10 +12560,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
@@ -12562,7 +12575,7 @@
         <v>41437.4946138889</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>30</v>
@@ -12592,10 +12605,10 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>571</v>
@@ -12607,10 +12620,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>14</v>
@@ -12622,7 +12635,7 @@
         <v>41439.4236438657</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="O159" s="0" t="s">
         <v>30</v>
@@ -12652,7 +12665,7 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
@@ -12665,22 +12678,22 @@
         <v>430</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M160" s="18" t="n">
         <v>41442.581944213</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O160" s="0" t="s">
         <v>30</v>
@@ -12710,10 +12723,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -12725,10 +12738,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -12740,7 +12753,7 @@
         <v>41442.6344804398</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -12770,7 +12783,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -12798,7 +12811,7 @@
         <v>41443.4305086806</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -12828,10 +12841,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -12843,13 +12856,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -12858,7 +12871,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -12888,7 +12901,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -12916,7 +12929,7 @@
         <v>41444.665028588</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -12946,10 +12959,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -12961,13 +12974,13 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
@@ -12976,7 +12989,7 @@
         <v>41445.4579988426</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -13006,7 +13019,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -13016,13 +13029,13 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
@@ -13034,7 +13047,7 @@
         <v>41446.4608849537</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -13064,10 +13077,10 @@
         <v>20130021</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
@@ -13076,10 +13089,10 @@
         <v>30</v>
       </c>
       <c r="H167" s="43" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="I167" s="43" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J167" s="43" t="s">
         <v>152</v>
@@ -13094,7 +13107,7 @@
         <v>41449.3498559028</v>
       </c>
       <c r="N167" s="43" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="O167" s="43" t="s">
         <v>30</v>
@@ -13124,10 +13137,10 @@
         <v>20130022</v>
       </c>
       <c r="D168" s="43" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
@@ -13142,7 +13155,7 @@
         <v>29</v>
       </c>
       <c r="J168" s="43" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
@@ -13154,7 +13167,7 @@
         <v>41449.494916088</v>
       </c>
       <c r="N168" s="43" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O168" s="43" t="s">
         <v>30</v>
@@ -13184,37 +13197,37 @@
         <v>20130023</v>
       </c>
       <c r="D169" s="43" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G169" s="43" t="s">
         <v>30</v>
       </c>
       <c r="H169" s="43" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>431</v>
       </c>
       <c r="J169" s="43" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
       <c r="L169" s="43" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M169" s="44" t="n">
         <v>41449.6461498843</v>
       </c>
       <c r="N169" s="43" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O169" s="43" t="s">
         <v>30</v>
@@ -13244,13 +13257,13 @@
         <v>20130024</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G170" s="43" t="s">
         <v>30</v>
@@ -13262,7 +13275,7 @@
         <v>410</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
@@ -13274,7 +13287,7 @@
         <v>41450.698428588</v>
       </c>
       <c r="N170" s="43" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="O170" s="43" t="s">
         <v>30</v>
@@ -13304,7 +13317,7 @@
         <v>20130025</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E171" s="43"/>
       <c r="F171" s="43" t="s">
@@ -13317,13 +13330,13 @@
         <v>325</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J171" s="43" t="n">
         <v>40</v>
       </c>
       <c r="K171" s="43" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="L171" s="43" t="s">
         <v>326</v>
@@ -13332,7 +13345,7 @@
         <v>41451.466756713</v>
       </c>
       <c r="N171" s="43" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="O171" s="43" t="s">
         <v>30</v>
@@ -13362,10 +13375,10 @@
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -13377,13 +13390,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -13392,7 +13405,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="223" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="220" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Nick To Map remaining" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="826">
   <si>
     <t>Assigned</t>
   </si>
@@ -1802,6 +1802,9 @@
     <t>23-12-010</t>
   </si>
   <si>
+    <t>No location info, cannot find.</t>
+  </si>
+  <si>
     <t>Wilson Creek Large Wood Placement</t>
   </si>
   <si>
@@ -1866,6 +1869,9 @@
   </si>
   <si>
     <t>212-1013</t>
+  </si>
+  <si>
+    <t>Mapping is fine, but there is no Estuine Activity Type. I put in Wetland instead.</t>
   </si>
   <si>
     <t>Holiday Ranch Fish Passage Project</t>
@@ -2832,8 +2838,8 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2905,10 +2911,10 @@
   </sheetPr>
   <dimension ref="A1:AI173"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="L1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A98" xSplit="0" ySplit="1"/>
-      <selection activeCell="L1" activeCellId="0" pane="topLeft" sqref="L1"/>
-      <selection activeCell="T114" activeCellId="0" pane="bottomLeft" sqref="T114"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A101" xSplit="0" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A120" activeCellId="0" pane="bottomLeft" sqref="120:120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9970,363 +9976,367 @@
         <v>591</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="115" s="42">
-      <c r="A115" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="0" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="115" s="35">
+      <c r="A115" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="11" t="n">
         <v>15750</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="11" t="n">
         <v>20120719</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E115" s="0"/>
-      <c r="F115" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" s="0" t="s">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="H115" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I115" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K115" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L115" s="0" t="s">
+      <c r="I115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M115" s="18" t="n">
+      <c r="M115" s="9" t="n">
         <v>41389.4028954861</v>
       </c>
-      <c r="N115" s="0" t="s">
+      <c r="N115" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O115" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P115" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q115" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R115" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S115" s="18" t="n">
+      <c r="O115" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P115" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R115" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" s="9" t="n">
         <v>41394.4009287037</v>
       </c>
-      <c r="T115" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="116" s="42">
-      <c r="A116" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="0" t="n">
+      <c r="T115" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="116" s="36">
+      <c r="A116" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="15" t="n">
         <v>15751</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="15" t="n">
         <v>20120714</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="E116" s="0" t="s">
+      <c r="D116" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="E116" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="F116" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="G116" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H116" s="0" t="s">
+      <c r="H116" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="I116" s="0" t="s">
+      <c r="I116" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K116" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="L116" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M116" s="14" t="n">
+        <v>41389.598034375</v>
+      </c>
+      <c r="N116" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="O116" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P116" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q116" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R116" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" s="14" t="n">
+        <v>41390.4154043981</v>
+      </c>
+      <c r="T116" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="117" s="36">
+      <c r="A117" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="15" t="n">
+        <v>15752</v>
+      </c>
+      <c r="C117" s="15" t="n">
+        <v>20120715</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="J116" s="0" t="s">
+      <c r="F117" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="J117" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="L117" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="M117" s="14" t="n">
+        <v>41390.4169229167</v>
+      </c>
+      <c r="N117" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="O117" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P117" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q117" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R117" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" s="14" t="n">
+        <v>41390.4572809028</v>
+      </c>
+      <c r="T117" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="118" s="36">
+      <c r="A118" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="15" t="n">
+        <v>15753</v>
+      </c>
+      <c r="C118" s="15" t="n">
+        <v>20120716</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="J118" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="K116" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L116" s="0" t="s">
+      <c r="K118" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L118" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="M116" s="18" t="n">
-        <v>41389.598034375</v>
-      </c>
-      <c r="N116" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="O116" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P116" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q116" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R116" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S116" s="18" t="n">
-        <v>41390.4154043981</v>
-      </c>
-      <c r="T116" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117" s="42">
-      <c r="A117" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" s="0" t="n">
-        <v>15752</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>20120715</v>
-      </c>
-      <c r="D117" s="0" t="s">
+      <c r="M118" s="14" t="n">
+        <v>41390.4574103009</v>
+      </c>
+      <c r="N118" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H117" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="K117" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="L117" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="M117" s="18" t="n">
-        <v>41390.4169229167</v>
-      </c>
-      <c r="N117" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="O117" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P117" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q117" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R117" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S117" s="18" t="n">
-        <v>41390.4572809028</v>
-      </c>
-      <c r="T117" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="118" s="42">
-      <c r="A118" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="0" t="n">
-        <v>15753</v>
-      </c>
-      <c r="C118" s="0" t="n">
-        <v>20120716</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="K118" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="L118" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="M118" s="18" t="n">
-        <v>41390.4574103009</v>
-      </c>
-      <c r="N118" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="O118" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P118" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q118" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R118" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S118" s="18" t="n">
+      <c r="O118" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P118" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q118" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R118" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" s="14" t="n">
         <v>41390.4985153935</v>
       </c>
-      <c r="T118" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="119" s="42">
-      <c r="A119" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" s="0" t="n">
+      <c r="T118" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="119" s="36">
+      <c r="A119" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="15" t="n">
         <v>15754</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="15" t="n">
         <v>20120717</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="E119" s="0" t="s">
+      <c r="D119" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="F119" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" s="0" t="s">
+      <c r="F119" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="H119" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="I119" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="J119" s="0" t="s">
+      <c r="I119" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="K119" s="0" t="s">
+      <c r="J119" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="L119" s="0" t="s">
+      <c r="K119" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="L119" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="M119" s="18" t="n">
+      <c r="M119" s="14" t="n">
         <v>41390.5339625</v>
       </c>
-      <c r="N119" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="O119" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P119" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q119" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R119" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S119" s="18" t="n">
+      <c r="N119" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="O119" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P119" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q119" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R119" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S119" s="14" t="n">
         <v>41390.6308381945</v>
       </c>
-      <c r="T119" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120" s="42">
-      <c r="A120" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" s="0" t="n">
+      <c r="T119" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="120" s="36">
+      <c r="A120" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="15" t="n">
         <v>15756</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="15" t="n">
         <v>20120720</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="E120" s="0" t="s">
+      <c r="D120" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F120" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" s="0" t="s">
+      <c r="E120" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H120" s="0" t="s">
+      <c r="H120" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="I120" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="J120" s="0" t="s">
+      <c r="I120" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="K120" s="0" t="n">
+      <c r="J120" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="K120" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="L120" s="0" t="s">
+      <c r="L120" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M120" s="18" t="n">
+      <c r="M120" s="14" t="n">
         <v>41395.6476704861</v>
       </c>
-      <c r="N120" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="O120" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P120" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q120" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R120" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S120" s="18" t="n">
+      <c r="N120" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="O120" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P120" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q120" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R120" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S120" s="14" t="n">
         <v>41396.4067240741</v>
       </c>
-      <c r="T120" s="0"/>
+      <c r="T120" s="15" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="42">
       <c r="A121" s="17" t="s">
@@ -10339,10 +10349,10 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>145</v>
@@ -10354,13 +10364,13 @@
         <v>145</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L121" s="0" t="s">
         <v>146</v>
@@ -10369,7 +10379,7 @@
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O121" s="0" t="s">
         <v>30</v>
@@ -10399,7 +10409,7 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>450</v>
@@ -10429,7 +10439,7 @@
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O122" s="0" t="s">
         <v>28</v>
@@ -10459,19 +10469,19 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>271</v>
@@ -10483,13 +10493,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M123" s="18" t="n">
         <v>41400.5800931713</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O123" s="0" t="s">
         <v>28</v>
@@ -10519,10 +10529,10 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>30</v>
@@ -10549,7 +10559,7 @@
         <v>41400.6168130787</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>28</v>
@@ -10579,19 +10589,19 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>71</v>
@@ -10603,13 +10613,13 @@
         <v>15</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M125" s="18" t="n">
         <v>41401.6187175926</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O125" s="0" t="s">
         <v>28</v>
@@ -10639,7 +10649,7 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>554</v>
@@ -10669,7 +10679,7 @@
         <v>41402.4505538194</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O126" s="0" t="s">
         <v>28</v>
@@ -10699,10 +10709,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>30</v>
@@ -10729,7 +10739,7 @@
         <v>41403.6118388889</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>28</v>
@@ -10759,13 +10769,13 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>24</v>
@@ -10789,7 +10799,7 @@
         <v>41403.8700552083</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O128" s="0" t="s">
         <v>28</v>
@@ -10819,13 +10829,13 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>54</v>
@@ -10834,10 +10844,10 @@
         <v>277</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>6</v>
@@ -10849,7 +10859,7 @@
         <v>41407.5351728009</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="O129" s="0" t="s">
         <v>28</v>
@@ -10879,13 +10889,13 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>308</v>
@@ -10897,7 +10907,7 @@
         <v>135</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>35</v>
@@ -10939,10 +10949,10 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>30</v>
@@ -10960,7 +10970,7 @@
         <v>175</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L131" s="0" t="s">
         <v>177</v>
@@ -10969,7 +10979,7 @@
         <v>41409.4303221065</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>28</v>
@@ -10999,13 +11009,13 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>24</v>
@@ -11029,7 +11039,7 @@
         <v>41409.5465578704</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="O132" s="0" t="s">
         <v>28</v>
@@ -11059,7 +11069,7 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>429</v>
@@ -11077,10 +11087,10 @@
         <v>431</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L133" s="0" t="s">
         <v>433</v>
@@ -11089,7 +11099,7 @@
         <v>41409.6335072917</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O133" s="0" t="s">
         <v>30</v>
@@ -11119,13 +11129,13 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>83</v>
@@ -11149,7 +11159,7 @@
         <v>41409.8738054398</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O134" s="0" t="s">
         <v>28</v>
@@ -11179,10 +11189,10 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>276</v>
@@ -11194,10 +11204,10 @@
         <v>277</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>19</v>
@@ -11209,7 +11219,7 @@
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="O135" s="0" t="s">
         <v>28</v>
@@ -11239,7 +11249,7 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E136" s="0"/>
       <c r="F136" s="0" t="s">
@@ -11267,7 +11277,7 @@
         <v>41413.6731327546</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="O136" s="0" t="s">
         <v>28</v>
@@ -11297,7 +11307,7 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E137" s="0"/>
       <c r="F137" s="0" t="s">
@@ -11310,10 +11320,10 @@
         <v>173</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>4</v>
@@ -11325,7 +11335,7 @@
         <v>41415.646772338</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="O137" s="0" t="s">
         <v>28</v>
@@ -11355,10 +11365,10 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>164</v>
@@ -11370,10 +11380,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>7</v>
@@ -11415,7 +11425,7 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E139" s="0"/>
       <c r="F139" s="0" t="s">
@@ -11443,7 +11453,7 @@
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>28</v>
@@ -11473,13 +11483,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>69</v>
@@ -11503,7 +11513,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O140" s="0" t="s">
         <v>30</v>
@@ -11533,13 +11543,13 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>30</v>
@@ -11548,13 +11558,13 @@
         <v>173</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L141" s="0" t="s">
         <v>177</v>
@@ -11563,7 +11573,7 @@
         <v>41422.4202319444</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>30</v>
@@ -11593,13 +11603,13 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>35</v>
@@ -11617,13 +11627,13 @@
         <v>6</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M142" s="18" t="n">
         <v>41422.589325463</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>28</v>
@@ -11653,13 +11663,13 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>35</v>
@@ -11713,10 +11723,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>104</v>
@@ -11773,7 +11783,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="0" t="s">
@@ -11801,7 +11811,7 @@
         <v>41423.7734303241</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>28</v>
@@ -11831,7 +11841,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
@@ -11859,7 +11869,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>28</v>
@@ -11889,7 +11899,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E147" s="0"/>
       <c r="F147" s="0" t="s">
@@ -11917,7 +11927,7 @@
         <v>41423.8413989583</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>28</v>
@@ -11947,13 +11957,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>30</v>
@@ -11977,7 +11987,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>30</v>
@@ -12007,13 +12017,13 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>30</v>
@@ -12031,13 +12041,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M149" s="18" t="n">
         <v>41425.361115625</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O149" s="0" t="s">
         <v>30</v>
@@ -12067,7 +12077,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>81</v>
@@ -12097,7 +12107,7 @@
         <v>41425.5221732639</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O150" s="0" t="s">
         <v>28</v>
@@ -12127,7 +12137,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E151" s="0"/>
       <c r="F151" s="0" t="s">
@@ -12137,16 +12147,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>69</v>
@@ -12155,7 +12165,7 @@
         <v>41425.5727134259</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O151" s="0" t="s">
         <v>28</v>
@@ -12185,10 +12195,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>30</v>
@@ -12197,25 +12207,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M152" s="18" t="n">
         <v>41428.4703113426</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="O152" s="0" t="s">
         <v>30</v>
@@ -12245,13 +12255,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>30</v>
@@ -12260,22 +12270,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M153" s="18" t="n">
         <v>41428.5987583333</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="O153" s="0" t="s">
         <v>30</v>
@@ -12305,10 +12315,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>151</v>
@@ -12320,10 +12330,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>34</v>
@@ -12335,7 +12345,7 @@
         <v>41429.4211211806</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>30</v>
@@ -12365,10 +12375,10 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>397</v>
@@ -12380,10 +12390,10 @@
         <v>378</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>20</v>
@@ -12395,7 +12405,7 @@
         <v>41429.5295556713</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="O155" s="0" t="s">
         <v>30</v>
@@ -12425,10 +12435,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>30</v>
@@ -12440,13 +12450,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>219</v>
@@ -12455,7 +12465,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="O156" s="0" t="s">
         <v>30</v>
@@ -12485,10 +12495,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>30</v>
@@ -12500,10 +12510,10 @@
         <v>548</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>27</v>
@@ -12515,7 +12525,7 @@
         <v>41431.5794002315</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="O157" s="0" t="s">
         <v>30</v>
@@ -12545,10 +12555,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>53</v>
@@ -12560,10 +12570,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
@@ -12575,7 +12585,7 @@
         <v>41437.4946138889</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>30</v>
@@ -12605,10 +12615,10 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>571</v>
@@ -12620,10 +12630,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>14</v>
@@ -12635,7 +12645,7 @@
         <v>41439.4236438657</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="O159" s="0" t="s">
         <v>30</v>
@@ -12665,7 +12675,7 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
@@ -12678,22 +12688,22 @@
         <v>430</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M160" s="18" t="n">
         <v>41442.581944213</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O160" s="0" t="s">
         <v>30</v>
@@ -12723,10 +12733,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -12738,10 +12748,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -12753,7 +12763,7 @@
         <v>41442.6344804398</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -12783,7 +12793,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -12811,7 +12821,7 @@
         <v>41443.4305086806</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -12841,10 +12851,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -12856,13 +12866,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -12871,7 +12881,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -12901,7 +12911,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -12929,7 +12939,7 @@
         <v>41444.665028588</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -12959,10 +12969,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -12974,13 +12984,13 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
@@ -12989,7 +12999,7 @@
         <v>41445.4579988426</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -13019,7 +13029,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -13029,13 +13039,13 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
@@ -13047,7 +13057,7 @@
         <v>41446.4608849537</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -13077,10 +13087,10 @@
         <v>20130021</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
@@ -13089,10 +13099,10 @@
         <v>30</v>
       </c>
       <c r="H167" s="43" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="I167" s="43" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="J167" s="43" t="s">
         <v>152</v>
@@ -13107,7 +13117,7 @@
         <v>41449.3498559028</v>
       </c>
       <c r="N167" s="43" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O167" s="43" t="s">
         <v>30</v>
@@ -13137,10 +13147,10 @@
         <v>20130022</v>
       </c>
       <c r="D168" s="43" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
@@ -13155,7 +13165,7 @@
         <v>29</v>
       </c>
       <c r="J168" s="43" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
@@ -13167,7 +13177,7 @@
         <v>41449.494916088</v>
       </c>
       <c r="N168" s="43" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="O168" s="43" t="s">
         <v>30</v>
@@ -13197,37 +13207,37 @@
         <v>20130023</v>
       </c>
       <c r="D169" s="43" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G169" s="43" t="s">
         <v>30</v>
       </c>
       <c r="H169" s="43" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>431</v>
       </c>
       <c r="J169" s="43" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
       <c r="L169" s="43" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M169" s="44" t="n">
         <v>41449.6461498843</v>
       </c>
       <c r="N169" s="43" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="O169" s="43" t="s">
         <v>30</v>
@@ -13257,13 +13267,13 @@
         <v>20130024</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G170" s="43" t="s">
         <v>30</v>
@@ -13275,7 +13285,7 @@
         <v>410</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
@@ -13287,7 +13297,7 @@
         <v>41450.698428588</v>
       </c>
       <c r="N170" s="43" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="O170" s="43" t="s">
         <v>30</v>
@@ -13317,7 +13327,7 @@
         <v>20130025</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E171" s="43"/>
       <c r="F171" s="43" t="s">
@@ -13336,7 +13346,7 @@
         <v>40</v>
       </c>
       <c r="K171" s="43" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L171" s="43" t="s">
         <v>326</v>
@@ -13345,7 +13355,7 @@
         <v>41451.466756713</v>
       </c>
       <c r="N171" s="43" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="O171" s="43" t="s">
         <v>30</v>
@@ -13375,10 +13385,10 @@
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -13390,13 +13400,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -13405,7 +13415,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="832">
   <si>
     <t>Assigned</t>
   </si>
@@ -1892,6 +1892,9 @@
     <t>211-4039</t>
   </si>
   <si>
+    <t>Fish passage point mapped, but streams with riparian work is not clearly defined on map, need clarification from respondent.</t>
+  </si>
+  <si>
     <t>McKay Creek Fish Passage -- Phase IV</t>
   </si>
   <si>
@@ -1934,6 +1937,9 @@
     <t>06-12-015</t>
   </si>
   <si>
+    <t>Map does not show stream area that project is located on, just a single point.</t>
+  </si>
+  <si>
     <t>Upper Walla Walla River Irrigation Efficiency</t>
   </si>
   <si>
@@ -1949,6 +1955,9 @@
     <t>21-10-008</t>
   </si>
   <si>
+    <t>Could not find, bogus PLSS</t>
+  </si>
+  <si>
     <t>Central Vale Irrigation Improvement Project</t>
   </si>
   <si>
@@ -1979,6 +1988,9 @@
     <t>03-12-002</t>
   </si>
   <si>
+    <t>Respondent map does not show length of stream activities cover.</t>
+  </si>
+  <si>
     <t>Bull Run River Spawning Gravel Placement</t>
   </si>
   <si>
@@ -2060,6 +2072,9 @@
     <t>213-5022</t>
   </si>
   <si>
+    <t>Cannot find, no PLSS or LatLng info.</t>
+  </si>
+  <si>
     <t>Holmes Upland Conservation Structures</t>
   </si>
   <si>
@@ -2097,6 +2112,9 @@
   </si>
   <si>
     <t>21-10-014</t>
+  </si>
+  <si>
+    <t>Just an arial photo provided, no info.</t>
   </si>
   <si>
     <t>Gable Creek Water Quality</t>
@@ -2838,8 +2856,8 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2912,9 +2930,9 @@
   <dimension ref="A1:AI173"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A101" xSplit="0" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A125" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A120" activeCellId="0" pane="bottomLeft" sqref="120:120"/>
+      <selection activeCell="B142" activeCellId="0" pane="bottomLeft" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10338,1259 +10356,1271 @@
         <v>617</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="121" s="42">
-      <c r="A121" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" s="0" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="121" s="35">
+      <c r="A121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" s="11" t="n">
         <v>15757</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="11" t="n">
         <v>20130012</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G121" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H121" s="0" t="s">
+      <c r="G121" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I121" s="0" t="s">
+      <c r="I121" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="J121" s="0" t="s">
+      <c r="J121" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="K121" s="0" t="s">
+      <c r="K121" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="L121" s="0" t="s">
+      <c r="L121" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="M121" s="18" t="n">
+      <c r="M121" s="9" t="n">
         <v>41396.5116137732</v>
       </c>
-      <c r="N121" s="0" t="s">
+      <c r="N121" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="O121" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P121" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q121" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R121" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S121" s="18" t="n">
+      <c r="O121" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q121" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R121" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S121" s="9" t="n">
         <v>41444.4912667824</v>
       </c>
-      <c r="T121" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="122" s="42">
-      <c r="A122" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" s="0" t="n">
+      <c r="T121" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="122" s="36">
+      <c r="A122" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="15" t="n">
         <v>15758</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="15" t="n">
         <v>20120722</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="E122" s="0" t="s">
+      <c r="D122" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="E122" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="G122" s="0" t="s">
+      <c r="G122" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H122" s="0" t="s">
+      <c r="H122" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="I122" s="0" t="s">
+      <c r="I122" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J122" s="0" t="s">
+      <c r="J122" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="K122" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="L122" s="0" t="s">
+      <c r="K122" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="L122" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="M122" s="18" t="n">
+      <c r="M122" s="14" t="n">
         <v>41400.5486766204</v>
       </c>
-      <c r="N122" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="O122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P122" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q122" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R122" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S122" s="18" t="n">
+      <c r="N122" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="O122" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P122" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q122" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R122" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S122" s="14" t="n">
         <v>41400.5870653935</v>
       </c>
-      <c r="T122" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="123" s="42">
-      <c r="A123" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" s="0" t="n">
+      <c r="T122" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="123" s="36">
+      <c r="A123" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="15" t="n">
         <v>15759</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="15" t="n">
         <v>20120723</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="E123" s="0" t="s">
+      <c r="D123" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="E123" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="G123" s="0" t="s">
+      <c r="F123" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="G123" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H123" s="0" t="s">
+      <c r="H123" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="J123" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" s="15" t="n">
+        <v>31</v>
+      </c>
+      <c r="L123" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="M123" s="14" t="n">
+        <v>41400.5800931713</v>
+      </c>
+      <c r="N123" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="O123" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P123" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q123" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R123" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" s="14" t="n">
+        <v>41400.6922886574</v>
+      </c>
+      <c r="T123" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="124" s="36">
+      <c r="A124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="15" t="n">
+        <v>15760</v>
+      </c>
+      <c r="C124" s="15" t="n">
+        <v>20120725</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J124" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="K124" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="L124" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M124" s="14" t="n">
+        <v>41400.6168130787</v>
+      </c>
+      <c r="N124" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="O124" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P124" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q124" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R124" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" s="14" t="n">
+        <v>41402.4662490741</v>
+      </c>
+      <c r="T124" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="125" s="35">
+      <c r="A125" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="11" t="n">
+        <v>15762</v>
+      </c>
+      <c r="C125" s="11" t="n">
+        <v>20120724</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F125" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="I123" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K123" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="L123" s="0" t="s">
+      <c r="G125" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="M123" s="18" t="n">
-        <v>41400.5800931713</v>
-      </c>
-      <c r="N123" s="0" t="s">
+      <c r="I125" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="K125" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L125" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="O123" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P123" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q123" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R123" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S123" s="18" t="n">
-        <v>41400.6922886574</v>
-      </c>
-      <c r="T123" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="124" s="42">
-      <c r="A124" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="0" t="n">
-        <v>15760</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>20120725</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" s="0" t="s">
+      <c r="M125" s="9" t="n">
+        <v>41401.6187175926</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="O125" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P125" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q125" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R125" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" s="9" t="n">
+        <v>41401.6445431713</v>
+      </c>
+      <c r="T125" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="126" s="36">
+      <c r="A126" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="15" t="n">
+        <v>15763</v>
+      </c>
+      <c r="C126" s="15" t="n">
+        <v>20120726</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="J126" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="K126" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="L126" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="14" t="n">
+        <v>41402.4505538194</v>
+      </c>
+      <c r="N126" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="O126" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P126" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q126" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R126" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S126" s="14" t="n">
+        <v>41402.6119721065</v>
+      </c>
+      <c r="T126" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="127" s="35">
+      <c r="A127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="11" t="n">
+        <v>15764</v>
+      </c>
+      <c r="C127" s="11" t="n">
+        <v>20120727</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127" s="11" t="n">
+        <v>242</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="K127" s="11" t="n">
+        <v>266</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M127" s="9" t="n">
+        <v>41403.6118388889</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="O127" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P127" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q127" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R127" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S127" s="9" t="n">
+        <v>41403.6263329861</v>
+      </c>
+      <c r="T127" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="128" s="36">
+      <c r="A128" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="15" t="n">
+        <v>15765</v>
+      </c>
+      <c r="C128" s="15" t="n">
+        <v>20120730</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J128" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K128" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M128" s="14" t="n">
+        <v>41403.8700552083</v>
+      </c>
+      <c r="N128" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="O128" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P128" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q128" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R128" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S128" s="14" t="n">
+        <v>41408.5709521991</v>
+      </c>
+      <c r="T128" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="129" s="35">
+      <c r="A129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="11" t="n">
+        <v>15766</v>
+      </c>
+      <c r="C129" s="11" t="n">
+        <v>20120729</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="K129" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M129" s="9" t="n">
+        <v>41407.5351728009</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P129" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q129" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R129" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S129" s="9" t="n">
+        <v>41407.5630425926</v>
+      </c>
+      <c r="T129" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="130" s="36">
+      <c r="A130" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="15" t="n">
+        <v>15767</v>
+      </c>
+      <c r="C130" s="15" t="n">
+        <v>20120732</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J130" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="K130" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="L130" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="M130" s="14" t="n">
+        <v>41407.6975019676</v>
+      </c>
+      <c r="N130" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O130" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q130" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R130" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S130" s="14" t="n">
+        <v>41409.3901060185</v>
+      </c>
+      <c r="T130" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="131" s="36">
+      <c r="A131" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="15" t="n">
+        <v>15768</v>
+      </c>
+      <c r="C131" s="15" t="n">
+        <v>20120735</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I131" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J131" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K131" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="L131" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M131" s="14" t="n">
+        <v>41409.4303221065</v>
+      </c>
+      <c r="N131" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="O131" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P131" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q131" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R131" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S131" s="14" t="n">
+        <v>41410.3636197917</v>
+      </c>
+      <c r="T131" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="132" s="36">
+      <c r="A132" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="15" t="n">
+        <v>15770</v>
+      </c>
+      <c r="C132" s="15" t="n">
+        <v>20120733</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J132" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K132" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="L132" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M132" s="14" t="n">
+        <v>41409.5465578704</v>
+      </c>
+      <c r="N132" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="O132" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P132" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q132" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R132" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S132" s="14" t="n">
+        <v>41409.6597539352</v>
+      </c>
+      <c r="T132" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="133" s="36">
+      <c r="A133" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="15" t="n">
+        <v>15771</v>
+      </c>
+      <c r="C133" s="15" t="n">
+        <v>20130018</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="J133" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="K133" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="L133" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="M133" s="14" t="n">
+        <v>41409.6335072917</v>
+      </c>
+      <c r="N133" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="O133" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P133" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q133" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R133" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S133" s="14" t="n">
+        <v>41446.4310947917</v>
+      </c>
+      <c r="T133" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="134" s="36">
+      <c r="A134" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="15" t="n">
+        <v>15773</v>
+      </c>
+      <c r="C134" s="15" t="n">
+        <v>20120734</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="G134" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H124" s="0" t="s">
+      <c r="H134" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I124" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J124" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="K124" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="L124" s="0" t="s">
+      <c r="I134" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="J134" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K134" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="L134" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="M124" s="18" t="n">
-        <v>41400.6168130787</v>
-      </c>
-      <c r="N124" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="O124" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P124" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q124" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R124" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S124" s="18" t="n">
-        <v>41402.4662490741</v>
-      </c>
-      <c r="T124" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="125" s="42">
-      <c r="A125" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>15762</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>20120724</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H125" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="K125" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L125" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="M125" s="18" t="n">
-        <v>41401.6187175926</v>
-      </c>
-      <c r="N125" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="O125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P125" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q125" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R125" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S125" s="18" t="n">
-        <v>41401.6445431713</v>
-      </c>
-      <c r="T125" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="126" s="42">
-      <c r="A126" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <v>15763</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>20120726</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" s="0" t="s">
+      <c r="M134" s="14" t="n">
+        <v>41409.8738054398</v>
+      </c>
+      <c r="N134" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="O134" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P134" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q134" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R134" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S134" s="14" t="n">
+        <v>41409.9114324074</v>
+      </c>
+      <c r="T134" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="135" s="36">
+      <c r="A135" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="15" t="n">
+        <v>15774</v>
+      </c>
+      <c r="C135" s="15" t="n">
+        <v>20120736</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="J135" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="K135" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="L135" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M135" s="14" t="n">
+        <v>41410.5524326389</v>
+      </c>
+      <c r="N135" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="O135" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q135" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R135" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S135" s="14" t="n">
+        <v>41410.5680612269</v>
+      </c>
+      <c r="T135" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="136" s="35">
+      <c r="A136" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="11" t="n">
+        <v>15775</v>
+      </c>
+      <c r="C136" s="11" t="n">
+        <v>20120737</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M136" s="9" t="n">
+        <v>41413.6731327546</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="O136" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P136" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R136" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S136" s="9" t="n">
+        <v>41416.4081171296</v>
+      </c>
+      <c r="T136" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="137" s="36">
+      <c r="A137" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="15" t="n">
+        <v>15779</v>
+      </c>
+      <c r="C137" s="15" t="n">
+        <v>20120739</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="J137" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="K137" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L137" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="M137" s="14" t="n">
+        <v>41415.646772338</v>
+      </c>
+      <c r="N137" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="O137" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P137" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q137" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R137" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" s="14" t="n">
+        <v>41416.6472108796</v>
+      </c>
+      <c r="T137" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="138" s="36">
+      <c r="A138" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="15" t="n">
+        <v>15780</v>
+      </c>
+      <c r="C138" s="15" t="n">
+        <v>20130008</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="J138" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="K138" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L138" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" s="14" t="n">
+        <v>41416.374928125</v>
+      </c>
+      <c r="N138" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O138" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P138" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q138" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R138" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S138" s="14" t="n">
+        <v>41431.6803140046</v>
+      </c>
+      <c r="T138" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="139" s="36">
+      <c r="A139" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="15" t="n">
+        <v>15781</v>
+      </c>
+      <c r="C139" s="15" t="n">
+        <v>20120738</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J139" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K139" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M139" s="14" t="n">
+        <v>41416.4096365741</v>
+      </c>
+      <c r="N139" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="O139" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P139" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q139" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R139" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S139" s="14" t="n">
+        <v>41416.4223428241</v>
+      </c>
+      <c r="T139" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="140" s="35">
+      <c r="A140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="11" t="n">
+        <v>15784</v>
+      </c>
+      <c r="C140" s="11" t="n">
+        <v>20130010</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K140" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="H126" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="J126" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="K126" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L126" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M126" s="18" t="n">
-        <v>41402.4505538194</v>
-      </c>
-      <c r="N126" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="O126" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P126" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q126" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R126" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S126" s="18" t="n">
-        <v>41402.6119721065</v>
-      </c>
-      <c r="T126" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="127" s="42">
-      <c r="A127" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" s="0" t="n">
-        <v>15764</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>20120727</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" s="0" t="s">
+      <c r="L140" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H127" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I127" s="0" t="n">
-        <v>242</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="K127" s="0" t="n">
-        <v>266</v>
-      </c>
-      <c r="L127" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M127" s="18" t="n">
-        <v>41403.6118388889</v>
-      </c>
-      <c r="N127" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="O127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P127" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q127" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R127" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S127" s="18" t="n">
-        <v>41403.6263329861</v>
-      </c>
-      <c r="T127" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="128" s="42">
-      <c r="A128" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" s="0" t="n">
-        <v>15765</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>20120730</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="J128" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K128" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L128" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M128" s="18" t="n">
-        <v>41403.8700552083</v>
-      </c>
-      <c r="N128" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="O128" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P128" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q128" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R128" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S128" s="18" t="n">
-        <v>41408.5709521991</v>
-      </c>
-      <c r="T128" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="129" s="42">
-      <c r="A129" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B129" s="0" t="n">
-        <v>15766</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>20120729</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H129" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="J129" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="K129" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L129" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M129" s="18" t="n">
-        <v>41407.5351728009</v>
-      </c>
-      <c r="N129" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="O129" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P129" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q129" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R129" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S129" s="18" t="n">
-        <v>41407.5630425926</v>
-      </c>
-      <c r="T129" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="130" s="42">
-      <c r="A130" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" s="0" t="n">
-        <v>15767</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>20120732</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H130" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="J130" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="K130" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="L130" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="M130" s="18" t="n">
-        <v>41407.6975019676</v>
-      </c>
-      <c r="N130" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O130" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P130" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q130" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R130" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S130" s="18" t="n">
-        <v>41409.3901060185</v>
-      </c>
-      <c r="T130" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="131" s="42">
-      <c r="A131" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B131" s="0" t="n">
-        <v>15768</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>20120735</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H131" s="0" t="s">
+      <c r="M140" s="9" t="n">
+        <v>41418.6117706019</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="O140" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P140" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q140" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R140" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" s="9" t="n">
+        <v>41438.4522059028</v>
+      </c>
+      <c r="T140" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="141" s="36">
+      <c r="A141" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="15" t="n">
+        <v>15785</v>
+      </c>
+      <c r="C141" s="15" t="n">
+        <v>20130009</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="I131" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J131" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="K131" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="L131" s="0" t="s">
+      <c r="I141" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="J141" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="K141" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="L141" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="M131" s="18" t="n">
-        <v>41409.4303221065</v>
-      </c>
-      <c r="N131" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="O131" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P131" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q131" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R131" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S131" s="18" t="n">
-        <v>41410.3636197917</v>
-      </c>
-      <c r="T131" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="132" s="42">
-      <c r="A132" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" s="0" t="n">
-        <v>15770</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>20120733</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J132" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K132" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L132" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="M132" s="18" t="n">
-        <v>41409.5465578704</v>
-      </c>
-      <c r="N132" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="O132" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P132" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q132" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R132" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S132" s="18" t="n">
-        <v>41409.6597539352</v>
-      </c>
-      <c r="T132" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="133" s="42">
-      <c r="A133" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" s="0" t="n">
-        <v>15771</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>20130018</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="I133" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="J133" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="K133" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="L133" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="M133" s="18" t="n">
-        <v>41409.6335072917</v>
-      </c>
-      <c r="N133" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="O133" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P133" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q133" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R133" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S133" s="18" t="n">
-        <v>41446.4310947917</v>
-      </c>
-      <c r="T133" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="134" s="42">
-      <c r="A134" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B134" s="0" t="n">
-        <v>15773</v>
-      </c>
-      <c r="C134" s="0" t="n">
-        <v>20120734</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H134" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="J134" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="K134" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="L134" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="M134" s="18" t="n">
-        <v>41409.8738054398</v>
-      </c>
-      <c r="N134" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="O134" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P134" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q134" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R134" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S134" s="18" t="n">
-        <v>41409.9114324074</v>
-      </c>
-      <c r="T134" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="135" s="42">
-      <c r="A135" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" s="0" t="n">
-        <v>15774</v>
-      </c>
-      <c r="C135" s="0" t="n">
-        <v>20120736</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="G135" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H135" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="J135" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="K135" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="L135" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M135" s="18" t="n">
-        <v>41410.5524326389</v>
-      </c>
-      <c r="N135" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="O135" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P135" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q135" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R135" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S135" s="18" t="n">
-        <v>41410.5680612269</v>
-      </c>
-      <c r="T135" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="136" s="42">
-      <c r="A136" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="0" t="n">
-        <v>15775</v>
-      </c>
-      <c r="C136" s="0" t="n">
-        <v>20120737</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H136" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I136" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J136" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K136" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L136" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M136" s="18" t="n">
-        <v>41413.6731327546</v>
-      </c>
-      <c r="N136" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="O136" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P136" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q136" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R136" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S136" s="18" t="n">
-        <v>41416.4081171296</v>
-      </c>
-      <c r="T136" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="137" s="42">
-      <c r="A137" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" s="0" t="n">
-        <v>15779</v>
-      </c>
-      <c r="C137" s="0" t="n">
-        <v>20120739</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="E137" s="0"/>
-      <c r="F137" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I137" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="J137" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="K137" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L137" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="M137" s="18" t="n">
-        <v>41415.646772338</v>
-      </c>
-      <c r="N137" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="O137" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P137" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q137" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R137" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S137" s="18" t="n">
-        <v>41416.6472108796</v>
-      </c>
-      <c r="T137" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="138" s="42">
-      <c r="A138" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B138" s="0" t="n">
-        <v>15780</v>
-      </c>
-      <c r="C138" s="0" t="n">
-        <v>20130008</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="J138" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="K138" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L138" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M138" s="18" t="n">
-        <v>41416.374928125</v>
-      </c>
-      <c r="N138" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O138" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P138" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q138" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R138" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S138" s="18" t="n">
-        <v>41431.6803140046</v>
-      </c>
-      <c r="T138" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="139" s="42">
-      <c r="A139" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" s="0" t="n">
-        <v>15781</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>20120738</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J139" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K139" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L139" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M139" s="18" t="n">
-        <v>41416.4096365741</v>
-      </c>
-      <c r="N139" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="O139" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P139" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q139" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R139" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S139" s="18" t="n">
-        <v>41416.4223428241</v>
-      </c>
-      <c r="T139" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="140" s="42">
-      <c r="A140" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" s="0" t="n">
-        <v>15784</v>
-      </c>
-      <c r="C140" s="0" t="n">
-        <v>20130010</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="F140" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H140" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J140" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="K140" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="L140" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M140" s="18" t="n">
-        <v>41418.6117706019</v>
-      </c>
-      <c r="N140" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="O140" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P140" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q140" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R140" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S140" s="18" t="n">
-        <v>41438.4522059028</v>
-      </c>
-      <c r="T140" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="141" s="42">
-      <c r="A141" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B141" s="0" t="n">
-        <v>15785</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>20130009</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="F141" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H141" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="J141" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="K141" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="L141" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="M141" s="18" t="n">
+      <c r="M141" s="14" t="n">
         <v>41422.4202319444</v>
       </c>
-      <c r="N141" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="O141" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P141" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q141" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R141" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S141" s="18" t="n">
+      <c r="N141" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="O141" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P141" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q141" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R141" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S141" s="14" t="n">
         <v>41435.6075096065</v>
       </c>
-      <c r="T141" s="0"/>
+      <c r="T141" s="15"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="42">
       <c r="A142" s="17" t="s">
@@ -11603,13 +11633,13 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>35</v>
@@ -11627,13 +11657,13 @@
         <v>6</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="M142" s="18" t="n">
         <v>41422.589325463</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>28</v>
@@ -11663,13 +11693,13 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>35</v>
@@ -11723,10 +11753,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>104</v>
@@ -11783,7 +11813,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="0" t="s">
@@ -11811,7 +11841,7 @@
         <v>41423.7734303241</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>28</v>
@@ -11841,7 +11871,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="0" t="s">
@@ -11869,7 +11899,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>28</v>
@@ -11899,7 +11929,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="E147" s="0"/>
       <c r="F147" s="0" t="s">
@@ -11927,7 +11957,7 @@
         <v>41423.8413989583</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>28</v>
@@ -11957,13 +11987,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>30</v>
@@ -11987,7 +12017,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>30</v>
@@ -12017,13 +12047,13 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>30</v>
@@ -12041,13 +12071,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="M149" s="18" t="n">
         <v>41425.361115625</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="O149" s="0" t="s">
         <v>30</v>
@@ -12077,7 +12107,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>81</v>
@@ -12107,7 +12137,7 @@
         <v>41425.5221732639</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="O150" s="0" t="s">
         <v>28</v>
@@ -12137,7 +12167,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E151" s="0"/>
       <c r="F151" s="0" t="s">
@@ -12147,16 +12177,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="L151" s="0" t="s">
         <v>69</v>
@@ -12165,7 +12195,7 @@
         <v>41425.5727134259</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="O151" s="0" t="s">
         <v>28</v>
@@ -12195,10 +12225,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>30</v>
@@ -12207,25 +12237,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="M152" s="18" t="n">
         <v>41428.4703113426</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="O152" s="0" t="s">
         <v>30</v>
@@ -12255,13 +12285,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>30</v>
@@ -12270,22 +12300,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="M153" s="18" t="n">
         <v>41428.5987583333</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="O153" s="0" t="s">
         <v>30</v>
@@ -12315,10 +12345,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>151</v>
@@ -12330,10 +12360,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>34</v>
@@ -12345,7 +12375,7 @@
         <v>41429.4211211806</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="O154" s="0" t="s">
         <v>30</v>
@@ -12375,10 +12405,10 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>397</v>
@@ -12390,10 +12420,10 @@
         <v>378</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>20</v>
@@ -12405,7 +12435,7 @@
         <v>41429.5295556713</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="O155" s="0" t="s">
         <v>30</v>
@@ -12435,10 +12465,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>30</v>
@@ -12450,13 +12480,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="L156" s="0" t="s">
         <v>219</v>
@@ -12465,7 +12495,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="O156" s="0" t="s">
         <v>30</v>
@@ -12495,10 +12525,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>30</v>
@@ -12510,10 +12540,10 @@
         <v>548</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>27</v>
@@ -12525,7 +12555,7 @@
         <v>41431.5794002315</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="O157" s="0" t="s">
         <v>30</v>
@@ -12555,10 +12585,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>53</v>
@@ -12570,10 +12600,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
@@ -12585,7 +12615,7 @@
         <v>41437.4946138889</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="O158" s="0" t="s">
         <v>30</v>
@@ -12615,10 +12645,10 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>571</v>
@@ -12630,10 +12660,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>14</v>
@@ -12645,7 +12675,7 @@
         <v>41439.4236438657</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="O159" s="0" t="s">
         <v>30</v>
@@ -12675,7 +12705,7 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E160" s="0"/>
       <c r="F160" s="0" t="s">
@@ -12688,22 +12718,22 @@
         <v>430</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="M160" s="18" t="n">
         <v>41442.581944213</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="O160" s="0" t="s">
         <v>30</v>
@@ -12733,10 +12763,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -12748,10 +12778,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -12763,7 +12793,7 @@
         <v>41442.6344804398</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -12793,7 +12823,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -12821,7 +12851,7 @@
         <v>41443.4305086806</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -12851,10 +12881,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -12866,13 +12896,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -12881,7 +12911,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -12911,7 +12941,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -12939,7 +12969,7 @@
         <v>41444.665028588</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -12969,10 +12999,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -12984,13 +13014,13 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
@@ -12999,7 +13029,7 @@
         <v>41445.4579988426</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -13029,7 +13059,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -13039,13 +13069,13 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
@@ -13057,7 +13087,7 @@
         <v>41446.4608849537</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -13087,10 +13117,10 @@
         <v>20130021</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
@@ -13099,10 +13129,10 @@
         <v>30</v>
       </c>
       <c r="H167" s="43" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="I167" s="43" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="J167" s="43" t="s">
         <v>152</v>
@@ -13117,7 +13147,7 @@
         <v>41449.3498559028</v>
       </c>
       <c r="N167" s="43" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="O167" s="43" t="s">
         <v>30</v>
@@ -13147,10 +13177,10 @@
         <v>20130022</v>
       </c>
       <c r="D168" s="43" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
@@ -13165,7 +13195,7 @@
         <v>29</v>
       </c>
       <c r="J168" s="43" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
@@ -13177,7 +13207,7 @@
         <v>41449.494916088</v>
       </c>
       <c r="N168" s="43" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="O168" s="43" t="s">
         <v>30</v>
@@ -13207,37 +13237,37 @@
         <v>20130023</v>
       </c>
       <c r="D169" s="43" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="G169" s="43" t="s">
         <v>30</v>
       </c>
       <c r="H169" s="43" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>431</v>
       </c>
       <c r="J169" s="43" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
       <c r="L169" s="43" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="M169" s="44" t="n">
         <v>41449.6461498843</v>
       </c>
       <c r="N169" s="43" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="O169" s="43" t="s">
         <v>30</v>
@@ -13267,13 +13297,13 @@
         <v>20130024</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="G170" s="43" t="s">
         <v>30</v>
@@ -13285,7 +13315,7 @@
         <v>410</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
@@ -13297,7 +13327,7 @@
         <v>41450.698428588</v>
       </c>
       <c r="N170" s="43" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="O170" s="43" t="s">
         <v>30</v>
@@ -13327,7 +13357,7 @@
         <v>20130025</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="E171" s="43"/>
       <c r="F171" s="43" t="s">
@@ -13346,7 +13376,7 @@
         <v>40</v>
       </c>
       <c r="K171" s="43" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="L171" s="43" t="s">
         <v>326</v>
@@ -13355,7 +13385,7 @@
         <v>41451.466756713</v>
       </c>
       <c r="N171" s="43" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="O171" s="43" t="s">
         <v>30</v>
@@ -13385,10 +13415,10 @@
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -13400,13 +13430,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -13415,7 +13445,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="833">
   <si>
     <t>Assigned</t>
   </si>
@@ -2178,6 +2178,9 @@
   </si>
   <si>
     <t>23-12-014</t>
+  </si>
+  <si>
+    <t>No PLSS or LatLng, could not find.</t>
   </si>
   <si>
     <t>Newell Water Quality Improvement</t>
@@ -2856,8 +2859,8 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2930,9 +2933,9 @@
   <dimension ref="A1:AI173"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A125" xSplit="0" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A146" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B142" activeCellId="0" pane="bottomLeft" sqref="B142"/>
+      <selection activeCell="A160" activeCellId="0" pane="bottomLeft" sqref="160:160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11622,1135 +11625,1137 @@
       </c>
       <c r="T141" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="142" s="42">
-      <c r="A142" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" s="0" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="142" s="36">
+      <c r="A142" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="15" t="n">
         <v>15788</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="15" t="n">
         <v>20120740</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="G142" s="0" t="s">
+      <c r="G142" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H142" s="0" t="s">
+      <c r="H142" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="I142" s="0" t="s">
+      <c r="I142" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="J142" s="0" t="s">
+      <c r="J142" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="K142" s="0" t="n">
+      <c r="K142" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="L142" s="0" t="s">
+      <c r="L142" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="M142" s="18" t="n">
+      <c r="M142" s="14" t="n">
         <v>41422.589325463</v>
       </c>
-      <c r="N142" s="0" t="s">
+      <c r="N142" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="O142" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P142" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q142" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R142" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S142" s="18" t="n">
+      <c r="O142" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P142" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q142" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R142" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" s="14" t="n">
         <v>41422.6442920139</v>
       </c>
-      <c r="T142" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="143" s="42">
-      <c r="A143" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" s="0" t="n">
+      <c r="T142" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="143" s="36">
+      <c r="A143" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="15" t="n">
         <v>16055</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="15" t="n">
         <v>20120746</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F143" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="G143" s="0" t="s">
+      <c r="G143" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H143" s="0" t="s">
+      <c r="H143" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="I143" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J143" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K143" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L143" s="0" t="s">
+      <c r="I143" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J143" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K143" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L143" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="M143" s="18" t="n">
+      <c r="M143" s="14" t="n">
         <v>41423.4291381944</v>
       </c>
-      <c r="N143" s="0" t="s">
+      <c r="N143" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="O143" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P143" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q143" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R143" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S143" s="18" t="n">
+      <c r="O143" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P143" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q143" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R143" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" s="14" t="n">
         <v>41424.7292216435</v>
       </c>
-      <c r="T143" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="144" s="42">
-      <c r="A144" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="0" t="n">
+      <c r="T143" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="144" s="36">
+      <c r="A144" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" s="15" t="n">
         <v>16056</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="15" t="n">
         <v>20120745</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G144" s="0" t="s">
+      <c r="G144" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H144" s="0" t="s">
+      <c r="H144" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I144" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J144" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K144" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L144" s="0" t="s">
+      <c r="I144" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J144" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K144" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L144" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="M144" s="18" t="n">
+      <c r="M144" s="14" t="n">
         <v>41423.7250649306</v>
       </c>
-      <c r="N144" s="0" t="s">
+      <c r="N144" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="O144" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P144" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q144" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R144" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S144" s="18" t="n">
+      <c r="O144" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P144" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q144" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R144" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" s="14" t="n">
         <v>41424.6425415509</v>
       </c>
-      <c r="T144" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="145" s="42">
-      <c r="A145" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" s="0" t="n">
+      <c r="T144" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="145" s="36">
+      <c r="A145" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="15" t="n">
         <v>16057</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="15" t="n">
         <v>20120741</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G145" s="0" t="s">
+      <c r="E145" s="15"/>
+      <c r="F145" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H145" s="0" t="s">
+      <c r="H145" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="I145" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J145" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K145" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L145" s="0" t="s">
+      <c r="I145" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J145" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K145" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L145" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="M145" s="18" t="n">
+      <c r="M145" s="14" t="n">
         <v>41423.7734303241</v>
       </c>
-      <c r="N145" s="0" t="s">
+      <c r="N145" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="O145" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P145" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q145" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R145" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S145" s="18" t="n">
+      <c r="O145" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P145" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q145" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R145" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" s="14" t="n">
         <v>41423.7810796296</v>
       </c>
-      <c r="T145" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="146" s="42">
-      <c r="A146" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" s="0" t="n">
+      <c r="T145" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="146" s="35">
+      <c r="A146" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="11" t="n">
         <v>16058</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="11" t="n">
         <v>20120742</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G146" s="0" t="s">
+      <c r="E146" s="11"/>
+      <c r="F146" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H146" s="0" t="s">
+      <c r="H146" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="I146" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J146" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K146" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L146" s="0" t="s">
+      <c r="I146" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L146" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M146" s="18" t="n">
+      <c r="M146" s="9" t="n">
         <v>41423.7893275463</v>
       </c>
-      <c r="N146" s="0" t="s">
+      <c r="N146" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="O146" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P146" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q146" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R146" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S146" s="18" t="n">
+      <c r="O146" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q146" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R146" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" s="9" t="n">
         <v>41423.794697338</v>
       </c>
-      <c r="T146" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="147" s="42">
-      <c r="A147" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" s="0" t="n">
+      <c r="T146" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="147" s="36">
+      <c r="A147" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="15" t="n">
         <v>16059</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="15" t="n">
         <v>20120743</v>
       </c>
-      <c r="D147" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" s="0" t="s">
+      <c r="D147" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H147" s="0" t="s">
+      <c r="H147" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I147" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J147" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K147" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L147" s="0" t="s">
+      <c r="I147" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J147" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K147" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L147" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="M147" s="18" t="n">
+      <c r="M147" s="14" t="n">
         <v>41423.8413989583</v>
       </c>
-      <c r="N147" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="O147" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P147" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q147" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R147" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S147" s="18" t="n">
+      <c r="N147" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="O147" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P147" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q147" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R147" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S147" s="14" t="n">
         <v>41423.8482770833</v>
       </c>
-      <c r="T147" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="148" s="42">
-      <c r="A148" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="0" t="n">
+      <c r="T147" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="148" s="36">
+      <c r="A148" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="15" t="n">
         <v>16060</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="15" t="n">
         <v>20130005</v>
       </c>
-      <c r="D148" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="E148" s="0" t="s">
+      <c r="D148" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="E148" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="G148" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H148" s="0" t="s">
+      <c r="F148" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I148" s="0" t="s">
+      <c r="I148" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J148" s="0" t="s">
+      <c r="J148" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="K148" s="0" t="n">
+      <c r="K148" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="L148" s="0" t="s">
+      <c r="L148" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M148" s="18" t="n">
+      <c r="M148" s="14" t="n">
         <v>41424.6386755787</v>
       </c>
-      <c r="N148" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="O148" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P148" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q148" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R148" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S148" s="18" t="n">
+      <c r="N148" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="O148" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P148" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q148" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R148" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" s="14" t="n">
         <v>41429.6013190972</v>
       </c>
-      <c r="T148" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="149" s="42">
-      <c r="A149" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" s="0" t="n">
+      <c r="T148" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="149" s="36">
+      <c r="A149" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="15" t="n">
         <v>16062</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="15" t="n">
         <v>20130020</v>
       </c>
-      <c r="D149" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="E149" s="0" t="s">
+      <c r="D149" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="F149" s="0" t="s">
+      <c r="E149" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="G149" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H149" s="0" t="s">
+      <c r="F149" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="I149" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J149" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K149" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L149" s="0" t="s">
+      <c r="I149" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J149" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K149" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L149" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="M149" s="14" t="n">
+        <v>41425.361115625</v>
+      </c>
+      <c r="N149" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="O149" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P149" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q149" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R149" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S149" s="14" t="n">
+        <v>41446.7091497685</v>
+      </c>
+      <c r="T149" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="150" s="36">
+      <c r="A150" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="15" t="n">
+        <v>16064</v>
+      </c>
+      <c r="C150" s="15" t="n">
+        <v>20120749</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="J150" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="K150" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="L150" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M150" s="14" t="n">
+        <v>41425.5221732639</v>
+      </c>
+      <c r="N150" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="O150" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q150" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R150" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" s="14" t="n">
+        <v>41425.5683482639</v>
+      </c>
+      <c r="T150" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="151" s="36">
+      <c r="A151" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="15" t="n">
+        <v>16065</v>
+      </c>
+      <c r="C151" s="15" t="n">
+        <v>20120750</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="J151" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="K151" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="L151" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M151" s="14" t="n">
+        <v>41425.5727134259</v>
+      </c>
+      <c r="N151" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="O151" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P151" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q151" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R151" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" s="14" t="n">
+        <v>41425.6055084491</v>
+      </c>
+      <c r="T151" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="152" s="36">
+      <c r="A152" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="15" t="n">
+        <v>16067</v>
+      </c>
+      <c r="C152" s="15" t="n">
+        <v>20130001</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="I152" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="J152" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="K152" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="L152" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="M152" s="14" t="n">
+        <v>41428.4703113426</v>
+      </c>
+      <c r="N152" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="O152" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P152" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q152" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R152" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S152" s="14" t="n">
+        <v>41428.5247158565</v>
+      </c>
+      <c r="T152" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="153" s="36">
+      <c r="A153" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="15" t="n">
+        <v>16068</v>
+      </c>
+      <c r="C153" s="15" t="n">
+        <v>20130027</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="K153" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="L153" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="M153" s="14" t="n">
+        <v>41428.5987583333</v>
+      </c>
+      <c r="N153" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="O153" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P153" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q153" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R153" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S153" s="14" t="n">
+        <v>41451.5624621528</v>
+      </c>
+      <c r="T153" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="154" s="36">
+      <c r="A154" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="15" t="n">
+        <v>16069</v>
+      </c>
+      <c r="C154" s="15" t="n">
+        <v>20130002</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I154" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="J154" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="K154" s="15" t="n">
+        <v>34</v>
+      </c>
+      <c r="L154" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M154" s="14" t="n">
+        <v>41429.4211211806</v>
+      </c>
+      <c r="N154" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="O154" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P154" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q154" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R154" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S154" s="14" t="n">
+        <v>41429.5048459491</v>
+      </c>
+      <c r="T154" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="155" s="36">
+      <c r="A155" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="15" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C155" s="15" t="n">
+        <v>20130006</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I155" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="J155" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="K155" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="L155" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M155" s="14" t="n">
+        <v>41429.5295556713</v>
+      </c>
+      <c r="N155" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="O155" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P155" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q155" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R155" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" s="14" t="n">
+        <v>41429.6654359954</v>
+      </c>
+      <c r="T155" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="156" s="36">
+      <c r="A156" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="15" t="n">
+        <v>16071</v>
+      </c>
+      <c r="C156" s="15" t="n">
+        <v>20130003</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I156" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="J156" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="K156" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="L156" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="M156" s="14" t="n">
+        <v>41429.5460413195</v>
+      </c>
+      <c r="N156" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="O156" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P156" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q156" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R156" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" s="14" t="n">
+        <v>41429.5703814815</v>
+      </c>
+      <c r="T156" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="157" s="36">
+      <c r="A157" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="15" t="n">
+        <v>16073</v>
+      </c>
+      <c r="C157" s="15" t="n">
+        <v>20130007</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E157" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="M149" s="18" t="n">
-        <v>41425.361115625</v>
-      </c>
-      <c r="N149" s="0" t="s">
+      <c r="F157" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="J157" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="K157" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="L157" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="M157" s="14" t="n">
+        <v>41431.5794002315</v>
+      </c>
+      <c r="N157" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="O157" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P157" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q157" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R157" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" s="14" t="n">
+        <v>41431.5996615741</v>
+      </c>
+      <c r="T157" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="158" s="36">
+      <c r="A158" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="15" t="n">
+        <v>16074</v>
+      </c>
+      <c r="C158" s="15" t="n">
+        <v>20130026</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I158" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="J158" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="K158" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M158" s="14" t="n">
+        <v>41437.4946138889</v>
+      </c>
+      <c r="N158" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="O158" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P158" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q158" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R158" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S158" s="14" t="n">
+        <v>41451.5483248843</v>
+      </c>
+      <c r="T158" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="159" s="36">
+      <c r="A159" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="15" t="n">
+        <v>16075</v>
+      </c>
+      <c r="C159" s="15" t="n">
+        <v>20130011</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I159" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="J159" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="K159" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="L159" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M159" s="14" t="n">
+        <v>41439.4236438657</v>
+      </c>
+      <c r="N159" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="O159" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P159" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q159" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R159" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" s="14" t="n">
+        <v>41439.4544053241</v>
+      </c>
+      <c r="T159" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="160" s="36">
+      <c r="A160" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="15" t="n">
+        <v>16076</v>
+      </c>
+      <c r="C160" s="15" t="n">
+        <v>20130013</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="J160" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="K160" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="L160" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="O149" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P149" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q149" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R149" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S149" s="18" t="n">
-        <v>41446.7091497685</v>
-      </c>
-      <c r="T149" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="150" s="42">
-      <c r="A150" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="0" t="n">
-        <v>16064</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>20120749</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F150" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G150" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H150" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="I150" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="J150" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="K150" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L150" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M150" s="18" t="n">
-        <v>41425.5221732639</v>
-      </c>
-      <c r="N150" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="O150" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P150" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q150" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R150" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S150" s="18" t="n">
-        <v>41425.5683482639</v>
-      </c>
-      <c r="T150" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="151" s="42">
-      <c r="A151" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B151" s="0" t="n">
-        <v>16065</v>
-      </c>
-      <c r="C151" s="0" t="n">
-        <v>20120750</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G151" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H151" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="I151" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="J151" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="K151" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="L151" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M151" s="18" t="n">
-        <v>41425.5727134259</v>
-      </c>
-      <c r="N151" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="O151" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P151" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q151" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R151" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S151" s="18" t="n">
-        <v>41425.6055084491</v>
-      </c>
-      <c r="T151" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="152" s="42">
-      <c r="A152" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="0" t="n">
-        <v>16067</v>
-      </c>
-      <c r="C152" s="0" t="n">
-        <v>20130001</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="F152" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H152" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="I152" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="J152" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="K152" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="L152" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="M152" s="18" t="n">
-        <v>41428.4703113426</v>
-      </c>
-      <c r="N152" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="O152" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P152" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q152" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R152" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S152" s="18" t="n">
-        <v>41428.5247158565</v>
-      </c>
-      <c r="T152" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="153" s="42">
-      <c r="A153" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="0" t="n">
-        <v>16068</v>
-      </c>
-      <c r="C153" s="0" t="n">
-        <v>20130027</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="F153" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="G153" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="I153" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="J153" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="K153" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="L153" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="M153" s="18" t="n">
-        <v>41428.5987583333</v>
-      </c>
-      <c r="N153" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="O153" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P153" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q153" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R153" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S153" s="18" t="n">
-        <v>41451.5624621528</v>
-      </c>
-      <c r="T153" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="154" s="42">
-      <c r="A154" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B154" s="0" t="n">
-        <v>16069</v>
-      </c>
-      <c r="C154" s="0" t="n">
-        <v>20130002</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="F154" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G154" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H154" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="J154" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="K154" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="L154" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="M154" s="18" t="n">
-        <v>41429.4211211806</v>
-      </c>
-      <c r="N154" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="O154" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P154" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q154" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R154" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S154" s="18" t="n">
-        <v>41429.5048459491</v>
-      </c>
-      <c r="T154" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="155" s="42">
-      <c r="A155" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B155" s="0" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>20130006</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H155" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="J155" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="K155" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L155" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M155" s="18" t="n">
-        <v>41429.5295556713</v>
-      </c>
-      <c r="N155" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="O155" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P155" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q155" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R155" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S155" s="18" t="n">
-        <v>41429.6654359954</v>
-      </c>
-      <c r="T155" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="156" s="42">
-      <c r="A156" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" s="0" t="n">
-        <v>16071</v>
-      </c>
-      <c r="C156" s="0" t="n">
-        <v>20130003</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="F156" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H156" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="J156" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="K156" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="L156" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="M156" s="18" t="n">
-        <v>41429.5460413195</v>
-      </c>
-      <c r="N156" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="O156" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P156" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q156" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R156" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S156" s="18" t="n">
-        <v>41429.5703814815</v>
-      </c>
-      <c r="T156" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="157" s="42">
-      <c r="A157" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" s="0" t="n">
-        <v>16073</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>20130007</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="I157" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="J157" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="K157" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="L157" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="M157" s="18" t="n">
-        <v>41431.5794002315</v>
-      </c>
-      <c r="N157" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="O157" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P157" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q157" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R157" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S157" s="18" t="n">
-        <v>41431.5996615741</v>
-      </c>
-      <c r="T157" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="158" s="42">
-      <c r="A158" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" s="0" t="n">
-        <v>16074</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>20130026</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="F158" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G158" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H158" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I158" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="J158" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="K158" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L158" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M158" s="18" t="n">
-        <v>41437.4946138889</v>
-      </c>
-      <c r="N158" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="O158" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P158" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q158" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R158" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S158" s="18" t="n">
-        <v>41451.5483248843</v>
-      </c>
-      <c r="T158" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="159" s="42">
-      <c r="A159" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B159" s="0" t="n">
-        <v>16075</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>20130011</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H159" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I159" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="J159" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="K159" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="L159" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M159" s="18" t="n">
-        <v>41439.4236438657</v>
-      </c>
-      <c r="N159" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="O159" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P159" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q159" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R159" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S159" s="18" t="n">
-        <v>41439.4544053241</v>
-      </c>
-      <c r="T159" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="160" s="42">
-      <c r="A160" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" s="0" t="n">
-        <v>16076</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>20130013</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H160" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="I160" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="J160" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="K160" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L160" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="M160" s="18" t="n">
+      <c r="M160" s="14" t="n">
         <v>41442.581944213</v>
       </c>
-      <c r="N160" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="O160" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P160" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q160" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R160" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S160" s="18" t="n">
+      <c r="N160" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="O160" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P160" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q160" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R160" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S160" s="14" t="n">
         <v>41445.3940659722</v>
       </c>
-      <c r="T160" s="0"/>
+      <c r="T160" s="15"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="42">
       <c r="A161" s="17" t="s">
@@ -12763,10 +12768,10 @@
         <v>20130014</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>30</v>
@@ -12778,10 +12783,10 @@
         <v>180</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>3</v>
@@ -12793,7 +12798,7 @@
         <v>41442.6344804398</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O161" s="0" t="s">
         <v>30</v>
@@ -12823,7 +12828,7 @@
         <v>20130016</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E162" s="0"/>
       <c r="F162" s="0" t="s">
@@ -12851,7 +12856,7 @@
         <v>41443.4305086806</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O162" s="0" t="s">
         <v>30</v>
@@ -12881,10 +12886,10 @@
         <v>20130017</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>30</v>
@@ -12896,13 +12901,13 @@
         <v>159</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L163" s="0" t="s">
         <v>159</v>
@@ -12911,7 +12916,7 @@
         <v>41444.4777402778</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O163" s="0" t="s">
         <v>30</v>
@@ -12941,7 +12946,7 @@
         <v>20130015</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E164" s="0"/>
       <c r="F164" s="0" t="s">
@@ -12969,7 +12974,7 @@
         <v>41444.665028588</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O164" s="0" t="s">
         <v>30</v>
@@ -12999,10 +13004,10 @@
         <v>20130031</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>30</v>
@@ -13014,13 +13019,13 @@
         <v>134</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L165" s="0" t="s">
         <v>138</v>
@@ -13029,7 +13034,7 @@
         <v>41445.4579988426</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O165" s="0" t="s">
         <v>30</v>
@@ -13059,7 +13064,7 @@
         <v>20130028</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="0" t="s">
@@ -13069,13 +13074,13 @@
         <v>30</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>6</v>
@@ -13087,7 +13092,7 @@
         <v>41446.4608849537</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O166" s="0" t="s">
         <v>30</v>
@@ -13117,10 +13122,10 @@
         <v>20130021</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>30</v>
@@ -13129,10 +13134,10 @@
         <v>30</v>
       </c>
       <c r="H167" s="43" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I167" s="43" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J167" s="43" t="s">
         <v>152</v>
@@ -13147,7 +13152,7 @@
         <v>41449.3498559028</v>
       </c>
       <c r="N167" s="43" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O167" s="43" t="s">
         <v>30</v>
@@ -13177,10 +13182,10 @@
         <v>20130022</v>
       </c>
       <c r="D168" s="43" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>30</v>
@@ -13195,7 +13200,7 @@
         <v>29</v>
       </c>
       <c r="J168" s="43" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>12</v>
@@ -13207,7 +13212,7 @@
         <v>41449.494916088</v>
       </c>
       <c r="N168" s="43" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="O168" s="43" t="s">
         <v>30</v>
@@ -13237,37 +13242,37 @@
         <v>20130023</v>
       </c>
       <c r="D169" s="43" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G169" s="43" t="s">
         <v>30</v>
       </c>
       <c r="H169" s="43" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>431</v>
       </c>
       <c r="J169" s="43" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>26</v>
       </c>
       <c r="L169" s="43" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M169" s="44" t="n">
         <v>41449.6461498843</v>
       </c>
       <c r="N169" s="43" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O169" s="43" t="s">
         <v>30</v>
@@ -13297,13 +13302,13 @@
         <v>20130024</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G170" s="43" t="s">
         <v>30</v>
@@ -13315,7 +13320,7 @@
         <v>410</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>25</v>
@@ -13327,7 +13332,7 @@
         <v>41450.698428588</v>
       </c>
       <c r="N170" s="43" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O170" s="43" t="s">
         <v>30</v>
@@ -13357,7 +13362,7 @@
         <v>20130025</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E171" s="43"/>
       <c r="F171" s="43" t="s">
@@ -13376,7 +13381,7 @@
         <v>40</v>
       </c>
       <c r="K171" s="43" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L171" s="43" t="s">
         <v>326</v>
@@ -13385,7 +13390,7 @@
         <v>41451.466756713</v>
       </c>
       <c r="N171" s="43" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O171" s="43" t="s">
         <v>30</v>
@@ -13415,10 +13420,10 @@
         <v>20130029</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>30</v>
@@ -13430,13 +13435,13 @@
         <v>134</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L172" s="0" t="s">
         <v>154</v>
@@ -13445,7 +13450,7 @@
         <v>41452.4603681713</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="O172" s="0" t="s">
         <v>30</v>

--- a/docs/08262013_nh_to_map.xlsx
+++ b/docs/08262013_nh_to_map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="836">
   <si>
     <t>Assigned</t>
   </si>
@@ -1064,6 +1064,9 @@
     <t>23-10-017</t>
   </si>
   <si>
+    <t>Could not find, no PLSS or LatLng or anything.</t>
+  </si>
+  <si>
     <t>Boykin Creek Enhancement</t>
   </si>
   <si>
@@ -1115,6 +1118,9 @@
     <t>2012-252-13</t>
   </si>
   <si>
+    <t>Are the points treatments, if so, too many to map by hand.</t>
+  </si>
+  <si>
     <t>Logan Valley Riparian Fencing</t>
   </si>
   <si>
@@ -2412,6 +2418,9 @@
   </si>
   <si>
     <t>211-5056</t>
+  </si>
+  <si>
+    <t>Township is 2S, not 5S</t>
   </si>
   <si>
     <t>Dahle Orchard Drip Irrigation 2012</t>
@@ -2795,6 +2804,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2827,15 +2840,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2859,8 +2868,8 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1 2" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2932,10 +2941,10 @@
   </sheetPr>
   <dimension ref="A1:AI173"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A146" xSplit="0" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A160" activeCellId="0" pane="bottomLeft" sqref="160:160"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="I1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A50" xSplit="0" ySplit="1"/>
+      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+      <selection activeCell="T63" activeCellId="0" pane="bottomLeft" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6811,60 +6820,63 @@
         <v>41284.527165625</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="63" s="8">
+      <c r="A63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="8" t="n">
         <v>15351</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="8" t="n">
         <v>20120298</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="F63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="2" t="s">
+      <c r="I63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M63" s="18" t="n">
+      <c r="M63" s="9" t="n">
         <v>41243.5707369213</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="N63" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R63" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S63" s="18" t="n">
+      <c r="O63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" s="9" t="n">
         <v>41243.5804918982</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="64" s="27">
@@ -6878,13 +6890,13 @@
         <v>20120424</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>54</v>
@@ -6893,22 +6905,22 @@
         <v>63</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J64" s="27" t="s">
         <v>64</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L64" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M64" s="28" t="n">
         <v>41247.9034752315</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O64" s="27" t="s">
         <v>28</v>
@@ -6937,37 +6949,37 @@
         <v>20120340</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F65" s="27" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I65" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K65" s="27" t="n">
         <v>16</v>
       </c>
       <c r="L65" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M65" s="28" t="n">
         <v>41278.4907118056</v>
       </c>
       <c r="N65" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O65" s="27" t="s">
         <v>28</v>
@@ -6985,63 +6997,66 @@
         <v>41278.5676699074</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="66" s="31">
+      <c r="A66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="31" t="n">
         <v>15393</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="31" t="n">
         <v>20120341</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="E66" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="G66" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="2" t="s">
+      <c r="I66" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="M66" s="18" t="n">
+      <c r="M66" s="34" t="n">
         <v>41278.6358894676</v>
       </c>
-      <c r="N66" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S66" s="18" t="n">
+      <c r="N66" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="O66" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="R66" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" s="34" t="n">
         <v>41281.4489203704</v>
+      </c>
+      <c r="T66" s="31" t="s">
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="67" s="30">
@@ -7055,10 +7070,10 @@
         <v>20120352</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F67" s="27" t="s">
         <v>101</v>
@@ -7067,7 +7082,7 @@
         <v>99</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I67" s="27" t="s">
         <v>105</v>
@@ -7076,7 +7091,7 @@
         <v>26</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L67" s="27" t="s">
         <v>219</v>
@@ -7085,7 +7100,7 @@
         <v>41281.5898055556</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O67" s="27" t="s">
         <v>28</v>
@@ -7119,59 +7134,59 @@
       <c r="AH67" s="27"/>
       <c r="AI67" s="27"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
-      <c r="A68" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="2" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="68" s="13">
+      <c r="A68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="13" t="n">
         <v>15403</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="13" t="n">
         <v>20120351</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="D68" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" s="2" t="s">
+      <c r="I68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M68" s="18" t="n">
+      <c r="M68" s="14" t="n">
         <v>41288.4558510417</v>
       </c>
-      <c r="N68" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R68" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S68" s="18" t="n">
+      <c r="N68" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="O68" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R68" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" s="14" t="n">
         <v>41288.5683086806</v>
       </c>
     </row>
@@ -7186,10 +7201,10 @@
         <v>20120366</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F69" s="27" t="s">
         <v>313</v>
@@ -7201,10 +7216,10 @@
         <v>313</v>
       </c>
       <c r="I69" s="27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J69" s="27" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K69" s="27" t="n">
         <v>16</v>
@@ -7216,7 +7231,7 @@
         <v>41291.6404072917</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O69" s="27" t="s">
         <v>28</v>
@@ -7245,7 +7260,7 @@
         <v>20120385</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F70" s="33" t="s">
         <v>30</v>
@@ -7254,7 +7269,7 @@
         <v>35</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I70" s="33" t="s">
         <v>30</v>
@@ -7272,7 +7287,7 @@
         <v>41294.5077269676</v>
       </c>
       <c r="N70" s="33" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O70" s="33" t="s">
         <v>28</v>
@@ -7316,7 +7331,7 @@
         <v>20120378</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>35</v>
@@ -7328,13 +7343,13 @@
         <v>35</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>135</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>30</v>
@@ -7346,7 +7361,7 @@
         <v>41302.5911454861</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O71" s="16" t="s">
         <v>28</v>
@@ -7376,7 +7391,7 @@
         <v>20120375</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F72" s="33" t="s">
         <v>30</v>
@@ -7403,7 +7418,7 @@
         <v>41303.6479884259</v>
       </c>
       <c r="N72" s="33" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O72" s="33" t="s">
         <v>28</v>
@@ -7447,10 +7462,10 @@
         <v>20120383</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>30</v>
@@ -7477,7 +7492,7 @@
         <v>41306.5328994213</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O73" s="27" t="s">
         <v>28</v>
@@ -7506,13 +7521,13 @@
         <v>20120415</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>83</v>
@@ -7527,7 +7542,7 @@
         <v>64</v>
       </c>
       <c r="K74" s="23" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L74" s="23" t="s">
         <v>122</v>
@@ -7536,7 +7551,7 @@
         <v>41306.5329934028</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O74" s="23" t="s">
         <v>28</v>
@@ -7554,7 +7569,7 @@
         <v>41327.4879564815</v>
       </c>
       <c r="T74" s="23" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="75" s="27">
@@ -7568,19 +7583,19 @@
         <v>20120411</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G75" s="27" t="s">
         <v>35</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I75" s="27" t="s">
         <v>47</v>
@@ -7598,7 +7613,7 @@
         <v>41311.4689633102</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O75" s="27" t="s">
         <v>28</v>
@@ -7627,22 +7642,22 @@
         <v>20120404</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>99</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I76" s="27" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K76" s="27" t="n">
         <v>13</v>
@@ -7654,7 +7669,7 @@
         <v>41316.7117377315</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O76" s="27" t="s">
         <v>28</v>
@@ -7683,37 +7698,37 @@
         <v>20120444</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I77" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K77" s="27" t="n">
         <v>4</v>
       </c>
       <c r="L77" s="27" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M77" s="28" t="n">
         <v>41320.4583299769</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O77" s="27" t="s">
         <v>28</v>
@@ -7742,37 +7757,37 @@
         <v>20120419</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G78" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I78" s="27" t="s">
         <v>105</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K78" s="27" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L78" s="27" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M78" s="28" t="n">
         <v>41327.4573636574</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O78" s="27" t="s">
         <v>28</v>
@@ -7801,7 +7816,7 @@
         <v>20120471</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>200</v>
@@ -7816,7 +7831,7 @@
         <v>300</v>
       </c>
       <c r="I79" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J79" s="27" t="s">
         <v>120</v>
@@ -7831,7 +7846,7 @@
         <v>41330.4895332176</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O79" s="27" t="s">
         <v>28</v>
@@ -7860,10 +7875,10 @@
         <v>20120433</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>30</v>
@@ -7878,10 +7893,10 @@
         <v>264</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L80" s="13" t="s">
         <v>177</v>
@@ -7890,7 +7905,7 @@
         <v>41333.6565875</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O80" s="13" t="s">
         <v>28</v>
@@ -7919,37 +7934,37 @@
         <v>20130019</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K81" s="8" t="n">
         <v>13</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M81" s="9" t="n">
         <v>41337.5453773148</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>30</v>
@@ -7967,7 +7982,7 @@
         <v>41446.4359273148</v>
       </c>
       <c r="T81" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="82" s="27">
@@ -7981,13 +7996,13 @@
         <v>20120445</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>172</v>
@@ -7996,22 +8011,22 @@
         <v>229</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K82" s="27" t="s">
         <v>30</v>
       </c>
       <c r="L82" s="27" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M82" s="28" t="n">
         <v>41340.4754460648</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O82" s="27" t="s">
         <v>28</v>
@@ -8040,13 +8055,13 @@
         <v>20120443</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>83</v>
@@ -8055,7 +8070,7 @@
         <v>248</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J83" s="13" t="s">
         <v>187</v>
@@ -8070,7 +8085,7 @@
         <v>41340.5483920139</v>
       </c>
       <c r="N83" s="13" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O83" s="13" t="s">
         <v>28</v>
@@ -8099,10 +8114,10 @@
         <v>20120442</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>104</v>
@@ -8111,7 +8126,7 @@
         <v>35</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>47</v>
@@ -8119,7 +8134,7 @@
       <c r="J84" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="K84" s="34" t="n">
+      <c r="K84" s="35" t="n">
         <v>41592</v>
       </c>
       <c r="L84" s="13" t="s">
@@ -8129,7 +8144,7 @@
         <v>41340.5534408565</v>
       </c>
       <c r="N84" s="13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O84" s="13" t="s">
         <v>28</v>
@@ -8158,37 +8173,37 @@
         <v>20120454</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>216</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M85" s="14" t="n">
         <v>41341.5987564815</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O85" s="13" t="s">
         <v>28</v>
@@ -8217,13 +8232,13 @@
         <v>20120458</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>83</v>
@@ -8247,7 +8262,7 @@
         <v>41345.6156528935</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O86" s="13" t="s">
         <v>28</v>
@@ -8276,10 +8291,10 @@
         <v>20120456</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>30</v>
@@ -8297,7 +8312,7 @@
         <v>112</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>113</v>
@@ -8306,7 +8321,7 @@
         <v>41348.5506606481</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O87" s="8" t="s">
         <v>28</v>
@@ -8324,7 +8339,7 @@
         <v>41348.7088268519</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="88" s="27">
@@ -8338,25 +8353,25 @@
         <v>20120464</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E88" s="27" t="s">
         <v>81</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>99</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I88" s="27" t="s">
         <v>105</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K88" s="27" t="n">
         <v>27</v>
@@ -8368,7 +8383,7 @@
         <v>41352.3755155093</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O88" s="27" t="s">
         <v>28</v>
@@ -8397,25 +8412,25 @@
         <v>20120496</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I89" s="15" t="s">
         <v>111</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K89" s="15" t="n">
         <v>31</v>
@@ -8427,7 +8442,7 @@
         <v>41358.509103588</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O89" s="15" t="s">
         <v>28</v>
@@ -8471,7 +8486,7 @@
         <v>20120497</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>30</v>
@@ -8480,7 +8495,7 @@
         <v>35</v>
       </c>
       <c r="H90" s="32" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I90" s="32" t="s">
         <v>30</v>
@@ -8498,7 +8513,7 @@
         <v>41359.6074496528</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O90" s="32" t="s">
         <v>28</v>
@@ -8516,7 +8531,7 @@
         <v>41359.6303166667</v>
       </c>
       <c r="T90" s="32" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="U90" s="23"/>
       <c r="V90" s="23"/>
@@ -8545,37 +8560,37 @@
         <v>20120618</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H91" s="32" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I91" s="32" t="s">
         <v>216</v>
       </c>
       <c r="J91" s="32" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K91" s="32" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L91" s="32" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M91" s="24" t="n">
         <v>41360.3535715278</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O91" s="32" t="s">
         <v>28</v>
@@ -8619,10 +8634,10 @@
         <v>20120712</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>30</v>
@@ -8631,25 +8646,25 @@
         <v>308</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J92" s="15" t="s">
         <v>57</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M92" s="14" t="n">
         <v>41361.6832092593</v>
       </c>
       <c r="N92" s="15" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O92" s="15" t="s">
         <v>28</v>
@@ -8678,10 +8693,10 @@
         <v>20120530</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>104</v>
@@ -8690,25 +8705,25 @@
         <v>35</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>135</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K93" s="13" t="n">
         <v>26</v>
       </c>
       <c r="L93" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M93" s="14" t="n">
         <v>41366.4341045139</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O93" s="13" t="s">
         <v>28</v>
@@ -8737,7 +8752,7 @@
         <v>20120531</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>81</v>
@@ -8755,7 +8770,7 @@
         <v>95</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K94" s="13" t="n">
         <v>15</v>
@@ -8767,7 +8782,7 @@
         <v>41366.5665203704</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O94" s="13" t="s">
         <v>28</v>
@@ -8785,7 +8800,7 @@
         <v>41366.5860201389</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="95" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="95" s="36">
       <c r="A95" s="7" t="s">
         <v>20</v>
       </c>
@@ -8796,10 +8811,10 @@
         <v>20120640</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>30</v>
@@ -8808,25 +8823,25 @@
         <v>35</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K95" s="11" t="n">
         <v>6</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M95" s="9" t="n">
         <v>41369.63865625</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>28</v>
@@ -8844,10 +8859,10 @@
         <v>41369.655837037</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="96" s="35">
+        <v>502</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="96" s="36">
       <c r="A96" s="7" t="s">
         <v>20</v>
       </c>
@@ -8858,10 +8873,10 @@
         <v>20120647</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>81</v>
@@ -8888,7 +8903,7 @@
         <v>41372.6617818287</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O96" s="11" t="s">
         <v>28</v>
@@ -8906,10 +8921,10 @@
         <v>41372.8411</v>
       </c>
       <c r="T96" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="97" s="36">
+        <v>506</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="97" s="37">
       <c r="A97" s="12" t="s">
         <v>20</v>
       </c>
@@ -8920,13 +8935,13 @@
         <v>20120658</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G97" s="15" t="s">
         <v>83</v>
@@ -8935,13 +8950,13 @@
         <v>248</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>122</v>
@@ -8950,7 +8965,7 @@
         <v>41373.4125752315</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O97" s="15" t="s">
         <v>28</v>
@@ -8969,7 +8984,7 @@
       </c>
       <c r="T97" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="98" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="98" s="37">
       <c r="A98" s="12" t="s">
         <v>20</v>
       </c>
@@ -8980,37 +8995,37 @@
         <v>20120682</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I98" s="15" t="s">
         <v>95</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K98" s="15" t="n">
         <v>28</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M98" s="14" t="n">
         <v>41375.2876224537</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O98" s="15" t="s">
         <v>28</v>
@@ -9029,69 +9044,69 @@
       </c>
       <c r="T98" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="99" s="40">
-      <c r="A99" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="38" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="99" s="41">
+      <c r="A99" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="39" t="n">
         <v>15713</v>
       </c>
-      <c r="C99" s="38" t="n">
+      <c r="C99" s="39" t="n">
         <v>20130030</v>
       </c>
-      <c r="D99" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="E99" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="F99" s="38" t="s">
+      <c r="D99" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="G99" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="I99" s="38" t="s">
+      <c r="E99" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="J99" s="38" t="s">
+      <c r="F99" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="K99" s="38" t="n">
+      <c r="G99" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="I99" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="J99" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="K99" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="L99" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="M99" s="39" t="n">
+      <c r="L99" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="M99" s="40" t="n">
         <v>41375.3779988426</v>
       </c>
-      <c r="N99" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="O99" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P99" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q99" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R99" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S99" s="39" t="n">
+      <c r="N99" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="O99" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P99" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q99" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R99" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" s="40" t="n">
         <v>41453.3494300926</v>
       </c>
-      <c r="T99" s="38" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="100" s="36">
+      <c r="T99" s="39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="100" s="37">
       <c r="A100" s="12" t="s">
         <v>20</v>
       </c>
@@ -9102,13 +9117,13 @@
         <v>20120683</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>35</v>
@@ -9132,7 +9147,7 @@
         <v>41375.3958023148</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O100" s="15" t="s">
         <v>28</v>
@@ -9151,7 +9166,7 @@
       </c>
       <c r="T100" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="101" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="101" s="37">
       <c r="A101" s="12" t="s">
         <v>20</v>
       </c>
@@ -9162,19 +9177,19 @@
         <v>20120684</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I101" s="15" t="s">
         <v>174</v>
@@ -9183,16 +9198,16 @@
         <v>260</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M101" s="14" t="n">
         <v>41375.58671875</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="O101" s="15" t="s">
         <v>28</v>
@@ -9211,7 +9226,7 @@
       </c>
       <c r="T101" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="41">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="102" s="42">
       <c r="A102" s="26" t="s">
         <v>20</v>
       </c>
@@ -9222,10 +9237,10 @@
         <v>20120687</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F102" s="27" t="s">
         <v>195</v>
@@ -9237,10 +9252,10 @@
         <v>173</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K102" s="27" t="n">
         <v>11</v>
@@ -9252,7 +9267,7 @@
         <v>41376.577928125</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="O102" s="27" t="s">
         <v>28</v>
@@ -9271,7 +9286,7 @@
       </c>
       <c r="T102" s="27"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="103" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="103" s="36">
       <c r="A103" s="7" t="s">
         <v>20</v>
       </c>
@@ -9282,13 +9297,13 @@
         <v>20120692</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>83</v>
@@ -9297,10 +9312,10 @@
         <v>336</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K103" s="11" t="n">
         <v>36</v>
@@ -9312,7 +9327,7 @@
         <v>41379.0115039352</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O103" s="11" t="s">
         <v>28</v>
@@ -9330,10 +9345,10 @@
         <v>41379.0781994213</v>
       </c>
       <c r="T103" s="11" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="104" s="35">
+        <v>546</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="104" s="36">
       <c r="A104" s="7" t="s">
         <v>20</v>
       </c>
@@ -9344,19 +9359,19 @@
         <v>20120747</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>30</v>
@@ -9368,13 +9383,13 @@
         <v>30</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M104" s="9" t="n">
         <v>41379.3963328704</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="O104" s="11" t="s">
         <v>28</v>
@@ -9392,10 +9407,10 @@
         <v>41424.7528541667</v>
       </c>
       <c r="T104" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="105" s="36">
+        <v>553</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="105" s="37">
       <c r="A105" s="12" t="s">
         <v>20</v>
       </c>
@@ -9406,28 +9421,28 @@
         <v>20120693</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K105" s="15" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L105" s="15" t="s">
         <v>25</v>
@@ -9436,7 +9451,7 @@
         <v>41379.4204546296</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O105" s="15" t="s">
         <v>28</v>
@@ -9455,7 +9470,7 @@
       </c>
       <c r="T105" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="106" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="106" s="37">
       <c r="A106" s="12" t="s">
         <v>20</v>
       </c>
@@ -9466,10 +9481,10 @@
         <v>20120728</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>30</v>
@@ -9478,7 +9493,7 @@
         <v>35</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I106" s="15" t="s">
         <v>30</v>
@@ -9490,13 +9505,13 @@
         <v>30</v>
       </c>
       <c r="L106" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M106" s="14" t="n">
         <v>41380.4859515046</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="O106" s="15" t="s">
         <v>28</v>
@@ -9515,7 +9530,7 @@
       </c>
       <c r="T106" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="107" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="107" s="37">
       <c r="A107" s="12" t="s">
         <v>20</v>
       </c>
@@ -9526,10 +9541,10 @@
         <v>20120698</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>30</v>
@@ -9541,7 +9556,7 @@
         <v>229</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J107" s="15" t="s">
         <v>226</v>
@@ -9556,7 +9571,7 @@
         <v>41380.6362467593</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O107" s="15" t="s">
         <v>28</v>
@@ -9575,7 +9590,7 @@
       </c>
       <c r="T107" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="108" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="108" s="36">
       <c r="A108" s="7" t="s">
         <v>20</v>
       </c>
@@ -9586,25 +9601,25 @@
         <v>20120731</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I108" s="11" t="s">
         <v>135</v>
       </c>
       <c r="J108" s="11" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K108" s="11" t="n">
         <v>19</v>
@@ -9634,10 +9649,10 @@
         <v>41408.5971545139</v>
       </c>
       <c r="T108" s="11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="109" s="36">
+        <v>570</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="109" s="37">
       <c r="A109" s="12" t="s">
         <v>20</v>
       </c>
@@ -9648,13 +9663,13 @@
         <v>20120701</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>35</v>
@@ -9678,7 +9693,7 @@
         <v>41380.7369793982</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O109" s="15" t="s">
         <v>28</v>
@@ -9697,7 +9712,7 @@
       </c>
       <c r="T109" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="110" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="110" s="37">
       <c r="A110" s="12" t="s">
         <v>20</v>
       </c>
@@ -9708,13 +9723,13 @@
         <v>20120702</v>
       </c>
       <c r="D110" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="F110" s="15" t="s">
         <v>573</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>571</v>
       </c>
       <c r="G110" s="15" t="s">
         <v>35</v>
@@ -9738,7 +9753,7 @@
         <v>41380.7715090278</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O110" s="15" t="s">
         <v>28</v>
@@ -9757,7 +9772,7 @@
       </c>
       <c r="T110" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="111" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="111" s="36">
       <c r="A111" s="7" t="s">
         <v>20</v>
       </c>
@@ -9768,25 +9783,25 @@
         <v>20120704</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K111" s="11" t="n">
         <v>32</v>
@@ -9798,7 +9813,7 @@
         <v>41381.5380797454</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O111" s="11" t="s">
         <v>28</v>
@@ -9816,10 +9831,10 @@
         <v>41381.573203588</v>
       </c>
       <c r="T111" s="11" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="112" s="36">
+        <v>581</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="112" s="37">
       <c r="A112" s="12" t="s">
         <v>20</v>
       </c>
@@ -9830,7 +9845,7 @@
         <v>20120711</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="15" t="s">
@@ -9846,19 +9861,19 @@
         <v>135</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K112" s="15" t="n">
         <v>10</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M112" s="14" t="n">
         <v>41382.3362045139</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O112" s="15" t="s">
         <v>28</v>
@@ -9877,7 +9892,7 @@
       </c>
       <c r="T112" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="113" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="113" s="37">
       <c r="A113" s="12" t="s">
         <v>20</v>
       </c>
@@ -9888,7 +9903,7 @@
         <v>20120721</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15" t="s">
@@ -9901,22 +9916,22 @@
         <v>180</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M113" s="14" t="n">
         <v>41386.5334592593</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O113" s="15" t="s">
         <v>28</v>
@@ -9935,7 +9950,7 @@
       </c>
       <c r="T113" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="114" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="114" s="36">
       <c r="A114" s="7" t="s">
         <v>20</v>
       </c>
@@ -9946,10 +9961,10 @@
         <v>20120713</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>195</v>
@@ -9964,7 +9979,7 @@
         <v>166</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K114" s="11" t="n">
         <v>18</v>
@@ -9976,7 +9991,7 @@
         <v>41387.3496603009</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>28</v>
@@ -9994,10 +10009,10 @@
         <v>41387.3718373843</v>
       </c>
       <c r="T114" s="11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="115" s="35">
+        <v>593</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="115" s="36">
       <c r="A115" s="7" t="s">
         <v>20</v>
       </c>
@@ -10008,7 +10023,7 @@
         <v>20120719</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
@@ -10036,7 +10051,7 @@
         <v>41389.4028954861</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="O115" s="11" t="s">
         <v>28</v>
@@ -10054,10 +10069,10 @@
         <v>41394.4009287037</v>
       </c>
       <c r="T115" s="11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="116" s="36">
+        <v>596</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="116" s="37">
       <c r="A116" s="12" t="s">
         <v>20</v>
       </c>
@@ -10068,13 +10083,13 @@
         <v>20120714</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G116" s="15" t="s">
         <v>83</v>
@@ -10083,7 +10098,7 @@
         <v>252</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>112</v>
@@ -10098,7 +10113,7 @@
         <v>41389.598034375</v>
       </c>
       <c r="N116" s="15" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O116" s="15" t="s">
         <v>28</v>
@@ -10117,7 +10132,7 @@
       </c>
       <c r="T116" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="117" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="117" s="37">
       <c r="A117" s="12" t="s">
         <v>20</v>
       </c>
@@ -10128,13 +10143,13 @@
         <v>20120715</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G117" s="15" t="s">
         <v>83</v>
@@ -10143,22 +10158,22 @@
         <v>252</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J117" s="15" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L117" s="15" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M117" s="14" t="n">
         <v>41390.4169229167</v>
       </c>
       <c r="N117" s="15" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O117" s="15" t="s">
         <v>28</v>
@@ -10177,7 +10192,7 @@
       </c>
       <c r="T117" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="118" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="118" s="37">
       <c r="A118" s="12" t="s">
         <v>20</v>
       </c>
@@ -10188,13 +10203,13 @@
         <v>20120716</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G118" s="15" t="s">
         <v>83</v>
@@ -10203,7 +10218,7 @@
         <v>252</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J118" s="15" t="s">
         <v>112</v>
@@ -10218,7 +10233,7 @@
         <v>41390.4574103009</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O118" s="15" t="s">
         <v>28</v>
@@ -10237,7 +10252,7 @@
       </c>
       <c r="T118" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="119" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="119" s="37">
       <c r="A119" s="12" t="s">
         <v>20</v>
       </c>
@@ -10248,10 +10263,10 @@
         <v>20120717</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>30</v>
@@ -10260,25 +10275,25 @@
         <v>45</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="J119" s="15" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M119" s="14" t="n">
         <v>41390.5339625</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O119" s="15" t="s">
         <v>28</v>
@@ -10297,7 +10312,7 @@
       </c>
       <c r="T119" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="120" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="120" s="37">
       <c r="A120" s="12" t="s">
         <v>20</v>
       </c>
@@ -10308,10 +10323,10 @@
         <v>20120720</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>30</v>
@@ -10323,10 +10338,10 @@
         <v>296</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="J120" s="15" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K120" s="15" t="n">
         <v>35</v>
@@ -10338,7 +10353,7 @@
         <v>41395.6476704861</v>
       </c>
       <c r="N120" s="15" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="O120" s="15" t="s">
         <v>28</v>
@@ -10356,10 +10371,10 @@
         <v>41396.4067240741</v>
       </c>
       <c r="T120" s="15" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="121" s="35">
+        <v>619</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="121" s="36">
       <c r="A121" s="7" t="s">
         <v>20</v>
       </c>
@@ -10370,10 +10385,10 @@
         <v>20130012</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>145</v>
@@ -10385,13 +10400,13 @@
         <v>145</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L121" s="11" t="s">
         <v>146</v>
@@ -10400,7 +10415,7 @@
         <v>41396.5116137732</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O121" s="11" t="s">
         <v>30</v>
@@ -10418,10 +10433,10 @@
         <v>41444.4912667824</v>
       </c>
       <c r="T121" s="11" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="122" s="36">
+        <v>626</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="122" s="37">
       <c r="A122" s="12" t="s">
         <v>20</v>
       </c>
@@ -10432,37 +10447,37 @@
         <v>20120722</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G122" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I122" s="15" t="s">
         <v>216</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K122" s="15" t="n">
         <v>28</v>
       </c>
       <c r="L122" s="15" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M122" s="14" t="n">
         <v>41400.5486766204</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="O122" s="15" t="s">
         <v>28</v>
@@ -10481,7 +10496,7 @@
       </c>
       <c r="T122" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="123" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="123" s="37">
       <c r="A123" s="12" t="s">
         <v>20</v>
       </c>
@@ -10492,19 +10507,19 @@
         <v>20120723</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>83</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="I123" s="15" t="s">
         <v>271</v>
@@ -10516,13 +10531,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="15" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M123" s="14" t="n">
         <v>41400.5800931713</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O123" s="15" t="s">
         <v>28</v>
@@ -10541,7 +10556,7 @@
       </c>
       <c r="T123" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="124" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="124" s="37">
       <c r="A124" s="12" t="s">
         <v>20</v>
       </c>
@@ -10552,10 +10567,10 @@
         <v>20120725</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F124" s="15" t="s">
         <v>30</v>
@@ -10570,7 +10585,7 @@
         <v>210</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K124" s="15" t="n">
         <v>21</v>
@@ -10582,7 +10597,7 @@
         <v>41400.6168130787</v>
       </c>
       <c r="N124" s="15" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O124" s="15" t="s">
         <v>28</v>
@@ -10601,7 +10616,7 @@
       </c>
       <c r="T124" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="125" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="125" s="36">
       <c r="A125" s="7" t="s">
         <v>20</v>
       </c>
@@ -10612,37 +10627,37 @@
         <v>20120724</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="I125" s="11" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="11" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K125" s="11" t="n">
         <v>15</v>
       </c>
       <c r="L125" s="11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M125" s="9" t="n">
         <v>41401.6187175926</v>
       </c>
       <c r="N125" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O125" s="11" t="s">
         <v>28</v>
@@ -10660,10 +10675,10 @@
         <v>41401.6445431713</v>
       </c>
       <c r="T125" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="126" s="36">
+        <v>641</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="126" s="37">
       <c r="A126" s="12" t="s">
         <v>20</v>
       </c>
@@ -10674,10 +10689,10 @@
         <v>20120726</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F126" s="15" t="s">
         <v>30</v>
@@ -10686,13 +10701,13 @@
         <v>24</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K126" s="15" t="n">
         <v>23</v>
@@ -10704,7 +10719,7 @@
         <v>41402.4505538194</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O126" s="15" t="s">
         <v>28</v>
@@ -10723,7 +10738,7 @@
       </c>
       <c r="T126" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="127" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="127" s="36">
       <c r="A127" s="7" t="s">
         <v>20</v>
       </c>
@@ -10734,10 +10749,10 @@
         <v>20120727</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>30</v>
@@ -10752,7 +10767,7 @@
         <v>242</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K127" s="11" t="n">
         <v>266</v>
@@ -10764,7 +10779,7 @@
         <v>41403.6118388889</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O127" s="11" t="s">
         <v>28</v>
@@ -10782,10 +10797,10 @@
         <v>41403.6263329861</v>
       </c>
       <c r="T127" s="11" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="128" s="36">
+        <v>647</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="128" s="37">
       <c r="A128" s="12" t="s">
         <v>20</v>
       </c>
@@ -10796,13 +10811,13 @@
         <v>20120730</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G128" s="15" t="s">
         <v>24</v>
@@ -10826,7 +10841,7 @@
         <v>41403.8700552083</v>
       </c>
       <c r="N128" s="15" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="O128" s="15" t="s">
         <v>28</v>
@@ -10845,7 +10860,7 @@
       </c>
       <c r="T128" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="129" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="129" s="36">
       <c r="A129" s="7" t="s">
         <v>20</v>
       </c>
@@ -10856,13 +10871,13 @@
         <v>20120729</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>54</v>
@@ -10871,10 +10886,10 @@
         <v>277</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K129" s="11" t="n">
         <v>6</v>
@@ -10886,7 +10901,7 @@
         <v>41407.5351728009</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O129" s="11" t="s">
         <v>28</v>
@@ -10904,10 +10919,10 @@
         <v>41407.5630425926</v>
       </c>
       <c r="T129" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="130" s="36">
+        <v>658</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="130" s="37">
       <c r="A130" s="12" t="s">
         <v>20</v>
       </c>
@@ -10918,13 +10933,13 @@
         <v>20120732</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>308</v>
@@ -10936,13 +10951,13 @@
         <v>135</v>
       </c>
       <c r="J130" s="15" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K130" s="15" t="n">
         <v>35</v>
       </c>
       <c r="L130" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M130" s="14" t="n">
         <v>41407.6975019676</v>
@@ -10967,7 +10982,7 @@
       </c>
       <c r="T130" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="131" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="131" s="37">
       <c r="A131" s="12" t="s">
         <v>20</v>
       </c>
@@ -10978,10 +10993,10 @@
         <v>20120735</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F131" s="15" t="s">
         <v>30</v>
@@ -10999,7 +11014,7 @@
         <v>175</v>
       </c>
       <c r="K131" s="15" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L131" s="15" t="s">
         <v>177</v>
@@ -11008,7 +11023,7 @@
         <v>41409.4303221065</v>
       </c>
       <c r="N131" s="15" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O131" s="15" t="s">
         <v>28</v>
@@ -11027,7 +11042,7 @@
       </c>
       <c r="T131" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="132" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="132" s="37">
       <c r="A132" s="12" t="s">
         <v>20</v>
       </c>
@@ -11038,13 +11053,13 @@
         <v>20120733</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G132" s="15" t="s">
         <v>24</v>
@@ -11068,7 +11083,7 @@
         <v>41409.5465578704</v>
       </c>
       <c r="N132" s="15" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O132" s="15" t="s">
         <v>28</v>
@@ -11087,7 +11102,7 @@
       </c>
       <c r="T132" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="133" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="133" s="37">
       <c r="A133" s="12" t="s">
         <v>20</v>
       </c>
@@ -11098,10 +11113,10 @@
         <v>20130018</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F133" s="15" t="s">
         <v>30</v>
@@ -11110,25 +11125,25 @@
         <v>30</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I133" s="15" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J133" s="15" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K133" s="15" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L133" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M133" s="14" t="n">
         <v>41409.6335072917</v>
       </c>
       <c r="N133" s="15" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O133" s="15" t="s">
         <v>30</v>
@@ -11147,7 +11162,7 @@
       </c>
       <c r="T133" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="134" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="134" s="37">
       <c r="A134" s="12" t="s">
         <v>20</v>
       </c>
@@ -11158,13 +11173,13 @@
         <v>20120734</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G134" s="15" t="s">
         <v>83</v>
@@ -11173,7 +11188,7 @@
         <v>248</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J134" s="15" t="s">
         <v>112</v>
@@ -11188,7 +11203,7 @@
         <v>41409.8738054398</v>
       </c>
       <c r="N134" s="15" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="O134" s="15" t="s">
         <v>28</v>
@@ -11207,7 +11222,7 @@
       </c>
       <c r="T134" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="135" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="135" s="37">
       <c r="A135" s="12" t="s">
         <v>20</v>
       </c>
@@ -11218,10 +11233,10 @@
         <v>20120736</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F135" s="15" t="s">
         <v>276</v>
@@ -11233,10 +11248,10 @@
         <v>277</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J135" s="15" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K135" s="15" t="n">
         <v>19</v>
@@ -11248,7 +11263,7 @@
         <v>41410.5524326389</v>
       </c>
       <c r="N135" s="15" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="O135" s="15" t="s">
         <v>28</v>
@@ -11267,7 +11282,7 @@
       </c>
       <c r="T135" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="136" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="136" s="36">
       <c r="A136" s="7" t="s">
         <v>20</v>
       </c>
@@ -11278,7 +11293,7 @@
         <v>20120737</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
@@ -11306,7 +11321,7 @@
         <v>41413.6731327546</v>
       </c>
       <c r="N136" s="11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O136" s="11" t="s">
         <v>28</v>
@@ -11324,10 +11339,10 @@
         <v>41416.4081171296</v>
       </c>
       <c r="T136" s="11" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="137" s="36">
+        <v>686</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="137" s="37">
       <c r="A137" s="12" t="s">
         <v>20</v>
       </c>
@@ -11338,7 +11353,7 @@
         <v>20120739</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15" t="s">
@@ -11351,22 +11366,22 @@
         <v>173</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J137" s="15" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K137" s="15" t="n">
         <v>4</v>
       </c>
       <c r="L137" s="15" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M137" s="14" t="n">
         <v>41415.646772338</v>
       </c>
       <c r="N137" s="15" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O137" s="15" t="s">
         <v>28</v>
@@ -11385,7 +11400,7 @@
       </c>
       <c r="T137" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="138" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="138" s="37">
       <c r="A138" s="12" t="s">
         <v>20</v>
       </c>
@@ -11396,10 +11411,10 @@
         <v>20130008</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F138" s="15" t="s">
         <v>164</v>
@@ -11411,10 +11426,10 @@
         <v>25</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J138" s="15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="K138" s="15" t="n">
         <v>7</v>
@@ -11445,7 +11460,7 @@
       </c>
       <c r="T138" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="139" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="139" s="37">
       <c r="A139" s="12" t="s">
         <v>20</v>
       </c>
@@ -11456,7 +11471,7 @@
         <v>20120738</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15" t="s">
@@ -11484,7 +11499,7 @@
         <v>41416.4096365741</v>
       </c>
       <c r="N139" s="15" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O139" s="15" t="s">
         <v>28</v>
@@ -11503,7 +11518,7 @@
       </c>
       <c r="T139" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="140" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="140" s="36">
       <c r="A140" s="7" t="s">
         <v>20</v>
       </c>
@@ -11514,13 +11529,13 @@
         <v>20130010</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>69</v>
@@ -11544,7 +11559,7 @@
         <v>41418.6117706019</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="O140" s="11" t="s">
         <v>30</v>
@@ -11562,10 +11577,10 @@
         <v>41438.4522059028</v>
       </c>
       <c r="T140" s="11" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="141" s="36">
+        <v>700</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="141" s="37">
       <c r="A141" s="12" t="s">
         <v>20</v>
       </c>
@@ -11576,13 +11591,13 @@
         <v>20130009</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G141" s="15" t="s">
         <v>30</v>
@@ -11591,13 +11606,13 @@
         <v>173</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J141" s="15" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="L141" s="15" t="s">
         <v>177</v>
@@ -11606,7 +11621,7 @@
         <v>41422.4202319444</v>
       </c>
       <c r="N141" s="15" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O141" s="15" t="s">
         <v>30</v>
@@ -11625,7 +11640,7 @@
       </c>
       <c r="T141" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="142" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="142" s="37">
       <c r="A142" s="12" t="s">
         <v>20</v>
       </c>
@@ -11636,37 +11651,37 @@
         <v>20120740</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G142" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K142" s="15" t="n">
         <v>6</v>
       </c>
       <c r="L142" s="15" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M142" s="14" t="n">
         <v>41422.589325463</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="O142" s="15" t="s">
         <v>28</v>
@@ -11685,7 +11700,7 @@
       </c>
       <c r="T142" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="143" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="143" s="37">
       <c r="A143" s="12" t="s">
         <v>20</v>
       </c>
@@ -11696,19 +11711,19 @@
         <v>20120746</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I143" s="15" t="s">
         <v>30</v>
@@ -11720,13 +11735,13 @@
         <v>30</v>
       </c>
       <c r="L143" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M143" s="14" t="n">
         <v>41423.4291381944</v>
       </c>
       <c r="N143" s="15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="O143" s="15" t="s">
         <v>28</v>
@@ -11745,7 +11760,7 @@
       </c>
       <c r="T143" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="144" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="144" s="37">
       <c r="A144" s="12" t="s">
         <v>20</v>
       </c>
@@ -11756,10 +11771,10 @@
         <v>20120745</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F144" s="15" t="s">
         <v>104</v>
@@ -11780,13 +11795,13 @@
         <v>30</v>
       </c>
       <c r="L144" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M144" s="14" t="n">
         <v>41423.7250649306</v>
       </c>
       <c r="N144" s="15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="O144" s="15" t="s">
         <v>28</v>
@@ -11805,7 +11820,7 @@
       </c>
       <c r="T144" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="145" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="145" s="37">
       <c r="A145" s="12" t="s">
         <v>20</v>
       </c>
@@ -11816,7 +11831,7 @@
         <v>20120741</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15" t="s">
@@ -11844,7 +11859,7 @@
         <v>41423.7734303241</v>
       </c>
       <c r="N145" s="15" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O145" s="15" t="s">
         <v>28</v>
@@ -11863,7 +11878,7 @@
       </c>
       <c r="T145" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="146" s="35">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="146" s="36">
       <c r="A146" s="7" t="s">
         <v>20</v>
       </c>
@@ -11874,7 +11889,7 @@
         <v>20120742</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="11" t="s">
@@ -11902,7 +11917,7 @@
         <v>41423.7893275463</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="O146" s="11" t="s">
         <v>28</v>
@@ -11920,10 +11935,10 @@
         <v>41423.794697338</v>
       </c>
       <c r="T146" s="11" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="147" s="36">
+        <v>722</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="147" s="37">
       <c r="A147" s="12" t="s">
         <v>20</v>
       </c>
@@ -11934,7 +11949,7 @@
         <v>20120743</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15" t="s">
@@ -11962,7 +11977,7 @@
         <v>41423.8413989583</v>
       </c>
       <c r="N147" s="15" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O147" s="15" t="s">
         <v>28</v>
@@ -11981,7 +11996,7 @@
       </c>
       <c r="T147" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="148" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="148" s="37">
       <c r="A148" s="12" t="s">
         <v>20</v>
       </c>
@@ -11992,13 +12007,13 @@
         <v>20130005</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G148" s="15" t="s">
         <v>30</v>
@@ -12022,7 +12037,7 @@
         <v>41424.6386755787</v>
       </c>
       <c r="N148" s="15" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="O148" s="15" t="s">
         <v>30</v>
@@ -12041,7 +12056,7 @@
       </c>
       <c r="T148" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="149" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="149" s="37">
       <c r="A149" s="12" t="s">
         <v>20</v>
       </c>
@@ -12052,19 +12067,19 @@
         <v>20130020</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G149" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I149" s="15" t="s">
         <v>30</v>
@@ -12076,13 +12091,13 @@
         <v>30</v>
       </c>
       <c r="L149" s="15" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M149" s="14" t="n">
         <v>41425.361115625</v>
       </c>
       <c r="N149" s="15" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O149" s="15" t="s">
         <v>30</v>
@@ -12101,7 +12116,7 @@
       </c>
       <c r="T149" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="150" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="150" s="37">
       <c r="A150" s="12" t="s">
         <v>20</v>
       </c>
@@ -12112,7 +12127,7 @@
         <v>20120749</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E150" s="15" t="s">
         <v>81</v>
@@ -12124,13 +12139,13 @@
         <v>99</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J150" s="15" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K150" s="15" t="n">
         <v>23</v>
@@ -12142,7 +12157,7 @@
         <v>41425.5221732639</v>
       </c>
       <c r="N150" s="15" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="O150" s="15" t="s">
         <v>28</v>
@@ -12161,7 +12176,7 @@
       </c>
       <c r="T150" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="151" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="151" s="37">
       <c r="A151" s="12" t="s">
         <v>20</v>
       </c>
@@ -12172,7 +12187,7 @@
         <v>20120750</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="15" t="s">
@@ -12182,16 +12197,16 @@
         <v>69</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="I151" s="15" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="J151" s="15" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K151" s="15" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L151" s="15" t="s">
         <v>69</v>
@@ -12200,7 +12215,7 @@
         <v>41425.5727134259</v>
       </c>
       <c r="N151" s="15" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="O151" s="15" t="s">
         <v>28</v>
@@ -12219,7 +12234,7 @@
       </c>
       <c r="T151" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="152" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="152" s="37">
       <c r="A152" s="12" t="s">
         <v>20</v>
       </c>
@@ -12230,10 +12245,10 @@
         <v>20130001</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F152" s="15" t="s">
         <v>30</v>
@@ -12242,25 +12257,25 @@
         <v>30</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="I152" s="15" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="J152" s="15" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K152" s="15" t="n">
         <v>18</v>
       </c>
       <c r="L152" s="15" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M152" s="14" t="n">
         <v>41428.4703113426</v>
       </c>
       <c r="N152" s="15" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="O152" s="15" t="s">
         <v>30</v>
@@ -12279,7 +12294,7 @@
       </c>
       <c r="T152" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="153" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="153" s="37">
       <c r="A153" s="12" t="s">
         <v>20</v>
       </c>
@@ -12290,13 +12305,13 @@
         <v>20130027</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G153" s="15" t="s">
         <v>30</v>
@@ -12305,22 +12320,22 @@
         <v>63</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J153" s="15" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K153" s="15" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L153" s="15" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M153" s="14" t="n">
         <v>41428.5987583333</v>
       </c>
       <c r="N153" s="15" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O153" s="15" t="s">
         <v>30</v>
@@ -12339,7 +12354,7 @@
       </c>
       <c r="T153" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="154" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="154" s="37">
       <c r="A154" s="12" t="s">
         <v>20</v>
       </c>
@@ -12350,10 +12365,10 @@
         <v>20130002</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F154" s="15" t="s">
         <v>151</v>
@@ -12365,10 +12380,10 @@
         <v>134</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J154" s="15" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K154" s="15" t="n">
         <v>34</v>
@@ -12380,7 +12395,7 @@
         <v>41429.4211211806</v>
       </c>
       <c r="N154" s="15" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O154" s="15" t="s">
         <v>30</v>
@@ -12399,7 +12414,7 @@
       </c>
       <c r="T154" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="155" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="155" s="37">
       <c r="A155" s="12" t="s">
         <v>20</v>
       </c>
@@ -12410,25 +12425,25 @@
         <v>20130006</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G155" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J155" s="15" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K155" s="15" t="n">
         <v>20</v>
@@ -12440,7 +12455,7 @@
         <v>41429.5295556713</v>
       </c>
       <c r="N155" s="15" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="O155" s="15" t="s">
         <v>30</v>
@@ -12459,7 +12474,7 @@
       </c>
       <c r="T155" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="156" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="156" s="37">
       <c r="A156" s="12" t="s">
         <v>20</v>
       </c>
@@ -12470,10 +12485,10 @@
         <v>20130003</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F156" s="15" t="s">
         <v>30</v>
@@ -12485,13 +12500,13 @@
         <v>215</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="J156" s="15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="K156" s="15" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="L156" s="15" t="s">
         <v>219</v>
@@ -12500,7 +12515,7 @@
         <v>41429.5460413195</v>
       </c>
       <c r="N156" s="15" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="O156" s="15" t="s">
         <v>30</v>
@@ -12519,7 +12534,7 @@
       </c>
       <c r="T156" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="157" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="157" s="37">
       <c r="A157" s="12" t="s">
         <v>20</v>
       </c>
@@ -12530,10 +12545,10 @@
         <v>20130007</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F157" s="15" t="s">
         <v>30</v>
@@ -12542,25 +12557,25 @@
         <v>30</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I157" s="15" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J157" s="15" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K157" s="15" t="n">
         <v>27</v>
       </c>
       <c r="L157" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M157" s="14" t="n">
         <v>41431.5794002315</v>
       </c>
       <c r="N157" s="15" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="O157" s="15" t="s">
         <v>30</v>
@@ -12579,7 +12594,7 @@
       </c>
       <c r="T157" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="158" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="158" s="37">
       <c r="A158" s="12" t="s">
         <v>20</v>
       </c>
@@ -12590,10 +12605,10 @@
         <v>20130026</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F158" s="15" t="s">
         <v>53</v>
@@ -12605,10 +12620,10 @@
         <v>55</v>
       </c>
       <c r="I158" s="15" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J158" s="15" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K158" s="15" t="n">
         <v>2</v>
@@ -12620,7 +12635,7 @@
         <v>41437.4946138889</v>
       </c>
       <c r="N158" s="15" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O158" s="15" t="s">
         <v>30</v>
@@ -12639,7 +12654,7 @@
       </c>
       <c r="T158" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="159" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="159" s="37">
       <c r="A159" s="12" t="s">
         <v>20</v>
       </c>
@@ -12650,13 +12665,13 @@
         <v>20130011</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G159" s="15" t="s">
         <v>35</v>
@@ -12665,10 +12680,10 @@
         <v>36</v>
       </c>
       <c r="I159" s="15" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="J159" s="15" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="K159" s="15" t="n">
         <v>14</v>
@@ -12680,7 +12695,7 @@
         <v>41439.4236438657</v>
       </c>
       <c r="N159" s="15" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O159" s="15" t="s">
         <v>30</v>
@@ -12699,7 +12714,7 @@
       </c>
       <c r="T159" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="160" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="160" s="37">
       <c r="A160" s="12" t="s">
         <v>20</v>
       </c>
@@ -12710,35 +12725,35 @@
         <v>20130013</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E160" s="15"/>
       <c r="F160" s="15" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G160" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J160" s="15" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K160" s="15" t="n">
         <v>30</v>
       </c>
       <c r="L160" s="15" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M160" s="14" t="n">
         <v>41442.581944213</v>
       </c>
       <c r="N160" s="15" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="O160" s="15" t="s">
         <v>30</v>
@@ -12757,362 +12772,364 @@
       </c>
       <c r="T160" s="15"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="161" s="42">
-      <c r="A161" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" s="0" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="161" s="37">
+      <c r="A161" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="15" t="n">
         <v>16077</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="15" t="n">
         <v>20130014</v>
       </c>
-      <c r="D161" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="E161" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="F161" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G161" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H161" s="0" t="s">
+      <c r="D161" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="I161" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="J161" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="K161" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L161" s="0" t="s">
+      <c r="I161" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="J161" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="K161" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L161" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="M161" s="18" t="n">
+      <c r="M161" s="14" t="n">
         <v>41442.6344804398</v>
       </c>
-      <c r="N161" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="O161" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P161" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q161" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R161" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S161" s="18" t="n">
+      <c r="N161" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="O161" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P161" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q161" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R161" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" s="14" t="n">
         <v>41445.3949269676</v>
       </c>
-      <c r="T161" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="162" s="42">
-      <c r="A162" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="0" t="n">
+      <c r="T161" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="162" s="37">
+      <c r="A162" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="15" t="n">
         <v>16078</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" s="15" t="n">
         <v>20130016</v>
       </c>
-      <c r="D162" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G162" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H162" s="0" t="s">
+      <c r="D162" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G162" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="I162" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="J162" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="K162" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L162" s="0" t="s">
+      <c r="I162" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="J162" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="K162" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="L162" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="M162" s="18" t="n">
+      <c r="M162" s="14" t="n">
         <v>41443.4305086806</v>
       </c>
-      <c r="N162" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="O162" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P162" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q162" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R162" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S162" s="18" t="n">
+      <c r="N162" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="O162" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P162" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q162" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R162" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" s="14" t="n">
         <v>41445.4506865741</v>
       </c>
-      <c r="T162" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="163" s="42">
-      <c r="A163" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="0" t="n">
+      <c r="T162" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="163" s="37">
+      <c r="A163" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="15" t="n">
         <v>16079</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" s="15" t="n">
         <v>20130017</v>
       </c>
-      <c r="D163" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="F163" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G163" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H163" s="0" t="s">
+      <c r="D163" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="F163" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="I163" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="J163" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="K163" s="0" t="s">
+      <c r="I163" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="L163" s="0" t="s">
+      <c r="J163" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="K163" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="L163" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="M163" s="18" t="n">
+      <c r="M163" s="14" t="n">
         <v>41444.4777402778</v>
       </c>
-      <c r="N163" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="O163" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P163" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q163" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R163" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S163" s="18" t="n">
+      <c r="N163" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="O163" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P163" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q163" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R163" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" s="14" t="n">
         <v>41445.4766430556</v>
       </c>
-      <c r="T163" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="164" s="42">
-      <c r="A164" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" s="0" t="n">
+      <c r="T163" s="15" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="164" s="37">
+      <c r="A164" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="15" t="n">
         <v>16080</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" s="15" t="n">
         <v>20130015</v>
       </c>
-      <c r="D164" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="E164" s="0"/>
-      <c r="F164" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G164" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H164" s="0" t="s">
+      <c r="D164" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I164" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J164" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K164" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L164" s="0" t="s">
+      <c r="I164" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J164" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K164" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L164" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="M164" s="18" t="n">
+      <c r="M164" s="14" t="n">
         <v>41444.665028588</v>
       </c>
-      <c r="N164" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="O164" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P164" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q164" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R164" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S164" s="18" t="n">
+      <c r="N164" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="O164" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P164" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q164" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R164" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" s="14" t="n">
         <v>41445.4034752315</v>
       </c>
-      <c r="T164" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="165" s="42">
-      <c r="A165" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B165" s="0" t="n">
+      <c r="T164" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="165" s="37">
+      <c r="A165" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="15" t="n">
         <v>16081</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" s="15" t="n">
         <v>20130031</v>
       </c>
-      <c r="D165" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="F165" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G165" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H165" s="0" t="s">
+      <c r="D165" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G165" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I165" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="J165" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="K165" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="L165" s="0" t="s">
+      <c r="I165" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="J165" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="K165" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="L165" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M165" s="18" t="n">
+      <c r="M165" s="14" t="n">
         <v>41445.4579988426</v>
       </c>
-      <c r="N165" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="O165" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P165" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q165" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R165" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S165" s="18" t="n">
+      <c r="N165" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="O165" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P165" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q165" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R165" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S165" s="14" t="n">
         <v>41454.8893688657</v>
       </c>
-      <c r="T165" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="166" s="42">
-      <c r="A166" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B166" s="0" t="n">
+      <c r="T165" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="166" s="37">
+      <c r="A166" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" s="15" t="n">
         <v>16083</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" s="15" t="n">
         <v>20130028</v>
       </c>
-      <c r="D166" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="E166" s="0"/>
-      <c r="F166" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G166" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H166" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="I166" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="J166" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="K166" s="0" t="n">
+      <c r="D166" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="I166" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="J166" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="K166" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="L166" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="M166" s="18" t="n">
+      <c r="L166" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="M166" s="14" t="n">
         <v>41446.4608849537</v>
       </c>
-      <c r="N166" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="O166" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P166" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q166" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R166" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S166" s="18" t="n">
+      <c r="N166" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="O166" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P166" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q166" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R166" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" s="14" t="n">
         <v>41452.3569885417</v>
       </c>
-      <c r="T166" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="167" s="42">
-      <c r="A167" s="17" t="s">
+      <c r="T166" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="167" s="37">
+      <c r="A167" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B167" s="43" t="n">
@@ -13122,27 +13139,27 @@
         <v>20130021</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>810</v>
-      </c>
-      <c r="F167" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="F167" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G167" s="43" t="s">
         <v>30</v>
       </c>
       <c r="H167" s="43" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="I167" s="43" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="J167" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K167" s="0" t="n">
+      <c r="K167" s="15" t="n">
         <v>6</v>
       </c>
       <c r="L167" s="43" t="s">
@@ -13152,7 +13169,7 @@
         <v>41449.3498559028</v>
       </c>
       <c r="N167" s="43" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="O167" s="43" t="s">
         <v>30</v>
@@ -13169,10 +13186,10 @@
       <c r="S167" s="44" t="n">
         <v>41449.3675326389</v>
       </c>
-      <c r="T167" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="168" s="42">
-      <c r="A168" s="17" t="s">
+      <c r="T167" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="168" s="37">
+      <c r="A168" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B168" s="43" t="n">
@@ -13182,12 +13199,12 @@
         <v>20130022</v>
       </c>
       <c r="D168" s="43" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>787</v>
-      </c>
-      <c r="F168" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="F168" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G168" s="43" t="s">
@@ -13200,9 +13217,9 @@
         <v>29</v>
       </c>
       <c r="J168" s="43" t="s">
-        <v>757</v>
-      </c>
-      <c r="K168" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="K168" s="15" t="n">
         <v>12</v>
       </c>
       <c r="L168" s="43" t="s">
@@ -13212,7 +13229,7 @@
         <v>41449.494916088</v>
       </c>
       <c r="N168" s="43" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="O168" s="43" t="s">
         <v>30</v>
@@ -13229,10 +13246,10 @@
       <c r="S168" s="44" t="n">
         <v>41449.5007751157</v>
       </c>
-      <c r="T168" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="169" s="42">
-      <c r="A169" s="17" t="s">
+      <c r="T168" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="169" s="37">
+      <c r="A169" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B169" s="43" t="n">
@@ -13242,37 +13259,37 @@
         <v>20130023</v>
       </c>
       <c r="D169" s="43" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="G169" s="43" t="s">
         <v>30</v>
       </c>
       <c r="H169" s="43" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="I169" s="43" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J169" s="43" t="s">
-        <v>784</v>
-      </c>
-      <c r="K169" s="0" t="n">
+        <v>786</v>
+      </c>
+      <c r="K169" s="15" t="n">
         <v>26</v>
       </c>
       <c r="L169" s="43" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="M169" s="44" t="n">
         <v>41449.6461498843</v>
       </c>
       <c r="N169" s="43" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="O169" s="43" t="s">
         <v>30</v>
@@ -13289,10 +13306,10 @@
       <c r="S169" s="44" t="n">
         <v>41449.68508125</v>
       </c>
-      <c r="T169" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="170" s="42">
-      <c r="A170" s="17" t="s">
+      <c r="T169" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="170" s="37">
+      <c r="A170" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B170" s="43" t="n">
@@ -13302,37 +13319,37 @@
         <v>20130024</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="G170" s="43" t="s">
         <v>30</v>
       </c>
       <c r="H170" s="43" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I170" s="43" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>824</v>
-      </c>
-      <c r="K170" s="0" t="n">
+        <v>827</v>
+      </c>
+      <c r="K170" s="15" t="n">
         <v>25</v>
       </c>
       <c r="L170" s="43" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M170" s="44" t="n">
         <v>41450.698428588</v>
       </c>
       <c r="N170" s="43" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="O170" s="43" t="s">
         <v>30</v>
@@ -13351,8 +13368,8 @@
       </c>
       <c r="T170" s="43"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="171" s="42">
-      <c r="A171" s="17" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="171" s="37">
+      <c r="A171" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B171" s="43" t="n">
@@ -13362,7 +13379,7 @@
         <v>20130025</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E171" s="43"/>
       <c r="F171" s="43" t="s">
@@ -13375,13 +13392,13 @@
         <v>325</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J171" s="43" t="n">
         <v>40</v>
       </c>
       <c r="K171" s="43" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="L171" s="43" t="s">
         <v>326</v>
@@ -13390,7 +13407,7 @@
         <v>41451.466756713</v>
       </c>
       <c r="N171" s="43" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="O171" s="43" t="s">
         <v>30</v>
@@ -13407,10 +13424,10 @@
       <c r="S171" s="44" t="n">
         <v>41451.4801988426</v>
       </c>
-      <c r="T171" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="172" s="42">
-      <c r="A172" s="17" t="s">
+      <c r="T171" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="172" s="37">
+      <c r="A172" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B172" s="43" t="n">
@@ -13419,55 +13436,55 @@
       <c r="C172" s="43" t="n">
         <v>20130029</v>
       </c>
-      <c r="D172" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="F172" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G172" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H172" s="0" t="s">
+      <c r="D172" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="F172" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I172" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="J172" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="K172" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="L172" s="0" t="s">
+      <c r="I172" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="J172" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="K172" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="L172" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="M172" s="18" t="n">
+      <c r="M172" s="14" t="n">
         <v>41452.4603681713</v>
       </c>
-      <c r="N172" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="O172" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P172" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q172" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R172" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S172" s="18" t="n">
+      <c r="N172" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="O172" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P172" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q172" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R172" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S172" s="14" t="n">
         <v>41452.5328050926</v>
       </c>
-      <c r="T172" s="0"/>
+      <c r="T172" s="15"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="173" s="47">
       <c r="A173" s="45"/>
